--- a/output/Total_time_range_data/安徽省/马鞍山市_学习考察.xlsx
+++ b/output/Total_time_range_data/安徽省/马鞍山市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6238 +436,6825 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>97</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>马鞍山市国动办赴江浙沪学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/21006891.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['为贯彻落实长三角一体化发展战略，促进马鞍山市与江浙沪地区城市国防动员工作协同发展，3月21日至23日，马鞍山市国动办党组成员、副主任王建中、蔡永贵率队赴浙江嘉兴市、上海嘉定区、江苏镇江市国动部门学习考察。', '考察组通过现场观摩学习、集中座谈交流等方式，深入了解和掌握江浙沪地区城市在国防动员体制改革、人防行政审批、人防工程质量监督、通信保障与训练演练、重要经济目标综合防护、行政执法与法规宣传等方面的先进经验、亮点特色，并就人防工程产权制度改革、人防工程维护管理等重难点工作作进一步沟通交流。 此次考察学习，对于我市立足国防动员体制改革落地新阶段，把握新要求，履行新职能，扛起新责任，推动国防动员高质量发展具有积极意义。（拟稿：林冬）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>97</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>习近平在北京育英学校考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21055501.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['习近平在北京育英学校考察时强调 争当德智体美劳全面发展的新时代好儿童 向全国广大少年儿童祝贺“六一”国际儿童节快乐 蔡奇丁薛祥陪同考察', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在科学教室同小学生们亲切交流。新华社记者 王晔 摄', '新华社北京5月31日电 在“六一”国际儿童节到来之际，中共中央总书记、国家主席、中央军委主席习近平5月31日上午来到北京育英学校，看望慰问师生，向全国广大少年儿童祝贺节日。习近平强调，少年儿童是祖国的未来，是中华民族的希望。新时代中国儿童应该是有志向、有梦想，爱学习、爱劳动，懂感恩、懂友善，敢创新、敢奋斗，德智体美劳全面发展的好儿童。希望同学们立志为强国建设、民族复兴而读书，不负家长期望，不负党和人民期待。', '中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察。', '北京育英学校1948年创办于河北西柏坡，前身为“中共中央直属机关供给部育英小学校”。75年来，学校在老一辈革命家关心关怀下，全面贯彻党的教育方针，落实立德树人根本任务，推行学制创新，开展特色办学，引领学生德智体美劳全面发展。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在校史馆考察。新华社记者 鞠鹏 摄', '习近平来到学校，首先走进校史馆，了解学校历史沿革、建设发展和近年来推动教育教学改革创新、落实“双减”政策要求、促进学生德智体美劳全面发展等情况。习近平指出，教育的根本任务是立德树人，培养德智体美劳全面发展的社会主义建设者和接班人。学生的理想信念、道德品质、知识智力、身体和心理素质等各方面的培养缺一不可。“双减”政策落地有一个过程，要久久为功。要引导家长、学校、社会等各方面提高认识，推动落实好“双减”工作要求，促进学生全面发展。育英学校具有光荣的革命传统和鲜明的红色基因。要加强革命传统教育，让每一位育英学校的学生牢记学校的光荣历史，铭记党的关怀，赓续红色传统，传承红色基因，从小听党话、跟党走，立志为党成才、为国奉献。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在篮球场同正在上体育课的小学生们亲切交流。新华社记者 申宏 摄', '习近平步行察看校园环境。篮球场上学生们正在打篮球、跳绳，上体育课。习近平指出，提高人的健康素质，青少年是黄金期。这个阶段，长身体是第一位的，身体好了，才能为今后一生的学习工作打好基础。体育锻炼是增强少年儿童体质最有效的手段。现在生活条件好了，孩子们不是要吃得胖胖的，而是要长得壮壮的、练得棒棒的。体育锻炼要从小抓起，体育锻炼多一些，“小胖墩”、“小眼镜”就少一些。学校要把体育老师配齐配好，家庭、学校、社会等各方面都要为少年儿童增强体魄创造条件。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在篮球场向正在上体育课的小学生们挥手致意。新华社记者 鞠鹏 摄', '随后，习近平来到学生农场。这里是学生开展农业种植活动的实践场所，阳光下、田垄上，一排排绿油油的菜苗生机勃勃。孩子们拿着水桶、铲子、耙子、毛笔，为西红柿、黄瓜等浇水、松土、除草、授粉。习近平强调，很多知识和道理都来自劳动、来自生活。引导孩子们从小树立劳动观念，培养劳动习惯，提高劳动能力，有利于他们更好地学习知识。现在一些城里的孩子接触农村、接触大自然少，不光“四体不勤”，而且“五谷不分”，对吃的是什么、从哪里来的、怎么来的都不知道，更体会不到“谁知盘中餐，粒粒皆辛苦”。他对同学们说，认识大自然，首先要从认识身边的植物开始。同学们栽培的各种植物，虽然书本上都有介绍，但大家亲手种、亲自培育、跟踪观察，收获肯定是不一样的。希望同学们从“学农”中感受到农作的艰辛和农民的不易，从小养成热爱劳动、珍爱粮食、尊重自然的良好习惯，为建设美丽中国作贡献。新时代生态文明建设要从娃娃抓起，通过生动活泼的劳动体验课程，让孩子亲自动手、亲身体验、自我感悟，让“绿水青山就是金山银山”的理念早早植入孩子的心灵。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在学生农场同正在进行农业种植实践的小学生们亲切交流。新华社记者 鞠鹏 摄', '学校思聪楼二层科学教室不时传出欢声笑语，习近平走进教室，师生们告诉总书记，他们正在运用所学的直线运动、曲线运动、斜面运动等知识，用积木动手设计搭建过山车模型进行验证。习近平指出，科学实验课，是培养孩子们科学思维、探索未知兴趣和创新意识的有效方式。希望同学们从小树立“科技创新、强国有我”的志向，当下勇当小科学家，未来争当大科学家，为实现我国高水平科技自立自强作贡献。', '习近平随后来到五年级教师办公室，看望正在研讨备课的老师们，询问课后服务课程结构设置等情况。习近平指出，中国特色社会主义教育体系是好的，我国的基础教育在世界上是有优势的，要坚定文化自信，把自己好的东西坚持好，把国外好的东西借鉴好，与时俱进、开放发展，让孩子们有更广阔的眼界、更开阔的思路、更开放的观念，努力培养堪当民族复兴重任、勇于创造世界奇迹的国之栋梁。习近平强调，人才培养，关键在教师。广大教师要牢记为党育人、为国育才的初心使命，以人民教育家为榜样，以德立身、以德立学、以德施教。要在全社会营造尊师重教的良好风尚，让教师成为最受社会尊重和令人羡慕的职业，努力形成优秀人才争相从教、优秀教师不断涌现的良好局面。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在教师办公室同教师们亲切交流。新华社记者 申宏 摄', '在学校小广场上，师生们热情欢送总书记。习近平祝愿孩子们茁壮成长、健康成才，并向全国广大少年儿童祝贺“六一”国际儿童节快乐。他说，今天我专程来北京育英学校看望大家，和小朋友们共庆“六一”儿童节。看到同学们天真活泼、朝气蓬勃，脸上洋溢着幸福的笑容，感到非常高兴。党中央始终关心关怀少年儿童的健康成长，采取了一系列政策举措，努力为孩子们健康成长创造更好环境。我相信，有中国共产党的领导和社会主义制度的显著优势，生活在中华民族大家庭里的各族儿童一定会越来越幸福，一定会拥有更加美好的未来。各级党委和政府、社会各方面要切实做好与儿童事业发展有关的各项工作，关心帮助困难家庭的孩子特别是孤儿和残疾儿童，让所有孩子都能感受到党和政府的温暖，都能有一个幸福美好的童年。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在学校小广场同师生们亲切交流。新华社记者 鞠鹏 摄', '习近平对同学们说，今天的少年儿童是强国建设、民族复兴伟业的接班人和未来主力军。为在本世纪中叶把我国全面建成社会主义现代化强国，现在是我们这一代人在努力奋斗，未来要靠你们去接续奋斗。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>97</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>市党政代表团赴德清溧阳学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2021-07-09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.mas.gov.cn/zxzx/zwyw/20505781.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['7月7日至8日，市委书记张岳峰、市长袁方率市党政代表团赴湖州市德清县、常州市溧阳市，学习考察两地在保护修复生态环境、发展绿色经济等方面的好经验、好做法。市领导钱沙泉、杨善斌、夏劲松、方文、程彰德、阚青鹤，宝武马钢集团总经理刘国旺，宝钢资源公司董事长陆克从、高级副总裁王铁成，市政府秘书长易茂林，各县区、园区和市直相关部门负责同志参加考察。', '7日，市党政代表团前往湖州市德清县考察。湖州市领导马晓晖、王纲、夏坚定，德清县领导敖煜新、王波等分别陪同。', '▲洛舍镇东衡村 洛舍镇东衡村2009年下决心关停了全部矿产企业，开展废弃矿山综合整治，利用废弃矿地建设农民新村、垦造农田、发展产业，实现了生态美、百姓富、产业强。代表团一行认真听取东衡村闭矿转型和德清县废弃矿地综合开发利用等情况介绍，表示要学习借鉴、复制推广这些先进经验。', '洛舍镇东衡村2009年下决心关停了全部矿产企业，开展废弃矿山综合整治，利用废弃矿地建设农民新村、垦造农田、发展产业，实现了生态美、百姓富、产业强。代表团一行认真听取东衡村闭矿转型和德清县废弃矿地综合开发利用等情况介绍，表示要学习借鉴、复制推广这些先进经验。', '▲代表团考察德清地理信息产业 在联合国全球地理信息管理德清论坛会址，代表团一行详细了解地理信息产业发展情况，得知德清地理信息产业“无中生有”、不断壮大，已集聚相关企业400余家，大家纷纷表示赞赏。', '在联合国全球地理信息管理德清论坛会址，代表团一行详细了解地理信息产业发展情况，得知德清地理信息产业“无中生有”、不断壮大，已集聚相关企业400余家，大家纷纷表示赞赏。', '▲在莫干山镇五四村考察 在莫干山镇五四村，代表团一行先后来到游客服务中心、幸福邻里中心、党群服务中心考察，认真观看该村创新打造的“数字乡村一张图”系统演示，学习乡村治理的经验做法。', '在莫干山镇五四村，代表团一行先后来到游客服务中心、幸福邻里中心、党群服务中心考察，认真观看该村创新打造的“数字乡村一张图”系统演示，学习乡村治理的经验做法。', '▲在郡安里度假区考察 郡安里度假区项目是莫干山镇推进“坡地村镇”土地综合利用、发展旅游休闲产业的成功实践，代表团成员一边参观学习，一边就各自关心的具体问题与当地干部交流探讨。', '郡安里度假区项目是莫干山镇推进“坡地村镇”土地综合利用、发展旅游休闲产业的成功实践，代表团成员一边参观学习，一边就各自关心的具体问题与当地干部交流探讨。', '▲在浙江泰普森实业集团有限公司考察 浙江泰普森实业集团有限公司主要生产户外家具、渔具装备、帐篷等户外休闲用品，是德清县发展绿色经济的重点项目，代表团一行详细了解企业经营模式和发展状况，并参观了产品展厅。 8日，市党政代表团在常州市溧阳市考察。常州市领导陈金虎、方国强、梁一波、张耀钢，溧阳市领导徐华勤、叶明华等陪同考察。', '浙江泰普森实业集团有限公司主要生产户外家具、渔具装备、帐篷等户外休闲用品，是德清县发展绿色经济的重点项目，代表团一行详细了解企业经营模式和发展状况，并参观了产品展厅。', '8日，市党政代表团在常州市溧阳市考察。常州市领导陈金虎、方国强、梁一波、张耀钢，溧阳市领导徐华勤、叶明华等陪同考察。', '▲代表团一行参观生态创新展示馆 代表团一行首先乘船察看沙河水库水质及周边生态环境，了解水环境整治工作成效和水源地保护措施。随后，代表团一行参观了生态创新展示馆，详细了解溧阳在生态保护、美丽乡村建设、矿山修复、构建生态产品交易市场等方面的成功经验，对当地以生态创新打通“绿水青山就是金山银山”生态价值转化路径的创造性实践给予高度评价。', '代表团一行首先乘船察看沙河水库水质及周边生态环境，了解水环境整治工作成效和水源地保护措施。随后，代表团一行参观了生态创新展示馆，详细了解溧阳在生态保护、美丽乡村建设、矿山修复、构建生态产品交易市场等方面的成功经验，对当地以生态创新打通“绿水青山就是金山银山”生态价值转化路径的创造性实践给予高度评价。', '▲在燕山公园考察 燕山公园由4个废弃矿山宕口整治修复而来，平均每天游客达1万多人次，代表团一行认真听取矿山生态修复经验介绍，看到修复前后环境状况对比强烈，大家对修复效果赞叹不已。 上汽大通房车科技有限公司是溧阳发挥生态优势引进产业项目的成功案例，代表团成员详细了解房车产品研发、市场销售等情况，对企业提供房车租赁、营地建设等全方位服务的运营模式给予好评。', '燕山公园由4个废弃矿山宕口整治修复而来，平均每天游客达1万多人次，代表团一行认真听取矿山生态修复经验介绍，看到修复前后环境状况对比强烈，大家对修复效果赞叹不已。', '上汽大通房车科技有限公司是溧阳发挥生态优势引进产业项目的成功案例，代表团成员详细了解房车产品研发、市场销售等情况，对企业提供房车租赁、营地建设等全方位服务的运营模式给予好评。', '▲在牛马塘特色田园乡村考察 沿着串珠成链的“溧阳1号公路”，代表团一行先后考察了牛马塘特色田园乡村、神女之心观景平台，学习溧阳整治人居环境、发展乡村旅游、促进乡村振兴的经验做法。一路走来，溧阳“风景无处不在、体验无时不在、产业无所不在”的全域旅游格局，给代表团成员留下了深刻印象。 张岳峰在考察中强调，德清县、溧阳市在生态环境保护修复、生态创新、绿色经济发展等方面进行了大胆探索，取得了显著成效，是我们对标学习的好榜样。我们要深入践行习近平总书记赋予的打造安徽的“杭嘉湖”、长三角的“白菜心”新发展定位，认真学习借鉴两地的好经验、好做法，进一步树牢“生态优先、绿色发展”理念，以更大力度保护和修复生态环境，做好减碳文章，发展绿色经济，加快推动产业升级、城市转型，全力创建经济社会发展绿色转型示范区，奋力谱写新阶段现代化“生态福地、智造名城”建设新篇章。 文/记者 柴胜松 图/记者 储灿林', '沿着串珠成链的“溧阳1号公路”，代表团一行先后考察了牛马塘特色田园乡村、神女之心观景平台，学习溧阳整治人居环境、发展乡村旅游、促进乡村振兴的经验做法。一路走来，溧阳“风景无处不在、体验无时不在、产业无所不在”的全域旅游格局，给代表团成员留下了深刻印象。', '张岳峰在考察中强调，德清县、溧阳市在生态环境保护修复、生态创新、绿色经济发展等方面进行了大胆探索，取得了显著成效，是我们对标学习的好榜样。我们要深入践行习近平总书记赋予的打造安徽的“杭嘉湖”、长三角的“白菜心”新发展定位，认真学习借鉴两地的好经验、好做法，进一步树牢“生态优先、绿色发展”理念，以更大力度保护和修复生态环境，做好减碳文章，发展绿色经济，加快推动产业升级、城市转型，全力创建经济社会发展绿色转型示范区，奋力谱写新阶段现代化“生态福地、智造名城”建设新篇章。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>97</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>习近平在中国人民大学考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-04-26</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20745861.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['新华社北京4月25日电 在五四青年节即将到来之际，中共中央总书记、国家主席、中央军委主席习近平25日上午来到中国人民大学考察调研。习近平代表党中央，向全国各族青年致以节日的祝贺，向中国人民大学全体师生员工、向全国广大教育工作者和青年工作者致以诚挚的问候。习近平希望全国广大青年牢记党的教诲，立志民族复兴，不负韶华，不负时代，不负人民，在青春的赛道上奋力奔跑，争取跑出当代青年的最好成绩！', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在立德楼观摩思政课智慧教室现场教学并参与讨论。新华社记者 鞠鹏 摄', '习近平强调，“为谁培养人、培养什么人、怎样培养人”始终是教育的根本问题。要坚持党的领导，坚持马克思主义指导地位，坚持为党和人民事业服务，落实立德树人根本任务，传承红色基因，扎根中国大地办大学，走出一条建设中国特色、世界一流大学的新路。广大青年要做社会主义核心价值观的坚定信仰者、积极传播者、模范践行者，向英雄学习、向前辈学习、向榜样学习，争做堪当民族复兴重任的时代新人，在实现中华民族伟大复兴的时代洪流中踔厉奋发、勇毅前进。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平同师生代表座谈并发表重要讲话。新华社记者 谢环驰 摄', '中国人民大学是中国共产党创办的第一所新型正规大学，前身是1937年诞生于抗日战争烽火中的陕北公学，以及后来的华北联合大学和北方大学、华北大学，在长期的办学实践中，注重人文社会科学高等教育和马克思主义教学与研究，被誉为“我国人文社会科学高等教育领域的一面旗帜”。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平向师生们挥手致意。新华社记者 谢环驰 摄', '上午9时20分许，习近平在中国人民大学党委书记张东刚、校长刘伟陪同下，首先来到立德楼，观摩思政课智慧教室现场教学。习近平同青年学生一起就座，认真倾听并参与讨论，对学校立足自身优势，不断推进思政课教学改革创新，打造高精尖水平思政课的做法表示肯定。他强调，思想政治理论课能否在立德树人中发挥应有作用，关键看重视不重视、适应不适应、做得好不好。思政课的本质是讲道理，要注重方式方法，把道理讲深、讲透、讲活，老师要用心教，学生要用心悟，达到沟通心灵、启智润心、激扬斗志。青少年思想政治教育是一个接续的过程，要针对青少年成长的不同阶段，有针对性地开展思想政治教育。希望人民大学绵绵用力，久久为功，止于至善，为全国大中小学思政课教学提供更多“金课”。也鼓励各地高校积极开展与中小学思政课共建，共同推动大中小学思政课一体化建设。习近平勉励同学们坚定中国特色社会主义道路自信、理论自信、制度自信、文化自信，在全面建设社会主义现代化国家新征程中勇当开路先锋、争当事业闯将。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在立德楼观摩思政课智慧教室现场教学并参与讨论。新华社记者 燕雁 摄', '中国人民大学校史展设立于学校博物馆内。习近平来到这里，详细了解学校历史沿革、建设发展和近年来教学科研成果等情况。习近平强调，中国人民大学在抗日烽火中诞生，在党的关怀下发展壮大，具有光荣的革命传统和鲜明的红色基因。一定要把这一光荣传统和红色基因传承好，守好党的这块重要阵地。要加强校史资料的挖掘、整理和研究，讲好中国共产党的故事，讲好党创办人民大学的故事，激励广大师生继承优良传统，赓续红色血脉。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在博物馆了解学校近年来教学科研成果等情况。新华社记者 谢环驰 摄', '在博物馆门前广场上，习近平看望了老教授、老专家和中青年骨干教师代表，并同他们亲切交谈。看到老教授、老专家身体健康、精神矍铄，习近平非常高兴。他指出，中国人民大学历来是人才荟萃、名家云集的地方。老教授、老专家们为党的教育事业付出了巨大心血，作出了重要贡献。希望中青年教师向老教授老专家学习，立志成为大先生，在教书育人和科研创新上不断创造新业绩。习近平强调，建设世界一流的中国特色社会主义大学，培养社会主义建设者和接班人，必须有世界一流的大师。要高度重视教师队伍建设，特别是要加强中青年教师骨干的培养，把人民大学打造成为我国人文社会科学研究和教学领域的重要人才中心和创新高地。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在博物馆门前广场上，同老教授、老专家和中青年骨干教师代表亲切交谈。新华社记者 谢环驰 摄', '中国人民大学图书馆以人文社会科学学术性文献馆藏为主，有藏书410余万册。习近平来到这里，考察馆藏红色文献、古籍集中展示，察看现代化检索平台和复印报刊资料等数字化学术资源，听取学校加强文献古籍保护利用，促进理论研究成果转化应用等情况介绍。习近平强调，人民大学馆藏红色文献，鉴证了我们党创办正规高等教育的艰辛历程，是十分宝贵的红色记忆，要精心保护好，逐步推进数字化，让更多的人受到教育、得到启迪。要运用现代科技手段加强古籍典藏的保护修复和综合利用，深入挖掘古籍蕴含的哲学思想、人文精神、价值理念、道德规范，推动中华优秀传统文化创造性转化、创新性发展。要加强学术资源库建设，更好发挥学术文献信息传播、搜集、整合、编辑、拓展、共享功能，打造中国特色、世界一流的学术资源信息平台，提升国家文化软实力。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在图书馆考察。新华社记者 燕雁 摄', '随后，习近平来到世纪馆北大厅同中国人民大学师生代表座谈。中国人民大学党委书记张东刚、“人民教育家”国家荣誉称号获得者高铭暄、经济学院教授赵峰、新闻学院博士生周晓辉、哲学院本科生王海蓉先后发言，现场气氛轻松热烈。', '在认真听取大家发言后，习近平发表重要讲话。他强调，我国有独特的历史、独特的文化、独特的国情，建设中国特色、世界一流大学不能跟在别人后面依样画葫芦，简单以国外大学作为标准和模式，而是要扎根中国大地，走出一条建设中国特色、世界一流大学的新路。中国人民大学从陕北公学成立之初就鲜明提出要培养“革命的先锋队”，到新中国成立之初提出培养“万千建国干部”，到改革开放新时期提出培养“国民表率、社会栋梁”，再到新时代提出培养“复兴栋梁、强国先锋”，始终不变的是“为党育人、为国育才”，展现了“党办的大学让党放心、人民的大学不负人民”的精神品格。希望中国人民大学落实立德树人根本任务，传承红色基因，让听党话、跟党走的信念成为人大师生的自觉追求。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平同师生代表座谈并发表重要讲话。新华社记者 鞠鹏 摄', '习近平指出，高校是我国哲学社会科学“五路大军”中的重要力量。当前，坚持和发展中国特色社会主义理论和实践提出了大量亟待解决的新问题，世界百年未有之大变局加速演进，世界进入新的动荡变革期，迫切需要回答好“世界怎么了”、“人类向何处去”的时代之题。要坚持把马克思主义基本原理同中国具体实际相结合、同中华优秀传统文化相结合，立足中华民族伟大复兴战略全局和世界百年未有之大变局，不断推进马克思主义中国化时代化。加快构建中国特色哲学社会科学，归根结底是建构中国自主的知识体系。要以中国为观照、以时代为观照，立足中国实际，解决中国问题，不断推动中华优秀传统文化创造性转化、创新性发展，不断推进知识创新、理论创新、方法创新，使中国特色哲学社会科学真正屹立于世界学术之林。哲学社会科学工作者要做到方向明、主义真、学问高、德行正，自觉以回答中国之问、世界之问、人民之问、时代之问为学术己任，以彰显中国之路、中国之治、中国之理为思想追求，在研究解决事关党和国家全局性、根本性、关键性的重大问题上拿出真本事、取得好成果。要发挥哲学社会科学在融通中外文化、增进文明交流中的独特作用，传播中国声音、中国理论、中国思想，让世界更好读懂中国，为推动构建人类命运共同体作出积极贡献。', '习近平强调，好的学校特色各不相同，但有一个共同特点，都有一支优秀教师队伍。对教师来说，想把学生培养成什么样的人，自己首先就应该成为什么样的人。培养社会主义建设者和接班人，迫切需要我们的教师既精通专业知识、做好“经师”，又涵养德行、成为“人师”，努力做精于“传道授业解惑”的“经师”和“人师”的统一者。教育是一门“仁而爱人”的事业，有爱才有责任。广大教师要严爱相济、润己泽人，以人格魅力呵护学生心灵，以学术造诣开启学生智慧，把自己的温暖和情感倾注到每一个学生身上，让每一个学生都健康成长，让每一个孩子都有人生出彩的机会。老师应该有言为士则、行为世范的自觉，不断提高自身道德修养，以模范行为影响和带动学生，做学生为学、为事、为人的大先生，成为被社会尊重的楷模，成为世人效法的榜样。', '习近平指出，立足新时代新征程，中国青年的奋斗目标和前行方向归结到一点，就是坚定不移听党话、跟党走，努力成长为堪当民族复兴重任的时代新人。希望广大青年用脚步丈量祖国大地，用眼睛发现中国精神，用耳朵倾听人民呼声，用内心感应时代脉搏，把对祖国血浓于水、与人民同呼吸共命运的情感贯穿学业全过程、融汇在事业追求中。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平向师生们挥手致意。新华社记者 鞠鹏 摄', '习近平离开学校时，道路两旁站满了师生，大家激动地向总书记问好，齐声高呼“青春向党、不负人民”、“复兴栋梁、强国先锋”，习近平向大家挥手致意，掌声、欢呼声在校园内久久回荡。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>97</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>湖州市吴兴区政协来雨山区学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2020-11-19</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/20338641.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['11月16日至17日，湖州市吴兴区政协副主席杨元江率调研组一行前往雨山区学习考察协同推进经济高质量发展和生态环境高水平保护方面的经验和做法。区政协副主席鲁俊、区发改委、区政协经济委、雨山经开区负责人等陪同考察。', '杨元江一行先后深入中钢天源股份有限公司、瑞泰马钢新材料科技有限公司、飞马智科大数据产业园项目、薛家洼生态园、滨江生态湿地（杨树林）、滨江文化公园等一线开展实地调研。', '杨元江对雨山区经济发展、项目建设、长江东岸整治所取得的成效给予肯定，希望以长三角一体化发展国家战略的深入实施为契机，进一步发挥两地政协组织的优势和作用，加强联系沟通，促进两地经济和社会事业的交流合作，共同在长三角高质量一体化发展的新征程中取得新的更大进步。', '鲁俊对杨元江一行的到来表示欢迎，并简要介绍了雨山区经济社会发展情况，就协同推进经济高质量发展和生态环境高水平保护作了深入交流。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>97</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>市教育代表团赴湖州嘉兴考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2020-11-30</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/20349111.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['11月26日至27日，市教育局主要负责人率当涂县、花山区、雨山区教育部门主要负责人以及市教育局相关负责人赴湖州和嘉兴考察学习基础教育改革和义务教育优质均衡县区的创建工作。', '11月26日，两市教育部门在湖州召开座谈会，双方分享各自在基础教育改革工作中的经验做法。汪昌斌指出，近年来，湖州以加快教育现代化建设为主线，坚持立德树人，深化课程改革，创新教学模式，全市各类教育事业实现了健康、协调、持续发展。湖州成功的经验，让我们深受启发、茅塞顿开。希望通过此次交流，构建两市在干部教师交流、教育教研等方面合作机制，实现共同发展。当天下午，市教育局代表团参观了湖州市二中、湖师附小教育集团西山漾校区、吴兴实验中学，详细了解学校在招生、校园文化建设以及五育并举等方面的工作举措。', '11月27日，市教育局代表团赶赴嘉兴市和海盐市，实地考察学习创建义务教育优质均衡县区的工作。市教育局代表团听取了嘉兴市和海盐市教育部门的经验介绍，实地参观了海盐向阳小学、武原中学。详细了解学校在规划建设、师资力量配备、考核督查、校园文体建设等方面的工作情况。汪昌斌同志指出，它山之石可以攻玉。海盐市率先通过国家义务教育优质均衡县区评估，在创建中积累了很多好经验和好做法，非常值得我们学习。海盐开辟的成功之路，就是我们今后创建中所要走的前进之路。下一步，全市教育系统在长三角一体化发展国家战略的利好形势下，深化合作交流，创新合作方式，进一步提升合作质量，提高全市整体教育发展水平。(谢阳）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>97</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>团市委赴张家港团市委学习考察交流</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2021-03-03</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/20420631.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['为促进我市共青团事业发展，学习借鉴先进地市在共青团改革、创新创业、志愿服务、权益维护等领域经验做法，3月1日，团市委副书记、市青联主席胡宏扬带领市第四人民医院纪委书记周玉军、市第四人民医院副院长、市社会心理服务体系专家组成员陶德刚、团市委青少年发展和权益维护部部长王俊等一行7人赴张家港团市委考察交流。张家港团市委书记王苏嘉、副书记朱镕博陪同考察或参加座谈交流。', '上午，考察组一行先后实地考察了城市综合展示馆、步行街青年志愿服务站、新兴青年青春服务站。', '在城市综合展示馆，考察组一行在工作人员介绍下详细了解了张家港经济社会发展的沧桑巨变及工作理念，直观感受了创新实干地“张家港精神”以及全国文明城市创建的实践经验和丰硕成果。', '在步行街青年志愿服务站，在该市青年志愿者协会秘书长马杰讲解下，考察组深入学习了解了服务站运营模式、志愿服务品牌等工作，对该市创新开发自助服务终端、打造志愿服务一条龙的做法点赞。', '在新兴青年青春服务站，考察组仔细听取了工作人员的介绍，对该市探索建立新兴青年群体“4567”工作模式表示赞扬。', '下午，考察组一行首先走访调研了红堡·张家港市青年中心，详细询问了解了党建带团建、中心运转、社会组织入驻、创业服务等情况，现场体验了团建地图系统并举行了交流座谈会。', '随后，考察组一行深入张家港市社会心理服务指导中心，参观了个体咨询室、团体活动室、减压放松室、心理剧工作室等功能室以及“社会心理科普馆”，了解了“全民健心云平台”，体验了虚拟VR心理测试等多项心理服务，并与服务中心工作人员就如何服务广大青少年身心健康发展、减少和预防青少年违法犯罪、提升社会治理能力进行了探讨。', '考察组一致认为，张家港共青团工作理念新、举措实、效果好，通过学习考察交流，开阔了眼界，拓宽了思路，找准了差距。在今后的工作中，团市委将进一步解放思想、拉高标杆，全面对照先进地市找差距、查不足，建立健全寻标对标达标措施，推动我市共青团各项事业迈上新台阶，以优异成绩为建党100周年献礼。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>97</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市体育局一行赴南京考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2020-05-18</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/10094708.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['两市体育行政部门领导首先听取了南京市七加二网络科技有限公司关于南京滨江智慧绿道项目的情况汇报。建邺区文化和旅游局（体育局）陈瑛局长对马鞍山市体育局一行的到访表示欢迎，对建邺区体育产业发展情况进行了着重介绍。马鞍山市体育局张卫国局长介绍了马鞍山体育发展情况，对宁马体育全方位合作前景进行展望并提出建议。南京市体育局费佳伟副局长表示，南京与马鞍山地缘相近、人缘相亲、经济相融、文化相通，两市紧抓长三角一体化发展的战略机遇，通过强化互动交流，开展广泛合作，必将在可预见的未来取得良好成效。出席活动的相关领导及工作人员还就全民健身、竞技体育、体育人才培养、赛事交流合作、智慧绿道等具体事项进行了深入的交流，交流活动气氛融洽、讨论热烈、成效显著，为今后两市体育领域之间的深入交流、广泛合作奠定了基础。', '考察期间，两地体育部门负责人还在建邺区相关领导的陪同下，实地考察了南京滨江智慧绿道体旅共享平台和二代全民健身路径建设情况。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>97</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>市医保局赴芜湖市医保局考察学习</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2020-05-13</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/10092823.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['为认真落实全市医保工作会议精神，学习借鉴兄弟市医保工作好经验好做法，5月13日上午，', '局党组书记、局长徐良，局党组成员、副局长咸彬，率局有关科室、单位负责人，赴芜湖市医保局考察学习。', '考察组一行受到芜湖市医保局的热情接待。芜湖市医保局党组书记、局长冯文初向考察组一行表示热烈的欢迎。芜湖市医保局党组成员、副局长夏建荣就芜湖市医保局机构人员情况、医保基金监管、医保脱贫攻坚、医保信息化建设、药品招标采购等工作作了介绍。介绍活动结束后，两市医保局开展了深入的交流座谈，大家围绕工作主题，交流各自做法，谈工作体会，探讨进一步做好医保工作的思路。考察组一行还实地参观了芜湖市医保局H', '局党组书记、徐良在讲话中，感谢芜湖市医保局的周到安排，要求局有关科室、单位认真学习芜湖市的好做法好经验，结合马鞍山市实际，创造性的吸纳借鉴。两市商定，对口科室、单位要加大沟通交流力度，相互取长补短，拓展工作思路，努力提升两市医保工作水平。（撰稿人：卞亚奇']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>97</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>亳州市涡阳县政协来花山区学习考察</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2020-08-11</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/20220341.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['近日，亳州市涡阳县政协副主席王登峰率考察团一行来我区考察学习优化“四最”营商环境工作先进经验。花山区政协副主席印存贵陪同考察。', '考察团一行先后参观了山鹰国际控股股份公司、区行政服务中心、马鞍山软件园。花山区“四最”办公室负责同志介绍了花山区创优营商环境工作开展情况，区行政审批局、区市场监督管理局、软件园负责同志分别介绍了具体工作开展情况和园区企业建设运行情况。', '随后，两地政协就如何深化行政审批制度改革、优化营商环境、提升服务企业效能等问题开展座谈交流。座谈会上，涡阳县政协委员们高度评价了我区在创优“四最”营商环境的工作思路和发展成效，同时希望两地今后能够加强沟通联系，相互借鉴好的经验，为推动地区发展贡献“政协智慧”。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>97</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>市交通运输局对标杭嘉湖考察学习</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2020-09-11</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/20263891.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['为贯彻落实习近平总书记亲临马鞍山视察时，对我市提出的打造安徽的“杭嘉湖”，长三角“白菜心”新的发展定位要求，市交通运输局组织考察团主动对标“杭嘉湖”，抢抓长三角一体化发展战略机遇，加快融入长三角的步伐。', '9月8日至10日，局党委副书记潘祥松和局党委委员、工会主席梁孝敏带队，率领市交通运输局组织的由交通运输综合行政执法支队、道路运输管理服务中心、公交集团党政主要领导和局机关部分科室负责人组成的考察团，专程赴杭州和嘉兴两市交通运输局进行考察学习。通过“点对点”学习、“面对面”取经，考察组一行全方位了解了杭州、嘉兴两市交通运输部门在综合行政执法改革后，执法支队与事业中心之间的工作职责界定、驾培行业、公共交通、出租车管理和城市客运中心建设及旅游客运行业发展等方面的好经验和先进做法。通过对标考察学习，大家感触很深、受益匪浅，实现了眼界大开阔、思想大解放、信心大提升，为交通运输工作争做等高对接长三角的排头兵注入了强劲动力。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>97</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>市体育局赴杭嘉湖地区开展学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-09-28</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/20288371.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['为对照学习“杭嘉湖”体育工作先进经验做法，推进研究提出下一步提升及复制推广借鉴措施，9月23日至25日，市政府办公室二级调研员、副主任杨奇，市体育局局长张卫国带机关分管负责人、科室负责人、市体校校长等一行8人，赴杭州、嘉兴、湖州进行考察学习。', '调研组一行先后对接杭州、嘉兴、湖州市体育行政部门，参观体校建设，考察当地公共体育场馆建设管理、社会力量办体育、体育产业项目发展等情况。调研组与杭州、嘉兴、湖州等市体育行政部门负责同志就青少年体育训练、后备人才培养、体育产业发展等方面的先进做法与经验亲切友好交谈，就今后一个时期开展群众体育、竞技体育、体育产业方面交流合作开展衔接。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>97</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>慈湖高新区赴南京市工信局考察学习</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2019-11-04</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10032321.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为贯彻落实市委市政府加快融入南京都市圈、推进长三角一体化发展的决策部署，11月1日上午，管委会副主任胡俊锋、经贸部负责人陪同市经信局黄翔局长赴南京市工信局开展学习考察活动。', '考察中，双方围绕两地经信领域间的长三角一体化合作、企业亩均效益评价、慈湖高新区与南京市电子信息等地标产业进一步强化协作关系等工作进行了深入交流。南京市工信局乔翠聪副局长还重点介绍了在企业差别化政策运用等方面的经验做法，并就两地毗邻地区产业合作的运作方式和发展方向提出了相关意见和建议。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>97</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>市科技局赴芜湖市考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2019-08-15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/9996355.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['为学习借鉴芜湖市科技创新先进经验，进一步推进国家创新型城市建设。8月14日，市科技局党组成员、副局长端加斌带领局相关业务科室、事业单位以及市委党校相关处室负责同志，专程赴芜湖市科技局考察学习。芜湖市科技局副局长汪自强及相关科室负责同志接待考察组一行。', '座谈会上，汪自强副局长首先介绍了芜湖市今年以来国家创新型城市建设开展的主要工作，随后，双方就如何推进国家创新型城市建设进行了广泛交流，还就科技成果转化、市科技创新政策、研发平台、产学研等内容进行了深度探讨。通过交流，考察组一行对芜湖市科技创新工作有了更深的了解，增长了见识，拓宽了视野。双方均表示将进一步加强沟通交流、相互促进、共同提高。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>97</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>当涂县党政代表团赴无为县学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2019-06-06</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9830310.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['6月5日，县委书记谢红心，县委副书记、代县长阙方俊率县党政代表团赴芜湖市无为县学习考察园区建设、产业发展、乡村振兴等方面的好经验、好做法。县领导魏学林、张清、王林、楚生军参加考察活动。', '考察期间，谢红心、阙方俊一行在无为县县委书记奚南山，县委副书记、代县长吴瑞新的陪同下，实地考察了紫约农业科技公司、尚纬电缆有限公司、三只松鼠产业综合体（无为）项目和比亚迪单轨产业基地项目，并乘车参观了无为县城南新城、无为经济开发区，深入了解无为县发展乡村振兴、推进产业发展、建设管理城市等方面的思路和举措。', '奚南山对当涂党政代表团的到来表示欢迎，希望双方进一步加强互通交流，增进彼此友谊，实现互惠共赢。近年来，无为县不断加快产业集聚发展，初步形成了以超500亿元的电线电缆产业为龙头，以建筑、农副产品深加工、羽毛羽绒和新能源、电子商务等产业为中坚的主导产业体系，县域经济综合实力多年进入全省十强、中部百强。', '谢红心在考察中指出，近年来，无为县大力践行新发展理念，推动高质量发展，在城市建设管理、产业集聚发展以及乡村振兴等方面取得了显著成效，值得当涂学习借鉴。希望两地能够进一步深化交流合作，加强沟通衔接，推动共赢发展。谢红心要求参加考察的党员干部认真吸收消化此次学习考察成果，充分借鉴无为县的好经验、好做法，结合当涂实际，创新思路，真抓实干，奋勇争先，不断谱写新时代当涂高质量发展新篇章。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>97</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>市科技局赴嘉兴市考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2019-05-13</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/9818730.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['为加快马鞍山市国家创新型城市建设步伐，5月9日至10日，市科技局党组成员、副局长端加斌一行专程赴嘉兴市考察学习，市委党校相关处室、局资源配置科负责同志参加考察，嘉兴市科技局副局长曹雪波、相关处室负责人等接待考察组一行。', '座谈会上，双方就嘉兴市在国家创新型城市建设、依托 “G60科创大走廊”推进协同创新平台建设、科技企业孵化体系建设、企业研究开发项目信息管理系统等方面的内容开展深入交流，嘉兴市科技局对考察组提出的问题给予了详细的解答。端加斌表示，嘉兴科技创新工作值得学习借鉴，我们将从中找差距、学经验、补短板，同时希望双方加强沟通联系，相互学习，共同推动科技创新工作。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>97</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>市科技局赴江宁区科技局考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2019-05-22</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/9821639.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['为进一步加快马鞍山市国家创新型城市建设步伐，学习江宁区科技创新先进经验和做法，5月20日，市科技局党组书记、局长王焰一行专程赴江宁区科技局考察学习，市科技局分管负责同志、相关业务科室、事业单位负责同志以及市委党校相关处室负责同志参加考察。', '座谈会上，江宁区科技局对来访交流表示欢迎，并详细介绍了江宁区在科技创新工作方面的经验和做法，并就科技创新核心指标、重大创新平台建设、科技成果转化、深化科技体制改革、2019南京创新周等方面的内容进行了重点介绍。王焰对江宁区科技局的接待表示感谢，并诚挚邀请江宁区科技局领导同仁到马鞍山市调研指导工作。王焰表示，此次考察不仅学习到了科技创新先进工作经验，同时还感受到了江宁区科技局精益求精、勇于争先的工作作风，对促进马鞍山市科技创新工作具有很好的借鉴意义。同时，她希望双方今后进一步加大沟通交流力度，互相学习、相互促进，推进南京都市圈科技创新合作发展。 江宁区科技局副局长王文娟，办公室、政策法规科、区“两落地一融合”推进办、区科创中心等负责人接待考察组一行。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>97</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>市广播电视台赴浙江学习考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2015-11-30</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/57a5b23cd439eb9403411ea9.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['为了更好谋划2016年的工作，实现马鞍山广电转型升级、加快发展，11月25日至27日，市广播电视台赴浙江开展学习考察活动。考察团先后参观考察了浙江省台州市、杭州市、湖州市长兴县等三地的广播电视集团、文化传媒集团，就电视节目创新与研发、传统媒体与新媒体融合、全媒体融合与运行，以及新形势下广电媒体如何转变发展模式等多个课题同当地广电传媒同行进行了座谈交流。', '工作效率得到提高，工作业绩获得提升，多重积极效应逐步显现。但与浙江发达地区相比，还存在不小的差距。通过考察学习，大家坚定了对广播电视必须突破传统思维、创新理念加快发展的认识，增强了用发展的眼光看问题解难题、加快转型步伐、建设马鞍山新广电的信心和勇气。为了推进改革，深化改革，打造马鞍山新广电']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>97</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>江西省樟树市政协来雨山区学习考察</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2019-05-13</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9818359.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['5月9日，江西省樟树市政协副主席谢云程带领考察组来我区学习“融入都市圈”的经验和做法，区政协副主席谢伟、区直有关部门负责人等分别陪同考察或参加座谈。', '考察组一行先后参观了瑞泰马钢新材料科技有限公司、安徽九众九机器人有限公司、安徽世界村新材料有限公司、中钢集团安徽天源科技有限公司、安徽中马磁能科技股份有限公司，听取了区发改委关于融入长三角一体化高质量发展工作的通报，并围绕“融入都市圈”主题进行座谈交流。', '考察组一行对我区抢抓长三角核心地区“退二进三”机遇，以产业融入为突破，全面融入长三角、加快融入南京都市圈所取得的成效给予了高度评价。表示将借鉴雨山区的做法，积极为樟树市融入大南昌都市圈积极建言献策。', '谢伟对樟树市政协一行来我区学习考察表示欢迎，并简要介绍了雨山区基本情况，希望双方今后加强联系，相互学习，为推动“两地”经济社会发展做出政协贡献。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>97</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>台湾嘉义基层人士学习交流团来雨山区考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2019-04-25</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9809976.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['4月22日，台湾嘉义基层人士学习交流团来半山花园社区考察学习，就社区如何开展志愿者服务活动进行交流。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>97</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>市公管局赴福州等地考察学习</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2019-03-26</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/9770284.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['3月19日至22日，市公管局总工程师刘兴凤率队赴福州市城建局、泉州市住建局考察学习，市公管局相关科室及部分县区公管部门负责人参加考察。', '考察组一行就防治建设工程项目围标串标工作具体措施、应招未招的防范措施、建设工程项目评标办法、招投标领域诚信体系建设等内容开展了座谈交流。通过参观考察，学习了打击建设工程领域围标串标工作先进做法，探索了公共资源交易领域诚信体系建设新思路。', '下一步，市公管局将结合本地实际，认真研究相关做法，加大围标串标工作打击力度，推动我市公共资源交易监管工作更上新台阶。（市场监督科）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>97</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>当涂县国家公共文化服务体系示范区迎检考察团赴铜陵考察学习</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2019-12-04</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10042114.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['为进一步开拓工作思路，提升公共文化服务水平，创新、改进我县公共文化服务体系建设。近日，县文旅体局组织全县各乡镇文化站长、园区文化干事和相关工作人员到铜陵市枞阳县、义安区，就国家公共文化服务体系示范区建设情况进行了考察学习。', '考察团一行来到枞阳县，参观了枞阳县文旅局、文化馆及义津镇、新安村综合文化服务中心，学习当地公共文化服务体系示范区创建工作的经验做法，了解完善公共文化设施、文化振兴等方面的成效。随后，考察团来到义安区，参观了铜陵市图书馆、文化馆，义安区文旅局及铜陵市田园艺术季。完善的公共文化设施、浓厚的公共文化建设氛围、先进的公共文化服务理念给考察团一行留下了深刻的印象，', '此次的考察学习，让考察团成员们拓展了视野、增长了见识、启迪了思路，为当涂县公共文化服务体系示范区迎检工作提供了宝贵的借鉴经验。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>97</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>习近平在四川考察调研</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21095871.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['25日下午和26日下午，习近平总书记在四川省广元市、德阳市分别考察了翠云廊古蜀道、三星堆博物馆，了解当地推进历史文化传承、加强生态文明建设和历史文化遗址发掘研究、文物保护修复等情况。（文字记者：朱基钗、林晖；摄影记者：鞠鹏、谢环驰、李涛）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>97</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>习近平在陕西榆林考察</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2021-09-16</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20604801.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['新华社榆林9月15日电 中共中央总书记、国家主席、中央军委主席习近平近日在陕西省榆林市考察时强调，要坚决落实党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，弘扬光荣革命传统，解放思想、改革创新、再接再厉，切实抓好统筹疫情防控和经济社会发展各项工作，更好统筹发展和安全，更好服务和融入新发展格局，谱写陕西高质量发展新篇章。', '9月13日至14日，习近平在陕西省委书记刘国中、省长赵一德陪同下，深入企业、农村、学校、革命旧址等进行调研。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日上午，习近平在国家能源集团榆林化工有限公司中心控制室考察。新华社记者 李学仁 摄', '13日上午，习近平首先来到国家能源集团榆林化工有限公司，了解循环经济煤炭综合利用项目规划建设运行情况。在中心控制室，习近平观看项目产品展示，对企业坚持创新发展，坚持安全、稳定、清洁运行的做法表示肯定。随后，习近平到年产40万吨乙二醇项目现场察看，询问煤化工深度发展有关情况，同企业职工代表亲切交流。他强调，榆林是国家重要能源基地，为国家经济社会发展作出了重要贡献。煤炭作为我国主体能源，要按照绿色低碳的发展方向，对标实现碳达峰、碳中和目标任务，立足国情、控制总量、兜住底线，有序减量替代，推进煤炭消费转型升级。煤化工产业潜力巨大、大有前途，要提高煤炭作为化工原料的综合利用效能，促进煤化工产业高端化、多元化、低碳化发展，把加强科技创新作为最紧迫任务，加快关键核心技术攻关，积极发展煤基特种燃料、煤基生物可降解材料等。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日上午，习近平在国家能源集团榆林化工有限公司考察时，同企业职工代表亲切交流。新华社记者 燕雁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日上午，习近平在国家能源集团榆林化工有限公司年产40万吨乙二醇项目现场考察。新华社记者 李学仁 摄', '13日下午，习近平前往米脂县银州街道高西沟村考察调研。山谷间果园、林地、梯田、淤地坝错落有致，初秋的黄土高原一片绿意盎然。途中，习近平临时下车走进田间，察看谷子、糜子、玉米长势，同正在田间劳作的老乡拉家常，询问他们生产经营、家庭收入、医疗保障、子女上学就业等情况。在高西沟村龙头山山顶，习近平听取了陕西省生态文明建设和高西沟村探索黄土丘陵沟壑区综合治理情况介绍。习近平指出，高西沟村是黄土高原生态治理的一个样板，你们坚持不懈开展生态文明建设、与时俱进发展农村事业，路子走的是对的。要深入贯彻绿水青山就是金山银山的理念，把生态治理和发展特色产业有机结合起来，走出一条生态和经济协调发展、人与自然和谐共生之路。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日下午，习近平在米脂县银州街道高西沟村临时下车，察看粮食作物长势，同正在田间劳作的老乡拉家常。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日下午，习近平在米脂县银州街道高西沟村龙头山山顶，考察黄土丘陵沟壑区综合治理情况。新华社记者 谢环驰 摄', '离开高西沟村，习近平来到位于米脂县城东南的杨家沟革命旧址。1947年底，毛泽东同志率领中央机关来到杨家沟村，在这里战斗生活了4个多月，指挥了全国解放战争和西北战场，领导开展土地改革运动。习近平参观中共中央“十二月会议”旧址、毛泽东旧居、周恩来旧居等，追忆革命历史，缅怀革命先辈丰功伟绩。习近平强调，政策和策略是党的生命。一百年来，我们党之所以能够统一思想、统一步调、团结一致向前进，之所以能够取得革命、建设、改革的伟大胜利和辉煌成就，就在于我们党坚持马克思主义指导，高瞻远瞩、见微知著，既解决现实问题，又解决战略问题，准确判断和把握形势，制定切合实际的目标任务、政策策略。要始终坚持和完善党的领导，不断提高党科学执政、民主执政、依法执政水平，充分发挥党总揽全局、协调各方的领导核心作用。要坚持马克思主义基本原理，用马克思主义观察时代、把握时代、引领时代，同时坚持实事求是，从我国实际出发，不断推进马克思主义中国化、时代化。习近平指出，要充分运用红色资源，深化党史学习教育，赓续红色血脉。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日下午，习近平在米脂县杨家沟革命旧址考察。新华社记者 谢环驰 摄', '14日上午，习近平前往中共绥德地委旧址，仔细察看旧址布局和部分复原场景，参观有关专题展陈。习近平指出，回顾这段厚重的革命历史，老一辈革命家坚持“党的利益在第一位”，坚持“站在最大多数劳动人民的一面”，坚持“把屁股端端地坐在老百姓的这一面”，有着重大教育意义。中国共产党领导人民取得革命胜利，是赢得了民心，是亿万人民群众坚定选择站在我们这一边。我们要继承发扬革命传统和优良作风，始终把人民利益放在最高位置，不忘初心、牢记使命，贯彻党的群众路线，尊重人民主体地位，始终同人民站在一起、想在一起、干在一起。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在中共绥德地委旧址考察。新华社记者 李学仁 摄', '随后，习近平来到绥德实验中学，先后走进教室、操场，观看同学们书法练习和体育锻炼，同大家亲切交流。他指出，中华文明源远流长、绵延不断，基础在教育。实现中华民族伟大复兴，基础在教育。我们办教育，就是要提高人民综合素质，促进人的全面发展，提升社会文明程度，坚定文化自信，增强全民族创造活力。要全面贯彻党的教育方针，落实立德树人根本任务，厚植爱党、爱国、爱人民、爱社会主义的情感，努力培养德智体美劳全面发展的社会主义建设者和接班人。要深化教育教学改革，强化学校教育主阵地作用，全面提高学校教学质量，真正把过重的学业负担和校外培训负担减下来，办好人民满意的教育。最后，习近平勉励同学们珍惜大好年华，修身立德、勤学上进、强健体魄、锤炼意志，做对国家、对人民、对社会有用的人。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在绥德实验中学考察时，同正在练习书法的学生亲切交流。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在绥德实验中学考察时，同师生亲切交流。新华社记者 谢环驰 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平同绥德实验中学的学生在一起。新华社记者 李学仁 摄', '陕西历史悠久，文化遗产丰厚。习近平来到绥德县非物质文化遗产陈列馆，观摩石雕、绥德平安书、剪纸、民歌、泥塑等展示，对当地传统文化保护和传承工作表示肯定。陈列馆外，正在进行陕北秧歌表演。习近平向现场群众问好。他指出，绥德是黄土文化的重要发源地之一，非物质文化遗产资源丰富，孕育发展了优秀民间艺术，展现了陕北人民的热情、质朴、豪迈。民间艺术是中华民族的宝贵财富，保护好、传承好、利用好老祖宗留下来的这些宝贝，对延续历史文脉、建设社会主义文化强国具有重要意义。要坚持以社会主义核心价值观为引领，坚持创造性转化、创新性发展，找到传统文化和现代生活的连接点，不断满足人民日益增长的美好生活需要。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在绥德县非物质文化遗产陈列馆，同群众亲切交流。新华社记者 谢环驰 摄', '位于绥德县城西南的张家砭镇郝家桥村，是绥德地委在抗战时期经过调查研究发现的一个模范村，通过开展“村村学习郝家桥，人人学习刘玉厚”活动，掀起了大生产热潮。党的十八大以来，郝家桥村积极发展特色产业，村容村貌和村民生活发生了深刻变化，荣获“全国脱贫攻坚楷模”荣誉称号。14日下午，习近平来到这里，详细观看村史展览，了解这个“红色山村”的光荣革命历史以及革命传统传承情况。随后，习近平来到村民侯志荣家中看望。侯志荣一家曾经因病致贫，靠着各级帮扶和自身努力2016年摆脱贫困。习近平强调，看到你们一家人日子越过越好、人丁兴旺，我感到很欣慰。让乡亲们过好光景，是我们党始终不渝的初心使命，共产党就要把这件事情干好，不断交上好答卷。全党全国全社会都要大力弘扬脱贫攻坚精神，奋发图强、自力更生，不断夺取全面建设社会主义现代化国家新的更大胜利。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村，看望村民侯志荣一家。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村考察。新华社记者 谢环驰 摄', '在村果蔬大棚基地，习近平仔细了解该村产业规划发展情况，走进大棚察看葡萄长势。在村互助幸福院、村卫生站，习近平同村里的老人、医护人员等亲切交流。他指出，来到郝家桥，我深受教育和启发。山沟沟能走出致富路、过上好日子，靠的是政策好、人努力、天帮忙。这里能做到的，其他地方也应该能做到。重要的是深入调查研究，摸准情况、吃透问题、找到办法、总结经验，持续发挥典型引领示范作用，建好党支部、选好带头人，把基层党组织战斗堡垒作用充分发挥出来。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村互助幸福院，同村里的老人亲切交流。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村卫生站同村里的老人、医护人员亲切交流。新华社记者 李学仁 摄', '离开村子时，习近平深情对乡亲们说，无论是革命战争年代的大生产运动，还是新时代的脱贫攻坚战，郝家桥人始终勤劳奋进、开拓创新。希望你们继续发扬优良传统，感党恩、听党话、跟党走，敢为人先、奋力拼搏，努力把郝家桥村建设成为乡村振兴的楷模。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村，同乡亲们亲切交流。新华社记者 谢环驰 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村考察时，向乡亲们挥手致意。新华社记者 谢环驰 摄', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>97</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>习近平在绥德考察调研</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021-09-15</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20604661.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['习近平总书记14日在榆林市绥德县考察调研。他先后来到中共绥德地委旧址、绥德实验中学、绥德县非物质文化遗产陈列馆、张家砭镇郝家桥村，围绕弘扬党的光荣传统和优良作风、促进学生全面发展与健康成长、推进传统文化保护与传承、全面推进乡村振兴等实地调研。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>97</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>习近平在广东考察调研</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21019241.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['10日，习近平总书记在广东省考察调研。他首先来到湛江市，先后考察了国家863计划项目海水养殖种子工程南方基地、麻章区湖光镇金牛岛红树林片区、徐闻港、环北部湾广东水资源配置工程，了解当地发展海洋渔业、加强红树林保护、提升交通基础设施互联互通水平、推动广东海南相向发展、优化水资源配置等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、李学仁、燕雁、刘彬）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>97</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>习近平在柳州考察调研</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20603261.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['26日下午，正在广西柳州考察调研的习近平总书记，先后来到广西柳工集团有限公司、柳州螺蛳粉生产集聚区，了解企业改革创新、制造业和特色产业发展情况。（文字记者：张晓松、朱基钗 摄影记者：鞠鹏、谢环驰、殷博古）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>97</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>习近平赴青海考察调研</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20603601.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['习近平总书记7日赴青海考察调研。当天下午，他来到位于西宁市的青海圣源地毯集团有限公司，了解企业依托当地原材料资源优势，创新设计理念，提升产品竞争力，带动群众就业增收等情况。随后，习近平来到文汇路街道文亭巷社区，考察社区加强基层党建、完善基层治理、推进民族团结进步等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁、申宏）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>97</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>习近平赴广西考察调研</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2021-04-26</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20603341.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['25日上午，习近平总书记来到位于广西桂林全州县才湾镇的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮，参观红军长征湘江战役纪念馆，缅怀革命先烈、赓续共产党人精神血脉。随后，习近平来到才湾镇毛竹山村，考察推进乡村振兴、基层治理等情况。当天下午，习近平在漓江阳朔段实地了解漓江流域综合治理、生态保护等情况。（记者：张晓松、朱基钗 摄影：鞠鹏、谢环驰、申宏、殷博古）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>97</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>习近平赴福建考察调研</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2021-03-23</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602971.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['习近平总书记22日赴福建考察调研。当天下午，他先后来到南平市武夷山国家公园智慧管理中心、星村镇燕子窠生态茶园、朱熹园，了解生态文明建设、茶产业发展和传统文化传承等情况。（文字记者：张晓松、朱基钗 摄影记者：鞠鹏、王晔、燕雁） \u200b\u200b\u200b\u200b', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>97</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>习近平在福建考察</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-03-25</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20603181.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，同科技特派员、茶农亲切交流，了解当地茶产业发展情况。新华社记者 燕雁 摄', '新华社福州3月25日电 中共中央总书记、国家主席、中央军委主席习近平近日在福建考察时强调，要落实党中央决策部署，坚持稳中求进工作总基调，立足新发展阶段、贯彻新发展理念、构建新发展格局，深化供给侧结构性改革，扩大改革开放，推动科技创新，统筹疫情防控和经济社会发展，统筹发展和安全，在加快建设现代化经济体系上取得更大进步，在服务和融入新发展格局上展现更大作为，在探索海峡两岸融合发展新路上迈出更大步伐，在创造高品质生活上实现更大突破，奋力谱写全面建设社会主义现代化国家福建篇章。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日上午，习近平在三明沙县总医院住院楼一层大厅，同医护人员、患者亲切交流。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区考察时，向游客和市民招手致意。新华社记者 鞠鹏 摄', '仲春时节，八闽大地一派勃勃生机。3月22日至25日，习近平在福建省委书记尹力、省长王宁陪同下，先后来到南平、三明、福州等地，深入国家公园、生态茶园、文物保护单位、医院、农村、企业、学校等，就贯彻党的十九届五中全会精神、推动“十四五”开好局起好步、统筹推进常态化疫情防控和经济社会发展等进行调研。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山国家公园智慧管理中心，察看智慧管理平台运行情况。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山国家公园智慧管理中心同游客亲切交流。新华社记者 王晔 摄', '武夷山国家公园是首批国家公园体制试点之一。22日下午，习近平来到公园智慧管理中心，察看智慧管理平台运行情况。该中心综合运用智能化技术，实现了对公园“天地空”全方位、全天候监测管理，提升了生态保护能力。习近平对生态文明建设高度重视，在福建工作期间就推动了长汀水土流失治理、木兰溪防洪工程等重大生态保护工程，并于2000年推动福建率先在全国探索生态省建设。经过长期努力，福建生态文明建设取得了积极成效。习近平指出，建立以国家公园为主体的自然保护地体系，目的就是按照山水林田湖草是一个生命共同体的理念，保持自然生态系统的原真性和完整性，保护生物多样性。要坚持生态保护第一，统筹保护和发展，有序推进生态移民，适度发展生态旅游，实现生态保护、绿色发展、民生改善相统一。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，同科技特派员、茶农亲切交流，了解当地茶产业发展情况。新华社记者 鞠鹏 摄', '武夷山是乌龙茶、红茶的发源地。习近平来到星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。习近平强调，要统筹做好茶文化、茶产业、茶科技这篇大文章，坚持绿色发展方向，强化品牌意识，优化营销流通环境，打牢乡村振兴的产业基础。要深入推进科技特派员制度，让广大科技特派员把论文写在田野大地上。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山朱熹园，了解朱熹生平及理学研究等情况。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山朱熹园考察时，向游客招手致意。新华社记者 王晔 摄', '离开茶园，习近平乘竹筏沿九曲溪察看生态环境保护情况和自然景观。在九曲溪畔的朱熹园，习近平详细了解朱熹生平及理学研究等情况。他指出，要推动中华优秀传统文化创造性转化、创新性发展，以时代精神激活中华优秀传统文化的生命力。要把坚持马克思主义同弘扬中华优秀传统文化有机结合起来，坚定不移走中国特色社会主义道路。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日上午，习近平在三明沙县总医院住院楼一层大厅，听取医改情况介绍。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日上午，习近平在三明沙县考察时向群众挥手致意。新华社记者 王晔 摄', '近年来，三明医改以药品耗材治理改革为突破口，坚持医药、医保、医疗改革联动，为全国医改探索了宝贵经验。2016年2月，习近平主持中央全面深化改革领导小组会议，听取了三明医改情况汇报，要求总结推广改革经验。23日上午，习近平来到三明市沙县总医院，在住院楼一层大厅听取医改情况介绍，向医护人员、患者了解医改惠民情况。习近平强调，人民健康是社会主义现代化的重要标志。三明医改体现了人民至上、敢为人先，其经验值得各地因地制宜借鉴。要继续深化医药卫生体制改革，均衡布局优质医疗资源，改善基层基础设施条件，为人民健康提供可靠保障。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，向村民挥手致意。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，同村民亲切交流。新华社记者 王晔 摄', '福建发扬习近平在宁德工作时提出的弱鸟先飞、滴水穿石精神，下大气力抓摆脱贫困。经过30多年努力，福建全省同全国一道，彻底消除了绝对贫困。23日下午，习近平来到革命老区村——沙县夏茂镇俞邦村，在小吃摊边、特产店里、村民家门前，同乡亲们亲切交谈，详细了解沙县小吃发展现状和前景。习近平指出，沙县人走南闯北，把沙县小吃打造成了富民特色产业。乡村要振兴，因地制宜选择富民产业是关键。要抓住机遇、开阔眼界，适应市场需求，继续探索创新，在创造美好生活新征程上再领风骚。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，在小吃摊边同乡亲们亲切交谈。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，在小吃摊边同乡亲们亲切交谈。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，同乡亲们亲切交流。新华社记者 王晔 摄', '习近平在福建工作时推动开展了集体林权制度改革，试行“分山到户、均林到人”，实现“山定权、树定根、人定心”。在沙县农村产权交易中心，习近平听取集体林权制度改革介绍，向办事群众和工作人员了解集体林地经营权流转交易、不动产登记等情况。习近平指出，三明集体林权制度改革探索很有意义，要坚持正确改革方向，尊重群众首创精神，积极稳妥推进集体林权制度创新，探索完善生态产品价值实现机制，力争实现新的突破。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县农村产权交易中心考察。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县农村产权交易中心考察时，同工作人员、办事群众等亲切交流。新华社记者 王晔 摄', '习近平24日在福州考察调研。在福州工作期间习近平领导实施了福州市“3820”工程，勾画跨世纪福州现代化建设宏伟蓝图。在福山郊野公园，习近平乘坐电瓶车实地了解郊野福道风貌，他登上观景平台，远眺福州新貌，听取城市生态公园规划建设、城市水系综合治理情况汇报。市民们看到总书记来了，争相围拢过来。习近平指出，建设好管理好一座城市，要把菜篮子、人居环境、城市空间等工作放到重要位置切实抓好。福州是有福之州，生态条件得天独厚，希望继续把这座海滨城市、山水城市建设得更加美好，更好造福人民群众。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园乘坐电瓶车实地了解郊野福道风貌。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园观景平台，听取城市生态公园规划建设、城市水系综合治理情况汇报。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园考察时，向市民们招手致意。新华社记者 鞠鹏 摄', '福州三坊七巷历史文化街区保留了唐宋遗留下来的坊巷格局和大量明清古建筑。早在1991年，习近平在福州工作期间就召开文物工作现场办公会，推动制定福州历史文化名城保护管理条例和保护规划，有力促进了城市历史文化传承保护工作。习近平听取福州古厝和三坊七巷保护修复等情况介绍，步行察看南后街、郎官巷，参观严复故居，向游客和市民频频招手致意。习近平强调，保护好传统街区，保护好古建筑，保护好文物，就是保存了城市的历史和文脉。对待古建筑、老宅子、老街区要有珍爱之心、尊崇之心。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区步行察看南后街。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区步行察看郎官巷。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区参观严复故居。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区考察时，向游客和市民招手致意。新华社记者 燕雁 摄', '福建福光股份有限公司是光学镜头重要制造商。习近平步入公司展厅，察看产品展示，询问企业技术创新和生产销售情况。超精密车间内，企业员工向总书记展示了产品生产工艺。习近平强调，我们国家进入科技发展第一方阵要靠创新，一味跟跑是行不通的，必须加快科技自立自强步伐。要坚持创新在现代化建设全局中的核心地位，把创新作为一项国策，积极鼓励支持创新。创新不问“出身”，只要谁能为国家作贡献就支持谁。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察时，同企业职工亲切交流。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察时，同企业员工亲切交流。新华社记者 鞠鹏 摄', '25日上午，习近平来到闽江学院考察调研。闽江学院前身是福州师范高等专科学校和闽江职业大学。在福州工作期间，习近平曾兼任闽江职业大学校长6年时间，提出的“不求最大、但求最优、但求适应社会需要”的办学理念影响深远。2018年10月，习近平曾就闽江学院成立60周年致贺信。在闽江学院校史和应用型办学成果展示厅，习近平肯定学院在坚持应用型办学、深化产教融合等方面取得的成绩。习近平指出，要把立德树人作为根本任务，坚持应用技术型办学方向，适应社会需要设置专业、打好基础，培养德智体美劳全面发展的社会主义建设者和接班人。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院，参观校史和应用型办学成果展示。新华社记者 王晔 摄', '校园广场上师生们高喊“总书记好”、“习校长好”，习近平向大家挥手致意。习近平强调，实现第二个百年奋斗目标，实现中华民族伟大复兴，青年一代责任在肩。希望同学们树立远大理想、热爱伟大祖国、担当时代责任、勇于砥砺奋斗、练就过硬本领、锤炼品德修为，努力成为对社会有用的人、道德高尚的人，积极投身全面建设社会主义现代化国家的伟大事业。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，同师生们亲切交流。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，向师生们挥手致意。新华社记者 王晔 摄', '当天上午，习近平听取了福建省委和省政府工作汇报，对福建各项工作取得的成绩给予肯定，希望福建在全方位推动高质量发展上取得新成效。', '习近平强调，推动高质量发展，首先要完整、准确、全面贯彻新发展理念。新发展理念和高质量发展是内在统一的，高质量发展就是体现新发展理念的发展。要坚持系统观念，找准在服务和融入构建新发展格局中的定位，优化提升产业结构，加快推动数字产业化、产业数字化。要加大创新支持力度，优化创新生态环境，激发创新创造活力。要深度融入共建“一带一路”，办好自由贸易试验区，建设更高水平开放型经济新体制。要突出以通促融、以惠促融、以情促融，勇于探索海峡两岸融合发展新路。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，同村民亲切交流。新华社记者 鞠鹏 摄', '习近平指出，要加快推进乡村振兴，立足农业资源多样性和气候适宜优势，培育特色优势产业。要以实施乡村建设行动为抓手，改善农村人居环境，建设宜居宜业美丽乡村。要推进老区苏区全面振兴，倾力支持老区苏区特色产业提升、基础设施建设和公共服务保障等。要把碳达峰、碳中和纳入生态省建设布局，科学制定时间表、路线图，建设人与自然和谐共生的现代化。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园观景平台，听取城市生态公园规划建设、城市水系综合治理情况汇报。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园考察时，同市民们亲切交流。新华社记者 王晔 摄', '习近平强调，要着力提高人民生活品质，拓展居民收入增长的渠道，统筹做好高校毕业生、农民工、退役军人等重点群体就业。要全面贯彻党的教育方针，落实立德树人根本任务，坚持教育公益性原则，深化教育改革，办好人民满意的教育。要把保障人民健康放在优先发展的战略位置，织牢公共卫生防护网，推动公立医院高质量发展。要慎终如始做好“外防输入、内防反弹”的工作。要有效遏制重特大安全生产事故，推动扫黑除恶常态化。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，同师生们亲切交流。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，向师生们挥手致意。新华社记者 燕雁 摄', '习近平指出，福建是革命老区，党史事件多、红色资源多、革命先辈多，开展党史学习教育具有独特优势。要在党史学习教育中做到学史明理，明理是增信、崇德、力行的前提。要从党的辉煌成就、艰辛历程、历史经验、优良传统中深刻领悟中国共产党为什么能、马克思主义为什么行、中国特色社会主义为什么好等道理，弄清楚其中的历史逻辑、理论逻辑、实践逻辑。要深刻领悟坚持中国共产党领导的历史必然性，坚定对党的领导的自信。要深刻领悟马克思主义及其中国化创新理论的真理性，增强自觉贯彻落实党的创新理论的坚定性。要深刻领悟中国特色社会主义道路的正确性，坚定不移走中国特色社会主义这条唯一正确的道路。要把各领域基层党组织建设成为坚强战斗堡垒。要不断提高不敢腐、不能腐、不想腐的综合功效，持续巩固发展良好的政治生态。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>97</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>习近平在扬州考察调研</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2020-11-14</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602571.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['习近平总书记13日在江苏省扬州市考察调研。他先后来到运河三湾生态文化公园、江都水利枢纽，了解大运河沿线环境整治和文化保护传承利用、南水北调东线工程规划建设和江都水利枢纽运行等情况。（文字记者：张晓松、朱基钗 摄影：鞠鹏、谢环驰、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>97</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>习近平在广西考察</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-04-28</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20603571.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 谢环驰 摄', '新华社南宁4月27日电 中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，要坚决贯彻党中央决策部署，完整、准确、全面贯彻新发展理念，坚持稳中求进工作总基调，解放思想、深化改革、凝心聚力、担当实干，统筹疫情防控和经济社会发展，统筹发展和安全，在推动边疆民族地区高质量发展上闯出新路子，在服务和融入新发展格局上展现新作为，在推动绿色发展上迈出新步伐，在巩固发展民族团结、社会稳定、边疆安宁上彰显新担当，建设新时代中国特色社会主义壮美广西。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县，乘船考察漓江阳朔段。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂考察调研。新华社记者 鞠鹏 摄', '4月25日至27日，习近平在广西壮族自治区党委书记鹿心社和自治区政府主席蓝天立陪同下，先后来到桂林、柳州、南宁等地，深入革命纪念馆、农村、企业、民族博物馆等，就贯彻党的十九届五中全会精神、开展党史学习教育、推动“十四五”开好局起好步等进行调研。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 鞠鹏 摄', '25日上午，习近平来到位于桂林市全州县才湾镇的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮并三鞠躬，瞻仰“红军魂”雕塑，参观纪念馆。1934年底，为确保中共中央和中央红军主力渡过湘江，粉碎敌人围歼红军于湘江以东的企图，几万名红军将士血染湘江两岸，这一战成为事关中国革命生死存亡的重要历史事件。习近平表示，我到广西考察的第一站就来到这里，目的是在全党开展党史学习教育之际，缅怀革命先烈，赓续共产党人精神血脉，坚定理想信念，砥砺革命意志。革命理想高于天，理想信念之火一经点燃就会产生巨大的精神力量。红军将士视死如归、向死而生、一往无前、敢于压倒一切困难而不被任何困难所压倒的崇高精神，永远值得我们铭记和发扬。在实现第二个百年奋斗目标的新长征路上，我们要抱定必胜信念，勇于战胜来自国内外的各种重大风险挑战，朝着实现中华民族伟大复兴的目标奋勇前进。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆时，同工作人员亲切交谈。新华社记者 谢环驰 摄', '随后，习近平来到才湾镇毛竹山村。该村近年来积极发展葡萄种植业，有力促进了农民增收。习近平走进葡萄种植园，察看葡萄长势。农技人员正在指导村民为葡萄绑蔓、定梢，看到总书记来了，乡亲们纷纷围拢过来。习近平详细询问葡萄产量、品质、销路、价格等情况。他强调，全面推进乡村振兴，要立足特色资源，坚持科技兴农，因地制宜发展乡村旅游、休闲农业等新产业新业态，贯通产加销，融合农文旅，推动乡村产业发展壮大，让农民更多分享产业增值收益。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村，走进葡萄种植园，同农技人员和村民亲切交流。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察。新华社记者 殷博古 摄', '习近平步行察看村容村貌，并到村民王德利家中看望，同一家人围坐在一起聊家常。王德利告诉总书记，他们家种了12亩葡萄，农闲时外出务工，去年家庭收入超过14万元。习近平听了十分高兴。他指出，经过全党全国各族人民共同努力，在迎来中国共产党成立一百周年的重要时刻，我国脱贫攻坚战取得全面胜利。好日子都是奋斗出来的。希望你们依靠勤劳智慧把日子过得更有甜头、更有奔头。要注重学习科学技术，用知识托起乡村振兴。离开村子时，乡亲们高声向总书记问好。习近平向大家挥手致意。他深情地说，让人民生活幸福是“国之大者”。全面推进乡村振兴的深度、广度、难度都不亚于脱贫攻坚，决不能有任何喘口气、歇歇脚的想法，要在新起点上接续奋斗，推动全体人民共同富裕取得更为明显的实质性进展。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村村民王德利家中看望，同一家人围坐在一起聊家常。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察时，同乡亲们亲切交流。新华社记者 谢环驰 摄', '近年来，桂林市大力推进漓江“治乱、治水、治山、治本”，改善了漓江生态环境。25日下午，习近平来到桂林市阳朔县漓江杨堤码头，听取漓江流域综合治理、生态保护等情况汇报，并乘船考察漓江阳朔段。他强调，要坚持山水林田湖草沙系统治理，坚持正确的生态观、发展观，敬畏自然、顺应自然、保护自然，上下同心、齐抓共管，把保持山水生态的原真性和完整性作为一项重要工作，深入推进生态修复和环境污染治理，杜绝滥采乱挖，推动流域生态环境持续改善、生态系统持续优化、整体功能持续提升。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县漓江杨堤码头，了解漓江流域综合治理、生态保护等情况。新华社记者 申宏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县漓江杨堤码头，了解漓江流域综合治理、生态保护等情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县，乘船考察漓江阳朔段。新华社记者 申宏 摄', '26日，习近平来到桂林市象鼻山公园，远眺山水风貌，沿步道察看商业、邮政等服务设施。游客们高声欢呼：“总书记好！”习近平同大家亲切交流。他指出，桂林是一座山水甲天下的旅游名城。这是大自然赐予中华民族的一块宝地，一定要呵护好。要坚持以人民为中心，以文塑旅、以旅彰文，提升格调品位，努力创造宜业、宜居、宜乐、宜游的良好环境，打造世界级旅游城市。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在桂林市象鼻山公园考察调研。新华社记者 申宏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在桂林市象鼻山公园考察时，同游客们亲切交流。新华社记者 鞠鹏 摄', '当天下午，习近平来到柳州市考察调研。在广西柳工集团有限公司，习近平先后走进公司展厅、研发实验中心、挖掘机装配厂等，听取企业发展情况介绍，察看主要产品展示，同企业职工和技术研发人员亲切交谈。习近平强调，制造业高质量发展是我国经济高质量发展的重中之重，建设社会主义现代化强国、发展壮大实体经济，都离不开制造业，要在推动产业优化升级上继续下功夫。只有创新才能自强、才能争先，要坚定不移走自主创新道路，把创新发展主动权牢牢掌握在自己手中。要坚持党对国有企业的全面领导，坚持加强党的领导和完善公司治理相统一，在深化企业改革中搞好党的建设，充分发挥党组织在企业改革发展中的领导核心作用。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司察看产品展示。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂了解企业发展情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂，同企业职工和技术研发人员亲切交谈。新华社记者 谢环驰 摄', '随后，习近平来到柳州螺蛳粉生产集聚区，详细了解螺蛳粉特色产业促进就业、带动农民增收等情况。习近平指出，发展特色产业是地方做实做强做优实体经济的一大实招，要结合自身条件和优势，推动高质量发展。要把住质量安全关，推进标准化、品牌化。要帮助民营企业解决实际困难，鼓励、支持、引导民营企业发展壮大。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区，了解螺蛳粉生产情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区，了解螺蛳粉生产情况。新华社记者 殷博古 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区考察调研。新华社记者 鞠鹏 摄', '广西是我国少数民族人口最多的自治区。27日上午，习近平来到位于南宁市邕江之畔的广西民族博物馆，参观壮族文化展。博物馆外，三月三“歌圩节”壮族对歌等民族文化活动正在这里集中展示。习近平强调，广西是全国民族团结进步示范区，要继续发挥好示范带动作用。各民族共同团结进步、共同繁荣发展是中华民族的生命所在、力量所在、希望所在，在全面建设社会主义现代化国家的新征程上，一个民族都不能少，各族人民要心手相牵、团结奋进，共创中华民族的美好未来，共享民族复兴的伟大荣光。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆参观壮族文化展。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 申宏 摄', '当天上午，习近平听取了广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定，希望广西各族干部群众奋力谱写全面建设社会主义现代化国家的广西篇章，以优异成绩庆祝建党一百周年。', '习近平指出，推动经济高质量发展，既要深刻认识贯彻新发展理念、构建新发展格局对推动地方高质量发展的原则要求，又要准确把握本地区在服务和融入新发展格局中的比较优势，走出一条符合本地实际的高质量发展之路。要推动传统产业高端化、智能化、绿色化，推动全产业链优化升级，积极培育新兴产业，加快数字产业化和产业数字化。要继续深化改革，坚持“两个毫不动摇”，优化营商环境。要加大创新支持力度，优化创新生态环境，推动各类创新要素向企业集聚，激发创新活力，推动科技成果转化。要主动对接长江经济带发展、粤港澳大湾区建设等国家重大战略，融入共建“一带一路”，高水平共建西部陆海新通道，大力发展向海经济，促进中国－东盟开放合作，办好自由贸易试验区，把独特区位优势更好转化为开放发展优势。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司考察调研。新华社记者 鞠鹏 摄', '习近平强调，要弘扬伟大脱贫攻坚精神，加快推进乡村振兴，健全农村低收入人口常态化帮扶机制，继续支持脱贫地区特色产业发展，强化易地搬迁后续扶持。要立足广西林果蔬畜糖等特色资源，打造一批特色农业产业集群。要严格实行粮食安全党政同责，压实各级党委和政府保护耕地的责任，稳步提高粮食综合生产能力。要继续打好污染防治攻坚战，把碳达峰、碳中和纳入经济社会发展和生态文明建设整体布局，建立健全绿色低碳循环发展的经济体系，推动经济社会发展全面绿色转型。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村，走进葡萄种植园，同农技人员和村民亲切交流。新华社记者 殷博古 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察时，同乡亲们亲切交流。新华社记者 鞠鹏 摄', '习近平指出，要提高人民生活品质，落实就业优先战略和积极就业政策，做好高校毕业生、退役军人、农民工和城镇困难人员等重点群体就业工作。要完善多渠道灵活就业的社会保障制度，维护好卡车司机、快递小哥、外卖配送员等的合法权益。要全面贯彻党的教育方针，落实立德树人根本任务，加强对线上线下校外培训机构的规范管理。要深化疾病预防控制体系改革，强化基层公共卫生体系，创新医防协同机制，提升基层预防、治疗、护理、康复服务水平，毫不放松抓好常态化疫情防控。要严密防范各种风险挑战，有效遏制重特大安全生产事故，常态化开展扫黑除恶斗争。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 鞠鹏 摄', '习近平强调，要搞好民族团结进步宣传教育，引导各族群众牢固树立正确的国家观、历史观、民族观、文化观、宗教观，增进各族群众对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同，促进各民族像石榴籽一样紧紧抱在一起。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园考察。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆时，同工作人员亲切交谈。新华社记者 鞠鹏 摄', '习近平指出，广西红色资源丰富，在党史学习教育中要用好这些红色资源，做到学史增信。学史增信，就是要增强信仰、信念、信心，这是我们战胜一切强敌、克服一切困难、夺取一切胜利的强大精神力量。要增强对马克思主义、共产主义的信仰，教育引导广大党员、干部从党百年奋斗中感悟信仰的力量，始终保持顽强意志，勇敢战胜各种重大困难和严峻挑战。要增强对中国特色社会主义的信念，教育引导广大党员、干部深刻认识到，中国特色社会主义是历史发展的必然结果，是发展中国的必由之路，是经过实践检验的科学真理，始终坚定道路自信、理论自信、制度自信、文化自信。要增强对实现中华民族伟大复兴的信心，教育引导广大党员、干部牢记初心使命、增强必胜信心，坚信我们党一定能够团结带领人民在中国特色社会主义道路上实现中华民族伟大复兴，努力创造属于我们这一代人、无愧新时代的历史功绩。信仰、信念、信心是最好的防腐剂。要始终抓好党风廉政建设，使不敢腐、不能腐、不想腐一体化推进有更多的制度性成果和更大的治理成效。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>97</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>习近平在广东考察</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2020-10-16</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602401.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['新华社广州10月15日电 中共中央总书记、国家主席、中央军委主席习近平近日在广东考察时强调，要坚决贯彻党中央战略部署，坚持新发展理念，坚持高质量发展，进一步解放思想、大胆创新、真抓实干、奋发进取，以更大魄力、在更高起点上推进改革开放，在推进粤港澳大湾区建设、推动更高水平对外开放、推动形成现代化经济体系、加强精神文明建设、抓好生态文明建设、保障和改善民生等方面展现新的更大作为，努力在全面建设社会主义现代化国家新征程中走在全国前列、创造新的辉煌。', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在潮州市潮州三环（集团）股份有限公司生产车间考察。新华社记者 王晔 摄', '金秋时节，南粤大地，一派生机勃勃。10月12日至13日，习近平在中共中央政治局委员、广东省委书记李希和省长马兴瑞陪同下，先后来到潮州、汕头等地，深入文物保护单位、历史文化街区、企业等，就统筹推进常态化疫情防控和经济社会发展工作、深化改革开放、谋划“十四五”时期经济社会发展等进行调研。', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是13日下午，习近平在汕头市小公园开埠区，同当地群众和游客亲切交流。新华社记者 鞠鹏 摄', '12日下午，习近平来到潮州市考察。位于潮州古城东门外的广济桥始建于南宋年间，横跨韩江两岸，风格独特，集梁桥、浮桥、拱桥于一体，被誉为“世界上最早的启闭式桥梁”。习近平沿桥步行，察看桥亭、浮桥，眺望韩江两岸风貌，了解桥梁历史文化特色，听取广济桥修复保护情况介绍。习近平强调，广济桥历史上几经重建和修缮，凝聚了不同时期劳动人民的匠心和智慧，具有重要的历史、科学、艺术价值，是潮州历史文化的重要标志。要珍惜和保护好这份宝贵的历史文化遗产，不能搞过度修缮、过度开发，尽可能保留历史原貌。要抓好韩江流域综合治理，让韩江秀水长清。', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在潮州市察看广济桥，了解桥梁历史文化特色，听取修复保护情况介绍。新华社记者 鞠鹏 摄', '随后，习近平步行穿过广济桥畔的广济门，沿石阶登上广济楼。在楼上展厅里，习近平察看潮州非遗文化作品，观看非遗项目传承人代表的现场制作演示，并同他们亲切交流，了解潮州传统技艺传承情况。习近平指出，潮州文化具有鲜明的地域特色，是岭南文化的重要组成部分，是中华文化的重要支脉。以潮绣、潮瓷、潮雕、潮塑、潮剧和工夫茶、潮州菜等为代表的潮州非物质文化遗产，是中华文化的瑰宝。要加强非物质文化遗产保护和传承，积极培养传承人，让非物质文化遗产绽放出更加迷人的光彩。', '习近平来到二层檐廊，举目远眺，韩江水阔，长桥卧波。在听取广济楼历史和古城修复保护情况汇报后，习近平强调，包括广济桥、广济楼在内的潮州古城比较完好地保留了下来，实属难得，弥足珍贵。在改造老城、开发新城过程中，要保护好城市历史文化遗存，延续城市文脉，使历史和当代相得益彰。', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在潮州古城牌坊街考察时，向群众挥手致意。新华社记者 王晔 摄', '牌坊街是潮州市的文化地标之一，23座古牌坊连接起51条古街巷。习近平沿街步行，了解潮州市修复保护历史文化街区、打造优秀传统文化集结地等情况，并走进街边商铺，同店员、顾客热情交谈，向他们询问复商复市怎么样、生产生活还有什么困难等。习近平指出，当前我国疫情防控取得重大战略成果，经济社会正常秩序基本恢复，但外防输入、内防反弹压力还很大。要继续严格执行各项常态化疫情防控措施，为最终战胜疫情而共同努力。', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在潮州古城牌坊街考察时，同群众亲切交流。新华社记者 王晔 摄', '沿街挤满了闻讯赶来的群众，大家欢呼“总书记好！”“总书记辛苦了！”习近平频频向大家挥手致意。他亲切地对大家说，潮州历史悠久、人文荟萃，是国家历史文化名城，很多人都慕名前来参观旅游。要保护好具有历史文化价值的老城区，彰显城市特色，增强文化旅游内涵，让人们受到更多教育。40多年前我来过潮州，今天再次来到这里，看到潮州发展欣欣向荣，感到很欣慰。希望潮州广大干部群众抓住机遇，乘势而上，起而行之，把潮州建设得更加美丽！', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在潮州市潮州三环（集团）股份有限公司实验室，了解企业自主创新和产业升级等情况。新华社记者 王晔 摄', '离开牌坊街，习近平来到潮州三环（集团）股份有限公司调研。50年来，这家企业坚持自主创新，不断推动产业升级，在电子元件、先进材料研发和生产上走在行业前列，一些产品产销量位居全球前列。疫情期间，企业在坚持严格疫情防控的同时，积极复工复产，产销量实现了逆势上扬。在公司展厅，习近平察看特色产品展示，详细询问产品应用、技术优势、市场销售等。他还走进实验室和生产车间，了解企业坚持自主创新、推动传统制造业转型升级以及开拓国内国际市场等情况。习近平强调，自主创新是增强企业核心竞争力、实现企业高质量发展的必由之路。希望你们聚焦国内短板产品，在自主研发上加倍努力，掌握更多核心技术、前沿技术，增强企业竞争和发展能力。面对世界百年未有之大变局，面对国内外发展环境发生的深刻复杂变化，我们要走一条更高水平的自力更生之路，实施更高水平的改革开放，加快构建以国内大循环为主体、国内国际双循环相互促进的新发展格局。大家要深刻领会党中央战略意图，在构建新发展格局这个主战场中选准自己的定位，发扬企业家精神，推动企业发展更上一层楼，为国家作出更大贡献。', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在潮州市潮州三环（集团）股份有限公司，同企业员工亲切交流。新华社记者 鞠鹏 摄', '13日下午，习近平来到汕头市小公园开埠区考察调研。汕头自1860年开埠以来，见证了列强侵略中国的屈辱历史，也见证了改革开放以来经济特区的发展历程。习近平走进汕头开埠文化陈列馆，了解汕头开埠历史和经济特区发展成就，听取汕头市下一步发展规划情况汇报。习近平指出，汕头经济特区是改革开放后最早建立的经济特区之一。新时代改革开放的内涵、条件、要求同过去相比有很大不同。希望汕头深入调查研究，认真思考谋划，拿出能够真正解决问题的思路和举措来，路子对了，就要以功成不必在我的境界，久久为功。要充分利用建设粤港澳大湾区、共建“一带一路”等重大机遇，找准定位，扬长避短，以更大魄力、在更高起点上推进改革开放，在新时代经济特区建设中迎头赶上。', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是13日下午，习近平在汕头市小公园开埠区汕头开埠文化陈列馆考察，了解汕头开埠历史、经济特区发展成就及下一步发展规划情况。新华社记者 鞠鹏 摄', '随后，习近平参观了具有潮汕侨乡特色的侨批文物馆。过去很长一段时间，海外华侨通过民间渠道将连带家书或简单附言的汇款凭证寄回国内，这些“侨批”成为研究近代华侨史的珍贵档案。习近平听取侨批历史和潮汕华侨文化介绍。他强调，“侨批”记载了老一辈海外侨胞艰难的创业史和浓厚的家国情怀，也是中华民族讲信誉、守承诺的重要体现。要保护好这些“侨批”文物，加强研究，教育引导人们不忘近代我国经历的屈辱史和老一辈侨胞艰难的创业史，并推动全社会加强诚信建设。潮汕地区是我国著名侨乡。汕头经济特区要根据新的实际做好“侨”的文章，加强海外华侨工作，引导和激励他们在支持和参与祖国现代化建设、弘扬中华文化、促进祖国和平统一、密切中外交流合作等方面发挥更大作用。', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是13日下午，习近平在汕头市小公园开埠区侨批文物馆考察，了解侨批历史和潮汕华侨文化。新华社记者 王晔 摄', '汕头小公园开埠区，是目前我国保存最完好的开埠区之一。呈环形放射状格局的街道上，建有大片骑楼群。习近平步行察看街区风貌，听取当地开展开埠区修复改造、推进历史文化街区保育活化等情况介绍。习近平强调，现在我国经济社会发展很快，城市建设日新月异。越是这样越要加强历史文化街区保护，在加强保护的前提下开展城市基础设施建设，有机融入现代生活气息，让古老城市焕发新的活力。要引导人们认识到汕头经济特区的今天来之不易，从中感悟党的领导和我国社会主义制度的显著优越性，坚定中国特色社会主义道路自信、理论自信、制度自信、文化自信。', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是13日下午，习近平在汕头市小公园开埠区步行察看街区风貌时，向当地群众和游客挥手致意。新华社记者 王晔 摄', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是13日下午，习近平在汕头市小公园开埠区，同商铺店员亲切交流，了解复商复市和常态化疫情防控情况。新华社记者 鞠鹏 摄', '当地群众和游客们见到总书记来了，争相围拢上来向总书记问好。习近平祝大家生活愉快、健康幸福。他指出，我国改革开放和经济特区的建设同大批心系乡梓、心系祖国的华侨是分不开的。我们即将全面建成小康社会、开启全面建设社会主义现代化国家新征程，向第二个百年奋斗目标进军。到本世纪中叶把我国建成富强民主文明和谐美丽的社会主义现代化强国，是海内外全体中华儿女的共同心愿。今年是经济特区建立40周年，我特地来汕头经济特区考察调研，就是要向国内外宣示，中国共产党领导中国人民将坚定不移走改革开放道路，奋发有为推进社会主义现代化建设，锲而不舍实现中华民族伟大复兴的中国梦。希望乡亲们携手努力，共同奋斗！', '10月12日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是13日下午，习近平在汕头市小公园开埠区，同当地群众和游客亲切交流。新华社记者 王晔 摄', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>97</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>习近平赴广东考察调研</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2020-10-13</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602341.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['习近平总书记12日赴广东考察调研。当天下午，他首先考察了潮州市广济桥、广济楼、牌坊街，察看文物修复保护、非遗文化传承、文旅资源开发等情况。随后，习近平前往潮州三环（集团）股份有限公司，了解企业自主创新和生产经营情况。（文字记者：张晓松、朱基钗 摄影记者：鞠鹏、王晔、李响）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>97</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>习近平在长沙考察调研</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2020-09-18</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602171.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['习近平总书记17日在湖南省长沙市考察调研。他来到山河智能装备股份有限公司、马栏山视频文创园、湖南大学岳麓书院，考察当地发展先进制造业和文化产业、加强和创新高校思想政治工作、传承弘扬优秀历史文化情况。（文字记者张晓松、朱基钗 摄影记者李学仁、谢环驰、岳月伟）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>97</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>习近平在合肥考察调研</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2020-08-19</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601971.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['习近平总书记19日下午在安徽省合肥市考察调研。他在肥东县十八联圩生态湿地蓄洪区巢湖大堤罗家疃段，察看巢湖水势水情，看望慰问防汛抗洪一线人员、先进典型代表和参加抗洪抢险的解放军、武警部队官兵。当天下午，习近平在合肥还参观了安徽创新馆和渡江战役纪念馆，了解安徽省科技创新和新兴产业发展情况，重温革命历史、缅怀革命先烈。（文字记者：张晓松 摄影记者：鞠鹏 王晔 燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>97</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>习近平赴安徽考察调研</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2020-08-18</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601931.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['习近平总书记18日赴安徽考察调研。当天下午，他先后来到阜阳市阜南县王家坝闸、红亮箱包有限公司、蒙洼蓄洪区曹集镇利民村西田坡庄台，察看淮河水情，走进田间地头，了解当地防汛救灾和灾后恢复生产等情况，看望慰问受灾群众。(文字记者：张晓松 摄影记者：鞠鹏 王晔)', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>97</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>习近平赴湖南考察调研</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2020-09-17</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602181.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['习近平总书记16日赴湖南考察调研。当天下午，他来到郴州市汝城县文明瑶族乡沙洲瑶族村“半条被子的温暖”专题陈列馆、村服务中心和卫生室、沙洲现代农旅示范基地、文明瑶族乡第一片小学，以及村民家中，了解当地开展红色教育、发展扶贫产业、巩固脱贫成果等情况。（文字记者张晓松、朱基钗 摄影记者李学仁、谢环驰、岳月伟）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>97</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>习近平赴吉林考察调研</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2020-07-23</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601851.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['习近平总书记22日赴吉林考察调研。当天下午，他首先来到四平市梨树县国家百万亩绿色食品原料（玉米）标准化生产基地核心示范区、卢伟农机农民专业合作社，了解粮食生产、黑土地保护利用、农业机械化规模化经营等情况。随后，习近平参观了四平战役纪念馆，重温革命历史，缅怀革命先烈。（记者张晓松、朱基钗 摄影：鞠鹏、王晔、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>97</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>习近平在长春考察调研</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2020-07-24</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601911.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['习近平总书记23日在长春考察调研。他先后来到宽城区团山街道长山花园社区和吉林长春社区干部学院、长春新区规划展览馆、一汽集团研发总院，了解基层社会治理、新区规划建设、国企改革发展等情况。（记者张晓松、朱基钗 摄影：鞠鹏、燕雁、王晔）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>97</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>习近平在银川考察调研</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2020-06-10</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601561.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['习近平总书记9日在银川考察调研。他先后来到贺兰县稻渔空间乡村生态观光园、贺兰山东麓葡萄种植园，了解当地发展特色农业产业、加强贺兰山生态保护等情况。（文字记者：张晓松、朱基钗 摄影记者：鞠鹏、谢环驰、王晔、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>97</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>习近平赴宁夏考察调研</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2020-06-09</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601601.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['习近平总书记8日赴宁夏考察调研。当天下午，他先后来到吴忠市红寺堡镇弘德村、黄河吴忠市城区段、金星镇金花园社区，了解当地推进脱贫攻坚、加强黄河流域生态保护、促进民族团结等情况。（文字记者：张晓松、朱基钗 摄影记者： 鞠鹏、谢环驰、王晔、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>97</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>习近平在太原考察调研</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2020-05-13</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601391.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['习近平总书记12日在太原考察调研。他先后来到山西转型综合改革示范区政务服务中心、太钢不锈钢精密带钢有限公司、汾河太原城区晋阳桥段，了解传统制造业转型升级、企业复工复产、生态环保和污染防治等情况。（文字记者：张晓松、朱基钗 摄影记者：李学仁、谢环驰、刘彬）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>97</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>习近平在宁夏考察</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-06-11</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601761.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月8日下午，习近平在吴忠市红寺堡区红寺堡镇弘德村看望移民搬迁群众，向村民们挥手致意。新华社记者 谢环驰 摄', '新华社银川6月10日电 中共中央总书记、国家主席、中央军委主席习近平近日在宁夏考察时强调，要全面落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，落实全国“两会”工作部署，坚决打好三大攻坚战，扎实做好“六稳”工作，全面落实“六保”任务，努力克服新冠肺炎疫情带来的不利影响，优先稳就业保民生，决胜全面建成小康社会，决战脱贫攻坚，继续建设经济繁荣、民族团结、环境优美、人民富裕的美丽新宁夏。', '夏日炎炎，塞上江南天高云淡，草木葱茏。6月8日至10日，习近平在宁夏回族自治区党委书记陈润儿、自治区政府主席咸辉陪同下，先后来到吴忠、银川等地，深入农村、社区、防洪工程、农业产业园区等，就统筹推进常态化疫情防控和经济社会发展工作、巩固脱贫攻坚成果、加强生态环境保护、推动民族团结进步进行调研。', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月8日下午，习近平在吴忠市红寺堡区红寺堡镇弘德村扶贫车间，同正在加工制作纸箱的村民交流。新华社记者 鞠鹏 摄', '吴忠市红寺堡区红寺堡镇弘德村是生态移民村，有建档立卡贫困户1036户4497人，目前还有20户50人未脱贫。8日下午，习近平首先来到弘德村考察脱贫攻坚工作。在村扶贫车间院内，他听取了宁夏以及弘德村脱贫攻坚情况介绍。走进扶贫车间，习近平同正在加工制作纸箱的村民们亲切交流。乡亲们告诉总书记，村里引入企业从事纸箱包装业务，解决了一百多人就业问题。习近平表示肯定。他指出，兴办扶贫车间目的是扶贫，要坚持扶贫性质，向困难群众倾斜，多招收困难群众就业。乡亲们在家门口就业，虽然收入不比进城务工高，但省去了住宿、伙食、交通等费用，还能照顾家庭，一举多得。企业参与兴办扶贫车间，体现了先富带后富，很有意义。', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月8日下午，习近平在吴忠市红寺堡区红寺堡镇弘德村察看回族村民刘克瑞家院落。新华社记者 谢环驰 摄', '随后，习近平步行察看村容村貌。在回族村民刘克瑞家，他仔细看院落、客厅、卧室、厨房、牛棚，详细了解家庭就业、收入、看病、社保等情况。刘克瑞告诉总书记，家里的耕地流转了，还养了3头肉牛，儿子儿媳在附近纺织厂打工，2017年全家脱贫，生活越来越好，乡亲们打心底里感到党的政策好，真切感受到共产党亲。习近平询问刘克瑞老两口还有什么困难、对今后的日子有什么打算。习近平强调，乡亲们搬迁后，更好生活还在后头。希望乡亲们百尺竿头、更进一步，发挥自身积极性、主动性、创造性，用自己的双手创造更加美好的新生活。', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月8日下午，习近平在吴忠市红寺堡区红寺堡镇弘德村，同回族村民刘克瑞一家亲切交流。新华社记者 谢环驰 摄', '离开村子时，村民们纷纷赶到村口，欢送总书记。习近平向大家挥手致意，祝愿乡亲们生活幸福。', '习近平高度重视黄河流域生态保护和高质量发展。他来到黄河吴忠滨河大道古城湾砌护段，沿岸边步道，察看黄河生态治理保护状况，听取黄河宁夏段生态保护治理和水利工程建设情况汇报。习近平指出，黄河是中华民族的母亲河，是中华民族和中华文明赖以生存发展的宝贵资源。自古以来，黄河水滋养着宁夏这片美丽富饶的土地，今天仍在造福宁夏各族人民。宁夏要有大局观念和责任担当，更加珍惜黄河，精心呵护黄河，坚持综合治理、系统治理、源头治理，明确黄河保护红线底线，统筹推进堤防建设、河道整治、滩区治理、生态修复等重大工程，守好改善生态环境生命线。', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月8日下午，习近平在黄河吴忠滨河大道古城湾砌护段，察看黄河生态治理保护状况。新华社记者 鞠鹏 摄', '傍晚时分，习近平前往吴忠市利通区金花园社区。社区常住居民13850人，汉、回、满、蒙、藏等各族群众和睦相处，曾荣获“全国民族团结进步模范集体”称号。习近平来到社区党群活动服务中心，了解社区党建工作、民族团结社区创建和为民服务工作情况，同社区志愿者代表亲切交谈。社区广场十分热闹，正在休闲娱乐的居民看见总书记来了，围拢过来，热烈鼓掌。习近平深情对大家说，中华民族是多元一体的伟大民族。全面建成小康社会，一个少数民族也不能少。各民族团结携手，共同迈进全面小康，体现了中华民族优良传统，体现了中国特色社会主义制度的显著优势。社会主义是干出来的，幸福是奋斗出来的。有党和政府持续努力，有各族群众不懈奋斗，今后的生活一定会更好更幸福。', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月8日下午，习近平在吴忠市利通区金花园社区党群活动服务中心，同社区志愿者代表亲切交谈。新华社记者 鞠鹏 摄', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月8日下午，习近平在吴忠市利通区金花园社区考察民族团结社区创建工作情况。新华社记者 谢环驰 摄', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月8日下午，习近平在吴忠市利通区金花园社区广场，同居民们亲切交流。新华社记者 燕雁 摄', '在黄河水滋养下，宁夏平原土地肥沃、物产丰富，素有“塞上江南”之称。9日下午，习近平来到银川市贺兰县稻渔空间乡村生态观光园，听取宁夏现代农业发展、农业合作社带动农民增收致富运营模式等情况汇报，观看宁夏特色农产品展示，了解稻渔种养业融合发展的创新做法。习近平登上观景塔，俯瞰园区全貌。微风轻拂，秧苗摇曳，一派生机勃勃。他沿着田埂走进稻田，同正在劳作的村民们亲切交谈。村民们告诉总书记，现在有土地流转费、劳务费，还有年底分红，收入提高了，也有保障了。正值放鱼时节，习近平舀起鱼苗、蟹苗，放进田边水渠。习近平强调，发展现代特色农业和文化旅游业，必须贯彻以人民为中心的发展思想，突出农民主体地位，把保障农民利益放在第一位。要探索建立更加有效、更加长效的利益联结机制，确保乡亲们持续获益。要注意解决好稻水矛盾，采用节水技术，积极发展节水型、高附加值的种养业，保护好黄河水资源。目前，疫情防控形势稳步向好，要继续抓好常态化疫情防控，加快恢复社会生产生活正常秩序。', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月9日下午，习近平在银川市贺兰县稻渔空间乡村生态观光园，同正在劳作的村民亲切交谈。新华社记者 谢环驰 摄', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月9日下午，习近平在银川市贺兰县稻渔空间乡村生态观光园，了解宁夏现代农业发展和特色农产品情况。新华社记者 鞠鹏 摄', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月9日下午，习近平在银川市贺兰县稻渔空间乡村生态观光园，同正在劳作的村民亲切交谈。新华社记者 鞠鹏 摄', '习近平对贺兰山生态环境保护十分关心。在银川市西夏区源石酒庄葡萄种植基地，他远眺巍巍贺兰山，听取贺兰山生态保护和环境综合整治情况汇报。习近平指出，贺兰山是我国重要自然地理分界线和西北重要生态安全屏障，维系着西北至黄淮地区气候分布和生态格局，守护着西北、华北生态安全。要加强顶层设计，狠抓责任落实，强化监督检查，坚决保护好贺兰山生态。', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月9日下午，习近平在银川市西夏区贺兰山东麓，听取贺兰山生态保护和环境综合整治情况汇报。新华社记者 谢环驰 摄', '在葡萄种植园，习近平同正在作业的工人和技术人员交流，了解葡萄种植技术、产品销路和收入情况。贺兰山东麓日照充足、灌溉便利，适合种植酿酒葡萄。习近平强调，随着人民生活水平不断提高，葡萄酒产业大有前景。宁夏要把发展葡萄酒产业同加强黄河滩区治理、加强生态恢复结合起来，提高技术水平，增加文化内涵，加强宣传推介，打造自己的知名品牌，提高附加值和综合效益。', '6月8日至10日，中共中央总书记、国家主席、中央军委主席习近平在宁夏考察。这是6月9日下午，习近平在银川市西夏区葡萄种植基地，同工人和技术人员交流。新华社记者 鞠鹏 摄', '10日上午，习近平听取了宁夏回族自治区党委和政府工作汇报，对宁夏各项工作取得的成绩给予肯定，希望宁夏广大干部群众紧密团结，真抓实干，为实现“两个一百年”奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献。', '习近平强调，要坚持不懈推动高质量发展，加快转变经济发展方式，加快产业转型升级，加快新旧动能转换，推动经济发展实现量的合理增长和质的稳步提升。要把减轻企业税费负担政策落实兑现到位，把扩大内需各项政策举措落到实处，把重大项目投资带动作用发挥出来，及时解决企业恢复生产经营面临的各种问题。要把握扩大内需这一战略基点，以供给侧结构性改革为主线，着力打通生产、分配、流通、消费各个环节。要发挥创新驱动作用，推动产业向高端化、绿色化、智能化、融合化方向发展。要加快建立现代农业产业体系、生产体系、经营体系，让宁夏更多特色农产品走向市场。', '习近平指出，要推动改革开放取得新突破，坚持问题导向，有的放矢推进改革，加强对改革举措的评估问效，促进各项改革往深里走、往实里落，加快培育充分竞争的市场，不断激发各类市场主体活力。要抓住共建“一带一路”重大机遇，坚持对内开放和对外开放相结合，培育开放型经济主体，营造开放型经济环境，以更高水平开放促进更高质量发展。', '习近平强调，要坚决打赢脱贫攻坚战，对标“两不愁三保障”，瞄准突出问题和薄弱环节，一鼓作气、尽锐出战，确保如期实现脱贫目标。要完善移民搬迁扶持政策，确保搬迁群众搬得出、稳得住、能致富。要巩固提升脱贫成果，保持现有政策总体稳定，推进全面脱贫与乡村振兴战略有效衔接。', '习近平指出，要牢固树立绿水青山就是金山银山的理念，统筹山水林田湖草系统治理，优化国土空间开发格局，继续打好蓝天、碧水、净土保卫战，抓好生态环境保护。要把保障黄河长治久安作为重中之重，实施河道和滩区综合治理工程，统筹推进两岸堤防、河道控导、滩区治理，推进水资源节约集约利用，统筹推进生态保护修复和环境治理，努力建设黄河流域生态保护和高质量发展先行区。', '习近平强调，要坚持以人民为中心的发展思想，切实解决好群众的操心事、烦心事、揪心事，扎实做好下岗失业人员、高校毕业生、农民工、退役军人等重点群体就业工作。要推进城乡义务教育均衡发展，加快公共卫生体系建设，广泛开展爱国卫生运动。要坚持党的宗教工作基本方针，依法加强宗教事务管理。要扎实推动民法典实施，加强和创新社会治理，加强安全生产工作。', '习近平指出，坚定的理想信念，永远是激励我们奋勇向前、克难制胜不竭的力量源泉。全党同志特别是各级领导干部要不忘初心、牢记使命，始终保持清醒头脑和政治定力，坚持和加强党的领导不动摇，坚持和发展中国特色社会主义不动摇，坚持实现中华民族伟大复兴的宏伟目标不动摇，锲而不舍把革命先辈为之奋斗的伟大事业推向前进。要激发广大党员、干部奋斗精神，以行之有效的举措落实好党中央决策部署，做好改革发展稳定各项工作。要把为民造福作为最重要的政绩，建立健全干部担当作为的激励机制，坚决反对形式主义、官僚主义。要持之以恒正风肃纪，一体推进不敢腐、不能腐、不想腐，营造风清气正的创业环境。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>97</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>习近平赴山西考察调研</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2020-05-12</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601351.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['习近平总书记11日赴山西考察调研。当天下午，他首先来到大同市云州区有机黄花标准化种植基地、西坪镇坊城新村，了解巩固脱贫攻坚成果工作情况。之后，前往云冈石窟实地了解历史文化遗产保护情况。（文字记者：张晓松、朱基钗 摄影记者：李学仁、谢环驰、刘彬）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>97</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>习近平在海北州刚察县考察调研</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2021-06-09</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20603631.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['8日下午，习近平总书记来到青海省海北藏族自治州刚察县，在青海湖仙女湾听取祁连山和青海湖生态环境保护等情况介绍，并实地察看青海湖环境综合治理、生物多样性保护工作成效。随后，习近平来到沙柳河镇果洛藏贡麻村，看望慰问藏族群众，走进藏族群众家中了解生产生活情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁、申宏）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>97</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>市商务局赴常州学习考察网红经济发展</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2024-06-25</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/667a0c888866883a1a8b5111.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['6月6日，副局长王臣带队赴常州学习考察网红经济发展经验做法，部分县商务部门负责人和局机关科室负责人参加，常州市商务局副局长彭立以及局机关相关处室负责人陪同。', '王臣一行先后实地考察了常州综合保税区、菜鸟华东进口中心仓、跨境电商体验店、化龙网络科技股份有限公司等企业和场景，与相关负责人深入交流探讨“跨境电商+产业带”融合、“网红直播+兴农惠企”和“体验店+直播”等新模式、新业态。', '座谈会上，王臣表示，近年来，常州市商务领域网红经济发展迅猛，取得了很多好经验、好做法，这次学习受益匪浅，要将进一步总结吸纳、对标看齐，推动马鞍山市商务领域网红经济发展更上新台阶。同时，王臣希望两市商务部门在今后的工作中进一步加强沟通联系，共同推动数字赋能商务发展新实践。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>97</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>习近平在西安考察调研</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2020-04-23</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601101.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['习近平总书记22日在西安考察调研。他先后来到陕西汽车控股集团有限公司、西安交通大学、大唐不夜城步行街，了解企业复工复产和社会生活秩序恢复等情况。（文字记者：张晓松 摄影记者：鞠鹏、谢环驰、燕雁、翟健岚） \u200b\u200b\u200b\u200b', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>97</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>习近平在天津考察</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2019-01-18</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20598151.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['17日上午，习近平来到天津考察调研。在南开大学，他参观了百年校史主题展览，与部分院士、专家和中青年师生代表互动交流，察看了化学学院和元素有机化学国家重点实验室，详细了解南开大学历史沿革、学科建设、人才队伍、科研创新等情况。（记者张晓松、谢环驰）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>97</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>习近平在浙江考察调研</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-03-30</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601331.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['习近平总书记29日在浙江考察调研。当天下午，他先后来到宁波舟山港穿山港区码头、北仑大碶高端汽配模具园区，了解港口和园区企业复工复产情况。（记者：杨维汉、朱基钗）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>97</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>市党政代表团赴杭州嘉兴湖州学习考察</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/21111331.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['8月15日至17日，市委书记袁方、市长葛斌率市党政代表团，就认真学习贯彻习近平总书记关于长三角一体化发展的重要论述，深入践行习近平总书记赋予马鞍山打造安徽的“杭嘉湖”、长三角的“白菜心”新发展定位，赴浙江省杭州市、嘉兴市、湖州市学习考察。市领导钱沙泉、吴桂林、方文、范奇、程彰德、陈永红、左年文、阙方俊，市政府秘书长汪强，各县区、园区和市直相关部门负责同志参加。', '15日下午至16日上午，市党政代表团前往杭州市考察。杭州市市长姚高员，市政协副主席陈国妹，市政府秘书长高国飞分别参加。良渚遗址是实证中华五千年文明史的圣地，于2019年入选《世界遗产名录》。代表团走进良渚博物院、良渚古城遗址公园，详细了解良渚遗址在资源活化、申遗等方面工作情况，表示将深入学习良渚遗址保护、传承、利用的经验做法，大力挖掘我市凌家滩遗址的历史文化价值，加快申遗步伐。在杭州城市大脑运营指挥中心，代表团观看了城市大脑在数字治疫、数字治堵、政务服务等多场景中的应用演示，表示要充分借鉴杭州做法，加快推动数字政府、数字城市建设。新华三集团主要为金融、医疗、教育等多个领域提供数字化转型解决方案，代表团认真听取企业产品、技术等情况介绍，并参观了企业创新体验中心。杭州高新区（滨江）是国家自主创新示范区，打造形成了多个千亿级智慧经济产业，代表团对他们积极创新体制机制、大力发展数字经济等做法给予高度评价。杭州在全国率先推进未来社区建设，代表团来到西兴街道缤纷未来社区，参观了缤纷会客厅、缤纷食堂等场所，并就如何做好基层治理工作与社区干部深入交流。', '16日下午，市党政代表团前往嘉兴市嘉善县考察。嘉兴市委书记陈伟，市委秘书长沈雨祥参加。嘉善县是长三角生态绿色一体化发展示范区的重要组成部分，代表团走进示范区（嘉善）企业交流服务基地，详细了解嘉善片区规划和建设情况，高度肯定嘉善的绿色创新发展成就。随后，代表团来到祥符荡科创绿谷研发总部，步行考察祥符荡水域生态修复情况，察看浙大未来食品实验室和祥符实验室，表示要学习借鉴嘉善在引进科研机构和科创人才等方面经验，加快建设高能级创新平台，推动更多科技创新成果就地转化和产业化。在兰钧新能源科技有限公司，代表团听取了企业产品研发和生产经营情况介绍，对企业节约集约利用土地的做法给予好评。大云镇缪家村是浙江深入推进“千万工程”、引领乡村美丽蝶变的典型代表。代表团参观了缪家村史馆，沿着幸福广场、便民服务一条街边走边看，详细了解抓党建促乡村振兴、壮大村级集体经济、服务惠民等方面情况。', '17日上午，市党政代表团前往湖州市考察。湖州市委书记陈浩、市长洪湖鹏，副市长夏坚定、市政协副主席李全明，市委秘书长宋波分别参加。万邦德·栋梁铝业有限公司是国内首家主营建筑铝材的上市企业，通过运用智能管理、调度和物流系统实现生产全程数字化。代表团走进生产车间，参观铝型材生产加工过程，详细了解企业生产经营、技术改造等情况。浙江东尼电子股份有限公司是国家级高新技术企业，主要产品包括金刚石切割线、无线充电隔磁片等。在产品展示厅，代表团听取了企业产品研发、人才引进等情况介绍，纷纷点赞企业的创新发展成效。在吴兴区社会治理中心，代表团详细了解矛盾纠纷化解“只进一扇门”“最多跑一地”模式，观摩了基层智治驾驶舱应用演示，认为这些做法对我市加快推进社会治理现代化具有借鉴意义。吴兴区潞村是世界乡村旅游大会永久会址，代表团步行考察了双源馆、《典籍里的中国》陈列馆、潞村水街，详细了解古村落保护开发、文旅融合等方面创新做法。', '学习考察中，袁方强调，长三角一体化发展是马鞍山的最大机遇、最大红利、最大动能。各级各部门要深入学习贯彻习近平总书记关于长三角一体化发展的重要论述，认真落实长三角地区主要领导座谈会精神，按照省委十一届五次全会、市委十届四次全会部署，全面对标学习沪苏浙，加快打造生态优、产业强、活力足、城乡美、百姓富的长三角“白菜心”，奋力走出新时代马鞍山高质量发展新路。要勇于争创一流，充分学习借鉴杭州、嘉兴、湖州贯彻新发展理念、推动高质量发展的好经验好做法，在科技创新、招大引强、产业发展、人才引进、文化旅游、乡村振兴、基层治理等重点领域创新思路举措，谋划推进一批牵动性、标志性重大项目，努力推动各项工作在全省走在前列、在长三角勇立潮头、在全国争先进位。要深化对接合作，充分发挥桥头堡优势，主动靠上去、全力融进去，在基础设施互联互通、科技联合攻关、产业链供应链协同、公共服务便利共享等方面，积极与长三角城市开展深层次合作，以更大力度推进长三角一体化发展。要拉高工作标杆，扎实开展思想大解放、环境大优化、能力大提升、作风大转变、任务大落实和“六破六立”大讨论，在理念、思路、方法等方面查不足、补短板，实实在在解决具体问题，真抓实干、紧抓快干，不断提升各方面工作水平。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>97</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>马鞍山市党政代表团赴南京市学习考察</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/21009911.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['3月28日，马鞍山市党政代表团赴南京市学习考察。两市召开工作对接座谈会，全面贯彻落实党的二十大、全国两会精神，深入落实习近平总书记关于推进长三角一体化发展的重要讲话重要指示精神，研究深化宁马合作、加快南京都市圈高质量发展的具体举措。江苏省委常委、南京市委书记韩立明，马鞍山市委书记袁方出席座谈会并讲话。南京市领导王立平、王华、邓智毅、蒋跃建、林涛、许明、黄辉，马鞍山市领导葛斌、钱沙泉、吴桂林、方文、范奇、阙方俊，市政府秘书长汪强分别参加有关活动。', '座谈会上，韩立明对代表团来宁表示欢迎，并简要介绍了今年以来南京经济社会发展情况。她说，近年来，两市认真落实长三角一体化高质量发展各项具体任务，在规划衔接、产业协作、毗邻地区融合等方面取得显著成果，充分彰显了党中央谋划部署推动的重大区域战略的强大引领作用。马鞍山在推动发展中的许多亮点和经验值得南京认真学习。党的二十大对区域协调发展作出重要部署，强调以城市群、都市圈为依托构建大中小城市协调发展格局。加强宁马合作既是政治责任，也是迫切需要，我们要立足新形势，认真贯彻落实苏皖两省部署要求，扎扎实实、踏踏实实推进具体任务，携手谱写宁马合作新篇章，为构建优势互补的区域经济布局、推动高质量发展走在前列作出更大贡献。', '韩立明对进一步深化两市合作、扎实推动具体事项提出四点建议。一是以深化南京都市圈建设为重点，更大力度融入服务长三角一体化发展；二是以探索高效协作模式为方向，更大力度推动科技和产业领域合作；三是以打造一体化综合交通体系为目标，更大力度推动基础设施互联互通；四是以提升群众幸福感和满意度为根本，更大力度推动民生事业共建共享。她强调，两市各板块各部门各单位要树牢“一体化”意识和“一盘棋”思想，进一步明确时间表、任务书，协同推进、善作善成，推动各项任务取得务实成果。', '袁方在讲话中说，学习考察期间，我们深切感受到南京发展定位标杆高、中心城市能级高、创新驱动势能高、争先创优劲头高，充满了高质量发展的澎湃势能和现代化中心城市的蓬勃生机。南京取得的显著成绩，为南京都市圈城市树立了榜样，许多好经验、好做法值得我们学习和借鉴。近年来，马鞍山紧抓长三角一体化发展机遇，深度融入南京都市圈，加快推动高质量发展，取得积极成效，保持了良好发展态势。这些成绩的取得，得益于长三角一体化发展国家战略带来的红利，得益于南京都市圈的辐射带动，得益于南京对马鞍山的大力支持。对南京长期以来给予马鞍山的支持帮助表示衷心感谢。', '袁方表示，我们将以更加积极主动的姿态对接南京，在同城化发展中做强自身，努力实现优势互补、合作共赢，共建南京都市圈、共同推进长三角一体化发展。希望双方进一步推动交通互联更加畅通，全面推进两市轨道交通、国省干道的互联互通；推动产业协同更加精准，提高都市圈产业链、供应链的安全和韧性；推动毗邻合作更加高效，创新毗邻合作区域运营管理模式；推动对接合作更加紧密，对议定的重大项目和重要事项共同组建专班，加强调度推进，努力取得更好成效。', '座谈会前，代表团考察了菲尼克斯新一代智能工厂、佗道医疗科技有限公司、中国（南京）软件谷，学习南京发展数字经济、新兴产业和推进科技创新等经验。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>97</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>马鞍山市赴芜湖市考察学习政务公开工作</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/6479b5b0886688d1238b4621.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['为贯彻落实省、市有关政务公开工作要求，学习借鉴先进地市政务公开工作经验和做法，3月13日，马鞍山市政府办公室组织部分县区赴芜湖市实地考察学习。', '下一步，我市将进一步拓宽政务公开工作思路，对标先进找差距，取长补短促提升，推进我市政务公开工作提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>97</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>市经信局组织民营企业家赴杭嘉湖学习考察</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2020-12-24</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/60f8eff9fb4e962b4f086bef.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['为深入学习贯彻落实习近平总书记视察安徽重要讲话指示精神，引导全市民营企业和民营企业家向发达地区学习，进一步开阔视野，全面提升企业管理、创新水平，推动民营企业改革发展，12月16日-19日,市经信局组织我市22位民营企业家赴杭州、嘉兴、湖州学习考察，市经信局副局长魏塘明带队。', '在嘉兴，考察组一行瞻仰了中共“一大”旧址，赴南湖红船现场教学，感受和学习“红船精神”，并赴嘉兴君权自动化设备有限公司参观，与公司董事长倪君权交流中小企业的转型升级之路，分享企业发展过程中面临的各种问题及解决方案。', '”，并赴嘉兴君权自动化设备有限公司参观，与公司董事长倪君权交流中小企业的转型升级之路，分享企业发展过程中面临的各种问题及解决方案。', '在杭州，考察组一行先后来到杭州鲜丰水果股份有限公司、海康威视数字技术股份有限公司、三花控股集团有限公司，参观企业展厅和车间，考察学习企业经营管理模式创新，座谈交流企业智能化、数字化改造。', '在湖州，考察组一行深入湖州珀莱雅化妆品有限公司和天能集团，考察学习传统企业转型升级。', '经过四天的学习考察，企业家们充分感受到了杭嘉湖地区民营企业和民营企业家干事创业的激情、改革创新的决心和开拓进取的精神。他们纷纷表示，将以此次学习考察为契机，进一步解放思想、开阔胸襟，着力破除“小富即安、小进即满”的传统思想，树立干大事、创大业的进取精神，不断推动企业做大做强做优，为我市全面对接沪苏浙，打造安徽的“杭嘉湖”、长三角的“白菜心”，加快建设“生态福地、智造名城”升级版再作新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>97</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>市政协赴泰州南通考察学习制造业高质量发展</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/20828571.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['8月23日-25日，市政协主席吴桂林带队，赴江苏省泰州市、南通市考察学习，围绕“推进制造业三年倍增突破年活动”，学先进、取真经，助力加快推进全市制造业高质量发展。市政协副主席王青松，市政协经济委、市经信局、市科技局负责人和部分市政协委员参加。', '调研组先后到泰州太平洋精锻科技、一道新能源、南通创新区、中天科技等先进制造业企业和创新园区进行实地调研考察，通过边走边看、边听边问，详细了解当地制造业发展情况，学习先进经验和做法，为推动马鞍山制造业高质量发展提供借鉴。', '调研组一致认为，此次外出考察学习，收获颇多，真正增长了见识，学到了经验。大家纷纷表示，将认真消化吸收此次外出调研考察的所见所闻，力求提交高质量的“推进制造业三年倍增突破年活动”资政会调研报告和建议案，供市委、市政府决策参考，为全力争做“三高地、两先锋”，加快打造安徽的“杭嘉湖”、长三角的“白菜心”贡献政协力量。', '考察学习期间，调研组还实地调研了南通市“有事好商量”协商议事工作、长江大保护生态修复工程等。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>97</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>市委组织部赴湖嘉两市学习考察组织工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2020-10-26</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/20315041.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['10月21日至22日，市委常委、组织部长、统战部长范奇率队赴湖州市、嘉兴市，学习考察两市在基层党建、干部工作、人才工作等方面的好经验、好做法，为奋力打造安徽的“杭嘉湖”、长三角的“白菜心”，全力建设“生态福地、智造名城”升级版提供坚强组织保证。', '在湖州市，范奇表示，湖州是“两山”理念的诞生地、样板地，市域治理现代化先行地，其组织工作的很多经验做法，为马鞍山提供了可参照的优秀范本。双方一致表示，两市组织部门将在基层党建、干部工作、人才工作等方面，发挥比较优势，深化交流合作，促进共同发展。', '在嘉兴市，范奇表示，嘉兴市长期以来经济社会发展水平位居长三角前列，其组织工作创造了很多先进理念、先进经验，是推动组织工作高质量发展的标兵和榜样。双方一致认为，两市将探索建立同长三角一体化发展相适应的党建互融互通机制、干部交流交往机制和人才共育共用机制，形成“党建引领、资源共享、互利互惠、协调发展”的工作新格局。双方签署了《党建工作合作框架协议》，推动组织、干部、人才各领域工作全方位交流合作。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>97</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>市卫生健康委赴湖州市学习考察卫生健康工作</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2020-10-23</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/20313521.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['为深入学习贯彻习近平总书记考察安徽和在长三角一体化发展座谈会上的讲话精神，奋力打造安徽的“杭嘉湖”、长三角的“白菜心”，近日，市卫生健康委党委书记、主任杨荣明带领委机关相关科室及市级部分公立医院一行赴湖州市学习考察。', '考察组一行先后赴湖州市中心医院、湖州市疾控中心、德清县人民医院等地，实地学习了湖州市在综合医改、医疗卫生服务、卫生健康信息化、公共卫生应急管理体系建设等方面的经验做法，通过座谈交流，全面深入了解湖州市卫生健康事业发展的先进理念和创新举措。', '通过实地对标学习，既开阔了视野、学到了经验，又看到了差距、激发了干劲。下一步，市卫生健康委将把考察中学到的好的经验、好做法转化为推进我市卫生健康事业发展的具体举措，进一步创新工作机制，全力推进健康马鞍山建设。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>97</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>博望区区法院赴南京市高淳区法院考察学习</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2020-09-27</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/20286311.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['9月23日上午，博望区法院党组书记、院长叶文胜率队，到南京市高淳区法院考察学习，贯彻习近平总书记考察安徽和在合肥主持召开扎实推进长三角一体化发展座谈会重要讲话精神，加强两地法院司法协作，高淳区法院党组副书记、副院长傅立新等陪同考察。', '考察组实地参观了高淳区法院诉讼服务中心、执行指挥中心、速裁法庭、调解工作室、电子卷宗集成库等场所，了解智慧法院建设情况。座谈会上，傅立新从信息化建设、一站式多元解纷和诉讼服务体系建设、队伍建设等方面介绍了高淳区法院的主要经验和做法。双方围绕审判团队建设、党建文化工作、送达工作、诉调对接、繁简分流、执行工作、智慧法院建设等方面进行了具体的交流探讨。', '双方表示，今后将继续密切沟通和交流，开展党建结对共建等活动，实现资源共享、优势互补，共同推动法院工作再上新台阶。', '博望区法院紧紧抓住长三角一体化总体发展战略机遇，瞄准习近平总书记考察马鞍山提出的打造安徽的“杭嘉湖”、长三角的“白菜心”新的发展定位，加强与周边南京市江宁区法院、溧水区法院、高淳区法院交流学习，建立司法协作圈，深化合作，提升司法能力和水平，为博望区经济社会高质量发展提供更优质的司法服务保障。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>97</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>博望区区法院到南京溧水区法院考察学习</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2020-08-14</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/20225241.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['8月12日下午，博望区法院党组书记、院长叶文胜率队，到南京溧水区法院考察学习，深入贯彻落实东向发展理念，推动两地法院加强司法协作。溧水区法院党组书记、院长水振华等陪同考察。 考察组实地参观了溧水法院便民接待中心、诉讼服务中心、执行指挥中心等场所，了解软硬件设施配备情况。座谈会上，叶文胜和水振华分别介绍了两家法院的基本情况，随后，双方围绕党建工作、一站式多元解纷和诉讼服务体系建设、执行联动机制建设、审判管理以及智慧法院建设等工作进行了深入交流，并就实际工作中遇到的问题进行了具体探讨。 双方均表示，与兄弟法院交流学习是拓宽视野，改进工作的有效途径。博望、溧水相互毗邻，今后两地法院要进一步加强沟通联系，资源共享、优势互补，共同推动工作再上新台阶。 此次考察交流为推进区域司法协作共同体建设，服务保障高质量发展打下了坚实基础。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>97</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>滁州市财政局国资委市委编办来我市考察学习</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2019-08-23</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/10000572.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['8月22日，滁州市财政局（国资委）党组成员、机关党委书记胡宁，滁州市委编办党组成员、副主任杨仁传一行5人来我局进行考察交流，考察我市在国有企业党建、机关党建、机构设置及国资监管方面的经验做法。市财政局（国资委）党委副书记、副局长陈陆林接待考察组并主持交流座谈会，市委编办体制改革科，国企党建办、机关党委、企业资产科等有关科室负责人参加座谈交流。', '座谈会上，陈陆林同志对滁州市考察组一行的到来表示热烈欢迎，并详细介绍了我局机构设置情况、机关行业企业党建情况以及国资监管、经营业绩考核、“三供一业”等方面的工作经验。随后，双方围绕机构设置、国资职责等其他重点工作进行了交流探讨。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>97</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>博望区工商联赴江宁区横溪街道商会学习考察</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019-06-13</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9832867.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['6月12日上午，博望区政协副主席、工商联主席陈马牛及丹阳镇商会会长、副会长等一行7人赴江宁区横溪街道商会考察学习。江宁区委统战部副部长、区工商联党组书记张钧进行了热情接待。考察组先后参观了横溪街道美丽乡村——石塘人家及横溪街道商会，随后与该区工商联、横溪街道商会负责人进行了座谈交流，并就加强基层商会组织建设、非公经济党建、企业家队伍建设等工作听取了该区成功经验介绍。陈马牛主席表示希望商会之间多联系多交流，寻找合作机会，为两地经济社会发展多做贡献。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>97</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>和县组织部分党员领导干部赴红旗渠考察学习</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019-07-09</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9845787.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['7月5日至7日，县人大常委会主任林启友带队，赴河南省红旗渠考察学习，弘扬红旗渠精神。县领导鲁玲、李钧、县法院院长徐根周、县检察院检察长张晓农及部分园区、县直单位主要负责同志参加考察学习。', '林启友一行学习参观了红旗渠纪念馆，体验了走“红飘带”、水长城，聆听了“红旗渠精神及其时代价值”专题讲座，分别观看了红旗渠纪录片和话剧《红旗渠》。通过此次考察学习，使我县党员领导干部近距离认识了红旗渠的开凿和修建过程，切身感受到了红旗渠精神“自力更生、艰苦创业、团结协作、无私奉献”的真正内涵。参加考察学习的领导干部纷纷表示，要将红旗渠精神与本职工作结合起来，不忘初心、牢记使命，开拓创新、砥砺奋进，为全面开创新时代和县现代化建设新局面贡献力量。（县委办）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>97</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>黄山市公共资源交易中心来市公管局学习考察</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019-09-02</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/10003075.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['8月28日，黄山市公共资源交易中心副县级干部周俊一行3人来我局学习考察，市公管局副局长程根陪同考察调研。', '会上，考察组重点听取了我局在三大平台建设、电子评标系统及评委CA使用情况、网上商城运行使用情况、系统评价考核做法等方面的成功经验，双方并就远程异地评标、代理机构日常管理、标后监管和交易中心职能定位等方面进行了座谈交流。双方表示要互相借鉴、取长补短，为今后进一步优化三大平台建设，提高工作效率和服务水平起到积极促进作用。（综合信息部）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>97</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>含山王勇率队赴浙江枫桥镇等地考察学习</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019-06-25</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9841132.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['6月18日至20日，县委常委、政法委书记王勇带领各镇及部分单位负责人赴宣州区、诸暨市、桐乡市等地考察学习信访维稳和平安建设先进经验。', '王勇一行先后来到宣州区信访接待中心、杨柳镇综治中心、枫桥经验陈列馆、枫源村综治中心、枫桥镇综治中心、枫桥派出所和桐乡市综治中心、越丰村，实地考察并听取信访维稳、矛盾纠纷化解、“三治”、平安建设等情况介绍。', '据了解，宣州区始终重视信访维稳工作，在人民满意窗口建设上创新发展，疏通群众反映问题渠道，将大量信访矛盾化解在基层一线。浙江省诸暨市枫桥镇多年来始终把矛盾纠纷化解、平安建设等工作摆上重要位置，秉承“小事不出村、大事不出镇、矛盾不上交”的经验精髓，注重新时代矛盾化解、平安建设和服务管理工作，提升群众安全感和满意度。桐乡市“三治”融合发展，充分发挥群众自治的积极性，引导乡贤、能人参与社会治理，倡导文明新风等做法，大家考察后深受启发。', '王勇希望大家以此次考察学习为契机，认真学习“枫桥经验”等先进做法，结合我县实际，以人民为中心，以平安建设为载体，巩固基础、精准治理、维护稳定，强化矛盾纠纷多元化解，建立自治、法治、德治治理体系，完善县、镇、村综治中心建设，健全网格化管理机制，疏通群众信访渠道，规范依法信访。着力创新发展，打造政法“一镇一品”，促进全县政法工作水平再上新台阶。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>97</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>姥桥镇组织镇村干部到沈巷白桥考察学习</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2014-04-01</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/57a5b4d1d439eb940341b0b2.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['3月29日，姥桥镇党委书记刘金山带领各村（社区）分管领导和书记、主任，一同前往芜湖鸠江区沈巷镇和新区白桥镇，对“三线三边”环境整治、公交路线、美好乡村建设等工作进行了考察学习。', '刘金山一行首先来到沈巷镇，对沈巷的经济开发区和城区进行了参观，重点了解其“三线三边”环境整治工程开展情况和优秀做法。之后来到白桥镇，先后深入到七成、后港、高庙等行政村，沿途对公交路线、美好乡村建设、环境整治等方面进行了考察学习。', '考察之后，刘金山书记作了总结。他首先指出，通过此次考察，我们可以发现，我们的工作虽然也取得了较好的成绩，但相较之下仍有一定的差距，我们应当进行总结反思，吸取其优秀经验，用以改进我们工作的不足。其次，我们更要坚定信心，别人能做得这么好，我们也一定可以，只要我们积极改进，勇于创新，不懈努力，终将迎头赶上！']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>97</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>江东控股集团赴苏大天宫孵化器考察学习</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2015-11-20</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/57a5b819d439eb9403426f5b.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['日，江东控股集团纪工委书记王书记、副总经理张总带队赴苏大天宫孵化器考察学习，苏大天宫孵化器总经理袁方、运营经理沈俊烨接待了考察团一行。', '在独墅湖科教创新区展厅，运营经理沈俊烨向考察团一行详细介绍了孵化器的基本情况、在孵团队情况和经营模式。苏大天宫为创新创业者提供“创业零成本，创新无极限”的环境和平台，截至', '多个成功项目，孵化成果丰硕。考察团一行还考察了金鸡湖创业长廊、众创空间、创业咖啡馆、口袋校园', '王书记和张总对孵化器所取得的成果表示赞赏，他们指出苏大天宫孵化器孵化培育模式新颖，创业氛围十分浓厚，开放融合、创新共赢的“创客天堂”让人赞叹，很多地方值得江东控股集团富马科技园学习，我们将充分借鉴苏大天宫孵化器的先进理念和运营模式，并加强与苏大天宫的交流和合作，力求打造马鞍山市的产业孵化示范基地。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>97</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>市机关事务管理局赴宣城机关食堂学习考察</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2012-11-19</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/5833097393c59a9c6fd6765f.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['为认真学习贯彻落实《机关事务管理条例》，切实加强机关事务管理工作，优质高效地保障机关后勤服务。11月7日，市机关事务管理局及行政中心机关食堂相关负责人赴宣城学习考察机关食堂的管理、运行情况，实地考察了机关餐厅的运营模式、菜肴品种、补贴标准、就餐环境，学习了解各类设施设备的配置情况，同时详细询问了各个环节的运行模式和相关的规章制度。', '下一步，我们将根据学习考察情况，结合自身实际，取长补短，加强管理，加大投入，改善售卖环节，改善周边环境卫生，力争使机关食堂在不久以一个新的局面呈现在全体机关工作人员面前。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>97</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>姥桥镇组织镇村干部赴博望镇考察学习</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2014-12-05</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/57a5b4d2d439eb940341b0b8.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['12月3日下午，姥桥镇镇党委书记刘金山带领镇党委班子成员、部分部门负责人和各村书记，赴博望区博望镇，就征迁、控拆违、城市建设管理、美好乡村等方面进行考察学习。', '博望镇党委书记张先清陪同考察组一行参观了该镇一批优秀企业，并介绍了博望镇当前发展的情况。他首先介绍了博望镇拥有的各种优势，并介绍了维系此优势背后的财政体制、城建体制、交通体系等。之后他重点介绍了博望镇在征迁、控拆违、美好乡村建设、培育本土企业家、基础设施建设、干部职业化等工作方面 具体的做法，毫无保留的讲解了他们在实际操作中总结出的宝贵经验和优秀方法。他还从一些典型事例出发，深层次地分析了具体情况下的具体实施手段。', '刘书记表示，此次考察学习使我镇干部受益匪浅，博望镇的优秀工作方法给了我们很大启示。我镇将充分借鉴此次考察中的收获，积极将其应用到我镇的实际工作中，以提升我镇在相关工作中的水平，进而全面推进我镇的发展建设。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>97</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>当涂县教育督导考察团赴繁昌金寨考察学习责任督学挂牌督导工作</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019-04-03</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9801109.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['为进一步做好责任督学挂牌督导工作，推进教育督导体制机制创新，提升责任督学督导水平，3月26日至28日，当涂县教育督导考察团一行40余人赴繁昌县、金寨县考察学习。', '3月26日，在繁昌县第四督学责任区，考察团一行参观了责任区办公场所，认真翻阅了责任区和责任督学工作台账资料，并就具体工作进行了现场咨询。在座谈交流会上，繁昌县教育局就挂牌督导创新县创建意义、创新工作做法、创建考核指标及国家验收注意事项等四个方面做了详细介绍。会上，两地还就督学队伍建设、经费保障等内容进行了深入交流探讨。', '3月27日、28日，考察团一行先后考察了金寨县现代产业园区实验学校和斑竹园镇初级中学，全面细致了解校园文化和办学特色等情况。在金寨县第一、第五督学责任区，考察团通过听取介绍、实地查看、询问探讨等方式，全面了解责任区在创建工作中的经验做法和日常工作开展情况。', '考察结束后，责任督学纷纷表示大开眼界，受益匪浅，对日后做好当涂县挂牌督导工作充满信心，今后要加强学习，积极履职尽责，争做一名有责任、有思考、有温度的“三有”督学，助力学校优质发展。', '本次学习考察，加强了我县与繁昌县、金寨县教育督导系统的沟通与交流，为进一步提升我县责任督学挂牌督导工作水平，创建中小学责任督学挂牌督导创新县积累了宝贵的经验。下一步，将认真借鉴和汲取两地创建优秀做法和先进经验，奋力开创我县督导工作新局面。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>97</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>习近平在江苏南京市考察调研</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21081561.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['6日下午，习近平总书记在江苏省南京市，先后考察了紫金山实验室、南瑞集团有限公司，了解推进重大科技任务攻关、先进制造业集群发展、推动高质量发展等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、翟健岚）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>97</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>习近平在江苏苏州市考察调研</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21081091.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['5日下午至6日上午，习近平总书记在江苏省苏州市考察。习近平先后来到苏州工业园区展示中心、苏州华兴源创科技股份有限公司、平江历史文化街区，了解高科技园区建设和发展、企业科技创新和历史文化名城保护等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、翟健岚）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>97</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>习近平在湖北省武汉市考察</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2022-06-29</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20790241.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['中共中央总书记、国家主席、中央军委主席习近平28日在湖北省武汉市考察时强调，科技自立自强是国家强盛之基、安全之要。我们必须完整、准确、全面贯彻新发展理念，深入实施创新驱动发展战略，把科技的命脉牢牢掌握在自己手中，在科技自立自强上取得更大进展，不断提升我国发展独立性、自主性、安全性，催生更多新技术新产业，开辟经济发展的新领域新赛道，形成国际竞争新优势。（文字记者：张晓松；摄影记者：鞠鹏、谢环驰、李涛）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>97</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>习近平在陕西延安和河南安阳考察</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2022-10-31</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20870461.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['新华社陕西延安/河南安阳10月28日电 中共中央总书记、国家主席、中央军委主席习近平近日在陕西省延安市、河南省安阳市考察时强调，全面建设社会主义现代化国家，最艰巨最繁重的任务仍然在农村。要全面学习贯彻党的二十大精神，坚持农业农村优先发展，发扬延安精神和红旗渠精神，巩固拓展脱贫攻坚成果，全面推进乡村振兴，为实现农业农村现代化而不懈奋斗。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市安塞区高桥镇南沟村苹果园同老乡们亲切交流。新华社记者 鞠鹏 摄', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日上午，习近平在安阳林州市实地察看红旗渠分水闸运行情况。新华社记者 鞠鹏 摄', '10月26日至28日，习近平分别在中共中央政治局委员、陕西省委书记刘国中和省长赵一德，河南省委书记楼阳生和省长王凯陪同下，深入陕西延安市和河南安阳市的农村、学校、红色教育基地、文物保护单位等进行调研。', '延安是革命老区，也曾是深度贫困地区。习近平一直挂念陕北的老乡们。2015年2月，习近平在延安主持召开陕甘宁革命老区脱贫致富座谈会并发表重要讲话，为当地推进脱贫攻坚指明了方向。党的二十大闭幕后，习近平第一次外出考察来到延安，看看老乡们脱贫后生活怎么样，还有什么困难，乡村振兴怎么搞。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市安塞区高桥镇南沟村苹果园同老乡们亲切交流。新华社记者 燕雁 摄', '26日下午，习近平一下火车，就乘车前往延安市安塞区高桥镇南沟村。正值金秋，山上苹果园硕果累累，一片丰收景象。习近平走进果园，向现场采摘的果农了解今年苹果收成，同老乡们亲切交流，并采摘了一个红红的大苹果。习近平详细询问苹果种植技术、采摘方法、品种质量、销售价格、村民收入以及如何发展苹果种植和其他产业等，老乡们一一回答。习近平十分关心灌溉和用水问题，老乡们告诉总书记，他们通过筑水坝、搞滴灌和精细化管理，有效解决了用水和灌溉问题。习近平称赞说，这就是农业现代化，你们找到了合适的产业发展方向。', '在村苹果洗选车间，习近平听取当地苹果产业发展情况，并察看分拣装箱生产线。现场摆放了当地种植的各种苹果和深加工产品，习近平饶有兴趣地一一端详，仔细听取介绍，对当地发展现代农业和乡村旅游、培育壮大集体经济、带动老乡们增收致富的做法表示肯定。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市安塞区高桥镇南沟村苹果洗选车间，察看当地种植的苹果。新华社记者 鞠鹏 摄', '车间外，老乡们聚集在一起，高声向总书记问好。习近平同老乡们拉起家常，回忆当年他在陕北的知青岁月。习近平对老乡们说，我在陕北生活了7年，当年看到老乡们生活很艰苦，心里就想着怎么样让大家生活好起来。这次来延安，看到一派硕果累累的丰收景象，交通条件大为改善，发生了翻天覆地的变化。过去陕北老乡们修梯田、种庄稼，面朝黄土背朝天，抡起老锄头干活，广种薄收，十分辛苦，如今山坡上退耕还林种上了苹果，老乡们有工作、有稳定收入，孩子有好的教育，老人都有医保，生活越来越好。从陕北的变化就可以看到中国的变化。习近平指出，现在，“两个一百年”奋斗目标的第一个百年目标已经实现，绝对贫困问题解决了，老乡们过上了好日子，但还要继续努力往前走，让生活越来越美好。陕北的气候、光照、纬度、海拔等非常适宜发展苹果种植，加上滴灌技术、矮化种植技术、选果生产线等不断发展，就地卖出，销路不愁，大力发展苹果种植业可谓天时地利人和，这是最好的、最合适的产业，大有前途。习近平强调，中国共产党是人民的党，是为人民服务的党，共产党当家就是要为老百姓办事，把老百姓的事情办好。空谈误国，实干兴邦。要认真学习贯彻党的二十大精神，全面推进乡村振兴，把富民政策一项一项落实好，加快推进农业农村现代化，让老乡们生活越来越红火。老乡们爆发出雷鸣般的掌声。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市安塞区高桥镇南沟村苹果洗选车间外，同老乡们拉家常。新华社记者 燕雁 摄', '随后，习近平来到延安中学枣园校区。延安中学是中国共产党创办的第一所中学，是在老一辈革命家、教育家、党和国家领导同志亲切关怀和精心培育下成长起来的，具有光荣历史和优良革命传统，为革命老区培养了大批人才。习近平走进学校教育史馆，了解学校总体办学情况。习近平希望延安中学坚持用延安精神教书育人，办好人民满意的教育，弘扬革命传统，培育时代新人。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市延安中学枣园校区学生餐厅考察。新华社记者 王晔 摄', '在学生餐厅，各式各样的饭菜色香味俱全。习近平详细察看，向厨师们了解饭菜的价格和口味，叮嘱他们确保质量、注意卫生，让同学们吃得放心舒心。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市延安中学枣园校区高一（2）班教室，同师生亲切交流。新华社记者 王晔 摄', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市延安中学枣园校区高一（2）班教室，同师生亲切交流。新华社记者 燕雁 摄', '教学楼里，学生们正在上课。习近平走进高一（2）班教室，同师生亲切交流，问同学们有什么理想，长大后想做什么。一位同学说将来想当李时珍那样的医生，另一位同学说想考大学药剂专业，还有一位同学说想学外语、将来当一名外交翻译。习近平听了十分高兴，称赞他们人生目标明确，理想高尚。他勉励同学们从小树立远大理想，立志成为社会主义建设者和接班人，确保红色基因代代相传。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日上午，习近平在安阳林州市红旗渠纪念馆参观。新华社记者 燕雁 摄', '28日上午，习近平来到河南安阳林州市红旗渠纪念馆。上世纪60年代，当地人民为解决靠天等雨的恶劣生存环境，在党和政府支持下，在太行山腰修建了引漳入林水利工程，被称为“人工天河”。习近平走进展馆，依次参观了“千年旱魔，世代抗争”、“红旗引领，创造奇迹”、“英雄人民，太行丰碑”、“山河巨变，实现梦想”、“继往开来，精神永恒”等展览内容。习近平指出，红旗渠就是纪念碑，记载了林县人不认命、不服输、敢于战天斗地的英雄气概。要用红旗渠精神教育人民特别是广大青少年，社会主义是拼出来、干出来、拿命换来的，不仅过去如此，新时代也是如此。没有老一辈人拼命地干，没有他们付出的鲜血乃至生命，就没有今天的幸福生活，我们要永远铭记他们。今天，物质生活大为改善，但愚公移山、艰苦奋斗的精神不能变。红旗渠很有教育意义，大家都应该来看看。随后，习近平实地察看红旗渠分水闸运行情况，详细了解分水闸在调水、灌溉、改善生态环境等方面的重要作用。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日上午，习近平在安阳林州市红旗渠青年洞考察。新华社记者 鞠鹏 摄', '红旗渠修建过程中，300名青年组成突击队，经过1年5个月的奋战，将地势险要、石质坚硬的岩壁凿通，这个输水隧洞被命名为青年洞。习近平拾级而上，来到青年洞，沿步道察看红旗渠。习近平强调，红旗渠精神同延安精神是一脉相承的，是中华民族不可磨灭的历史记忆，永远震撼人心。年轻一代要继承和发扬吃苦耐劳、自力更生、艰苦奋斗的精神，摒弃骄娇二气，像我们的父辈一样把青春热血镌刻在历史的丰碑上。实现第二个百年奋斗目标也就是一两代人的事，我们正逢其时、不可辜负，要作出我们这一代的贡献。红旗渠精神永在！', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日下午，习近平在安阳市殷墟博物馆考察。新华社记者 鞠鹏 摄', '28日下午，习近平考察了位于安阳市西北郊洹河南北两岸的殷墟遗址。殷墟是我国历史上第一个文献可考、为考古发掘所证实的商代晚期都城遗址。习近平步入殷墟博物馆，仔细观摩青铜器、玉器、甲骨文等出土文物。随后，习近平来到车马坑展厅，察看商代畜力车实物标本和道路遗迹。他指出，殷墟出土的甲骨文为我们保存3000年前的文字，把中国信史向上推进了约1000年。殷墟我向往已久，这次来是想更深地学习理解中华文明，古为今用，为更好建设中华民族现代文明提供借鉴。中国的汉文字非常了不起，中华民族的形成和发展离不开汉文字的维系。在这方面，考古事业居功至伟。考古工作要继续重视和加强，继续深化中华文明探源工程。中华文明源远流长，从未中断，塑造了我们伟大的民族，这个民族还会伟大下去的。要通过文物发掘、研究保护工作，更好地传承优秀传统文化。习近平强调，中华优秀传统文化是我们党创新理论的“根”，我们推进马克思主义中国化时代化的根本途径是“两个结合”。我们要坚定文化自信，增强做中国人的自信心和自豪感。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日下午，习近平在安阳市殷墟遗址考察。新华社记者 丁林 摄', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日下午，习近平在安阳市殷墟遗址考察。新华社记者 鞠鹏 摄', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>97</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>习近平在广州市考察调研</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21021121.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['12日，习近平总书记在广东省广州市先后考察了乐金显示广州制造基地、广汽埃安新能源汽车股份有限公司，了解当地推进高水平对外开放、推动制造业高质量发展，以及企业推进科技创新、打造自主品牌等情况，并同企业代表、科研人员、一线职工等交流。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、李学仁、燕雁、刘彬）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>97</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>习近平在海南三亚市考察调研</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20734671.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['10日下午，习近平总书记在海南省三亚市先后考察了崖州湾种子实验室、中国海洋大学三亚海洋研究院，了解海南支持种业创新、发展海洋科技等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>97</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>习近平在陕西榆林考察调研</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021-09-14</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20604601.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['13日，习近平总书记在陕西省榆林市考察调研。他先后考察了国家能源集团榆林化工有限公司、米脂县银州街道高西沟村、杨家沟革命旧址，了解循环经济煤炭综合利用、推进水土流失治理和生态文明建设、加强革命旧址保护与利用、赓续红色血脉等情况。（文字记者：张晓松、朱基钗 摄影记者：李学仁、谢环驰、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>97</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>习近平在四川眉山市考察调研</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2022-06-09</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20777391.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['8日上午，习近平总书记在四川省眉山市先后考察了东坡区太和镇永丰村、三苏祠，了解当地推进高标准农田建设、加强粮食生产、推动乡村振兴、做好疫情防控、保护历史文化遗产等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、申宏、姚大伟） \u200b\u200b\u200b', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>97</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>习近平在承德市考察调研</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021-08-25</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20604271.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['习近平总书记24日在河北省承德市考察调研。他先后来到承德避暑山庄、普宁寺、承德博物馆、双滦区偏桥子镇大贵口村、高新区滨河社区居家养老服务中心，围绕文化遗产保护传承、宗教工作、民族团结、乡村振兴、养老服务等实地调研。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、申宏）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>97</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>习近平在贵阳考察超市和社区</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2021-02-05</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602911.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['4日下午，正在贵州省贵阳市考察调研的习近平总书记，走进观山湖区合力惠民生鲜超市（阳关店），察看春节前市场供应、年货供销、物价运行情况。随后，他来到观山湖区金阳街道金元社区，看望社区居民，了解社区加强基层党建、开展便民服务等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、丁海涛）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>97</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>习近平在河南南阳考察调研</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2021-05-13</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20603351.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['习近平总书记12日在河南省南阳市考察调研。当天下午，他首先来到医圣祠，了解“医圣”张仲景生平及其对中医药发展作出的贡献。随后，习近平来到南阳月季博览园、南阳药益宝艾草制品有限公司，考察当地依托月季、艾草等资源优势发展特色产业，带动群众就业等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、王晔、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>97</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>习近平在塞罕坝机械林场考察调研</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2021-08-24</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20604211.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['23日，习近平总书记来到河北省塞罕坝机械林场月亮山，察看林场自然风貌，听取河北统筹推进山水林田湖草沙系统治理和林场管护情况介绍，看望护林员。随后，习近平来到尚海纪念林，实地察看林木长势，了解林场弘扬塞罕坝精神、推动高质量发展等情况。（文字记者张晓松、朱基钗 摄影记者：李学仁、谢环驰、申宏）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>97</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>习近平在西藏林芝考察调研</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2021-07-23</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20604001.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['习近平总书记21日赴西藏考察调研。当天上午，习近平乘坐飞机抵达林芝米林机场，受到西藏各族干部群众热烈欢迎。随后，他乘车来到尼洋河大桥，了解雅鲁藏布江及尼洋河流域生态环境保护等情况。当天下午，习近平先后来到林芝市城市规划馆、巴宜区林芝镇嘎拉村、工布公园，考察城市发展规划、乡村振兴、城市公园建设等工作。22日上午，习近平来到林芝火车站，了解川藏铁路总体规划及拉萨至林芝段建设运营等情况，随后乘火车前往拉萨市，实地察看拉林铁路沿线建设情况，深入研究有关问题。（文字记者张晓松、朱基钗；摄影记者李学仁、谢环驰、申宏、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>97</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>习近平在马鞍山考察调研</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.mas.gov.cn/zxzx/zwyw/20232221.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['习近平总书记19日上午在安徽省马鞍山市考察调研。他首先来到薛家洼生态园，实地察看长江水势水情、岸线综合整治和生态环境保护修复等情况。随后，习近平前往中国宝武马钢集团，走进生产车间，了解企业复工复产和经营情况。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>97</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>习近平在马鞍山考察调研</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2020-08-19</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601941.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['习近平总书记19日上午在安徽省马鞍山市考察调研。他首先来到薛家洼生态园，实地察看长江水势水情、岸线综合整治和生态环境保护修复等情况。随后，习近平前往中国宝武马钢集团，走进生产车间，了解企业复工复产和经营情况。（文字记者：张晓松 摄影记者：鞠鹏 王晔）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>97</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>习近平在浙江省安吉县考察</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2020-03-31</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601341.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['习近平总书记30日在浙江省安吉县天荒坪镇余村考察，同村民们亲切交谈，了解该村多年来践行“绿水青山就是金山银山”理念、推动绿色发展发生的巨大变化。随后，习近平前往安吉县社会矛盾纠纷调处化解中心调研，了解基层矛盾纠纷调解工作情况。（文字记者：张晓松、杨维汉、朱基钗 摄影记者：鞠鹏、申宏、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>97</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>习近平在陕西考察秦岭生态保护情况</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2020-04-21</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601091.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['习近平总书记20日在陕西考察调研。当天下午，他首先来到位于商洛市柞水县的秦岭牛背梁国家级自然保护区，考察秦岭生态保护情况。之后前往小岭镇金米村，了解脱贫攻坚工作情况。（文字记者：张晓松 摄影记者：鞠鹏、谢环驰、燕雁、翟健岚）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>97</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>市经信局赴湖州市考察学习绿色制造体系建设相关工作</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2021-06-25</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/60f8effafb4e962b4f086c36.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['为进一步推深做实我市绿色制造体系建设工作，促进我市制造业高质量发展，6月16日，市经信局党组成员、副局长魏塘明率局节能科有关同志赴湖州市考察学习。', '考察组一行首先来到浙江东尼电子股份有限公司，参观并了解了东尼电子国家级绿色工厂创建及企业上市历程，当得知公司是由一家传统服装企业转型为精密电子产品生产企业时，魏塘明副局长表示由衷的赞许。', '随后在企业会议室，考察组与湖州市经信局及企业有关负责同志就两地绿色制造体系建设情况进行了座谈。座谈中魏塘明副局长介绍了我市绿色制造体系建设情况，交流了两地绿色制造体系的建设模式和开展的主要工作，并重点对湖州市“五位一体”的绿色制造体系及绿色工厂星级管理模式做了了解。湖州市经信局姚建忆副局长还就湖州市“十四五”期间重点工作，“能效对标”全覆盖工作的目标任务和实施路径做了详细介绍。', '考察组一行最后来到湖州久立集团股份有限公司，在参观了企业展厅，听取了企业关于绿色制造方面情况介绍后，魏塘明副局长强调要认真学习湖州市工作亮点和做法，对标对表先进地区，并以此次考察学习为契机，结合我市实际，进一步提升我市绿色制造体系建设工作，为我市打造安徽的“杭嘉湖”、长三角的“白菜心”贡献经信力量。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>97</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>阜阳市运管中心学习考察我市新能源重卡推广应用情况</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/64d2f0a388668813088b456c.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['8月4日上午，阜阳市运管中心主任张郁带领调研组来马鞍山市运管中心调研我市新能源货运车辆推广情况。马鞍山市运管中心召开新能源重卡应用交流会，马鞍山市运管中心副主任张凯，马鞍山市运管中心副主任宣钢，马鞍山市运管中心相关科室负责人，马鞍山市物流协会秘书长戴涛，马钢集团保产分公司书记、运营保障公司负责人吴海波参加交流会，会议由马鞍山市运管中心党委书记、主任孙智勇主持。', '阜阳市运管中心听取了马鞍山市关于全市新能源货车建设情况的介绍。近两年，马鞍山市陆续淘汰老旧货运车辆（国五以下）共计230辆，投入5.72亿元购置新能源重卡和绿色节能环保型货运车辆。目前，马鞍山市本级新能源重卡总数681台，截至今年6月底，市本级新增新能源货车284辆，占新增车辆总数的38%，新能源重卡拥有量位居全省前列。市物流协会、马钢集团运营保障公司负责人从技术性能、污染排放、运营成本等方面对当前新能源建设工作进行了详细介绍，从绿色低碳、多式联运、智慧物流等方面提出发展趋势和转型的建议。', '此次交流座谈会探讨了新能源重卡的推广应用模式，助力新能源物流行业高质量发展。会后，参会人员共同走访了马钢四号充电站现场。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>97</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>袁方主持召开市委理论学习中心组学习会暨党政代表团外出考察总结交流会</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/21111231.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['袁方主持召开市委理论学习中心组学习会暨党政代表团外出考察总结交流会_马鞍山市人民政府', '贯彻新发展理念推动高质量发展加快打造长三角“白菜心” 努力把习近平总书记擘画的美好蓝图一步步变为现实图景', '8月17日，市委书记袁方主持召开市委理论学习中心组学习会暨党政代表团外出考察总结交流会。他强调，要认真学习贯彻习近平总书记关于长三角一体化发展的重要论述和考察安徽重要讲话重要指示精神，深入践行习近平总书记赋予马鞍山的新发展定位，积极学习“杭嘉湖”贯彻新发展理念、推动高质量发展的先进经验，加快打造长三角“白菜心”，奋力走出新时代高质量发展新路，努力把习近平总书记擘画的美好蓝图一步步变为现实图景。市委副书记、市长葛斌主持会议，吴桂林等市四套班子领导出席。', '袁方在讲话中指出，2020年8月19日，习近平总书记亲临马鞍山考察，赋予马鞍山打造安徽的“杭嘉湖”、长三角的“白菜心”新发展定位，为我们指明了前进方向、提供了根本遵循。三年来，我们牢记嘱托、感恩奋进，加快打造生态优、产业强、活力足、城乡美、百姓富的长三角“白菜心”，创新发展的势头越来越强、开放发展的活力越来越足、绿色发展的步伐越来越快、协调发展的水平越来越高、共享发展的成果越来越多、政治生态越来越好，马鞍山实现了精彩蝶变。我们要深刻领悟习近平总书记重要讲话重要指示精神的真理伟力和实践伟力，坚定不移沿着习近平总书记指引的方向奋勇前进，深入践行新发展定位，一张蓝图绘到底，一任接着一任干，以更加精彩的答卷回报习近平总书记的亲切关怀和殷切期望。', '袁方强调，“杭嘉湖”之所以发展得快、发展得好，核心经验就是坚持以“八八战略”为引领，贯彻新发展理念、推动高质量发展。我们要知其然更要知其所以然，学到精髓、学以致用，切实把学习成果转化为对接比拼的实际行动。要学习“杭嘉湖”开拓创新的理念，做到敢为人先。“杭嘉湖”的干部始终站在未来看现在，以前瞻性思维谋篇布局，启示我们要从眼界、思路、格局上全面学习，善于识势、顺势、借势，更新思维方式，破除路径依赖，在开拓奋进中抢抓机遇、跨越发展。要学习“杭嘉湖”勇立潮头的气魄，做到争创一流。“杭嘉湖”的干部始终瞄着“为全国当样板、在世界争一流”的标准来干工作，永不满足、永不懈怠，启示我们要敢于同先进比高下，敢于同自己过不去，推动各项工作进入并保持全省第一方阵，努力在长三角乃至全国争先进位。要学习“杭嘉湖”善作善成的本领，做到专业敬业。“杭嘉湖”的干部始终把心思集中在想干事上，把胆识体现在敢干事上，把能力展现在会干事上，启示我们要心里始终想着目标，天天琢磨思考，提高专业化能力，成为行家里手，以创造性工作把不可能变成可能。要学习“杭嘉湖”干在实处的作风，做到求真务实。“杭嘉湖”的干部一心为民，推崇实干、务实担当，执行力很强，启示我们要树牢正确的政绩观，多做惠民生、顺民意的事，多做出实招、求实效的事，雷厉风行、紧抓快干，以干部的“辛苦指数”换来发展的“上升指数”和群众的“幸福指数”。要学习“杭嘉湖”久久为功的韧劲，做到一抓到底。“杭嘉湖”的干部对认准的事情，一以贯之抓到底，直到干成，启示我们要以钉钉子精神抓落实，持之以恒、锲而不舍，一步一个脚印实现既定目标。', '袁方强调，“杭嘉湖”的成功之路就是我们的前进之路，要按照市委十届四次全会部署，加快建设“七个强市”，奋力走出新时代高质量发展新路。要在深度融入长三角一体化发展上走出新路，积极融入南京都市圈、合肥都市圈，做好“向海而兴、借船出海”文章，持续对标沪苏浙改革创新举措打造一流营商环境。要在壮大新兴产业和抢抓风口产业上走出新路，坚定不移推进制造业倍增，做大做强“1+3+N”战新产业融合集群，壮大新能源汽车产业集群，积极发展新型储能、先进光伏、氢能等新能源产业，以“虎口夺食”的魄力推进招大引强和项目建设。要在数字经济新赛道上走出新路，大力发展人工智能、元宇宙、大数据等数字经济核心产业，加快企业智能化改造、数字化转型，推进数字政府、数字社会建设。要在建设高水平创新型城市上走出新路，推进“双倍增”“双清零”行动，加大科创资源招引力度，强化人才培育引进，提高科技成果转化和产业化水平。要在推进生态价值转化上走出新路，当好长江大保护模范生，深入开展国家生态文明建设示范市、海绵城市、无废城市“三城同创”，把向山地区打造成“两山”理念的样板，系统推进资源节约集约利用。要在打造乡村振兴样板区上走出新路，实施“千村引领、万村升级”工程，做好“粮头食尾”“畜头肉尾”“农头工尾”增值大文章，壮大村级集体经济。要在文化旅游融合发展上走出新路，保护传承弘扬长江文化，加快凌家滩申报世界文化遗产，大力发展旅游业，积极促进文旅消费。要在基层治理和共同富裕上走出新路，创新党建引领基层治理模式，健全“民声呼应”机制，探索未来社区建设，加快共同富裕先行区试点。', '袁方强调，心动更要行动，落脚点在于“干”。各级各部门要集中精力抓发展，学习沪苏浙、瞄准“杭嘉湖”，对标先进干、解放思想干、雷厉风行干，全力以赴推动各项工作争创一流、争先进位。要通过学习考察和大讨论，进一步对照检视“五问”，聚焦解决几个问题、办成几件事情，确保见到实效。', '葛斌在讲话中指出，要系统学习“杭嘉湖”先进经验，取长补短、谋实举措，切实将学习成果转化为发展实效。要明确战略目标，坚持以制造业为“纲”，大力实施制造业三年倍增行动。要加快打造“1+3+N”战新产业融合集群，抢抓“风口”机遇、找准细分领域，拉长产业链、构建生态圈。要坚持企业培育和双招双引并重，强化政策扶持，加快培育一流企业、“四上”企业、专精特新企业、科技型企业、上市企业。要系统推进城市建设，加快打造“数字马鞍山”，持续完善城市规划建设治理体系。要大力推进全域旅游发展，发挥资源优势，推动旅游与文化、体育、乡村等深度融合。', '会上，程彰德作了研讨发言。当涂县、雨山区、市经开区、市数据资源管理局负责同志作了交流发言。参加市党政代表团的其他市领导和县区、园区、市直相关部门负责同志作了书面交流发言。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>97</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>西藏错那县考察团赴花山区开展皖藏交流交往交融主题学习活动</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2020-12-16</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/20362361.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['西藏错那县考察团赴花山区开展皖藏“交流 交往 交融”主题学习活动_马鞍山市人民政府', '为促进皖藏文化交流，2020年12月8日下午，西藏错那县教育管理干部交流团队来到马鞍山市师范附小教育集团东方城校区参观。市教育局组宣科科长吴光辉、副科长夏燕陪同参观考察。', '听，学校礼堂里传来了朗朗书声！这是附小的孩子们为迎接远道而来的客人，准备的中华经典吟诵节目《航》。孩子们声情并茂的吟诵让考察团的成员们感受到了附小师生的热情，领略了附小师生的风采，更沉醉于马鞍山这座“诗的城”丰厚的文化底蕴之中。', '错那县考察团为了表示感谢，也献上了西藏独具特色的锅庄舞和藏族高原的天籁之音。联欢后，考察团队向附小的领导和老师们献上洁白的哈达，来表达他们诚挚的敬意。', '接着，考察团的成员们实地参观了整个校园。德育办副主任朱福茹向考察团的教育管理干部介绍了东方城校区丰富多彩的特色活动。', '为了更加深入地了解学校的办学特色和校园文化建设，考察团成员走进学校的各个功能馆室：音乐教室、科学实验室、少先队队室、计算机教室、图书馆、美术教室……一路走，一路品，考察团的成员们沉浸在浓浓的校园文化氛围之中。', '参观结束后，大家齐聚三楼会议室，举行考察座谈会。会上，集团党总支书记、校长曹嵬嵬向考察团成员们介绍了我校的基本情况、办学特色及管理经验，集团副校长许元媛详细介绍了我校“蓬勃少年”的评价体系，得到了考察团的高度肯定和赞扬。', '错那县教体局副局长徐松赞介绍了错那县教育的地域独特性及发展现状，虽然身处偏远地区，环境恶劣，但他们愿做“神圣国土的守卫者，美好家园的建设者”。每一位考察团成员也分享了自己所在校的教育现状和这次参观考察的思考与收获。', '最后，市教育局组宣科科长吴光辉向考察团介绍了现阶段马鞍山的教育情况。随后双方就教育管理、特色办学展开了互动交流。', '双方都表示通过此次参观考察，看到了各自在教育事业上发展的新前景和新变化，并期待活动结束后，能继续保持“交流 交往 交融”，把教育事业做得更好！（撰稿人：周歆慧 审稿人：曹嵬嵬）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>97</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>和县妇联组织女企业家和基层妇联赴巢湖学习考察</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2020-10-10</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/20298861.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['为贯彻落实省、市、县实施乡村经济振兴有关会议和文件精神，组织、凝聚和引领广大妇女为和县全县经济社会发展做出更大贡献。近日，和县妇联与巢湖市妇联对接，组织和县各镇妇联及县女企业家协会部分会员赴巢湖，学习党建带妇建、美好乡村建设等工作的先进经验和探究乡村优秀企业成功的精髓，引导和县全县女企业家转变经营模式和理念，促进企业持续健康发展。', '考察团一行先后前往烔炀镇南湖方村，全国人居环境美好乡村建设示范村黄麓镇昶方村、安徽博润药业有限公司、和富煌集团，女企业家们交流参观考察活动时纷纷表示受益匪浅，深受启发。和县各镇妇联也纷纷表示将借鉴巢湖基层妇女工作的成功经验打造和县的美好乡村建设。和县妇联主席刘惠秀表示今后将继续为广大女企业家搭建谋求发展共赢的良好平台，提供各类信息和学习考察的机会，更好地发挥好桥梁纽带作用，为女企业家们提供学习活动的阵地、联谊交流的窗口，希望女企业家们在今后的工作中，互相学习，相互促进，为和县经济社会的又好又快发展做出新贡献。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>97</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>市民政局局长章兵一行赴浙江省丽水市学习考察养老工作</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/20256981.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['为深入学习贯彻习近平总书记视察安徽重要讲话精神，认真贯彻长三角一体化发展战略，学习借鉴长三角地区民政工作先进经验，8月31—9月1日，市民政局局长章兵率队赴浙江省丽水市学习考察养老服务工作。章兵一行先后实地考察了丽水市怡福家园养老院、丽水居家养老96345综合服务平台和青田县居家养老服务中心、油竹街道春满园养老照护中心等养老服务机构，并与当地民政部门、养老机构负责人围绕居家和社区养老、智慧养老等开展了深入探讨交流，仔细询问了解当地的养老工作有关政策和具体措施。', '章兵指出，此次到丽水学习考察，是阔视野、长见识、找差距、明方向的一次难得机会，一定要把长三角地区好的经验带回去，深化居家和社区养老服务改革试点，加速推进我市养老事业高质量发展。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>97</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>市退役军人事务局赴铜陵考察学习退役军人工作</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2020-11-05</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/20327351.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['11月4日，市退役军人事务局党组书记、局长余道文，党组成员、副局长马世金带领局办公室主任王强及相关科室人员赴铜陵市考察学习退役军人工作。', '铜陵市退役军人事务局党组书记、局长刘国源代表铜陵市退役军人事务局对考察组表示欢迎，刘国源表示：近年来，铜陵市退役军人事务系统以“让军人成为全社会尊崇的职业”为目标，不断夯实各项工作基础，努力营造关心关爱氛围，全力保障退役军人利益，大力促进就业创业，用力做好重点优抚对象服务工作，着力维护退役军人合法权益。稳步实施拥军支前、尊崇军人、三后无忧、普惠+优待叠加、社会化拥军等“五大工程”，实现全国双拥模范城“五连冠”，退役军人工作跨入新的发展阶段。', '余道文表示，作为江南解放第一城，铜陵市强化使命担当，用心用情用力为退役军人提供服务和保障，切实解决退役军人的实际困难，认真做好就业创业帮扶工作，充分激发退役军人积极投身地方经济社会发展，工作特色明显、成效显著，对马鞍山退役军人工作有很强的借鉴和参考价值。马铜两地退役军人工作各有特色，过去经常相互借鉴学习，双方在互动交往中结下了“铜墙铁壁”般深厚工作友谊。此次考察学习强化了双方沟通交流，给来铜考察人员留下了更深的印象，获得了更多的启发，希望以此为契机，进一步深化合作交流，加强互学互鉴，在具体业务上寻求更多合作、达成更多共识，做到优势互补，共同进步、共同发展。', '当天，考察组成员实地察看了铜陵市基层退役军人服务站、优抚事业单位、烈士纪念设施等单位。西湖镇地处铜陵市东大门，全镇共有退役军人及其他优抚对象1300余人。该镇退役军人服务站自2018年初组建以来，坚持以退役军人为中心，推进形成“服务无死角、站所全覆盖”工作格局。中心的老兵接待室、退役军人之家、老兵书屋、老兵体育广场、退役军人党建活动室等服务功能区一应俱全，成为退役军人的温馨家园。考察组详细了解了服务中心人员编制、工作机制、经费落实、服务保障等基本情况。', '铜陵市光荣院以打造“老兵们第二个家”为初心使命，现有床位数100张，集中供养和轮养抚恤优待对象。考察时，几十位轮养的优抚对象正在活动室开展套圈游戏，活动室不时发出喝彩鼓掌声。光荣院内两人一间的卧室被收拾得干净整洁，单独开办的食堂烹饪出美味可口的饭菜，电子阅览室以及室内外健身场为老人们身心健康筑起了绿色堤坝，入住的老人们在这里颐养天年，尽享夕阳之美。在与一名88岁抗美援朝出国作战志愿军攀谈后，余道文饱含深情地说，如果没有那些在正义战争中为国捐躯的革命先烈，没有这些保家卫国浴血奋战的老战士，哪有今天的幸福生活。让这些老战士受到应有的尊崇，我们义不容辞，责任重大、使命光荣！', '铜陵市烈士纪念园2016年9月份完工并投入使用，已建成市烈士纪念园广场、市烈士纪念馆、烈士纪念塔等褒扬设施。烈士纪念馆采用展板、雕塑、场景、光电数字化与实物相结合的手段，向考察组成员再现了烽火岁月里波澜壮阔的革命运动，进一步激发大家的爱国热情和奉献精神。巍峨的烈士纪念塔矗立在纪念园中心，正面镌刻着“永垂不朽”四个大字熠熠生辉，烈士塔丛绿簇拥，使烈士塔更显庄严。大家缓步绕塔一周，向革命先烈致以崇高敬意，深情缅怀长眠于此的革命烈士。', '考察组将认真消化吸收赴铜取得的“正经”，结合马鞍山退役军人工作实际，进一步转变观念，创新办法举措，以更加有效的工作措施、更加务实的工作作风，为马鞍山市经济社会高质量跨越式发展营造良好环境。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>97</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>市住房和城乡建设局赴杭州市城乡建委考察学习</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/20253101.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['9月2日，市住房和城乡建设局局长沙德宏率队赴杭州市城乡建委进行调研学习，副局长楚生军、总工程师吴道文、建设办主任田雁南、城市建设科、住房发展和保障科、物业管理科、建设办综合科、局办公室负责同志陪同。', '当日，考察小组在杭州市城乡建委相关负责同志带领下先后赴城中村改造、老旧小区改造、河道水体综合整治等项目进行实地考察，听取了各重点项目的进展情况与经验总结，双方就杭州市在老旧小区改造工作中以项目统筹为龙头，突出政策统筹、计划统筹、现场统筹的先进做法进行了深入的沟通交流，深入学习了杭州市将城中村改造、老旧小区改造作为锻炼住建系统复合型人才队伍抓手的人才管理模式。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>97</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>新疆图木舒克市司法局挂职干部来博望区考察学习</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2020-08-17</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/20227231.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['8月11日，在马鞍山市司法局挂职学习的新疆生产建设兵团图木舒克市司法局干部一行2人，在市司法局普法与依法治理科负责人陪同下来博望区考察乡村法治文化阵地建设。 在博望区丹阳镇董山里自然村，图木舒克市司法局挂职干部对该村结合“天仙配”人间传说故事，将村民的住宅改造成为粉黛瓦、马头墙、天井院等具有皖南特色的徽派建筑，通过在村口、村道路两侧设置法治文化标语，在马头墙墙壁上绘制法治漫画，以百姓喜闻乐见、通俗易懂的形式普及法治文化理念及与村民生产、生活密切相关的法律法规知识，引导村民自觉尊法、学法、守法、用法，很是称赞。 在博望区新市镇西夏自然村，图木舒克市司法局挂职干部对整个村庄清洁美丽赞不绝口。对西夏自然村结合美好乡村建设，将村中自然广场格局进行了改造，全面融入法治文化元素，把广场四周及进村必经路段的20面村民房屋立体墙面绘制成法治文化宣传墙，内容涉及法治文化典故、人民调解、法律援助以及与百姓日常生活、生产息息相关的法律法规等常识，图文并茂、漫画说法、通俗易懂，表示值得学习、借鉴。 考察过程中，双方还就司法行政机关职能转换后进一步做好法治政府建设、公共法律服务和法治保障等工作进行了深入地互动交流。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>新疆图木舒克市司法局跟班培训干部赴博望区考察学习</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2020-06-19</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/20099521.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['6月17日，在马鞍山市司法局跟班培训的新疆生产建设兵团第三师图木舒克市司法局（“师市”合一，下称“三师市”）干部一行2人来博考察乡村法治文化阵地建设。市司法局普法与依法治理科、区司法局负责人等陪同考察。 在丹阳镇董山里自然村，三师市司法局跟班培训干部对该村结合“天仙配”人间传说故事，将村民的住宅改造成为粉黛瓦、马头墙、天井院等具有皖南特色的徽派建筑，通过在村口、村道路两侧设置法治文化标语，在马头墙墙壁上绘制法治漫画，以百姓喜闻乐见、通俗易懂的形式普及法治文化理念及与村民生产、生活密切相关的法律法规知识，引导村民自觉尊法、学法、守法、用法，很有特色。 在新市镇西夏自然村，三师市司法局跟班培训干部对整个村庄清洁美丽赞不绝口。对西夏自然村结合美好乡村建设，将村中自然广场格局进行了改造，全面融入法治文化元素，把广场四周及进村必经路段的20面村民房屋立体墙面绘制成法治文化宣传墙，内容涉及法治文化典故、人民调解、法律援助以及与百姓日常生活、生产息息相关的法律法规等常识，图文并茂、漫画说法、通俗易懂，表示值得学习、借鉴。 交流中，双方还就司法行政机关职能定位后进一步做好法律服务和法律保障等其他司法行政工作深入地进行了互动交流。（拟稿：蔡义仁 审核：朱世明）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>博望区区法院到花山区考察学习物业纠纷调解工作</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2020-07-01</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/20150821.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['日前，博望区法院党组成员、副院长盛厚斌带队，博望区住建局副局长贾非，博望区法院审委会专职委员、立案庭庭长王培松，博望区法院副院长级审判员、诉讼服务中心主任陈苗苗，以及博望区司法局、博望区博望镇相关人员等一行，到花山区考察物业纠纷调解工作。花山区法院党组成员、副院长杨芬，审委会专职委员方华，立案庭庭长刘明荣，以及花山区住建局、司法局、物调委相关人员等陪同。 考察组一行首先到花山区物业纠纷诉调对接中心，实地参观了人民调解员工作室、在线调解中心、物业巡回法庭，认真观看了物业调解中心经验介绍视频，仔细翻阅了案卷、台账资料，详细了解物业纠纷诉调对接工作流程、调解平台、“四调联动”工作机制。随后，考察组一行到花山区法院，现场参观了诉讼服务中心，具体了解了案件分流中心、集约送达中心、婚姻家庭人民调解工作室等运行情况。 在座谈交流会上，双方围绕物业纠纷调解委员会的设立、工作机制、物业纠纷诉前调解、审理，以及送达中心、诉调对接中心建设、辅助事物外包等工作，进行了深入交流。均表示要在今后的工作中，进一步加强沟通协作，促进共同提升。 盛厚斌认为，花山区物业纠纷诉调对接中心制度建立到位、机构设立到位、人员配置到位、措施保障到位，此行受益匪浅，将积极学习借鉴花山区的成功经验，推动博望区物业纠纷调解委员会早日成立，促进物业纠纷更加便捷化解。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>97</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>马鞍山软件园赴南京栖霞区党群人才服务中心考察学习</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2020-06-11</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/20088121.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['近日，马鞍山软件园党工委书记、管委会主任赵建鸣带队赴南京栖霞区学习党建先进经验与做法，通过走出去实地观摩学习，在比先进找差距的同时，全面提升干部创新发展能力，着力推动园区党建工作再上新台阶。', '赵建鸣一行先后参观了十月公社科技创业园党群人才服务中心、栖霞高新区党群人才服务中心。在十月公社科技创业园党群人才服务中心,参观其“汇、念、育、系、聚、悦、守”七个初心功能板块，学习集“党建管理、组织培育、企业服务、人才引进”于一体的区域共建、互动交流、智能服务理念；在栖霞高新区党群人才服务中心，参观了智汇展厅、智慧书吧、智会视厅、智惠服务、智荟沙龙、智绘办公六个空间，学习其讲政治、多功能、高科技、新材料、新思维的建设理念。', '学有所获，学有所得，考察结束后软件园党工委召开了工作会议，大家分别讲体会、谈感受、找差距、明方向。下一步园区将结合自身实际，对考察学习的党建阵地工作经验进行消化吸收，进一步加大工作力度，切实建好用好党建活动场所，打造具有自身特色的园区党建工作品牌。拟对园区原有党群服务中心进行改造提升，建设互联网+党群人才服务中心，体现互联网+党建融合发展，设置展示区和功能区等，完善中心功能布局，进一步体现政治、教育、服务、活动功能，充分发挥阵地作用，依据党建带群建，进一步凝聚人心、整合资源，增强与企业、人才之间的联系、提升为党员群众服务的能力，助推互联网小镇发展。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>97</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>博望区区妇联赴和县学习考察妇女儿童活动中心建设</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2020-04-17</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10084174.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['为认真做好博望区妇女儿童活动中心项目建设的前期准备工作，4月15日，博望区妇联聂主席带领区妇联全体人员赴和县妇女儿童活动中心考察，和县妇联王晓燕副主席全程陪同考察。', '在和县妇女儿童活动中心，考察组一行实地参观了该活动中心的功能布局，重点考察该活动中心在建设规模、运营模式、功能设置和人员管理等方面经验做法，双方就中心在开展亲子教育、技能培训等工作进行了交流。', '聂主席表示，和县妇联在妇女儿童活动中心建设方面富有成效、特色明显，此次考察拓宽了博望区妇女儿童工作的眼界和思路，对启动博望区妇女儿童活动中心建设起到了良好的借鉴作用，并希望双方加强沟通联系，共同促进两地妇女儿童工作，更好地服务妇女儿童事业。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>97</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>郑蒲港妇联一行来含考察学习女子专业合作社项目工作</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2020-04-16</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10083867.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['4月15日上午，郑蒲港妇联一行六人来含考察学习含山县女子专业合作社项目工作，该县妇联主要负责人陪同考察。', '考察组一行分别来到含山新联农机服务专业合作社、含山县铜闸镇鑫淼芋头种植专业合作社进行实地参观，并进行了座谈。座谈会上，两个合作社负责人详细介绍了本社的基本运营情况及女子专业合作社项目申报、实施及档案资料收集整理情况，双方就项目实施过程中资金的使用及项目的宣传等问题进行了交流，并就如何更好地推进女子专业合作社项目建设进行了深入探讨。', '2014年以来，含山县妇联主动对接，积极争取，成功申报了女子专业合作社项目8个，争取到省妇女创业扶持转移支付资金57万，有效促进妇女创业就业。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>97</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>博望区数据资源管理局赴江宁区行政审批局考察学习</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2019-12-12</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10044569.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['为认真贯彻落实“江宁·博望跨界一体化发展”工作要求，加快推动两地政务服务一体化发展，12月10日上午，区数据资源管理局局长李竞元带队赴江宁区行政审批局考察学习。江宁区行审批局副局长陈跃林及相关科室负责同志接待陪同考察和座谈。', '考察人员一行首先实地考察了江宁区市民中心，详细了解进驻中心政务服务事项“一网、一门、一次”改革工作推进情况。在随后召开的座谈会上，双方就纳入长三角“一网通办”试点的企业服务事项和个人服务事项进行了深入交流，争取早日实现两地政务服务事项“一网通办”。', '通过本次考察和交流，下一步我局将在充分调研的基础上，进一步总结归纳、开拓创新，为推动江宁·博望跨界一体化贡献力量。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>97</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>当涂县城管局赴山东考察学习智慧路灯建设工作</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2019-12-17</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10045844.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['12月10日至11日，县城管局组织市政部门一行赴山东德州、东营两地考察学习城市智慧路灯运营管理工作，借鉴两市在市政照明设施智慧化管理方面的经验，为更好地推进我县智慧路灯建设打下基础。', '考察学习组首先赴山东德州三和电器有限公司进行考察，该公司负责人向考察组详细的介绍了节能照明材料的工艺和发展趋势。随后，考察组赴东营市东营区现场观摩了智慧路灯的实际运行情况，就智慧路灯运行进行经验交流。晚上，考察组实地观看了东营市灯光夜景，一致认为智慧路灯的运行可以节能降耗，高效管理城区市政路灯，在节约政府投入的同时，提升了城区市政整体亮化水平。', '城市路灯正常运行关系到群众出行安全，直接影响到社会的生产生活质量，我局将认真总结此次考察经验，逐步推动城区智慧路灯建设。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>97</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>和县县领导率队赴江宁博望一体化发展示范区考察学习</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2019-12-11</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10044080.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['日前，县委常委、江北乌江新区管委会主任熊贤达率队赴江宁·博望一体化发展示范区考察学习，洽谈推进新区产业孵化园项目。江北乌江新区相关部门负责同志参加活动。（江北乌江新区：杜佳佳）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>97</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>花山区疾控赴苏州市考察学习艾滋病防治及慢性病防控工作</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2019-05-23</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9821833.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['为促进疾控事业发展，提高业务能力水平，5月16日至17日，在市疾控中心娄金海副主任带领下，市疾控与花山区疾控一行8人，前往苏州市就艾滋病防治、慢性病防控等工作进行考察、学习交流。', '考察组一行首先参观了苏州市姑苏区疾控中心，听取了姑苏区疾控中心关于慢病示范区建设、艾滋病抗病毒治疗等方面的工作介绍，双方特别就苏州市推行的健康苏州“531”系列行动计划进行了广泛深入的交流。随后考察组深入苏州市第五人民医院实地学习该院深化艾滋病抗病毒治疗“一站式服务”工作模式与工作理念。', '通过这次学习与交流，进一步拓宽了疾控工作视野，提升了业务知识水平，特别是苏州市疾控和医院之间的相互协作及艾滋病抗病毒治疗的“一站式服务”管理模式，值得我们深入学习。区疾控中心借此次考察中汲取到的先进经验，认真谋划我区下一阶段的艾滋病防治及慢性病防控工作，全力推动我区公共卫生事业发展更上一个台阶。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>97</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>江西省景德镇市昌江区考察团来花山区政务服务中心参观学习</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2019-01-24</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9747090.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['1月22日下午，江西省景德镇市昌江区政协副主席、区“双创双修”指挥部副指挥长刘坚率考察团一行14人来花山区政务服务中心、96345便民服务中心参观学习基层组织党建工作。中心负责人就人员配备、制度建设、流程审批、考核机制以及志愿服务等方面的内容向客人做了详细介绍。花山区政协副主席何世明、区文明办主任李姗姗参加活动。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>97</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>花山区委组织部组织党务工作者赴绍兴考察学习</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2019-05-23</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9821832.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['5月20至21日，由区委组织部和党建服务中心牵头组织我区部分街道和社区的党务工作者共16人，赴浙江省绍兴市考察学习基层党建工作。', '在当地同志的指引下，考察小组先后来到棠棣村、大渡社区、管墅社区、书圣故里社区等实地进行观摩走访。大家一路边走边看，边听边问，边谈边记，对绍兴市的基层党建工作实践和取得的实效留下了深刻印象。', '考察小组在交流中普遍认为，绍兴市在社区建设上往往选址人气集聚，交通融汇的中心地点；在硬件布置上凸显党建元素，因地制宜、独具匠心，兼顾功能性和美观性；在工作中坚持“五星”系列创建活动为引领，注重结合文化积淀，注重发掘社区资源，不断夯实基层党建，取得了良好的效果。大家纷纷表示绍兴市这些好的经验做法与花山区“幸福党建”的理念高度契合，非常值得借鉴和学习，今后将结合实际着力消化和转化，积极助推和提升我区的示范点建设、基层治理、乡村振兴等工作。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>97</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>钱沙泉带队赴福建省学习考察农村人居环境整治工作</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2019-06-26</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/9841352.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['6月24日至25日，市委副书记钱沙泉带队赴福建省厦门市翔安区、宁德市蕉城区和福安市学习考察农村人居环境整治工作。副市长杨善斌参加学习考察。', '6月24日下午，钱沙泉一行来到厦门市翔安区新圩镇大帽山村，实地查看了大帽山振兴湖周边人居环境提升工作及“大帽山境”田园综合体项目建设情况，随后考察了大宅社区人居环境整治工作。6月25日上午，钱沙泉一行赴宁德市参观了宁德市扶贫开发主题展示馆；下午先后调研了宁德市八都镇溪池村和溪潭镇廉村人居环境整治工作。考察组一行边走边看，详细听取了考察点农村生活垃圾分类治理模式和改厕改水的工作思路和经验做法。学习考察中，钱沙泉与当地干部群众深入交流，了解对方的先进做法、遇到的困难以及解决问题的办法。6月25日晚，钱沙泉组织召开学习考察座谈会，及时消化考察成果。座谈会上，钱沙泉强调，市农业农村局及各县区要迅速行动起来，抓好成果转化，咬定目标干，求真务实干，因地制宜干，履职尽责干，确保完成年度目标任务，努力把我市农村人居环境整治工作抓出更大的成效。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>97</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>资产运营事业部赴外地学习考察高铁站资产运营管理工作</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2015-11-17</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/57a5b819d439eb9403426f60.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['宁安高铁开通在即，马鞍山即将跨入“高铁时代”。近日，市政府副秘书长杨庆海组织市规划局、市发改委（市铁路办）、江东控股集团等单位相关负责人前往蚌埠市、黄山市、咸宁市、九江市，认真学习借鉴同类城市开发高铁资源、推动城市建设和发展的经验做法。集团资产运营事业部负责人随考察组一行，着重围绕高铁站商场招商运营、站前广场地下枢纽物业管理、地下停车场管理等内容，认真学习观摩对方高铁站资产、设施的运营管理情况，并与对口单位座谈交流。', '蚌埠、黄山两市是省内较早开通高铁的城市，咸宁是湖北省最早开通城际铁路线“武咸线”（武汉至咸宁）的城市，九江是开通国内第二条城际铁路线“昌九线”（南昌至九江）的城市。通过赴同类城市学习考察，有助于资产运营事业部借鉴外地成功的经验和做法，进一步拓宽视野，创新思路，为做好高铁站资产运营管理工作打好坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>97</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>集团领导赴合肥工业投资控股有限公司学习考察</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2014-10-14</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/57a5b810d439eb9403426d14.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['近日，江东控股集团董事长、总经理张亚莉，江东控股集团副总经理张邦彦一行赴合肥工业投资控股有限公司学习考察，合肥工业控股投资有限公司公司党委书记、总经理雍凤山，党委副书记、纪委书记乔林，副总经理、合肥工业科技发展有限公司总经理吴清理，总会计师钱元美等领导接待了张亚莉董事长一行。', '会上，雍凤山总经理介绍了合肥市工投公司在工业地产、融资担保、重大项目投资和维稳保障等方面的工作和成效。吴清理副总经理详细介绍了合肥工投工业科技公司架构设置及标准化厂房建设、招商、运营，特别是电力配置供应、招商运作渠道、物业管理运营等具体问题的经验和做法,双方围绕公司架构、企业发展、投融资工作等方面深入交换了意见。合肥市工投公司近年来发展迅猛，在标准化厂房建设管理及中小企业融资扶持方面工作成效显著，多次获得省市领导的肯定。张亚莉董事长表示，合肥工投公司许多好的经验值得借鉴，有助于制定企业长远发展战略，把企业做优、做大、做强。', '雍凤山总经理对张亚莉董事长的到来表示欢迎，合肥市工投公司在市委市政府和市国资委的领导下，充分发挥合肥市提升国有资本运营平台作用，希望在今后的发展中继续与江东控股集团保持密切联系，加强交流，为合肥、马鞍山两地经济社会发展做出应有贡献。会后，考察组一行实地参观了合肥工投兴庐科技产业园区及合肥市工投公司都市产业园项目展厅。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>97</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>市民政局党委书记杨继鹏一行赴上海学习考察养老服务工作</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2019-10-28</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/10028306.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['为认真贯彻长三角一体化发展战略，学习借鉴长三角地区民政工作先进经验，加快我市养老服务体系建设，10月23日-24日，局党委书记杨继鹏、局调研员郭玮莲、局养老科负责人和县区民政部门负责人赴上海市长宁区、虹口区学习考察养老服务工作。', '学习考察采取看点和座谈相结合的模式，先后实地考察长宁区智慧养老信息中心、仙霞新村街道养老服务点、安康通企业、虹口区市民驿站等养老服务机构，并与当地民政部门、养老机构负责人就养老服务体系建设开展了深入探讨和交流，仔细询问了解当地的有关政策和具体措施。', '杨继鹏指出，这次到上海学习考察，是开阔工作视野、拓展工作思路的重要方式，同时也是长见识、找差距、明目标的一次难得机会，通过参观体验和学习交流，收获颇丰、受益匪浅。此次学习考察一定要把长三角地区好的经验带回去，消化好、吸收好、转化好，引领和带动我市民政养老事业持续加速发展。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>97</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>市水利局赴淮北市学习考察节水型社会达标建设工作</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2019-08-15</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/9997458.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['8月8日-9日，市水利局党组成员、副局长李超率区县及局水政水资源管理科相关工作人员赴淮北市学习考察节水型社会达标建设工作。', '8日下午，考察团一行实地参观了淮北港利上城国际小区、淮北凌云电力实业总公司中水处理厂、南湖、大唐淮北发电厂虎山项目，详细了解了淮北市节水载体建设、节水企业创建、再生水利用等方面的先进做法。9日上午，通过座谈交流、观看专题汇报片、收集资料等形式学习了节水型社会建设工作方案编制、建设方案实施、技术评估开展、完成达标验收等方面的先进经验。', '下一步，将认真总结学习成果，结合我市实际，夯实节水管理基础，完善节水管理制度，创新节水管理机制，推进我市县域节水型社会达标建设工作。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>97</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>市生态环境局派员参加赴南通学习考察两法衔接工作</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2019-10-28</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/10028003.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['为加强行政执法和刑事司法衔接工作，完善行政执法机关与司法机关信息共享、案情通报、规范取证、案件移送等机制。10月23日，由市政府副秘书长张圣祥带队，市公安局副局长徐平、市司法局副局长张长来，市检察院、市人社局、市生态环境局等业务科室人员，赴南通市学习考察“两法衔接”工作。', '考察组一行，先后深入南通市公安局食药环支队，参观了快检室，现场观摩了快检设备的运行演试，查阅了“两法衔接”相关档案资料。在南通市政府，与南通市公安局、检察院、生态环境等行政执法部门的有关领导和同志举行了座谈，就 “两法衔接” 工作的组织领导体制、案件移送标准和移送程序实施、部门联席会议及案件协作机制、专项行动、信息平台建设等情况等方面进行了广泛而深入的交流。', '南通市开展“两法衔接”工作较早，通过学习考察他们的工作开展情况，突出表现在以下几个方面：一是领导重视，高位推动。时任市长韩立明专题批示推进“两法衔接”工作，对“两法衔接”工作进行部署、指导，紧抓工作落实。二是建立机构，人员到位。专门设立食药环支队，确定10名行政编制和4名技术岗位，加强“两法衔接”工作力量。三是配齐设备，保障到位。在食药环支队设立快检室，并配备相关设备，为“两法衔接”提供技术辅助支持。四是机制健全、形成合力。专门出台了《南通市环境保护部门与公安机关执法衔接工作办法（试行）》，在市级层面创新健全“两法衔接”机制。特别是公安机关提前介入、主动作为，明确“依靠不依赖”的工作定位，与生态环境行政执法部门在移送程序、取证环节等方面形成了运转高效、沟通顺畅的工作机制。', '张圣祥代表考察组表示，做好“两法衔接”工作是全面深化执法改革的需要，是规范执法的迫切要求。马鞍山市将以此次学习考察为契机，将南通好的经验和启示带回去，努力增强“两法衔接”工作的针对性和实效性，切实解决“两法衔接”工作中存在的问题，推动“两法衔接”工作全面有序开展。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>97</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>雨山区左年文区长带队赴上海考察学习美丽乡村建设</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2019-11-26</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10038976.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['11月21日至22日，左年文区长带队赴上海市崇明区和青浦区，考察学习当地美丽乡村建设先进经验。市江东控股总工程师、市文旅集团董事长刘和杰，区领导唐杰、邓明发，市自然资源和规划局、市农业农村局有关领导，区政府办、区农水局、区生态环境分局、雨山自然资源和规划分局、采石街道及部分村负责人参加活动。', '左年文一行先后到崇明区三星镇新安村、青浦区金泽镇莲湖村、蔡浜村，现场感受美丽乡村建设成效，详细了解美丽乡村运作模式、管理理念和公共设施建设、环境卫生整治、产业培育发展、社会综合治理等各项工作开展情况。', '左年文在考察中表示，近年来，上海市崇明区和青浦区以农村问题为导向，坚持生态优先、绿色发展，通过创新发展思路，加大资金投入，充分利用现代科技，走出了一条全国领先、具有上海特色的美丽乡村建设新路子，值得我们学习和借鉴。', '就做好雨山区美丽乡村建设工作，左年文要求，一要深入学习研究崇明区和青浦区先进经验，找准乡村发展定位，坚持规划先行。二要加强村庄基础设施建设，持续开展环境卫生整治，不断提升乡村建设水平。三要利用好乡村资源优势，因地制宜培育新型产业发展，不断提高村民生活水平。四要做好资金整合，积极引入社会资本，积极扩充美丽乡村建设资金来源。五要完善工作机制，强化党建引领，加强文明创建，保障美丽乡村长效管理。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>97</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>经开区示范园区年陡镇赴长兴县学习考察经验总结交流会</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2019-08-09</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9991051.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['8月8日下午，年陡镇召开镇村主职干部专题培训班总结交流会，就镇村主职干部赴长兴县学习考察情况进行交流总结。镇党政领导班子成员，镇直单位负责人、各村居书记、主任参加总结交流会。镇党委副书记方强主持会议。', '总结座谈会上，各村居书记、主任纷纷结合本村居实际和考察学习成果，围绕基层党建、乡村振兴、环境整治、乡村治理等方面进行了交流汇报，大家立足村情、深入思考，从参观长兴县四个代表村的管理经验、创意亮点，再到学习考察的心得体会和实践反思，提出了一系列推动各村居乡村振兴发展的建设性意见。各包村干部分别对各自包保的村居的讨论交流进行了点评，提出了要求。', '徐家旺高度评价本次培训班学习成果汇报，认为通过考察学习，进一步开阔了思路、学到了方法、掌握了内涵、启迪了思路、增强了信心，下一步要让学习的激情转化为实干的动力，让工作思路转化为实践的成果。', '徐家旺从六方面进行了总结：一要理思路。全镇12个村既要发挥各自优势打造“一村一品”，也要补齐短板抱团发展。发展优质农产品，利用区位优势开拓本地及周边市场,加快农业标准化、专业化、规模化、品牌化和农村产业融合发展；二要定目标。在经开区总体规划的框架下，做好近3年全镇总体发展规划和专项规划。以特色农业为基础，同时积极发展劳务、餐饮、电商等第三产服务业，发展壮大村集体经济；三要出政策。营造比学赶超的氛围，不仅要用活上级扶持政策，也要制定全镇农业产业发展奖补政策支持农业转型升级，推动资本、技术、人才等生产要素向农村流动，切实提高农业综合生产能力和经营水平；四要立举措。各部门、各村居要细化工作措施、量化目标任务，按照序时进度真抓实干，扎实推进；五要抓落实。制定目标考核举措，围绕目标抓落实，变被动为主动，发挥钉钉子精神，层层落实到位；六要出成效。在道路硬化、村庄美化、路灯亮化、水体净化、乡风文明等五个方面稳步推进，增强群众的获得感、幸福感、认同感。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>97</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>市市场局焦玉明副局长率队一行赴宿州蚌埠市纤检所考察学习</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/9988466.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['根据《2019年安徽省絮用纤维制品质量监测专项工作实施方案》的安排，马鞍山市纤检所负责全省大学生公寓絮用纤维制品质量监测的抽样工作。7月25-26日，马鞍山市市场局党组成员、副局长焦玉明带领纤检所相关人员启动这次专项监测工作，并赴宿州、蚌埠进行交流学习。', '在宿州、蚌埠纤检所负责人陪同下，参观了实验室，交流了纤检所自身建设、业务提升、内部管理等方面的经验。共同探讨了絮用纤维制品质量专项监测工作的新问题，两市纤检所办公室、业务室、综检室、执法监督室各室主任还从自身工作角度出发，进行了对口座谈。', '考察结束后，焦副局长要求市纤检所干部职工结合这次全国絮棉制品监测抽样工作实际，认真总结，努力学习、消化、吸收兄弟所的先进经验，圆满完成监测抽样工作。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>97</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>博望区医保局赴含山县新农合管理中心考察学习</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2019-07-26</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9986924.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['为认真贯彻落实市委市政府决策部署，确保小康路上“不让一个困难群众掉队”。7月24日上午，博望区医保局赴含山县新农合管理中心学习实施健康脱贫兜底“351”“180”工程的先进做法。考察组先行参观了该中心业务大厅和信息中心，详细听取了该县在健康脱贫兜底“351”“180”工程中的好做法、好经验。此次考察学习，不仅为博望区开展困难群体医疗兜底保障工作提供好的借鉴，同时也开拓了工作思路，对下一步博望区开展农村困难群众帮扶工作奠定了良好基础。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>97</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>市委副书记钱沙泉带队赴南京市江宁区考察学习</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2019-07-12</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/9847307.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['◇7月11日下午，市委副书记钱沙泉带队赴南京市江宁区考察学习，并与南京市委常委、江宁区委书记李世贵等进行了座谈交流，双方重点就慈湖高新区与江宁滨江开发区之间的交通互联互通、产业协同协作、环保联防联治进行了深入的对接。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>97</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>含山县残联一行赴博望区考察学习残疾人托养服务工作</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2019-07-19</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9848962.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['为进一步完善我县残疾人托养服务模式，7月18日，县残联班子成员一行赴博望区考察残疾人托养服务工作开展情况。', '县残联一行走访了博望区中爱城乡助老服务中心，参观了该机构内的残疾人日间照料和托养服务机构，并现场体验了该中心通过“互联网+”打造的24小时守护的居家养老服务模式——智能化呼叫管理平台。', '通过本次考察学习，下一步县残联将结合我县残疾人工作实际情况，依托社会养老机构和康复医疗机构，加快推进我县残疾人托养机构融合发展。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>97</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>蚌埠市市场监督局来雨山区考察学习餐饮服务示范点建设</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9988107.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['7月26日上午，蚌埠市市场监督管理局局长乌兰其其格在市市场监管局局长何俊、区市场监管局局长刘晓平等陪同下，来我区考察学习餐饮服务示范点建设。', '乌兰其其格一行就日常监督管理、示范观摩点建设、追溯体系建设推进、宣传活动开展等与该局进行深入交流。随后，乌兰其其格前往我区示范观摩点之一——春盛渔府，认真查看了各项食品安全管理制度、索证索票、进货查验、食材追溯等，详细了解其独有的OTS现场管理体系（即服务在现场，管理在现场，培训在现场，质检在现场，考核在现场，解决在现场）及三级质检制度。', '乌兰其其格表示，回去后要借鉴我区好的经验做法，同时希望今后两地要加强食品安全监管工作交流，互相学习，取长补短，共同促进经济社会发展。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>97</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>高考备考市数学新高考复习研讨公开课在红星中学举行</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2024-03-24</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/65ff9e0888668839778b4572.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['名师课堂展风采 专家指引促发展。3月12日下午，市数学新高考复习研讨公开课在我校举行，省优质课一等奖获得者、来自红星中学高三数学组陈红伟老师开设了一节全市公开课《数列中的范围和最值问题探究》。本次活动由市教研员蒋宝童老师主持，全市高三数学老师参与了听课观摩、课后评课和讲座学习。', '陈红伟从近几年高考典型题型入手，先带领学生巩固数列的基本知识，再由浅入深的开展例题讲解。教学过程中，陈老师循循善诱，多方位启发学生深度思考，鼓励学生积极发言，注重讲练结合，注重迁移运用，善于突破教学难点，课堂教学的有效性和创新性得以充分体现。最后，陈老师还通过学生上台板演，要求学生在解答过程中讲究应试答题技巧，注重规范答题格式。', '课后，来自红星中学的唐亮老师和含山中学的戴德文老师分别对陈老师的课进行了点评，对陈老师的课给予了高度评价。来自二中的王雨老师和当涂一中的宋守军老师分别就解析几何和概率统计专题做了关于高三复习的讲座报告，给全市高三老师提供了不可多得的学习交流机会。', '最后，市数学教研员蒋宝童老师作了总结，他肯定了授课教师的教学亮点和教学特色，同时提出了改进意见和建议，并共同研讨交流，寻找提升高三数学高效复习教学的有效措施。（撰稿：唐 亮 一审：章荣勋 二审：王鹏林 三审：卢丙对）']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>97</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>市乡村振兴局举办党史学习教育专题读书班暨深入贯彻落实习近平总书记考察安徽重要讲话指示精神理论学习中心组学习扩大会</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2021-08-20</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/ztzj/2021nzt/xczx/20573741.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['市乡村振兴局举办党史学习教育专题读书班暨深入贯彻落实习近平总书记考察安徽重要讲话指示精神理论学习中心组学习扩大会_马鞍山市人民政府', '市乡村振兴局举办党史学习教育专题读书班暨深入贯彻落实习近平总书记考察安徽重要讲话指示精神理论学习中心组学习扩大会', '8月19日至20日，市乡村振兴局举办党史学习教育专题读书班暨深入贯彻落实习近平总书记考察安徽重要讲话指示精神理论学习中心组学习扩大会。会议重点围绕深入学习宣传贯彻习近平总书记考察安徽重要讲话指示精神开展集中学习研讨，党组书记、局长刘继明主持本次会议，局全体人员参加。', '会议强调，一要坚持学研结合，在深化理论武装上持续发力，要持续学深悟透习近平总书记在庆祝建党100周年大会上的讲话精神和视察安徽重要讲话指示精神，以更高的站位抓好巩固脱贫攻坚成果、全面推进乡村振兴各项工作。要加快工作进度，针对新纳入的监测对象，尽快推动落实各项帮扶措施，在年底前取得成效。二要坚持目标要求，在抓牢实践活动上持续发力，紧盯打造成长三角‘白菜心’的新发展定位，努力打造乡村振兴样板区，结合当前工作职能，重点在抓好动态监测帮扶、产业帮扶、就业帮扶、金融帮扶、社会帮扶等重点工作上下功夫。三要坚持实践转化，在勇于开创新局上持续发力，要深化党史学习教育成果，始终着眼民心所向办实事，把“我为群众办实事”实践活动作为检验宗旨意识的“大考场”，针对我局工作重心由巩固拓展脱贫攻坚成果向乡村振兴全面衔接的转移，抓紧时间研究政策、熟悉规范、掌握要求，加快提升能力素质，不断开创事业发展新局面。', '正在阅读：市乡村振兴局举办党史学习教育专题读书班暨深入贯彻落实习近平总书记考察安徽重要讲话指示精神理论学习中心组学习扩大会', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>97</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>雨山自然资源和规划分局赴和县学习考察耕地保护和执法监察工作</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2020-01-09</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10052987.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['1月7日下午，雨山自然资源和规划分局会同佳山乡、向山镇和采石街道分管负责同志，赴和县自然资源和规划局考察学习耕地保护、自然资源执法监察、矿山管理等方面工作。', '考察组一行实地参观学习了相关乡镇永久基本农田保护标志牌建设情况，并就耕地保护和执法监察工作进行深入交流。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>97</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>李克强考察郑州大学为何来到这里</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2020-11-05</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/gwyxxi/20327671.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['李克强11月4日上午来到郑州大学考察资源材料一流学科建设。总理听取工程研究中心的汇报，就其中几个关键技术问题与院士们深入交流。他鼓励科学家们再接再厉，对标国际先进，争取早日取得突破性进展。走出研究中心，李克强与闻讯赶来的同学们热情交流，鼓励大家潜心向学，刻苦钻研。得知这里有三分之一的学生来自省外，总理欣慰地说，郑州大学要立足中原，面向全国。河南是人口大省，要努力成为人才强省和人才聚集的高地，在促进中部崛起中发挥更大作用。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>97</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>习近平赴贵州考察向全国人民致以新春祝福</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2021-02-04</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602921.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['春节前夕，习近平总书记赴贵州考察调研并看望慰问基层干部群众。3日下午，他来到毕节市黔西县，实地察看乌江六冲河段生态环境，走进新仁苗族乡化屋村看望乡亲们。在村文化广场，习近平同参加少数民族春节民俗活动的群众亲切交流，并向全国各族人民致以新春祝福。（文字记者：张晓松、朱基钗 摄影记者：李学仁、谢环驰、丁海涛）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>97</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>习近平在南阳市淅川县考察南水北调工程</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2021-05-14</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20603361.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['13日下午，习近平总书记来到淅川县，先后考察了陶岔渠首枢纽工程、丹江口水库和九重镇邹庄村，听取南水北调中线工程建设管理运行和水源地生态保护等情况介绍，了解南水北调移民安置、发展特色产业、促进移民增收等情况。途中，习近平还临时下车，走进麦田察看小麦长势，了解夏粮生产情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、王晔、燕雁）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>97</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>韩瑞大学一行到校考察交流</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2024-05-07</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/663c395c886688b12c8b4567.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['日，韩瑞大学产学协力副校长金镇宇一行来访马鞍山师范高等专科学校，双方就国际化办学项目开展交流洽谈', '张勇军对韩瑞大学代表团一行的到来表示欢迎。他详细介绍了学校发展情况，包括专业建设、师资力量、在校生规模等情况，强调学校在培养学生国际化视野和跨文化交流能力方面非常重视。学校以开放的姿态面向世界，国际文化交流的历史源远流长，通过聘请外籍教师、互派留学生、选送优秀教师出国进修、中外合作办学等方式，与国外高校积极开展交流互动。张勇军指出国际化办学水平是学校实力的重要体现，学校目前处在升本关键期，此次国际化合作办学是一个很好的契机。希望两校之间本着互惠互利的原则，深化合作内容，创新合作形式，加强师资交流、科研合作和文化交流，把双方合作关系进一步推深推实，增强学生就业竞争力。张勇军要求相关学院尽快商定合作模式、合作细节，按照程序快速推进。', '韩瑞大学代表团一行对学校的热情接待表示感谢。金镇宇对韩瑞大学的发展情况和国际化合作办学情况进行了介绍，表示韩瑞大学是一所以航空、艺术闻名的韩国私立综合性大学，并详细阐释了该校的专业概况和校园文化。', '会上，双方就入学要求、后续深造、合作办学模式、对外合作办学政策、合作专业的师生培养等方面进行了交流和探讨，初步达成合作意向。', '韩瑞大学企划处、融合设计中心负责人，安徽工程大学艺术设计学院负责人，学校外国语学院、艺术设计学院相关负责人参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>97</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>习近平在湖北省考察新冠肺炎疫情防控工作</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2020-03-11</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601131.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['看望慰问奋战在一线的医务工作者解放军指战员社区工作者公安干警基层干部下沉干部志愿者和居民群众时强调', '3月10日，中共中央总书记、国家主席、中央军委主席习近平专门赴湖北省武汉市考察新冠肺炎疫情防控工作。这是习近平在火神山医院指挥中心视频连线感染科病房，与病房内患者和医务人员亲切交流。新华社记者 鞠鹏 摄', '3月10日，中共中央总书记、国家主席、中央军委主席习近平专门赴湖北省武汉市考察新冠肺炎疫情防控工作。这是习近平在东湖新城社区考察时，向在家隔离居住的居民挥手致意、表示慰问。新华社记者 谢环驰 摄', '新华社武汉3月10日电 在抗击新冠肺炎疫情的关键时刻，中共中央总书记、国家主席、中央军委主席习近平10日专门赴湖北省武汉市考察疫情防控工作。他强调，湖北和武汉是这次疫情防控斗争的重中之重和决胜之地。经过艰苦努力，湖北和武汉疫情防控形势发生积极向好变化，取得阶段性重要成果，但疫情防控任务依然艰巨繁重。越是在这个时候，越是要保持头脑清醒，越是要慎终如始，越是要再接再厉、善作善成，继续把疫情防控作为当前头等大事和最重要的工作，不麻痹、不厌战、不松劲，毫不放松抓紧抓实抓细各项防控工作，坚决打赢湖北保卫战、武汉保卫战。', '习近平指出，在这场严峻斗争中，湖北各级党组织和广大党员、干部冲锋在前、英勇奋战，全省医务工作者和援鄂医疗队员白衣执甲、逆行出征，人民解放军指战员闻令即动、勇挑重担，广大社区工作者、公安干警、基层干部、下沉干部、志愿者不惧风雨、坚守一线，广大群众众志成城、踊跃参与，涌现出一大批可歌可泣的先进典型和感人事迹。', '习近平强调，在这场严峻斗争中，武汉人民识大体、顾大局，不畏艰险、顽强不屈，自觉服从疫情防控大局需要，主动投身疫情防控斗争，作出了重大贡献，让全国全世界看到了武汉人民的坚韧不拔、高风亮节。正是因为有了武汉人民的牺牲和奉献，有了武汉人民的坚持和努力，才有了今天疫情防控的积极向好态势。武汉人民用自己的实际行动，展现了中国力量、中国精神，彰显了中华民族同舟共济、守望相助的家国情怀。武汉不愧为英雄的城市，武汉人民不愧为英雄的人民，必将通过打赢这次抗击新冠肺炎疫情斗争再次被载入史册！全党全国各族人民都为你们而感动、而赞叹！党和人民感谢武汉人民！', '习近平代表党中央，向湖北和武汉广大党员、干部、群众致以诚挚的问候，向奋战在疫情防控第一线的广大医务工作者、人民解放军指战员、社区工作者、公安干警、基层干部、下沉干部、志愿者以及各个方面的同志们表示崇高的敬意，向正在同病魔作斗争的患者及其家属、因公殉职人员家属、病亡者家属表示诚挚的慰问，向在这场疫情中不幸罹难的同胞、牺牲的一线工作人员表示深切的哀悼。', '习近平始终高度关注湖北省和武汉市的疫情防控工作，一下飞机，就在中共中央政治局委员、国务院副总理、中央指导组组长孙春兰，湖北省委书记应勇，湖北省委常委、武汉市委书记王忠林陪同下，乘汽车前往集中收治重症患者的火神山医院。', '在火神山医院指挥中心，习近平听取医院建设运行、患者收治、医务人员防护保障、科研攻关等情况介绍。习近平指出，疫情发生以来，包括军队在内的广大医务工作者发扬特别能吃苦、特别能战斗的精神，义无反顾奔赴湖北和武汉，毫无畏惧投入防控救治工作，日夜奋战，舍生忘死，不负重托，不辱使命，同时间赛跑，与病魔较量，为武汉疫情防控工作作出了重要贡献。军队医务人员牢记我军宗旨，召之即来，来之能战，战之能胜，为党旗、军旗增添了光彩。沧海横流，方显英雄本色。你们真正做到了救死扶伤、大爱无疆。你们是光明的使者、希望的使者，是最美的天使，是真正的英雄！党和人民感谢你们！', '习近平通过远程会诊平台，同正在病区工作的医务人员代表视频连线，询问工作和保障情况。习近平强调，一线的医务工作者最辛苦，承受着难以想象的身体和心理压力，许多同志脸上和手上被磨出了血，令人感动，是新时代最可爱的人。我向你们表示崇高的敬意！习近平叮嘱广大医务人员加强自我防护、抓住机会休息，既敢于斗争、又善于斗争。有关部门要落实好防护物资、生活物资保障，落实好工资待遇、临时性工资补助、卫生防疫津贴待遇，尽快出台关心关爱一线医务人员的政策措施，帮助大家解除后顾之忧，确保大家以饱满的精神状态投入到工作中。', '习近平又连线感染科病房，同正在接受治疗的患者交流，了解他们的病情和治疗情况，得知他们得到有效治疗、病情都在好转，他感到很欣慰。习近平指出，疫情发生以来，党中央一开始就明确要求把人民群众生命安全和身体健康放在第一位，党中央采取的所有防控措施都首先考虑尽最大努力防止更多群众被感染，尽最大可能挽救更多患者生命。全国人民都在关心关注着你们。医务人员要竭尽所能为大家提供治疗，各方面要关心被感染的群众，照顾好他们的家人，让患者安心接受治疗。大家也要树立必胜信心，保持乐观向上的精神状态，主动听从医嘱，积极配合治疗，这有助于战胜病魔。习近平祝他们早日康复！', '在医院办公楼外广场，习近平接见了湖北省当地和军队、外地支援湖北医护人员代表。习近平指出，在湖北和武汉人民遭受疫情打击的关键关头，广大医务工作者坚韧不拔、顽强拼搏、无私奉献，展现了医者仁心的崇高精神，展现了新时代医务工作者的良好形象，感动了中国，感动了世界。当前，疫情蔓延扩散势头已经得到基本遏制，防控形势逐步向好。这是全党全国全社会共同努力、团结奋斗的结果，你们是最大的功臣，党和人民要给你们记头功。党中央和各方面将一如既往大力支持湖北和武汉抗击疫情工作，一如既往全力提供医疗物资支援，一如既往为大家解除后顾之忧。党中央和全国人民永远同你们在一起，永远是你们的坚强后盾！在疫情防控斗争进入关键阶段，气可鼓不可泄。要一鼓作气，咬紧牙关，坚持到底，扛得住，守得住，不能前功尽弃。医务人员健康是战胜疫情的重要保障。很多同志在这里奋战一个多月了，很辛苦、很疲劳，希望你们注意休息，保证营养，保重身体。有关方面要改善大家工作生活条件，落实好各项防护保障措施，加强轮换和休整，尽最大努力确保一线医务人员健康和安全。', '离开火神山医院，习近平来到东湖新城社区，实地察看社区卫生防疫、社区服务、群众生活保障等情况。疫情发生以来，社区累计确诊新冠肺炎患者32人，通过封闭式管控和实施网格化管理，半个多月来保持无新增确诊病例。见到总书记来了，在家隔离居住的居民纷纷从阳台和窗户向总书记挥手高声问好，习近平频频向大家挥手致意、表示慰问。', '在社区生活物资集中配送点，习近平详细询问米面粮油和新鲜蔬菜水果等生活物资的采购和供应情况，强调要千方百计保障好群众基本生活。在察看社区警务室、卫生服务站、物业中心等运行情况后，习近平来到社区党群服务中心，了解社区实行网格化管理、联防联控、群防群治工作情况，对他们的工作表示肯定。', '在社区党群服务中心，习近平同社区工作者、基层民警、卫生服务站医生、下沉干部、志愿者等亲切交流。习近平强调，社区作为防控的最前线，肩负的任务十分繁重，参与社区防控工作的同志们工作十分辛苦。大家夜以继日、不辞辛劳、默默付出，悉心为群众服务，为遏制疫情扩散蔓延、保障群众生活作出了重要贡献，展现了武汉党员、干部不怕牺牲、勇于担当、顾全大局、甘于奉献的精神。抗击疫情有两个阵地，一个是医院救死扶伤阵地，一个是社区防控阵地。坚持不懈做好疫情防控工作关键靠社区。要充分发挥社区在疫情防控中的重要作用，充分发挥基层党组织战斗堡垒作用和党员先锋模范作用，防控力量要向社区下沉，加强社区防控措施的落实，使所有社区成为疫情防控的坚强堡垒。打赢疫情防控人民战争要紧紧依靠人民。要做好深入细致的群众工作，把群众发动起来，构筑起群防群控的人民防线。', '实地考察结束后，习近平主持召开会议，听取中央指导组、湖北省委和省政府关于疫情防控工作汇报。', '听取汇报后，习近平发表了重要讲话。习近平强调，新冠肺炎疫情发生以来，党中央高度重视，重点支持湖北和武汉疫情防控工作，采取最全面、最严格、最彻底的防控举措，坚决遏制疫情扩散蔓延势头。人民解放军、中央和国家部委、各省区市鼎力相助、火线驰援，打响了疫情防控的人民战争、总体战、阻击战。经过艰苦努力，湖北和武汉疫情防控形势发生积极向好变化，取得阶段性重要成果，初步实现了稳定局势、扭转局面的目标。当前，湖北和武汉疫情防控任务依然艰巨繁重。各级党组织和广大党员、干部要不忘初心、牢记使命，扛起责任、经受考验，以更严作风、更实举措把党中央决策部署落实落地。', '习近平指出，要把医疗救治工作摆在第一位，在科学精准救治上下功夫，最大限度提高治愈率、降低病亡率。要进一步落实“四集中”措施，集中优势医疗资源和技术力量救治患者，加快推广应用已经研发和筛选的有效药物，提升救治水平。要加强医疗防控物资生产、供应、调配，做好出院患者康复医疗工作。要加强医护力量和医疗资源统筹，兼顾其他患者的日常就医需求，逐步恢复正常医疗秩序。', '习近平强调，打赢疫情防控阻击战，重点在“防”。现在到了关键的时候，必须咬紧牙关坚持下去。要紧紧依靠人民群众，充分发动人民群众，提高群众自我服务、自我防护能力。要加强进出人员管理，深入开展流行病学调查工作。要保持内防扩散、外防输出的防控策略，同时要在做好健康管理、落实防控措施的前提下，采取“点对点、一站式”的办法，集中精准输送务工人员安全返岗，帮助外地滞留在鄂人员安全有序返乡。', '习近平指出，要加大对医疗力量薄弱市州的支持力度，发挥高水平专家团队的作用，探索巡回诊疗、远程会诊等有效做法，促进优质医疗资源下沉。要改善农村医疗卫生条件，加强农村医务人员和基层干部培训，提供必要的防护物资。要发动群众开展环境卫生专项整治，教育引导群众养成良好卫生习惯和生活方式。', '习近平强调，民生稳，人心就稳，社会就稳。湖北和武汉等疫情严重地方的群众自我隔离了这么长时间，有些情绪宣泄，要理解、宽容、包容，继续加大各方面工作力度。要充分考虑群众基本生活需求，密切监测市场供需和价格动态，保障米面粮油、肉禽蛋奶等生活必需品供应。对因疫情防控在家隔离的孤寡老人、困难儿童、特困人员、残疾人等特殊群体，要落实包保联系人，加强走访探视，及时提供必要帮助。要加强心理疏导和心理干预，尤其是要加强对患者及其家属、病亡者家属等的心理疏导工作。要加强舆论引导，营造强信心、暖人心、聚民心的舆论氛围。要坚持依法防控，加强社会面管控，妥善处理疫情防控中可能出现的各类问题，维护社会大局稳定。', '习近平指出，这次疫情，短期内会给湖北经济社会发展带来阵痛，但不会影响经济稳中向好、长期向好的基本面。要在加强防控的前提下，采取差异化策略，适时启动分区分级、分类分时、有条件的复工复产。要落实落细国家出台的一系列支持政策，有针对性地开展援企、稳岗、扩就业等工作，强化“六稳”举措，统筹抓好春耕生产、农民就业增收等工作，坚决抓好脱贫攻坚各项任务。中央和国家机关各部委要继续加大对湖北的支持力度，帮助湖北解决实际困难和具体问题，早日全面步入正常轨道。', '习近平强调，这次新冠肺炎疫情防控，是对治理体系和治理能力的一次大考，既有经验，也有教训。要放眼长远，总结经验教训，加快补齐治理体系的短板和弱项，为保障人民生命安全和身体健康筑牢制度防线。要着力完善城市治理体系和城乡基层治理体系，树立“全周期管理”意识，努力探索超大城市现代化治理新路子。', '习近平指出，我们党在内忧外患中诞生，在磨难挫折中成长，在攻坚克难中壮大。敢于斗争、敢于胜利，是中国共产党人鲜明的政治品格，也是我们的政治优势。各级党组织和广大党员、干部要不忘初心、牢记使命，扛起责任、经受考验，在这场大考中磨砺责任担当之勇、科学防控之智、统筹兼顾之谋、组织实施之能，做到守土有责、守土有方。要坚决反对形式主义、官僚主义，让基层干部把更多精力投入到疫情防控第一线。要激励广大党员、干部在危难时刻挺身而出、英勇奋斗，在大战中践行初心使命，在大考中交出合格答卷。', '会议以电视电话会议形式召开，湖北省13个市州和4个省直辖县级行政单位设分会场，各地党政主要负责同志、相关部门主要负责同志和外地支援各市州医疗队领队参加。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>97</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>习近平考察北京冬奥会冬残奥会张家口赛区</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2021-01-20</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602841.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['19日，习近平总书记乘火车沿京张高铁抵达河北省张家口市，先后考察京张高铁太子城站、国家跳台滑雪中心、国家冬季两项中心，看望慰问运动员、教练员和张家口赛区运行保障团队、建设者代表。（文字记者：张晓松、朱基钗 摄影记者：鞠鹏、王晔、岳月伟）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>97</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>习近平在北京考察新冠肺炎防控科研攻关工作</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2020-03-03</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20600961.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['3月2日，中共中央总书记、国家主席、中央军委主席习近平在北京考察新冠肺炎防控科研攻关工作。这是习近平在军事医学研究院重大疫情应急防控药物研究室了解疫苗和抗体研制情况。 新华社记者 丁海涛 摄', '3月2日，中共中央总书记、国家主席、中央军委主席习近平在北京考察新冠肺炎防控科研攻关工作。这是习近平在清华大学医学院全球健康与传染病研究中心同科研人员交谈。 新华社记者 燕雁 摄', '新华社北京3月2日电 中共中央总书记、国家主席、中央军委主席习近平2日在北京考察新冠肺炎防控科研攻关工作，代表党中央向奋斗在疫情防控科研攻关一线的广大科技工作者表示衷心的感谢和诚挚的问候。他强调，人类同疾病较量最有力的武器就是科学技术，人类战胜大灾大疫离不开科学发展和技术创新。要把新冠肺炎防控科研攻关作为一项重大而紧迫任务，综合多学科力量，统一领导、协同推进，在坚持科学性、确保安全性的基础上加快研发进度，尽快攻克疫情防控的重点难点问题，为打赢疫情防控人民战争、总体战、阻击战提供强大科技支撑。', '2日下午，习近平首先来到军事医学研究院，听取研究院关于新冠肺炎疫情防控科研攻关的总体情况汇报，结合展板和实物了解疫苗和抗体研制、药物筛选、病毒致病机理研究、快速检测试剂研究和应用等进展情况。在仪器测试楼，习近平察看了重大疫情应急防控药物研究室，向坚守岗位、奋力攻关的一线专家和科研人员表示亲切慰问。他强调，提高治愈率、降低病亡率，最终战胜疫情，关键要靠科技。习近平指出，新冠肺炎疫情发生以来，军事医学研究院坚决贯彻党中央和中央军委决策指示，闻令即动、争分夺秒，集中力量展开应急科研攻关，取得了阶段性成果，充分展现了人民军队忠于党、忠于人民的政治本色和敢打硬仗、善打胜仗的优良作风。习近平希望他们再接再厉，充分发挥突击队和主力军作用，尽快研制出安全有效的疫苗、药物、检测试剂，全力满足抗击疫情需要。要坚持在疫情可溯、可诊、可防、可治、可控方面合力攻关，通过打这场硬仗，掌握更多具有自主知识产权的核心科技，拿出更多硬核产品，为维护人民生命安全和身体健康、维护国家战略安全作出更大贡献。', '离开军事医学研究院，习近平来到清华大学医学院考察调研。他先后走进全球健康与传染病研究中心、生物医学检测技术及仪器北京实验室，向专家详细了解创新药物研发进展情况和新型检测试剂、检测设备研发应用等情况，并观看了正在进行的酶联免疫吸附试验。习近平指出，防控新冠肺炎疫情斗争有两条战线，一条是疫情防控第一线，另一条就是科研和物资生产，两条战线要相互配合、并肩作战。', '习近平希望他们加强同前方的配合，组织精干力量、急事急办，加速推进新型检测试剂、抗体药物、疫苗和诊疗方案等攻关。习近平强调，我国是一个有着14亿多人口的大国，防范化解重大疫情和重大突发公共卫生风险，始终是我们须臾不可放松的大事。要健全国家重大疫情监控网络，完善法律法规体系，加大前沿技术攻关和尖端人才培养力度，尽快提高我国应对重大突发公共卫生事件能力和水平。', '随后，习近平在清华大学医学院主持召开座谈会，听取科技部关于全国药品和疫苗研发工作，国家卫生健康委关于有效临床应用经验和有效诊疗方案总结推广工作的情况汇报。', '听取汇报后，习近平发表了重要讲话。他指出，疫情发生以来，全国科技战线积极响应党中央号召，有关部门组成科研攻关组，确定临床救治和药物、疫苗研发、检测技术和产品、病毒病原学和流行病学、动物模型构建等五大主攻方向，组织跨学科、跨领域的科研团队，科研、临床、防控一线相互协同，产学研各方紧密配合，短短一个多月时间内就取得了积极进展，为疫情防控提供了有力科技支撑。在这场重大斗争中，广大科技工作者充分展示了拼搏奉献的优良作风、严谨求实的专业精神。当前，打赢疫情防控人民战争、总体战、阻击战还需要付出艰苦努力。越是面对这种情况，越要坚持向科学要答案、要方法。', '习近平强调，尽最大努力挽救更多患者生命是当务之急、重中之重，要加强药物、医疗装备研发和临床救治相结合，切实提高治愈率、降低病亡率。要强化科研攻关支撑和服务前方一线救治的部署，坚持临床研究和临床救治协同，让科研成果更多向临床一线倾斜。要加快药物研发进程，坚持中西医结合、中西药并用，加快推广应用已经研发和筛选的有效药物，同时根据一线救治需要再筛选一批有效治疗药物，探索新的治疗手段，尽最大可能阻止轻症患者向重症转化。要采取恢复期血浆、干细胞、单克隆抗体等先进治疗方式，提升重症、危重症救治水平。', '习近平指出，疫苗作为用于健康人的特殊产品，对疫情防控至关重要，对安全性的要求也是第一位的。要加快推进已有的多种技术路线疫苗研发，同时密切跟踪国外研发进展，加强合作，争取早日推动疫苗的临床试验和上市使用。要推进疫苗研发和产业化链条有机衔接，加快建立以企业为主体、产学研相结合的疫苗研发和产业化体系，建立国家疫苗储备制度，为有可能出现的常态化防控工作做好周全准备。', '习近平强调，要统筹病毒溯源及其传播途径研究，利用病毒蛋白和不同受体的结合特征，评估可疑动物作为中间宿主的可能性，利用人工智能、大数据等新技术开展流行病学和溯源调查，搞清楚病源从哪里来、向哪里去，提高精准度和筛查效率。', '习近平指出，病人心理康复需要一个过程，很多隔离在家的群众时间长了会产生这样那样的心理问题，病亡者家属也需要心理疏导。要高度重视他们的心理健康，动员各方面力量全面加强心理疏导工作。', '习近平强调，重大传染病和生物安全风险是事关国家安全和发展、事关社会大局稳定的重大风险挑战。要把生物安全作为国家总体安全的重要组成部分，坚持平时和战时结合、预防和应急结合、科研和救治防控结合，加强疫病防控和公共卫生科研攻关体系和能力建设。要统筹各方面科研力量，提高体系化对抗能力和水平。要加强战略谋划和前瞻布局，完善疫情防控预警预测机制，及时有效捕获信息，及时采取应对举措。要研究建立疫情蔓延进入紧急状态后的科研攻关等方面指挥、行动、保障体系，平时准备好应急行动指南，紧急情况下迅速启动。', '习近平指出，生命安全和生物安全领域的重大科技成果也是国之重器，疫病防控和公共卫生应急体系是国家战略体系的重要组成部分。要完善关键核心技术攻关的新型举国体制，加快推进人口健康、生物安全等领域科研力量布局，整合生命科学、生物技术、医药卫生、医疗设备等领域的国家重点科研体系，布局一批国家临床医学研究中心，加大卫生健康领域科技投入，加强生命科学领域的基础研究和医疗健康关键核心技术突破，加快提高疫病防控和公共卫生领域战略科技力量和战略储备能力。要加快补齐我国高端医疗装备短板，加快关键核心技术攻关，突破技术装备瓶颈，实现高端医疗装备自主可控。', '习近平强调，要坚持开展爱国卫生运动，从人居环境改善、饮食习惯、社会心理健康、公共卫生设施等多个方面开展工作，特别是要坚决杜绝食用野生动物的陋习，提倡文明健康、绿色环保的生活方式。', '习近平指出，公共卫生安全是人类面临的共同挑战，需要各国携手应对。当前，新冠肺炎疫情在多个国家出现，要加强同世界卫生组织沟通交流，同有关国家特别是疫情高发国家在溯源、药物、疫苗、检测等方面的科研合作，共享科研数据和信息，共同研究提出应对策略，为推动构建人类命运共同体贡献智慧和力量。', '丁薛祥、刘鹤、许其亮、张又侠、蔡奇、肖捷和科技部、国家卫生健康委负责同志出席有关活动。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>97</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>习近平考察北京冬奥会冬残奥会筹办工作</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2021-01-19</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602831.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['18日，习近平总书记在北京考察冬奥会、冬残奥会筹办工作。习近平先后来到位于北京市海淀区的首都体育馆和位于北京市延庆区的国家高山滑雪中心、国家雪车雪橇中心考察调研，了解运动场馆建设和运动员参赛备战等情况，看望慰问运动员、教练员和延庆赛区运行保障团队、建设者代表。（文字记者：张晓松、朱基钗 摄影记者： 鞠鹏、王晔、姚大伟、燕雁、岳月伟）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>97</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>习近平考察杭州湿地保护利用和城市治理情况</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2020-04-01</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601011.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['习近平总书记31日先后来到杭州西溪国家湿地公园、城市大脑运营指挥中心，就西溪湿地保护利用情况，以及杭州运用城市大脑推进城市治理体系和治理能力现代化进行考察调研。（文字记者：张晓松、杨维汉、朱基钗 摄影记者：鞠鹏、燕雁、申宏）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>97</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>习近平在陕西省平利县考察脱贫攻坚情况</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2020-04-22</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20601161.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['习近平总书记21日来到陕西省安康市平利县老县镇，在锦屏社区、镇卫生院、中心小学和茶园考察当地脱贫攻坚等情况。（文字记者：张晓松 摄影记者：鞠鹏、谢环驰、燕雁、翟健岚） \u200b\u200b\u200b\u200b', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>97</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>马鞍山广播电视台举办学习贯彻习近平总书记考察安徽重要讲话指示精神宣讲报告会</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/5fc4b0a3d1da9bc8758b4567.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['马鞍山广播电视台举办学习贯彻习近平总书记考察安徽重要讲话指示精神宣讲报告会-马鞍山市人民政府', '11月6日上午，马鞍山广播电视台学习贯彻习近平总书记考察安徽重要讲话指示精神宣讲报告会举行，马鞍山广播电视台党委书记、台长曹峰作了宣讲报告，全台副科级以上干部和全体党员参加了报告会。报告会用举例子、摆事实的方式对习近平总书记视察马鞍山重要讲话精神作了重点学习，对我市开启高质量发展的新征程，擘画建设“生态福地、智造名城”的新航向，强化践行初心使命的新担当等三部分内容作了详细分析，同时，对市广电台下一步深化内部体制机制改革，加快媒体融合作了宏观上的阐述。党员们表示，宣讲内容令人鼓舞、催人奋进，今后要进一步学懂弄通做实习近平总书记重要讲话精神，按照加速推进媒体深度融合的要求，勇于创新，敢于担当，奋力推动广电改革发展取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>97</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>我市举行学习贯彻习近平总书记考察安徽重要讲话指示精神宣讲工作动员会暨集体备课会</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2020-10-24</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/20314461.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['我市举行学习贯彻习近平总书记考察安徽重要讲话指示精神宣讲工作动员会暨集体备课会_马鞍山市人民政府', '10月23日下午，全市学习贯彻习近平总书记考察安徽重要讲话指示精神宣讲工作动员会暨集体备课会在市会议中心第二会堂举行。市委常委、宣传部长夏劲松出席会议并讲话。', '夏劲松指出，学习宣传贯彻习近平总书记考察安徽重要讲话指示精神是全市当前乃至今后相当长时期的重大政治任务。扎实开展好习近平总书记考察安徽重要讲话指示精神宣讲工作，在宣讲方式上，要坚持问题导向，对标找差，主动作为，着力解决好“听得到、听得懂、听得进”的问题，推动总书记重要讲话指示精神家喻户晓、深入人心。在宣讲内容上，要把握重点，提高精准度，讲全讲准讲透，真正让基层干部群众入脑入心。在工作保障上，要明确工作要求，迅速兴起宣讲热潮，着力深化备课的热度、宣讲的温度和组织的力度，增强宣讲成效。', '正在阅读：我市举行学习贯彻习近平总书记考察安徽重要讲话指示精神宣讲工作动员会暨集体备课会', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>97</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>阜阳经贸旅游学校考察马鞍山理工学校</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2022-09-13</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/631fe7788866887d528b4567.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['9月8日，阜阳经贸旅游学校校长邢钊一行来到马鞍山理工学校，考察汽修专业建设发展情况。', '在汽修专业部部长孙五一的陪同下，邢钊一行参观了学校的汽车实习工厂和汽车实训楼，他边看边问，对马鞍山理工学校在汽修专业方面的快速发展表示敬佩。', '交流中，孙五一老师着重汇报了学校在新能源汽车和智能网联汽车专业的课程建设、实操训练和技能竞赛情况。邢钊表示，马鞍山理工学校汽修专业师资力量雄厚、实训设备先进，尤其在专业领军人物孙五一的带领下，专业建设走在全省前列。他希望阜两校能加强专业对接合作，互相提高，力争把阜阳旅游经贸学校办成安徽省优秀中职学校。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>97</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>雨山区检察院集中学习人民检察院检察建议工作规定</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2019-03-22</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9768956.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['为深入推进业务学习建设，落实深入打造过硬检察队伍有关工作安排，促进办案实践与理论研究深度融合，创建学习型检委会，近日，区检察院检委会全体委员集中学习了《人民检察院检察建议工作规定》，旨在进一步提升对该规定的理解和运用能力。', '2019年2月26日，高检院正式发布《人民检察院检察建议工作规定》，为检察建议工作提供了规范化、系统化的制度依据。集中学习会上，院相关负责人对《人民检察院检察建议工作规定》的修改背景和历史演变进行了解读，并从为什么要修改，规定的主要内容，如何把检察建议“做成刚性，做到刚性” 三个方面用PPT演示的方式进行了深入细致地分析和讲解，对全体委员如何全面理解该规定的内容精神实质，如何深刻把握新时代赋予检察机关关于检察建议的新内涵、新要求、新做法进行了针对性理论和实务指导。', '委员们在学习过程中，就检察建议规定的一些具体条款的理解与适用进行交流探讨。院党组书记、检察长宋斌在总结学习情况时要求，不但检委会委员们要学习掌握《人民检察院检察建议工作规定》，各部门的员额检察官也要加强学习和运用，并要紧贴检察业务工作实际，准确把握这一规定的主要内容，学懂弄透。在贯彻落实中切实提升业务水平和工作能力，不断提高司法办案的社会效果。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>97</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>摩托车驾照考试学习咨询</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2020-03-23</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/smxs/site/tpl/13414641?postId=124018246</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['目前时速超过25km的电动车都需要摩托车驾照，很多人可能需要集中考取E、F照。经过咨询，现在考试流程已较为简便，但是学习比较麻烦，当涂还没有提供摩托车驾照学习的驾校或者场所，特别是D、E照，如果没有经过实车驾驶训练，很难考试通过，后续上路行驶也存在安全隐患。相关部门能否主导或者鼓励相关单位开展摩托车驾照学习培训课程，收取合理培训费用这些都可以接受。这样也可以有序平稳的保障电动车综合治理工作开展，谢谢！', '网友，您好！摩托车驾驶证的取得可以通过自学考取，也可以通过培训机构培训后考取，一切本着自愿的原则。所有依法成立的驾培机构，公安部门都全力支持其依法开展业务。如有疑问可联系：当涂县公安局交通管理大队6712701。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>97</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>经开区示范园区组织相关人员赴盐城学习考察北师大盐城附属中学</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2019-06-03</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9829123.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['红星中学整体搬迁项目即将施工，为更好的建设高标准中学，创造精品工程，市开发区王功谦副调研员带队赴盐城考察北师大盐城附属中学，红星中学、十七冶公司相关人员参加。盐城经济技术开发区社会事业局局长戴亚生带领学校相关建设人员陪同。', '北师大盐城附属学校与红星中学新校区方案设计单位同为北京市建筑设计研究院有限公司，设计理念及方案效果相似，对红星中学的建设有重要的借鉴作用。考察团一行分别参观了在建的中学部和已完成开学的小学部，听取了项目建设单位和盐城开发区的介绍，汲取了丰富的经验。', '现场参观后，双方举行了座谈，盐城开发区领导及学校领导对我方表示欢迎，并交流了工作经验，王功谦同志代表考察团向盐城开发区及学校提供参观考察机会表示感谢。下一步，我单位将本次汲取的工作经验充分运用到红星中学项目建设过程中去，努力把红星中学建设成高标准、超一流中学。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>97</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>施工噪音扰民影响考试学习休息</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2020-06-28</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/smxs/site/tpl/13414641?postId=124025781</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['今年的高考就快来了，但各个小区的雨污水改造工程正在紧张施工，噪音太大已严重影响学习。7月1号以后，高三学生要放假回家复习，但这个施工噪音已干扰到学生，有关部门有没有什么应对措施？', '网友您好，中考、高考临近，针对这一情况，我局将严格落实《关于加强全市中、高考期间环境噪声监管工作的通告》有关规定组织施工，要求施工单位在夜间（22时至次日凌晨6时）和中午（12时至14时）不得施工作业（抢险、救灾除外），按照“7月7至8日、14至16日考试期间，保证各考场周围半径100米范围内不受环境噪声干扰”等要求，做好对雨污分流工程施工单位的监管工作，保证考生的复习迎考环境。如市民有疑问可联系：2338059', '中考、高考临近，针对这一情况，我局将严格落实《关于加强全市中、高考期间环境噪声监管工作的通告》有关规定组织施工，要求施工单位在夜间（', '米范围内不受环境噪声干扰”等要求，做好对雨污分流工程施工单位的监管工作，保证考生的复习迎考环境。如市民有疑问可联系：', '我个人认为，7月4日至7月6日期间应该可以通过调整施工流程和施工方案限定施工作业时间，同时降低施工噪音。在7日和8日期间，应避免机械作业，对无法避免的必须使用机械作业的施工现场应提前告知市民，对距离考场范围100米的施工现场进行噪音检测，对现场作业时间进行限制。雨污水分流改造是利国利民的工程，在特殊时期能考虑到人民群众的各方面利益需求也是在工程管理中的需要关注的问题，市民理解，社会支持也是工程项目顺利推进的动力。感谢住建局的辛苦工作。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>97</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>深入学习贯彻习近平总书记人民保护长江长江造福人民科学论断重温习近平总书记考察安徽重要讲话指示精神理论研讨会举行</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2022-08-22</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/20821361.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['深入学习贯彻习近平总书记“人民保护长江、长江造福人民”科学论断——重温习近平总书记考察安徽重要讲话指示精神理论研讨会举行_马鞍山市人民政府', '深入学习贯彻习近平总书记“人民保护长江、长江造福人民”科学论断——重温习近平总书记考察安徽重要讲话指示精神理论研讨会举行', '8月19日下午，由市委宣传部、市社科联主办的深入学习贯彻习近平总书记“人民保护长江、长江造福人民”科学论断——重温习近平总书记考察安徽重要讲话指示精神理论研讨会在市会议中心举行。市委常委、宣传部部长、市党的创新理论研习组组长陈永红出席会议并讲话。', '围绕习近平总书记亲临马鞍山考察时提出的“人民保护长江、长江造福人民”科学论断，来自市委党校、安徽工业大学等单位的八位专家学者分别从科学论断的哲学意蕴、方法论原则、对市与马钢融合发展的指导意义等不同角度开展了理论研讨。', '陈永红指出，在习近平总书记考察安徽两周年之际，全市社科理论界齐聚一堂开展理论研讨，具有重大的理论意义和重要的纪念意义。要重温高光时刻，体悟领袖魅力；要把握历史主动，感悟思想伟力；要牢记殷殷嘱托，激发奋进动力。坚持从聚焦绿色发展、聚焦转型升级、聚焦改革攻坚、聚焦开放联动、聚焦改善民生“五个聚焦”出发，不断推动习近平总书记“人民保护长江、长江造福人民”科学论断在马鞍山实起来、响起来、立起来。社科理论界要不断为马鞍山发展建言发声、营造氛围，为加快打造安徽的“杭嘉湖”、长三角的“白菜心”提供理论支撑和智力支持，以优异成绩迎接党的二十大胜利召开。', '正在阅读：深入学习贯彻习近平总书记“人民保护长江、长江造福人民”科学论断——重温习近平总书记考察安徽重要讲话指示精神理论研讨会举行', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>97</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>学经验提服务马鞍山市退役军人事务局赴宁波市军休一中心考察学习</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2021-04-13</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/20446211.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['学经验 提服务 马鞍山市退役军人事务局赴宁波市军休一中心考察学习_马鞍山市人民政府', '为学习借鉴发达地区在军休服务管理和信息化方面的先进经验和成功做法，切实做好我市军休服务工作， 4月9日，马鞍山市退役军人事务局考察组一行6人在二级调研员杨安胜带领下赴宁波市军休一中心考察学习。', '考察组实地参观了一中心军休活动大楼，详细了解活动大楼功能布局，及军休干部的日常活动情况，对一中心先进、完备的软硬件设施以及细致周到的人性化服务频频称赞。', '考察组认真观看了军休一中心宣传片《前进中的宁波市军休一中心》，对军休一中心的服务活动有了更直观的了解，一中心负责同志介绍了基本情况与特色亮点工作，双方并就目前军休干部社会服务等进行了深入探讨。', '杨安胜调研员表示，此次来一中心参观交流感慨良多，在军休服务规范化、信息化、社会化、多样化及精细化方面，一中心给我们起到了很好的示范作用，特别是在军休服务探索社会化道路方面，例如与大学图书馆合作、与老年大学合作，通过与社会上的机构共建引入资源，既节约了人力物力成本，又实现了服务的个性化、多样化，给军休干部带来了实实在在的便利，凸显真心真情服务理念。利用大数据平台和“互联网+”系统搭建的军休信息APP，开创了军休数字化全新服务方式，十分值得我们学习。', '通过此次学习，马鞍山市军休服务将学习好宁波好的经验，运用到实际工作中，进一步拓宽工作思路，把军休服务真正做到老干部的心坎上。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>97</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>专家学者深入现场考察证实仙鹤重返石臼湖</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2021-01-27</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/shdt/20393821.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['2020年12月以来，不断有鸟友爆出消息，石臼湖再现丹顶鹤身影，一时引起人们的广泛关注。', '1月26日，正在石臼湖现场考察的安徽师范大学生命科学院吴海龙教授证实，在当涂与博望交界处湖区目睹到了丹顶鹤的踪迹。此次发现的丹顶鹤共4只，2只成鸟体型较大头顶朱红，1只幼鸟体型居中，1只虽已长出鸟羽，但体型最小并且头顶颜色不显著，其中1只脚上带有GPS装置。', '1月17日起，吴海龙教授一行受当涂县自然资源和规划局邀请，深入石臼湖区找寻“仙鹤”——丹顶鹤的踪迹。在当涂县石臼湖自然保护区管理站工作人员的协助下，分别在湖阳大桥、镇庵村等监测点开展监测工作，经过寻找，终于在当涂与博望交界处湖区发现了丹顶鹤的踪迹。', '据吴海龙教授介绍，丹顶鹤又名仙鹤，是国家一级保护野生动物，是鸟类中的“大熊猫”，主要分布于我国东北地区和江苏盐城。石臼湖首次发现是在上世纪70年代，安徽大学王岐山教授等动物保护专家发现了丹顶鹤的踪迹。一直到1990年，石臼湖还有丹顶鹤的记录，但此后一直未有丹顶鹤现身的消息。此次发现的4只丹顶鹤从俄罗斯过境来石臼湖越冬，可能为一个丹顶鹤小家庭（2只成鸟和2只幼鸟），能够来此越冬也充分证明了石臼湖的生态位置的重要性。这次监测到的还有国家一级保护动物东方白鹳、黑鹳，国家二级保护动物小天鹅、白琵鹭等珍稀水禽。', '石臼湖地处皖苏交界处，是一县三区（当涂县、博望区，南京市溧水区、高淳区）的界湖，是安徽境内越冬水鸟重要的栖息地之一，属自然通江季节性湖泊，早在1990年就被湿地国际亚太组织列为“亚洲重要湿地”，2014年被正式确认为中国国家重要湿地。', '2020年12月，俄罗斯专家发现，一只携带了一枚卫星追踪器的丹顶鹤没有按照传统的迁徙线路赴江苏盐城越冬，而是来到了石臼湖，就第一时间联系了北京林业大学鹤类专家郭玉民。郭玉民教授又联系了南京鸟友辛夷赴现场实地调查，证实了石臼湖确实有4只丹顶鹤现身。', '据《安徽商报》2021年1月15日报道，得知消息后，北京师范大学动物学硕士史杰和合肥鸟友1月12日也赶到石臼湖，并顺利拍下了丹顶鹤的靓丽身姿。实际上，马鞍山当地鸟类爱好者史健在2020年12月就已经观测并拍摄到了丹顶鹤的身影。', '史杰认为，12月底的极端气候，导致北方更为严寒，或许是这几只丹顶鹤放弃盐城，转到石臼湖的原因之一。另外，石臼湖历史上就是丹顶鹤的越冬地。鸟类迁徙路线是“刻在基因里”的，史杰猜测，或许是基因里的路线指引丹顶鹤又回到石臼湖。“丹顶鹤野外生存寿命可达30多年，也许这4只丹顶鹤中，曾经有只来过石臼湖。”', '“鸟类是生态平衡链上重要一环，对良好生态的形成起着不可替代的作用，人、鸟、自然密切关联。”吴海龙教授认为。', '为响应国家生态文明的建设要求，进一步强化石臼湖省级自然保护区的管理和建设科学化、规范化，有效保护和恢复湿地生态系统，自2017年以来，我市率先加大对石臼湖保护区生态保护力度，将境内围网全部拆除。其中，当涂县共拆除湖区内围网面积约9.5万亩，围网长度约134万米。与此同时，开展湖区常态化执法巡查，禁止非法捕鱼、捕鸟，并开展环境清理。如今的石臼湖，通过“生态修复、鸟类栖息地”等工程的实施，“竹竿连着竹竿，围网连着围网”的场景不见了，上有鸟类展翅翻飞，下有鱼类自由洄游，生态功能已得到极大恢复，呈现“水清、岸绿、生态优”的美景。', '当涂县自然资源和规划局总工程师李明道表示，该县将进一步釆取措施，加强石臼湖自然保护区的管理，进一步加大生态修复力度，为鸟类提供更好的越冬栖息场所，全力打造石臼湖优美生态环境发展先行区。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>97</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>习近平视察澳门政府综合服务中心和英才学校</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2019-12-20</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20600211.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['12月19日，国家主席习近平在澳门特别行政区行政长官崔世安陪同下，来到位于澳门黑沙环的政府综合服务中心和濠江中学附属英才学校，同澳门市民和师生亲切交流。这是习近平在黑沙环政府综合服务中心同澳门市民亲切交流。 新华社记者 黄敬文 摄', '新华社澳门12月19日电（记者 李忠发 朱基钗 郭鑫）19日上午，国家主席习近平在澳门特别行政区行政长官崔世安陪同下，来到位于澳门黑沙环的政府综合服务中心和濠江中学附属英才学校，同澳门市民和师生亲切交流。', '黑沙环政府综合服务中心于2009年正式投入使用，目前可提供26个政府部门共335项服务。习近平来到服务大楼，在大厅结合展板听取通过整合行政服务资源，为市民提供“一站式”政务服务的情况。在身份证明和社会保障服务专区，习近平察看相关业务办理流程，并同正在办理业务的市民交谈。在24小时身份证明自助服务区，习近平观看护照业务等办理演示，对通过信息科技手段实现社会治理精细化和公共服务高效化的做法表示肯定。', '正在办理业务的市民们纷纷聚拢过来，习近平同他们一一握手、互致问候。市民们对政府惠民措施十分满意，纷纷表达了感恩之情。习近平表示，特别行政区政府为市民提供了很好的服务，体现了以民为本的发展理念。在同大家的交流中，能够感受到澳门同胞生活不断改善，感受到澳门回归20年来发生的历史性变化。他祝愿大家身体健康、生活幸福。', '随后，习近平来到濠江中学附属英才学校。濠江中学创建于1932年，是澳门学生人数最多的基础教育学校，现由校本部即中学部、附属英才学校、小学部和幼稚园部四个校部组成，建校以来始终坚持爱国主义教育，培养了大量优秀爱国爱澳人才。今年“六一”国际儿童节前夕，习近平给该校小学生回信，对他们予以亲切勉励，在澳门社会引起热烈反响。', '习近平来到学校图书馆，听取澳门教育总体情况和学校校史介绍，了解澳门回归以来特别行政区和学校爱国主义教育工作情况。展台上摆放着《中国历史》《品德与公民》等教材，习近平拿起教材仔细翻看。习近平表示，教材是爱国主义教育的重要载体，特别行政区政府同内地合编教材的做法值得充分肯定。要鼓励更多学校使用新教材，让老师们把教材讲好、讲活、深入人心。', '习近平还观看了学校科技创新作品的展示，听取学生介绍科创作品《长城的故事》和导盲杖、夜间智慧泊车系统等，并与学生互动交流。他说，同学们的作品很有创意，令人印象深刻。希望学校不断优化课程设置，探索开拓更有利于培养科技创新人才的教育方式。', '学校礼堂里，濠江中学师生代表，澳门非高等教育学校校长、历史科研组长、德育主任正在观摩以“‘一国两制’与澳门”为题的中国历史公开课。', '习近平走进礼堂，全场起立，热烈鼓掌。习近平向大家挥手致意并就座观摩。公开课结束后，在师生们热烈掌声中，习近平走到学生中间即席发表重要讲话。他说，濠江中学是一所具有悠久爱国传统的学校。今年5月收到英才学校小朋友的来信，浓浓的家国情怀、爱国主义精神跃然纸上，让我很受感动。濠江中学的光荣历史也映照出了广大澳门同胞始终秉持的深厚爱国情怀。爱国主义为澳门贯彻落实“一国两制”打下了坚实的社会政治基础，使“一国两制”实践始终沿着正确的方向前进，结出繁荣昌盛发展的累累硕果。', '习近平表示，今天这堂课意义非凡、有的放矢，抓住了历史的要点和教育的要害。要打牢爱国主义的基础，就要了解历史。作为一个中国人，一定要了解我们民族的历史。“腹有诗书气自华”。14亿中国人民凝聚力这么强，就是因为我们拥有博大精深的中华文化、中华精神，这是我们文化自信的源泉。了解我们5000年延续不绝的历史，就能自然形成强烈的民族自尊心和民族自豪感。了解鸦片战争以来的民族屈辱史，才能理解中国人民对于民族伟大复兴的强烈愿望。今年是新中国成立70周年，我们每个人都为新中国取得的辉煌成就感到自豪，更加坚定了对国家发展道路的信心。澳门回归祖国20年来发生了巨大变化，可谓“天翻地覆慨而慷”，这让澳门同胞更加懂得“一国两制”的根本在于“一国”，更加珍惜今天的良好局面，增强开创美好未来的决心。', '习近平指出，爱国主义教育兹事体大，希望特别行政区政府教育部门和学校担负起主体责任，在已有基础上再接再厉，把爱国主义教育工作做得更好。相信澳门青年人必将成为有为的一代、值得骄傲的一代，成长为澳门和国家的栋梁之才。', '离开校园时，师生们围拢过来，向习近平主席热情问好。学生们向习近平赠送了专门制作的《习近平主席回信纪念专刊》，习近平祝同学们学习进步、健康成长，并同大家挥手告别。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>97</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>市政府党组扩大会学习贯彻习近平总书记视察安徽重要讲话精神</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2020-08-25</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/ztzj/rzxxxcgcxjpzsjscahzyjhjs/rzxxxcgcxjpzsjscahzyjhjs/20249451.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['8月24日上午，在市委常委会扩大会议结束后，市政府党组书记、市长袁方主持召开市政府党组（扩大）会暨理论学习中心组学习会议，传达学习习近平总书记视察安徽重要讲话精神，研究政府系统学习贯彻落实工作。', '会议指出，习近平总书记此次安徽视察特别是马鞍山视察，在马鞍山发展史上具有极其重大而深远的里程碑意义；视察期间发表的重要讲话，是引领马鞍山发展的总方针、总遵循。我们要高站位领会精神实质，特别是习近平总书记对人民的深厚情怀、关于生态环保与经济发展的辩证思维、对长三角一体化发展的殷切期望、做实做强做优实体经济的殷殷嘱托和全面加强党的领导的谆谆教诲，坚决把思想和行动统一到习近平总书记重要讲话精神上来。', '会议强调，要高起点推进长远高质量发展，确保习近平总书记重要讲话精神在马鞍山落地生根。要坚持目标引领，科学编制我市“十四五”规划，积极稳妥谋划未来发展。要坚持绿色发展，加力推进“生态福地、智造名城”建设。要坚持对接融入，着力增强对沪苏浙资源要素吸引力，加大对马钢服务支持力度。要坚持人民至上，协同推进长三角基本公共服务便利共享，不断补齐民生短板。要坚持勇于担当，把习近平总书记的关怀鼓励，转化为推动发展的强大动力，努力创造更多走在全省乃至全国前列的好经验好做法。', '会议要求，要立足长远、干在当下，高效率抓好年内重点工作，奋力完成全年目标任务，统筹推进灾后恢复重建、脱贫攻坚、常态化疫情防控、制止餐饮浪费等工作，努力用新作为、新举措开创马鞍山高质量发展新局面。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>97</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>县区花山区副区长朱观明同志带队外出学习考察政务公开相关工作</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2021-03-18</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/657ac1218866887e668b4587.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['3月16日至17日，副区长朱观明一行5人前往六安市裕安区和池州市东至县对政务公开相关工作进行学习考察。', '在两地分别座谈交流了政务公开工作开展情况，就重大行政决策公众参与（公众代表列席政府常务会议）、政府信息依申请公开、在线访谈、政务公开专区建设等方面工作进行了沟通探讨。', '实地学习考察了裕安区政务公开专区建设，听取了有关情况介绍，对专区的规划设置、设施设备和实现功能进行了细致询问，现场操作政务公开查询终端，体验获取政府信息、便民信息及业务办理的便利度。随后又参观了东至县胜利镇为民服务中心政务公开专区建设情况。', '通过学习，对我区政务公开下一步的工作有了新的启发，特别是在对政务公开专区建设上有了新的思路，为把专区建设成为效率高、实用性强的政务公开专区增添了信心。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>97</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>县区当涂县组织各乡镇赴花山区江东街道学习考察政务公开专区建设工作</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/657ac1218866887e668b4576.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['【县区】当涂县组织各乡镇赴花山区江东街道学习考察政务公开专区建设工作-马鞍山市人民政府', '为持续加强政府信息公开窗口建设，进一步提升乡镇政务公开专区建设效果，加快实现基层政务公开标准化规范化。7月8日上午，当涂县政务公开办组织全县各乡镇，赴花山区江东街道考察学习政务公开专区建设先进经验和做法。', '考察组一行在花山区江东街道政务公开专区仔细看，认真听，详细了解专区建设方面的经验做法和取得的成效。通过听取经验介绍、实地参观学习、讨论交流等方式，江东街道对政务公开工作的重视程度之高、工作思路之新让考察组受益匪浅。各乡镇纷纷表示，通过学习考察，对如何做好乡级政务公开专区建设有了新的思考和认识，回去后将结合乡镇工作实际，借鉴各地经验，进一步创新形式，按照上级要求，高标准建好政务公开专区。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>97</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>市委宣传部常务副部长王平带队赴合芜滁考察学习分钟阅读圈建设经验</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/62c3a24d886688d27f8b4588.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['市委宣传部常务副部长王平带队赴合芜滁考察学习“15分钟阅读圈建设”经验-马鞍山市人民政府', '6月28日至29日，马鞍山市委宣传部常务副部长王平带队赴合肥、芜湖、滁州等地考察学习“15分钟阅读圈建设”经验，市文旅局、市文旅集团、市新华书店和各县区相关负责同志，共计25人参加。通过实地参观、交流讨论等方式，详细了解当地在推进“15分钟阅读圈建设”工作中的具体做法和成功经验，为推进我市项目建设开拓了思路。', '考察组一行先后来到滁州市文博书苑、合肥市默墨城市阅读空间、芜湖市弋江南书苑等9个城市阅读空间考察学习。现场察看书房的选址装修、功能布局，详细了解书房建设、运行保障、人员配备管理、设备采购等情况，并听取当地书房负责人相关情况介绍，重点了解城市书房前期建设及后期运营情况。', '考察过程中，考察组表示，这些阅读空间按照“统一建设、统一标识、统一配置、统一监管、统一考核”要求，阅读环境好、学习氛围浓，特别是数字型、智慧型图书馆的定位高，让读者尽享阅读的便利，同时又注重将传统文化融入书房建设中，十分值得学习借鉴。', '考察结束后，马鞍山市考察学习组围绕“15分钟阅读圈建设”的经验和运营模式进行了深入探讨，纷纷表示，今后要加强与各地的交流沟通，把学习到的先进经验和做法结合我市实际，打造一批功能丰富、特色鲜明、满足广大市民需求的“15分钟阅读圈”，为实现我市文化强市建设提供强大的精神动力和文化支撑。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>97</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>当涂谢红心率队赴江宁区学习考察乡村振兴和新时代文明实践工作</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2019-08-16</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9996421.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['8月14日上午，县委书记谢红心率队前往南京市江宁区学习考察乡村振兴和新时代文明实践工作。县领导张卫东、王建平、汪平以及部分乡镇、园区主要负责人参加考察。', '谢红心先后来到江宁区江宁街道牌坊社区、张溪社区实地考察，深入了解江宁区在乡村振兴以及新时代文明实践工作等方面的先进理念和经验做法，并与县领导和乡镇、园区负责同志一起交流学习体会。', '谢红心在考察中指出，乡镇、园区要认真学习江宁区先进理念和经验做法，把乡村振兴与新时代文明实践有机融合起来，保持战略定力，持之以恒推进，着力打造“一镇一业”“一村一品”，切实做到“在服务群众中引领群众、在引领群众中服务群众”，让新时代文明之花在乡村大地精彩绽放，努力实现乡村振兴与新时代文明实践同频共振、同步发展。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>97</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>市自然资源和规划局党组书记局长方成同志带队赴安庆市太湖县考察学习森林防火工作</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2020-04-30</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/10089313.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['市自然资源和规划局党组书记、局长方成同志带队赴安庆市太湖县考察学习森林防火工作_马鞍山市人民政府', '4月29日，市自然资源和规划局党组书记、局长方成率队赴安庆市考察学习森林防灭火工作，市应急管理部门、市公安部门及局相关科室参加。', '考察组一行在安庆市林业局党组成员、森林公安局局长方俊陪同下，赴安庆市太湖县晋熙镇、花亭湖风景区、九井溪景区森林防火驻守点学习防灭火工作经验。考察组详细了解了安庆市、太湖县“三个一律”防火令制定程序、依据及后期执行措施，并就“三个一律”防火令执行中遇到的瓶颈问题与对方进行了深入交流。', '考察结束后，方成局长指出，我市森林防火工作特别是“三个一律”执行方面还存在差距，希望市自然资源和规划（林业）部门加强与市应急、公安等部门的沟通对接，共同做好森林防火工作。自然资源和规划（林业）部门将统筹压实“防”的责任，制定严密的防控措施，应急部门发挥“督”的结果运用，公安部门拿出“罚”高效举措，共同筑牢我市森林火灾“防火墙”。', '正在阅读：市自然资源和规划局党组书记、局长方成同志带队赴安庆市太湖县考察学习森林防火工作', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>97</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>新区赴京福高铁无为站商合杭高铁芜湖北站考察学习规划建设先进经验</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9989235.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['新区赴京福高铁无为站、商合杭高铁芜湖北站考察学习规划建设先进经验_马鞍山市人民政府', '为加快推进巢马城际（郑蒲港新区段）规划建设，7月31日下午，新区党工委委员、纪工委书记张定程带队赴京福高铁无为站、商合杭高铁芜湖北站考察学习，新区重点局，规划局等部门负责同志随队参加。', '张定程一行首先来到了京福高铁无为站，实地了解无为站建设及运营使用情况，随后又到达商合杭高铁芜湖北站施工现场，就芜湖北站设计理念、建设规模、站台布置、站前广场等具体问题，与中铁三局相关负责同志进行了深入交流和讨论。', '张定程表示，京福高铁无为站、商合杭高铁芜湖北站，与即将建设的巢马城际郑蒲港站，同属我省江北区域，站台设置均为高架站，新区将积极学习借鉴无为站、芜湖北站在规划建设中好做法、好经验，加快推进郑蒲港站论证工作。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>97</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>市管局市接待处组织机关干部职工赴芜湖考察学习机关事务管理和接待工作</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2010-05-05</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/5833094393c59a9c6fd67456.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['市管局、市接待处组织机关干部职工赴芜湖考察学习机关事务管理和接待工作-马鞍山市人民政府', '为进一步提升机关事务管理和接待工作水平，丰富机关党员的组织生活，开拓视野，不断增强党组织的凝聚力、战斗力，4月11日，市管局、市接待处组织机关党员干部职工赴芜湖繁昌、芜湖市行政中心考察学习机关事务管理和接待工作，并参观考察了芜湖市繁昌县的马仁奇峰、中分村的新四军三支队司令部旧址和芜湖市市容市貌及该市行政中心管理运行情况。 在国家4A景区、国家级森林公园马仁奇峰，机关干部饱览了最具代表性的自然景观：奇峰、奇壁、奇柱、奇洞、奇屋、奇树和马仁奇峰周围秀丽的山水风光。考察团一行与还与陪同考察芜湖市及繁昌县机关事务管理局领导就机关事务管理和接待工作进行了交流和探讨。 在中分村新四军三支队司令部旧址，中分村原小学校长、纪念园创办人徐孝旺老人做了详细介绍。中分村是新四军三支队司令部驻守之地，他说谭震林同志曾在这里指挥了“繁昌五次保卫战”和“皖南两反扫荡”，司令部旧址展出了谭震林同志从抗日战争到建国后等各个时期的珍贵历史照片共48张。这次活动使全体党员干部得到了一次爱国主义教育，大家都表示应该缅怀革命先烈，继承革命传统，做好本职工作。 在芜湖市，考察团一行在芜湖市机关事务管理局、接待处领导陪同下，参观了芜湖市滨江公园等市容市貌，详细了解了市行政中心运行管理情况。通过参观考察，市管局、市接待处机关干部职工纷纷表示，芜湖市城市建设的巨大发展，芜湖市行政中心先进管理经验和理念，非常值得马鞍山借鉴和学习，同时也进一步增强了我们贯彻好市委七届十二次全委会精神的信心和决心，为“坚持科学发展，走在全省前列，努力把马鞍山建设成为具有时代特色的现代化大城市”的目标做出自己应有贡献。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>97</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>雨山区人大赴南京扬州考察学习创新平台建设及科技成果转化工作</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2019-05-23</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/9821819.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['5月16日至17日，区人大常委会主任胡定保带领区人大教科文卫工委部分委员、区科技局负责人和安工大专家等赴南京市江宁区、扬州市邗江区考察学习创新平台建设和科技成果转化工作。区人大常委会副主任黄启明参加上述活动。', '胡定保一行实地观摩了两区多家科技创新企业，听取了企业负责人关于企业发展历程、生产经营、科技成果应用与转化等介绍，并分别与两区人大和区科技局有关负责同志就科技创新工作中的政策支撑、平台建设、成果转化落地等相关问题进行交流。', '座谈中，胡定保对两区人大的热情接待和在考察中给予的支持表示感谢，希望日后进一步加强两地人大之间的沟通联系，相互学习共同提高。他要求区科技局要针对我区创新平台建设及科技成果转化中存在的问题和不足，认真学习借鉴两区好的经验、做法和理念，推进我区科技创新高质量发展。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>97</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>市机关事务管理局赴省管局和铜陵市管局学习考察公共机构节能工作</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2015-07-10</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/57a5b7e6d439eb940342640f.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['此次学习考察的目的主要是了解能耗数据远程计量、节能监管平台建设、示范单位创建以及合同能源管理等内容。省管局节能处安排了内容丰富、形式多样的学习考察内容，其中有省级能耗监管平台建设管理介绍，省质监局、省政务大厦等国家级、省级示范单位创建经验交流，能耗远程计量实施办法讲解，建筑节能、合同能源管理模式等节能知识讲授。随后学习考察组一行前往铜陵市机关事务管理局，学习考察了节能监管平台建设运营以及合同能源管理模式。', '通过实地参观学习，学习考察组一行受益匪浅，本次考察学习的各种先进节能工作经验、技术、管理模式对马鞍山市下一步公共机构节能工作开展、节约型示范单位创建都有重大的学习指导意义。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>97</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>市农委畜牧办组织三县一区赴广德考察学习畜禽养殖粪污异位发酵床处理模式</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2019-03-15</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/9767199.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['市农委畜牧办组织三县一区赴广德考察学习畜禽养殖粪污异位发酵床处理模式_马鞍山市人民政府', '2019年3月14日，市农委畜牧办主任谢长明携含山县、和县、当涂县、博望区畜牧兽医局负责人、“异位发酵床”试点申报企业负责人前往广德县考察学习畜禽养殖粪污异位发酵床处理模式。', '考察小组深入到广德县下寺乡安泰农业开发有限责任公司。现场查看了异位发酵床的配套设施、实地了解了异位发酵床模式的技术优点。针对异位发酵床的发展前景、实施并推广的难度进行了探讨，力争加快推进我市畜禽养殖废弃物资源化利用工作。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>97</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>习近平在河北考察并主持召开深入推进京津冀协同发展座谈会</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2023-05-13</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21041981.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['习近平在河北考察并主持召开深入推进京津冀协同发展座谈会时强调 以更加奋发有为的精神状态推进各项工作 推动京津冀协同发展不断迈上新台阶 李强丁薛祥出席座谈会 蔡奇陪同考察并出席座谈会', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日下午，习近平在石家庄市主持召开深入推进京津冀协同发展座谈会并发表重要讲话。新华社记者 申宏 摄', '新华社石家庄5月12日电 中共中央总书记、国家主席、中央军委主席习近平近日在河北考察，主持召开深入推进京津冀协同发展座谈会并发表重要讲话。他强调，要坚定信心，保持定力，增强抓机遇、应挑战、化危机、育先机的能力，统筹发展和安全，以更加奋发有为的精神状态推进各项工作，推动京津冀协同发展不断迈上新台阶，努力使京津冀成为中国式现代化建设的先行区、示范区。', '中共中央政治局常委、国务院总理李强，中共中央政治局常委、国务院副总理丁薛祥出席座谈会。中共中央政治局常委、中央办公厅主任蔡奇陪同考察并出席座谈会。', '5月11日至12日，习近平在河北省委书记倪岳峰、省长王正谱陪同下，先后来到沧州、石家庄等地，深入农村、港口、科研单位等，实地了解京津冀协同发展情况。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日上午，习近平在沧州市黄骅市旧城镇仙庄片区旱碱地麦田考察时，同种植户、农技专家亲切交流。新华社记者 殷博古 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日上午，习近平在沧州市黄骅市旧城镇仙庄片区旱碱地麦田考察时，同种植户、农技专家亲切交流。新华社记者 李学仁 摄', '11日上午，习近平来到沧州市，考察了黄骅市旧城镇仙庄片区旱碱地麦田，了解盐碱地整治、旱碱麦种植推广及产业化情况。习近平走进麦田，仔细察看小麦长势，并向正在田里劳作的种植户、农技专家询问旱碱麦产量、价格、品质、收益等。习近平指出，开展盐碱地综合利用，是一个战略问题，必须摆上重要位置。要立足我国盐碱地多、开发潜力大的实际，发挥科技创新的关键作用，加大盐碱地改造提升力度，加强适宜盐碱地作物品种开发推广，有效拓展适宜作物播种面积，积极发展深加工，做好盐碱地特色农业这篇大文章。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日上午，习近平在沧州市黄骅市旧城镇仙庄片区旱碱地麦田考察。新华社记者 李学仁 摄', '11日下午，习近平来到黄骅港煤炭港区码头，了解河北省港口整合发展和黄骅港生产经营、发展规划等情况。习近平强调，河北区位优势独特，海运条件便利，要持续推进港口转型升级和资源整合，优化港口功能布局，主动对接京津冀协同发展、高标准高质量建设雄安新区、共建“一带一路”等国家重大战略需求，在推动区域经济协调发展、建设现代化产业体系中发挥更大作用。黄骅港作为我国西煤东运、北煤南运的重要枢纽港口，要加强港口能力建设，创新管理体制机制，打造多功能、综合性、现代化大港。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日下午，习近平在沧州市黄骅港煤炭港区码头考察。新华社记者 李学仁 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日下午，习近平在沧州市黄骅港煤炭港区码头考察时，同码头工作人员、船务人员亲切交流。新华社记者 李学仁 摄', '12日上午，习近平来到位于石家庄市的中国电科产业基础研究院考察调研，了解企业发展历程及产品研发、加强军民融合发展、提升自主保障能力建设等情况，走进生产车间察看芯片生产流程。习近平指出，加快建设科技强国是全面建设社会主义现代化国家、全面推进中华民族伟大复兴的战略支撑，必须瞄准国家战略需求，系统布局关键创新资源，发挥产学研深度融合优势，不断在关键核心技术上取得新突破。他勉励科技工作者再接再厉、勇攀科技高峰，不断攻克前沿技术，打造更多科技自立自强的大国重器。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在位于石家庄市的中国电科产业基础研究院考察。新华社记者 燕雁 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在位于石家庄市的中国电科产业基础研究院生产车间考察。新华社记者 申宏 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在位于石家庄市的中国电科产业基础研究院考察时，同科技工作者亲切交流。新华社记者 燕雁 摄', '习近平随后考察了石家庄市国际生物医药园规划展馆，听取石家庄生物医药产业发展情况汇报，察看医药产品展示，了解药品研发生产情况。习近平强调，生物医药产业是关系国计民生和国家安全的战略性新兴产业。要加强基础研究和科技创新能力建设，把生物医药产业发展的命脉牢牢掌握在我们自己手中。要坚持人民至上、生命至上，研发生产更多适合中国人生命基因传承和身体素质特点的“中国药”，特别是要加强中医药传承创新发展。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在石家庄市国际生物医药园规划展馆考察。新华社记者 燕雁 摄', '12日下午，习近平在石家庄市主持召开深入推进京津冀协同发展座谈会。河北省委书记倪岳峰、天津市委书记陈敏尔先后发言，北京市委书记尹力提交了书面发言，就深入推进京津冀协同发展汇报工作情况、提出意见建议。', '听取大家发言后，习近平发表了重要讲话。他对党的十九大以来河北经济社会发展取得的成绩表示肯定，希望河北全面学习贯彻党的二十大精神，完整、准确、全面贯彻新发展理念，牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务，在推进创新驱动发展中闯出新路子，在推进京津冀协同发展和高标准高质量建设雄安新区中彰显新担当，在推进全面绿色转型中实现新突破，在推进深化改革开放中培育新优势，在推进共同富裕中展现新作为，加快建设经济强省、美丽河北，奋力谱写中国式现代化建设河北篇章。', '习近平强调，党的十九大以来，按照党中央决策部署，京津冀3省市切实履行主体责任，中央有关部门和单位大力支持配合，做了大量卓有成效的工作，京津冀协同发展取得新的显著成效，疏解北京非首都功能初见成效，雄安新区建设取得重大阶段性成果，北京城市副中心高质量发展步伐加快，“轨道上的京津冀”加速形成，美丽宜居京津冀取得丰硕成果，科技创新和产业融合发展水平持续提升。实践证明，党中央关于京津冀等重大区域发展战略是符合我国新时代高质量发展需要的，是推进中国式现代化建设的有效途径。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日下午，习近平在石家庄市主持召开深入推进京津冀协同发展座谈会并发表重要讲话。新华社记者 李学仁 摄', '习近平指出，要牢牢牵住疏解北京非首都功能这个“牛鼻子”，坚持积极稳妥、稳中求进，控增量和疏存量相结合，内部功能重组和向外疏解转移两手抓，有力有序有效推进疏解工作。要着力抓好标志性项目向外疏解，接续谋划第二批启动疏解的在京央企总部及二、三级子公司或创新业务板块等。要继续完善疏解激励约束政策体系，充分发挥市场机制作用，通过市场化、法治化手段增强向外疏解的内生动力。要进一步从源头上严控北京非首都功能增量。', '习近平强调，要推动北京“新两翼”建设取得更大突破。北京城市副中心建设要处理好同雄安新区的关系，“两翼”要协同发力，有效解决北京“大城市病”问题。要处理好同中心城区的关系，实现以副辅主、主副共兴。要加快推进第二批北京市属行政企事业单位迁入副中心，腾出的空间主要用于加强对首都核心功能的服务保障。要处理好同周边地区的关系，带动周边交界地区高质量发展。', '习近平指出，京津冀作为引领全国高质量发展的三大重要动力源之一，拥有数量众多的一流院校和高端研究人才，创新基础扎实、实力雄厚，要强化协同创新和产业协作，在实现高水平科技自立自强中发挥示范带动作用。要加快建设北京国际科技创新中心和高水平人才高地，着力打造我国自主创新的重要源头和原始创新的主要策源地。要构建产学研协作新模式，提升科技成果区域内转化效率和比重。要强化企业的创新主体地位，形成一批有自主知识产权和国际竞争力的创新型领军企业。要巩固壮大实体经济根基，把集成电路、网络安全、生物医药、电力装备、安全应急装备等战略性新兴产业发展作为重中之重，着力打造世界级先进制造业集群。', '习近平强调，推进京津冀协同发展，最终要体现到增进人民福祉、促进共同富裕上。要大兴调查研究之风，深入了解群众需求，切实解决广大百姓关心关切的利益问题，不断提高人民群众的获得感、幸福感、安全感。要加快推进公共服务共建共享，强化就业优先政策，促进京津冀地区更加充分更高质量就业。要推动京津优质中小学基础教育资源同河北共享，深化区域内高校师资队伍、学科建设、成果转化等方面合作。要推进医联体建设，推动京津养老项目向河北具备条件的地区延伸布局。要持续抓好北方防沙带等生态保护和修复重点工程建设，持续推进绿色生态屏障建设等重大生态工程。', '习近平指出，要继续加快推进交通等基础设施建设，深入推进区域内部协同。要唱好京津“双城记”，拓展合作广度和深度，共同打造区域发展高地，在建设京津冀世界级城市群中发挥辐射带动和高端引领作用。要把北京科技创新优势和天津先进制造研发优势结合起来，加强关键核心技术联合攻关，共建京津冀国家技术创新中心，提升科技创新增长引擎能力。河北要发挥环京津的地缘优势，从不同方向打造联通京津的经济廊道，北京、天津要持续深化对河北的帮扶，带动河北有条件的地区更好承接京津科技溢出效应和产业转移。要进一步推进体制机制改革和扩大对外开放，下大气力优化营商环境，积极同国内外其他地区沟通对接，打造全国对外开放高地。', '习近平强调，深入开展主题教育是今年党建工作的重中之重。北京、天津、河北3省市党委要认真贯彻落实党中央的部署和要求，切实抓好主题教育，进一步增强各级党组织的政治功能和组织功能，为推进京津冀协同发展提供坚强保证。', '李强在讲话中表示，要认真学习领会、深入贯彻落实习近平总书记重要讲话精神，坚持在大局下思考和行动，更加有力有效推进京津冀协同发展。要突出首要任务，围绕疏解北京非首都功能，推动资源、政策、力量聚焦，确保标志性疏解项目取得明显成效。要把握区域差异，着力推动优势互补，既补各自的短板，又锻造共同的长板，把发展落差的势能变成协同发展的动能，让群众有更强的获得感。要进一步做实工作机制，形成更为紧密的协同推进格局。', '丁薛祥表示，要认真学习贯彻习近平总书记重要指示，坚持以空气质量明显改善为刚性要求，持之以恒做好大气污染防治工作，推动京津冀协同发展迈上新水平。加快产业结构优化升级，坚决遏制高耗能、高排放、低水平项目盲目发展；促进能源结构低碳转型，加强煤炭清洁高效利用，大力发展新能源和清洁能源；调整优化运输结构，从源头上减少燃油污染排放；持续深化大气污染联防联控，压实地方政府责任，形成齐抓共管合力。', '李干杰、何立峰等陪同考察并出席座谈会，吴政隆、穆虹及主题教育中央第二指导组、中央和国家机关有关部门、有关地方、有关企业负责同志参加座谈会。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>97</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>省委宣讲团来和县宣讲习近平总书记考察安徽重要讲话指示精神</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2020-11-02</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/20323811.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['10月30日上午，省委宣讲团赴国家税务总局和县税务局宣讲习近平总书记考察安徽重要讲话指示精神。省委宣讲团成员、安徽医科大学马克思主义学院院长、教授柳泽民作宣讲报告。', '报告会上，柳泽民从“充分认识习近平总书记考察安徽重要讲话指示精神的重大意义”“全面把握在习近平总书记2016年视察安徽重要讲话指示精神指引下美好安徽建设取得的新成就”“深刻领会习近平总书记考察安徽重要讲话指示精神的丰富内涵”“切实推动习近平总书记考察安徽重要讲话指示精神落地生根”四个方面，对习近平总书记考察安徽重要讲话指示精神作了系统的阐述和生动的解读，并联系实际，分析了税务工作服务经济社会“高质量”“一体化”发展的目标要求。报告既全面系统又重点突出，既有理论高度又有实践深度，对深入学习贯彻习近平总书记考察安徽重要讲话指示精神具有十分重要的指导意义。', '国家税务总局和县税务局副局长施晟表示，要紧紧围绕减税降费，支持企业复工复产，不断优化税收营商环境，持续落实长三角一体化发展相关政策，真正让总书记的讲话指示精神在税收工作中落地生根、开花结果。', '与会的税务工作者们一致认为，将以此次宣讲为契机，按照省委“大学习、大宣传、大贯彻”的部署要求，推动学习贯彻不断往深里走、往心里走、往实里走。要在学以致用中推动落地见效，围绕税务工作实际，紧扣“一体化”和“高质量”两个关键词，在减税降费、政策落实、服务效率等方面谋划真招、实招，真正把学习贯彻的成果转化为推动税务工作的强大动力。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>97</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>让人民群众奔着更好的日子去习近平总书记考察四川纪实</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2022-06-11</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20778621.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['新华社成都6月10日电 题：“让人民群众奔着更好的日子去”——习近平总书记考察四川纪实', '“四川我来过多次，不少地方都走过。天府之国，真是一个好地方。在当前统筹疫情防控和经济社会发展的背景下，我再来这里看看。”', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日下午，习近平在宜宾市三江口考察，听取当地推进长江流域生态修复保护等情况汇报。新华社记者 李学仁 摄', '一天时间，自眉山至宜宾，步入稻田看秧苗长势，走进乡村话接续振兴，考察三苏祠谈文化自信，眺望三江口察长江生态保护，走进高校调研就业问题，深入企业鼓励自主创新……一路调研，一路思索，指明方向，坚定信心。', '习近平总书记指出：“我们走到今天这一步不容易，都是拼来的。同时，我们不能满足于此，还要勇往直前，更上一层楼。”', '“新的征程上，我们遇到的困难还会很多。我一直讲前途是光明的，道路是曲折的，要准备迎接挑战、接受考验。中国共产党带领中华民族就是这样推着国家往前走，让人民群众奔着更好的日子去。”', '“刚好是农忙时节，这次到南方看看水稻田。”8日上午，四川考察第一站，习近平总书记来到岷江之畔的眉山市东坡区太和镇永丰村。', '总书记高度关注粮食安全这一“国之大者”。两个月前，赴海南考察，第一站就看了三亚崖州湾的种子实验室。', '眼前的高标准农田，是四川省规模最大的水稻新品种新技术中试基地。100多种水稻在这里试种、比较、筛选、推广，以良种为丰产打下坚实根基。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日上午，习近平在眉山市东坡区太和镇永丰村高标准水稻种植基地考察，了解水稻试验育种和种植推广情况。新华社记者 谢环驰 摄', '“从单株分蘖数来看，已经表现出高产的特征。”农业专家、四川农业大学教授马均告诉总书记。', '马均告诉总书记，近年来村里通过流转耕地集中起来，把村民组织动员起来，培养了200多个种粮大户，调动了他们推广新品种新技术的积极性。', '习近平总书记十分高兴：“你们从事这项工作很辛苦，出成绩也是长周期的，日晒雨淋，淡泊名利，贡献非常大。咱们国家能够丰衣足食，农业专家功不可没。”', '放眼广袤田野，总书记思虑深远：“民以食为天。推进农业现代化，既要靠我们中国的农业专家，也要靠我们中国的农民，我们有信心、有底气实现粮食安全的目标。四川要把农业搞好，把粮食生产抓好。”', '4月底，习近平总书记主持召开中央财经委员会会议，研究全面加强基础设施建设，其中一项明确要求正是“加强农村污水和垃圾收集处理设施建设”。', '驻村第一书记刘超告诉总书记，村里进行了厕所改造，建设了化粪池和污水管网，生活污水经净化处理后进入荷塘，既美化了村民生活环境，又通过莲藕种植增加了集体收入。', '总书记点点头：“衣食住行，还有医药，老百姓最关心的就是这些。要多搞一些新品种、创新药、国产药，把药价平抑下来，为百姓谋福利。”', '4年来，四川省625万建档立卡贫困人口全部脱贫，集中连片特困地区全面摆脱贫困。正如总书记所说的，困扰中华民族的绝对贫困问题，在我们这一代人手里历史性得到了彻底解决。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日上午，习近平在眉山市东坡区太和镇永丰村考察时，同村民们亲切交流。新华社记者 申宏 摄', '“永丰村，好名字啊。永丰永丰，永远丰收！”总书记笑着对乡亲们说，“大家收入高了、日子好了，脱贫之后要接续推进乡村振兴，不断发展下去。”', '不远处，高铁疾驰穿过绿色田野。田与村、人与自然、坚守与创新，铺展开中国农业农村现代化的美丽图景。', '苏轼同他的父亲苏洵、弟弟苏辙位列唐宋八大家，书写了“一门父子三词客，千古文章四大家”的文化传奇。眉山城内，街头巷陌，因三苏父子，氤氲着深厚的文化气息。', '前厅、飨殿、启贤堂、来凤轩……总书记一路走一路察看祠内建筑、陈设、楹联、题记，不时询问三苏生平、主要文学成就和家训家风，以及三苏祠历史沿革、东坡文化研究传承等情况。', '“文物和文化遗产承载着中华民族的基因和血脉，是不可再生、不可替代的历史文化资源。”', '不久前，习近平总书记在主持中央政治局集体学习时强调，要积极推进文物保护利用和文化遗产保护传承，挖掘文物和文化遗产的多重价值，传播更多承载中华文化、中国精神的价值符号和文化产品。', '实地考察，总书记更有感触：“一滴水可以见太阳，一个三苏祠可以看出我们中华文化的博大精深。我们说要坚定文化自信，中国有‘三苏’，这就是一个重要例证。”', '从文化自信又谈到道路自信：“中华民族有着五千多年悠久文明历史的深厚底蕴，我们带领人民走的是中国特色社会主义道路。要善于从中华优秀传统文化中汲取治国理政的理念和思维，广泛借鉴世界一切优秀文明成果，不能封闭僵化，更不能一切以外国的东西为圭臬。”', '《摆脱贫困》中援引“临大事而不乱”，党的中央全会上引用“犯其至难而图其至远”，面对领导干部引用“苟非吾之所有，虽一毫而莫取”……总书记多次引用苏东坡的名言，治国理念中浸润着中华优秀传统文化的深厚智慧。', '“我们是在这块土地上的文明培育出来的，全党全民族都要敬仰我们自己的文化，坚定文化自信。”习近平总书记深情地说。', '五千多年中华文明精华的源头活水，滋养着当代中国人民的精神气质，润泽着当代中国共产党人的品德修养，孕育出大江东去的英雄气概和海纳百川的博大胸怀。', '宜宾，素有“万里长江第一城”之称。自雪域高原奔腾而下的金沙江与穿成都平原蜿蜒而来的岷江在此汇流，长江始称“长江”。', '习近平总书记详细询问上游来水情况。当地负责同志说，金沙江来水稳定在二类水质，岷江水质稳定在三类左右，汇流之后全年有350天以上稳定在二类。', '总书记表示肯定，同时强调：“作为长江上游城市，要强化上游担当，不能沿江‘开黑店’、排污水，要以能酿出美酒的标准，想方设法保护好长江上游水质，造福长江中下游和整个流域。”', '共抓大保护，不搞大开发，长江生态环境保护和经济社会发展发生历史性、转折性变化的背后，是为了中华民族永续发展的大视野、大格局、大担当。', '当前，正值高校毕业生就业的关键当口。今年，我国高校毕业生预计达1076万人，同比增加167万人，创历史新高。对此，习近平总书记十分关心。', '4月29日，习近平总书记主持召开中央政治局会议，分析研究当前经济形势和经济工作时，专门对稳定和扩大就业提出明确要求。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日下午，习近平在宜宾学院考察时，向师生们挥手致意。新华社记者 李学仁 摄', '8日下午，习近平总书记来到宜宾学院，实地考察高校毕业生就业工作：“党中央十分关心民生工作，民生首先是就业，我们对高校毕业生就业问题特别关心。”', '学院负责同志告诉总书记，今年全校有毕业生5637人，截至前一天，已落实毕业去向人数4165人，落实率超过70%。', '电子屏幕上，展示了宜宾学院毕业生去向落实率的柱状图，总书记仔细察看，反复询问具体数据。', '“就业数据要扎扎实实，反映真实情况。”习近平总书记严肃指出，“现在有些学校为了追求高就业率，弄虚作假，搞‘拉郎配’，签了再说。这样不行，不能糊弄上级部门，更不能糊弄学生。”', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日下午，习近平在宜宾学院考察时，向正在参加企业招聘宣讲会的教师、学生、企业负责人了解企业招工需求和毕业生签约率等情况。新华社记者 李学仁 摄', '宜宾学院求实会堂里，一场企业招聘宣讲会正在进行。来自四川本地的8家民营企业，带来150个就业岗位。', '习近平总书记向企业负责人一一询问招工需求，又向学生们详细了解就业意向和求职进展：“都是学什么专业的？想去哪里工作？”', '面对即将走出校门、走进社会的青年学子，总书记话语谆谆：“要弘扬社会主义核心价值观，努力做到德智体美劳全面发展。劳动最光荣，我们的幸福生活是靠劳动创造的，一夜暴富、一夜成名是不现实的。大学生就业要怀着一颗平实之心，综合考虑自身条件和社会需求，防止高不成、低不就。”', '他又叮嘱当地党委、政府和学校负责同志：“高等教育不断普及，这是大势所趋。国家发展方方面面都需要人才，关键是要提高人的素质。当然，学校专业设置、学生知识结构要同社会就业结构相匹配，同时要给予人才应有的地位和待遇。”', '保持经济发展势头，是解决就业问题的根本保障。离开宜宾学院，习近平总书记来到极米光电有限公司，了解当地支持民营经济发展带动就业情况。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日下午，习近平在宜宾市极米光电有限公司考察，了解企业自主创新和产品研发销售情况。新华社记者 谢环驰 摄', '极米光电是一家设计研制投影机的民营企业，产品在国内市场占有率领先，为当地创造了大量就业岗位。', '企业负责人告诉总书记，新冠肺炎疫情发生以来，当地政府积极帮助解决企业困难、出台纾困措施，他们专注技术创新和智能升级，这两年企业产品销售量逆势上升，为当地解决的就业岗位也从最初的几十人增加到上千人。', '“很好，就要有这样的志气！”习近平总书记指出，“中国是世界工厂，但我们更要做制造强国。中国要实现现代化，方方面面都要强起来。”', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日下午，习近平在宜宾市极米光电有限公司车间外广场，同企业员工们亲切交流。新华社记者 李学仁 摄', '习近平总书记对大家说：“在你们企业，我很高兴看到年青人撑起了大梁。大家都是‘80后’‘90后’，正当其时啊！事业进步、国家富强靠的是你们，要有这样的事业感、责任感，好好干！到那时，大家一定会为‘强国圆梦、功成有我’而自豪！”', '展望未来，总书记语气坚定：“集中精力把自己的事情办好，不管风云变幻，无论风吹浪打，我自岿然不动。14亿多中国人民、9500多万党员，守好我们的岗位，做好我们的本职工作，为实现第二个百年奋斗目标、实现中华民族伟大复兴作出自己应有的贡献！”', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>97</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>我一直关心新疆的建设发展记习近平总书记在新疆考察</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2022-07-17</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20800911.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['披着朝霞出门、踏着星辰返程，为的是多看一看新疆的发展变化，多听一听新疆干部群众的心声，深入调研新时代治疆方略的贯彻落实。', '雄踞祖国西北，占陆地国土面积约六分之一的广袤疆域，古往今来在中国的战略位置举足轻重。', '“说起来和新疆的联系，在浙江工作期间，我曾就浙江对口支援和田地区建设、推进浙江和新疆两省区经济合作同新疆的同志多次交流和探讨。2003年8月，我带领浙江省党政代表团在新疆考察了8天，那次走的地方比较多。”', '“到中央工作后，我也一直关心新疆的建设和发展，2009年、2014年先后两次来新疆考察调研。”', '“石榴籽”的比喻，正是在2014年考察期间听一位维吾尔族乡亲说起的。这句源自生活的质朴感言，触动了总书记的心弦。', '8年时间过去了，一个细节令人感慨。此次考察，当习近平总书记对师生、对村民、对社区居民们讲起“我们要像石榴籽一样”，话音未落，现场千百个声音不约而同地响亮回答：“紧紧抱在一起。”', '在发展的关键时刻，一次次举旗定向，为新疆发展领航。2014年、2020年，习近平总书记先后主持召开第二次、第三次中央新疆工作座谈会。今年4月，主持中央政治局常委会会议专题研究部署新疆工作。', '“党中央关于新疆各项工作的要求是十分明确的，关键是要完整准确理解、坚持不懈推动、不折不扣落实。我多次讲，从战略上审视和谋划新疆工作，首先要看清新疆发展大势，看清做好新疆工作在全党全国大局中的影响，看清新疆工作在统筹国内国际两个大局中的地位。”', '“经过各方面艰苦努力，现在新疆大局稳定，这个成绩来之不易，要倍加珍惜。”总书记语重心长，“看到天山南北一派安定祥和、蓬勃发展的新气象，我感到由衷的高兴。”', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是12日下午，习近平在新疆大学参观校史馆。', '大学校史馆，留存了塑造未来的一段段珍贵史料。《觉醒年代》里的俞秀松曾在这里担任校长，“团结、紧张、质朴、活泼”的校训来源于延安抗大校训。校史馆也正是王震将军带领年轻的战士们一砖一瓦建起来的。', '“民族的命运，担在双肩。努力莫迟延……”国与家的休戚与共，在学校初创时就镌刻于血脉。', '在2014年第二次中央新疆工作座谈会上，习近平总书记态度鲜明提出“牢固树立中华民族共同体意识”，成为新时代党的民族工作之纲。', '这是12日下午，习近平在新疆大学铸牢中华民族共同体意识研究基地考察。新华社记者 谢环驰 摄', '哈密刺绣从零散的小作坊办起了合作社；克拉玛依那些在草原上和牛羊打交道的牧民，也走进了现代企业……习近平总书记听得仔细。', '“万方乐奏有于阗。”师生们纷纷回答。牧场的毡房、乡村的晾房、城镇拔地而起的楼房，思想观念、文化理念、生产生活方式，共同向现代化迈进。再偏远的山村，也在感知祖国变化的脉动。', '“我国是统一的多民族国家，中华民族多元一体是我国的一个显著特征。所以我特别用了‘石榴籽’来形容。”', '回顾党的百年历程，党的民族工作取得的最大成就，就是走出了一条中国特色解决民族问题的正确道路。迎着师生们的目光，习近平总书记娓娓道来：', '“通过调研我们要建立一种自信。我们的民族理论和政策是好的、管用的，都是压不倒的。各民族大团结的中国一定是无往而不胜的，一定是有着光明未来的。我们一定要格外珍惜现在这样的一种大好形势。”', '“必须强调，各民族命运始终同中华民族整体命运紧密相连，中华文明是新疆各民族文化的根本所在。讲清楚这些，不是个简单的认识问题，而是事关铸牢中华民族共同体意识的重大政治问题。”', '“立德立什么？就是要坚持社会主义办学方向，培养德智体美劳全面发展的社会主义建设者和接班人，增进师生对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同。”', '“我到任何一个地方都关心青年。同学们生逢盛世，身在其中，好好努力，好好干，真正成为国家有用之才！”', '这是13日上午，习近平在乌鲁木齐市新疆维吾尔自治区博物馆参观《新疆历史文物展》。新华社记者 李学仁 摄', '汉代的“司禾府印”，见证西域屯田戍边的开拓；唐代的“过所文书”，印证西域同中原的往来；平定准噶尔勒铭伊犁碑，斑驳的文字镌刻了不容置疑的事实。总书记一件件、一幅幅端详思索。', '中华文明璀璨浩瀚，文化认同是最深层次的认同。在第三次中央新疆工作座谈会上，习近平总书记提出“文化润疆”，“就是要从根本上切实解决政治认同、人心向背的问题”。', '向东看，五千多年文明瑰宝，铺展了大开大合的宏大叙事。展厅内，习近平总书记深受触动：“中华文明博大精深、源远流长，是由各民族优秀文化百川汇流而成。我们要好好研究新疆历史，真正认识到新疆历史是中华民族交往中形成的历史，从而也更有力地证明中华民族多元一体。”', '这是13日上午，习近平在乌鲁木齐市新疆维吾尔自治区博物馆，同《玛纳斯》非物质文化遗产传承人在一起。新华社记者 谢环驰 摄', '博物馆内，民族史诗《玛纳斯》说唱展示。乐曲声起，雄浑激昂。代代相传的《玛纳斯》，是同《格萨（斯）尔》《江格尔》齐名的我国少数民族三大史诗，礼赞英雄的经典之作。', '“也不简单了！”总书记亲切望着这个14岁少年，“年轻一代要很好培养，更好加强非物质文化遗产保护传承、把各民族优秀传统文化发扬光大。”', '这是13日上午，习近平在乌鲁木齐市新疆维吾尔自治区博物馆，同《玛纳斯》非物质文化遗产传承人亲切交谈。新华社记者 李学仁 摄', '“是要传播到全世界。它们既属于少数民族，也是中华民族文化宝库中的宝贵财富。中华文化要和世界文化更好地开展交流互鉴。党中央重视和支持这项工作。”', '这是14日，习近平在位于吐鲁番市的世界文化遗产交河故城考察时，同游客亲切交流。新华社记者 谢环驰 摄', '交河故城，唐代初期管辖西域的最高机构安西都护府所在地，是“新疆自古以来就是我国不可分割的一部分和多民族聚居地区”的有力见证。', '14日下午，40摄氏度高温下，习近平总书记沿着中央大道，进门阙，入城池。城垛、街巷、庙宇、市井、官署、作坊、民居，残垣断壁，耸立于蓝天黄土之间，历史的沧桑扑面而来。', '“先挖井再挖房，水井就在房子里。”讲解员从水讲起，向总书记讲述了这座世界上保存最完整的生土结构古代建筑城市的遗址保护工作。', '总书记笑着说：“中华文明是几千年来唯一没有中断的文明，我们要把它梳理清楚，中华文明探源工程还有很多事情要做。做好这项工作能够让我们每一个中国人增强民族自豪感、文化自信心。做一个中国人那是了不起的事情，我们不仅有辉煌历史，未来也会更加光明。”', '“在新疆不能简单就发展谈发展，而是要深刻认识发展和稳定、发展和民生、发展和人心的紧密联系。”', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区，同维吾尔族居民阿布来提·吐尔逊一家人围坐在一起拉家常。新华社记者 谢环驰 摄', '13日上午，乌鲁木齐天山区固原巷社区。习近平总书记此行看的一个重点，是民生的关切话题“一老一小”：“上面千条线、下面一根针，沉到基层，一定要接地气，紧贴各族居民所思所想所盼。”', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区舞蹈室，了解这里开展老年人文化活动等情况。新华社记者 谢环驰 摄', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区少儿阅览室，观看儿童中华优秀传统文化知识表演。新华社记者 燕雁 摄', '隔壁房间，一群垂髫少儿正背诵古诗词。看到习爷爷，孩子们声情并茂地将看家本领都拿了出来。《悯农》《三字经》《二十四节气歌》，最后还要唱一首《我爱北京天安门》。', '总书记微笑倾听：“中华优秀传统文化教育抓早抓小、久久为功、潜移默化、耳濡目染，有利于夯实传承中华优秀传统文化的根基。”', '维吾尔族居民阿布来提·吐尔逊一家老少，热情将总书记迎进家门。客厅里唠家常，问医疗、谈教育，说收入、话变迁。头疼脑热就在家门口的社区医院，老人社保也解决了大问题，孩子上学个个有奔头。', '“都有。汉族、维吾尔族、哈萨克族、回族、塔塔尔族……都是熟人，一起唠唠嗑、走走路、唱唱歌，还跳广场舞，都好得很。”', '“我们都是脚踏实地，实现一个又一个目标，解决一个又一个问题，积小胜为大胜。我们有定力、有韧性。56个民族拧成一股绳，同心协力，踔厉奋发，这样努力下去一定会更好。”', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市高昌区亚尔镇新城片区新城西门村农产品加工企业考察。新华社记者 谢环驰 摄', '14日下午，在吐鲁番调研期间，总书记到了高昌区亚尔镇新城片区新城西门村，看了农产品加工企业。', '乡村振兴如火如荼，产业振兴是其中的关键一环。对于祖祖辈辈靠种植葡萄为生的村民们来说，企业入驻村子，不仅解决了家门口就业，也破解了销路难题。', '习近平总书记走进厂房。筛选区，村民们灵巧地将葡萄干筛出优劣。葡萄干装箱待发，即将运往大江南北。同总书记交谈时，谈到未来的日子，她们眼里充满希望。', '“乡村振兴是我们继脱贫之后又一个农村奋斗目标，看到你们这个村的变化，我为你们取得的成绩感到高兴。中国的农村这十年经历了一个很不平凡的历程。我们接续奋斗，把中国绝对贫困问题解决了，这在全世界是一件了不起的事情。这证明了中国共产党好，中国特色社会主义好，证明了我们各民族人民群众是好样的！”', '习近平总书记娓娓道来：“56个民族，一个也不能少。过去脱贫攻坚奔小康是这样，我们奔向第二个百年奋斗目标也是这样。在农村，在城市，在田间，在工厂，在每一个岗位上，靠大家一起努力，我们一定会如期实现第二个百年奋斗目标。”', '曾几何时，新疆是“路到头、人到头、水到头、电到头、田到头”的边境之地，是“骆驼电报，驴马邮政”的荒芜之所。', '“钢铁驼队”中欧班列，沿着昔日张骞凿空之路，过荒漠、闯戈壁，将西北边陲变成开放前沿。', '这里的人们，对总书记在哈萨克斯坦纳扎尔巴耶夫大学提出共建“丝绸之路经济带”倡议的那场重要演讲，如数家珍。', '2014年习近平总书记来新疆考察，正是共建“一带一路”倡议提出半年之后。回首当时总书记的擘画，字里行间高瞻远瞩：“如果丝绸之路经济带建设起来，新疆将可能成为繁华的中心。不要说别的，乌鲁木齐现在是方圆1500公里最大的城市，到那时，将是一个怎样的景象？”', '近一个月后，习近平总书记主持召开中央政治局会议明确提出，着力打造新疆丝绸之路经济带核心区。', '8年过去了，沧桑之变。今天，经新疆霍尔果斯、阿拉山口口岸过境的中欧班列，占全国开行总量的一半以上。', '大屏幕上，霍尔果斯口岸、阿拉山口口岸的作业区实时画面同步传来。宽准轨有序转换，或立足新疆走进来，或借助新疆走出去，诠释着新疆在国际贸易中的优势和机遇。听陆港区负责同志介绍到产自新疆的番茄酱贸易，总书记饶有兴致。', '这是12日下午，习近平在乌鲁木齐国际陆港区，同工作人员及现场办事人员亲切交流。新华社记者 谢环驰 摄', '此次考察，站在第二个百年新征程的起点上，总书记思虑长远：“从‘大写意’到‘工笔画’，硕果累累。‘一桥飞架南北，天堑变通途’。过去是内陆的一个省份，现在有了‘一带一路’就不同了。这里不再是边远地带，而是成为一个核心地带，成为一个枢纽地带。你们在做具有历史意义的事情。”', '三道岭，一碗泉，七角井，盐池，鄯善，胜金口，吐鲁番，白杨沟，达坂城，柴窝堡……古代丝绸之路的必经之地。14日，习近平总书记走进吐鲁番葡萄沟。葡萄品种纷繁，琳琅满目。“多么富饶的一个地方，瓜果飘香。这是大自然的馈赠。”总书记风趣地说，“天上没有掉馅饼的事，但有掉葡萄的事。”', '这里被誉为“共和国军垦第一城”。当年就是在荒滩戈壁上，兵团人喝盐碱水、睡地窝子，人拉肩扛、爬冰卧雪。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日下午，习近平在新疆生产建设兵团八师石河子市新疆兵团军垦博物馆，会见兵团老中青三代建设者代表。新华社记者 李学仁 摄', '满是补丁的军大衣、锈迹斑驳的坎土曼，总书记在一个名为《一双眼》的雕塑前驻足。劳动强度大、营养又跟不上，不少人得了夜盲症。每个班就把蔬菜省下来给一个人，能保证下工后搀扶着找到回家的路。', '“我叫孙本霞，是50年代响应伟大领袖毛主席的号召来到这里的，我不后悔，一辈子就跟党走，党叫我干啥就干啥。”', '这片光荣的土地凝结了多少情感、多少心血汗水。从“挖井探水，无水不建城”的勘探建城，到八一钢铁厂、六道湾煤矿、苇湖梁发电厂、七一棉纺厂、十月汽车修配厂、八一面粉厂、跃进钢铁厂……每一天都在创造奇迹。', '总书记饱含深情地对大家说：“你们是从艰苦奋斗中走过来的，作出了不可磨灭的贡献。兵团人铸就的热爱祖国、无私奉献、艰苦创业、开拓进取的兵团精神，是中国共产党人精神谱系的重要组成部分，要用好这些宝贵财富。”', '这是13日下午，习近平在新疆生产建设兵团八师一四三团农一连棉花种植基地考察。新华社记者 谢环驰 摄', '农一连棉花种植基地，习近平总书记顶着烈日走进田间。棉花正处花铃期，从犁地、播种，到灌溉、灭虫，到棉花打顶、收获，全部是机械化、自动化操作。', '“地都承包到职工了吧，确权到位了吧？”总书记牵挂的是正在推进的兵团改革。兵团负责同志介绍说，农牧一线职工收入较改革前增长32.2%。', '习近平总书记深刻指出，“兵团改革以后，承包确权发证，给兵团人吃定心丸，让大家能够有长远打算，能够舍下本来谋发展。”', '这是13日下午，习近平在新疆生产建设兵团八师一四三团花园镇广场，同兵团干部群众亲切交谈。新华社记者 李学仁 摄', '花园镇广场，气氛热情如火。习近平总书记动情地对大家说：“从铸剑为犁开始，确实不容易啊，在一片荒凉的地方建起这么一座美丽的令人向往的城市。底子打得好，变化也越来越大，靠的是党中央的关心，靠的是几代兵团人的接续奋斗。”', '“兵团的建设要不忘初心、牢记使命，我们最初建兵团是为什么？保家卫国，屯垦建设。要深化兵地融合，建设一个美好幸福家园，过上幸福美好的日子。”', '新城西门村，房前屋后的墙壁也是画板，描绘了村民的所思所盼。考察时，一幅湘西十八洞村的壁画映入眼帘。', '两个村是民族团结乡村振兴结对共建村。3000多公里的距离，挡不住他们像亲戚般常来常往。', '湖南省对口帮扶的，正是村所在的吐鲁番市。村里的医务室也是援建的，当地负责同志告诉总书记，援疆项目里，医疗和教育最受乡亲们欢迎。', '15日上午，习近平总书记先后会见接见了7批次新疆有关方面代表并合影，其中一场是援疆干部代表。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市高昌区亚尔镇新城片区新城西门村考察时，同各族群众在一起。新华社记者 李学仁 摄', '来自五湖四海，为了同一个目标，走到一起、干在一起。望着为这片热土奉献心血的援疆干部，习近平总书记动情回忆在地方工作时，“福建对口昌吉，浙江对口和田”：“这个事业很有意义，发挥中国特色社会主义大协作精神，举全国之力，解决一些重大任务。参加过援疆任务的同志，受到了精神的、实践的洗礼和锻炼，为今后的发展打下坚实基础。期望你们在这里扎扎实实作出应有的贡献，也是一生值得自豪的贡献。”', '在随后召开的汇报会上，总书记再一次谈到援疆工作。考量的视角，彰显新疆之于国家的分量：“做好新疆工作事关大局，是全党全国的大事。全党都要站在战略和全局高度认识新疆工作的重要性，加大对口援疆工作力度。”', '站在战略和全局的高度，新疆的发展也深度融入国家发展全局之中。“一带一路”的新机遇，高质量发展的新动向，双循环的新优势……桩桩件件，新疆乘势而上。', '自治区相关负责同志在汇报会上，深有感触地谈道：“新疆工作的实践证明，新时代党的治疆方略非常英明、完全正确，是指引新疆工作在错综复杂中守正创新、在矛盾风险中胜利前进的强大思想武器，是做好新疆工作的纲和魂。”', '新时代新征程上，习近平总书记代表党中央对新疆提出新的期望和要求：“完整准确贯彻新时代党的治疆方略，奋力建设团结和谐、繁荣富裕、文明进步、安居乐业、生态良好的美好新疆……”', '“要坚持团结一致向前看，最大限度发挥广大干部群众在保稳定、谋发展、促改革中的积极作用，注意倾听社会各界意见。只要是有利于改进工作、有利于长治久安的建议都要充分吸收，只要是反映民生困难、关系群众利益的声音都要及时回应。”', '4天考察，走到哪儿，哪儿是沸腾的海洋。掌声、笑声、欢呼声激荡久远，很多群众激动得热泪盈眶。一位维吾尔族老人泪眼婆娑地挤到队伍前，紧紧握住总书记的手。', '在学校、在社区、在村庄、在兵团，身着民族服装的各族干部群众簇拥着总书记，送了一程又一程。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>97</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>市委宣讲团赴当涂宣讲习近平总书记考察安徽重要讲话指示精神</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2020-10-29</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/20320351.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['10月28日，市委宣讲团赴当涂宣讲习近平总书记考察安徽重要讲话指示精神。市委宣讲团成员、市委宣传部常务副部长王平作宣讲报告。', '报告会上，王平从“充分认识习近平总书记考察安徽、考察马鞍山的重大意义”、“深刻领会新发展定位的核心要义”、“全面把握市委全会的主要精神”、“奋力推动市委决策部署落到实处”四个方面，对习近平总书记考察安徽重要讲话指示精神作了系统阐释和生动解读。', '报告主题鲜明、内容丰富，紧密结合马鞍山实际、当涂实际，具有很强的指导性和针对性。大家一致认为，报告对深入学习贯彻习近平总书记重要讲话精神，推动当涂高质量发展，具有十分重要的促进作用。要学深悟透精神实质，深入学习领会习近平总书记重要讲话指示精神丰富内涵和核心要义，精心组织分层分类宣讲，进一步统一思想、凝聚力量。要谋实谋细贯彻举措，对照打造安徽的“杭嘉湖”、长三角的“白菜心”新发展定位，发挥“当涂要当头”作用，把自己摆进去、把工作摆进去、把职责摆进去，认真制定落实措施。要善作善成推动转化，把总书记的亲切关怀转化为干事创业的火热激情，强化使命担当，拉高工作标杆，勇于攻坚克难，推动习近平总书记重要讲话指示精神在当涂落地生根、开花结果。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>97</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>习近平总书记考察安徽重要讲话引发全市广大干部群众热烈反响</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.mas.gov.cn/zxzx/zwyw/20251851.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['知之弥深，持之弥久。连日来，我市广大干部群众深入学习贯彻习近平总书记考察安徽重要讲话指示精神，紧紧把握“新发展格局”“长江大保护”“长三角一体化发展”“为人民执政、靠人民执政”四个关键词，深刻领会精神实质。', '学在前面，干在前面。大家纷纷表示，交出高质量答卷，要对标对表审好题，要落细落小答好题，要知重负重结好题，全力推动落地落实，在解放思想、抬高标杆、攻坚克难上见行动、作示范，努力交出一份高质量的答卷。', '面对亲江亲水亲绿的美丽岸线，习近平总书记叮嘱“长江经济带建设，要共抓大保护、不搞大开发”，殷殷期盼“实现‘人民保护长江、长江造福人民’的良性循环”。对此，当涂县江心乡党委书记汤复广表示，通过深入学习习近平总书记考察安徽重要讲话指示精神，进一步深化了思想认识，明确了努力方向，鼓舞了前进斗志。将牢记习近平总书记的嘱托，努力加强生态文明建设，持续开展人居环境整治提升工作，依托历史文化、自然生态等资源优势，着力培育生态环保的特色乡村旅游业，打造“江心生态花岛”品牌，促进农文旅融合发展。抢抓发展机遇，融入长三角，将江心乡发展为生态示范区、休闲农业和乡村旅游示范区，努力让江心乡成为“生态优先、绿色发展”的排头兵。', '四年攻坚，33条黑臭水体“洗”尽污浊、脏乱，城市治水的成果映入每个人的眼帘。作为最后消除黑臭的两条水系之一，孟塘支渠水环境综合治理工程一、二期已经完工。“习近平总书记的重要讲话和指示，让我们更有动力和信心，一定加快工程进度，保证工程质量，全面消除黑臭、保护长江。”中冶华天马鞍山市中心城区水环境综合治理PPP项目总包项目部的项目副经理韩信平表示，目前，通过控源截污、河道清淤、岸坡修复等工程措施已确保孟塘支渠无污水排放，主要水质指标达到地表五类水标准，不会对雨山河和长江造成污染。下一步，将把重点放在河道景观提升和后期长效管理上。届时，孟塘支渠不仅寻回了本色之美，更蝶变为休闲宜居之地，成为“水清岸绿、水景亮丽、人水和谐”的亲水景观公园。', '“习近平总书记强调，要增强爱护长江、保护长江意识，实现‘人民保护长江、长江造福人民’的良性循环，早日重现‘一江碧水向东流’的胜景。这为我们今后的工作指明了方向。”当涂县“三大一强”纵深推进办副主任、生态环境分局副局长业德平说，下一步，将聚焦长江经济带“3+N”突出生态环境问题，切实抓好前期问题摸排、中期跟踪督查、后期验收反馈等三个重点环节，深入推进“八项重点工作”，实现“十个全覆盖”目标任务，为实现“人民保护长江、长江造福人民”的良性循环贡献力量。', '“总书记的重要讲话更坚定了我们‘共抓大保护’的努力方向，我们将立足职责加快推进长江禁捕工作，守护一江碧水和两岸青山。”花山区农业农村水利局畜牧水产站专业技术人员许庆好表示，作为长江大保护的重要部分之一，花山区成立区长江禁捕退捕工作领导小组，将禁捕退捕各项任务倒排工期，挂图作战，限时销号；将进一步聚焦“六无”“四清”，进一步压实落实责任，细化完善各项政策措施，强化就业保障，让渔民上岸后能稳得住、能致富；将严管重点区域，加强小黄洲生产船的管理，严控核留船只数量，规范船只管理使用，做好对保留船只登记造册、安全宣传、安全检查等管理工作，强化落实监管责任，确保不发生安全事故、不发生偷捕行为。', '“习近平总书记到中国宝武马钢集团考察调研，来到我们特钢生产线，作为马钢特钢的一名销售员，能够在现场聆听教诲，感到十分激动、光荣和自豪。”中国宝武马钢股份特钢公司销售部部长王民章说，回答好制造业高质量发展的考题，就是要利用好长三角区域交通便利、优秀企业集中、科学和技术信息领先、高品质特钢需求多的众多优势，主动寻找马钢特钢的优质客户，特别是国内外知名、各行业排头兵的客户；主动融入客户的需求，以优质的技术服务、高质量的特钢产品，与客户双赢；主动承接轨道交通、能源、汽车、高端制造等行业领域的材料要求和市场需求，做尖研发、做优品质、做强市场，争做特钢行业的引领者。推动马钢特钢产品不断迈向高端化、国际化，使马钢特钢产品融入长三角经济发展的各个行业。', '“习近平总书记强调，实现跨越式发展，关键靠创新。”安徽力源数控刃模具制造有限公司副总经理张先进说，博望区是传统企业集聚区，要想突破自我，实现高质量发展，就必须进行产业升级，而产业升级靠创新。创新是企业的内生动力，创新要素的融入对包括制造业在内的战略性新兴产业的发展壮大起着非常关键的作用。没有创新就没有活力，就没有可持续发展的内生动力，要实现跨越式发展，唯有夯实创新基础，加快科技成果的转化，锲而不舍、久久为功。', '“回答好制造业高质量发展的考题，要以科技创新催生新发展动能。加速科技成果向现实生产力转化，提升产业链水平。要坚持开放创新，加强国际科技交流合作。”含山县发展改革委主任王月田表示，“总书记的重要讲话为我们在‘十四五’产业谋篇布局中指明了方向，为推动全县产业升级优化提供了根本遵循。”含山县“十四五”规划将聚焦产业升级，突出科创驱动。在做大做强“绿色智能”铸造产业的同时，围绕主导产业，择优对接长三角区域高校优势学科研发项目，大力招引、培育科技领军人才和高层次人才团队，支持组建多层次新型研发机构，引导企业与省内外高校院所建立战略合作关系，提升企业自主创新能力。', '“坚持把做实做强做优实体经济作为主攻方向，一手抓传统产业转型升级，一手抓战略性新兴产业发展壮大，推动制造业加速向数字化、网络化、智能化发展，提高产业链供应链稳定性和现代化水平。”花山区经信局局长李金德说，花山区将遵循总书记的指示和要求，引导帮扶全区有条件的规上企业加大信息化和智能化建设，深度推进两化融合，加快工业技改项目建设，加强企业精准培育，优化升级服务，为高质量发展赋能提速。', '“总书记强调，要紧扣一体化和高质量两个关键词，深入推进重点领域一体化建设，推进长三角一体化发展。这让招商战线的同志深受鼓舞，招商目标更加明确。”慈湖高新区招商局局长吴东洋表示，高新区今后的招商工作将紧扣“一体化”和“高质量”两个关键词，在招大引强和开放合作方面发力。在聚焦招大引强中，深度参与长三角一体化发展，借助国际国内500强、央企、行业领军企业等新一轮抢滩布局长三角的重大战略机遇期，努力引进一批产业链牵动性大、科技含量高的项目入驻，为高质量发展提供项目支撑。在聚力开放合作中，强化长三角意识、思维和举措，等高对接苏浙沪，深度融入南京都市圈，对标长三角发达园区营商环境，不断增强竞争合作新优势，以开放、服务、创新、高效的发展环境吸引海内外人才和企业安家落户，提升合作开放水平。', '“习近平总书记的重要讲话，点燃了我们在‘一体化’中谋划‘更高质量’发展的信心和决心。”市农业农村局规划和法规科科长李淼表示，一体化中看担当，高质量里显本事，市农业农村局将抢抓长三角区域一体化发展国家战略机遇，聚焦长三角绿色农产品生产加工供应基地的发展要求，坚持以特色化、产业化、品牌化、融合化、一体化、高端化为主要路径，坚持做好“两特”文章打造两个基地，即大力发展特色高效农业，打造长三角绿色农产品生产加工供应基地；大力建设特色田园乡村，打造休闲农业与乡村旅游示范基地，率先建设成为安徽省农业现代化先导区、长三角现代农业示范区、乡村振兴样板区，为“生态福地、智造名城”建设贡献更大力量。', '“对标先进，融合发展，是时代赋予的使命。”马鞍山市邮政管理局局长张文轩说，马鞍山市邮政管理局将深入学习贯彻习近平总书记考察安徽重要讲话指示精神，在做好常态化疫情防控的基础上，抢抓长三角一体化发展机遇，结合前期工作，深入推进“两进一出”、“快递进村”、“生态环保9792”工程，在助力脱贫攻坚、推动全市电商快递融合发展、绿色环保上，取得一定成效。“下一步，我们将继续发挥好行业监管的主体责任，立足行业特质，针对问题导向、细化措施落实、兼顾生态环境、利用科技手段，引导行业高质量发展，不断提升人民群众的获得感和幸福感，为长三角一体化发展贡献行业力量。”', '“促进基本公共服务便利共享，要多谋民生之利、多解民生之忧，在一体化发展中补齐民生短板。”市卫健委医改科科长张建军介绍说，去年以来，市卫健委确定了26项医疗卫生合作项目和任务，我市与长三角城市分别签订了《南京都市圈医疗卫生合作框架协议》、《合肥都市圈卫生健康合作框架协议》，明确了融入都市圈卫生健康合作事项，与合肥、上海、南京等地主动对接，推进长三角医疗卫生一体化发展。下一步，我市将进一步健全融入都市圈、加快医疗卫生一体化发展对接合作机制和平台，主动参与制订医疗卫生一体化发展规划，进一步推进包括区域内医联体建设、医疗专科联盟等医疗卫生领域合作项目，让更多的马鞍山人享受到长三角的顶级医疗资源。', '“市人社部门将抢抓长三角一体化发展机遇，部署推动各项工作，实现更高质量发展。”市人社局政策法规科科长黄强说，根据市委市政府的工作部署，市人社部门专门制定了相应的工作方案，立足人力资源和社会保障部门职能，积极参与长三角及南京都市圈人力资源和社会保障交流沟通，共同推动区域内就业创业、社会保障、人才开发、劳动关系等领域的合作，为提升区域整体竞争力、实现都市圈一体化高质量发展提供有力的人社支撑。目前，市人社部门正在加快进行项目对接，高站位推进全面接轨南京都市圈，坚持全面融入理念不动摇，紧扣同城化、一体化目标，实现全方位的对接合作，为长三角更高质量一体化发展贡献人社力量。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>97</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>省委宣讲团来马宣讲习近平总书记考察安徽重要讲话精神</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2020-09-21</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/ztzj/rzxxxcgcxjpzsjscahzyjhjs/xjpzsjzahkczyjh/20277171.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['9月18日，学习贯彻习近平总书记考察安徽重要讲话精神省委宣讲团报告会暨市委理论学习中心组学习扩大会议在市会议中心举行。省委宣讲团成员、省直机关工委书记朱斌作宣讲报告。市委书记张岳峰主持。袁方等市四套班子领导出席。', '报告会上，朱斌从四个方面，对习近平总书记考察安徽重要讲话精神作了系统的阐述和生动的解读：一是充分认识习近平总书记考察安徽重要讲话精神的重大意义；二是全面把握在习近平总书记2016年视察安徽重要讲话精神指引下美好安徽建设取得的新成就；三是深刻领会习近平总书记考察安徽重要讲话精神的丰富内涵；四是切实推动习近平总书记考察安徽重要讲话精神落地生根。报告主题鲜明、内容丰富，紧密结合安徽实际、马鞍山实际，具有很强的指导性和针对性。', '张岳峰在主持报告会时强调,省委宣讲团来马作宣讲报告，对我们深入学习贯彻习近平总书记重要讲话精神，推动马鞍山高质量发展，具有十分重要的促进作用。要学深学透精神实质，进一步深入学习领会习近平总书记重要讲话精神的丰富内涵和核心要义，精心组织好、开展好宣传宣讲活动，进一步统一思想、凝聚力量。要谋实谋细贯彻举措，对照打造安徽的“杭嘉湖”、长三角的“白菜心”新的发展定位，把自己摆进去、把工作摆进去、把职责摆进去，深入调研谋划，制定落实措施。要善作善成推动转化，把习近平总书记的亲切关怀转化为干事创业的火热激情，强化使命担当，抬高工作标杆，勇于攻坚克难，推动习近平总书记重要讲话精神在马鞍山落地生根、开花结果。', '9月17日下午，朱斌一行还考察了薛家洼生态园、滨江文化公园，并在市直机关工委召开马鞍山市直机关党建工作座谈会，要求把习近平总书记考察安徽、考察马鞍山重要讲话指示精神落实到机关党建工作中去，充分发挥好各级党组织的作用，推动党员干部能力提升，为推动马鞍山高质量发展作出更大贡献。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>97</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>省委宣讲团来马宣讲习近平总书记考察安徽重要讲话指示精神</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2020-10-24</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/20314481.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['10月23日下午，学习贯彻习近平总书记考察安徽重要讲话指示精神省委宣讲团宣讲座谈会召开，省委宣讲团成员、省委政策研究室副主任殷宝平走进花山区沙塘路街道新时代文明实践所作专题宣讲报告。', '报告会上，殷宝平结合省委十届十一次全会精神和省委全会审议通过的《中共安徽省委关于深入学习贯彻习近平总书记考察安徽重要讲话指示精神奋力在构建新发展格局中实现更大作为在加快建设美好安徽上取得新的更大进展的决定》（以下简称《决定》），以“强化‘两个坚持’、实现‘两个更大’”为题，从六个方面对深入学习贯彻习近平总书记考察安徽重要讲话指示精神进行宣讲解读。整场报告主题鲜明、内涵丰富、深入浅出，紧密结合安徽实际、马鞍山实际，具有很强的理论性、思想性、指导性。', '与会人员一致认为，报告既全面系统又重点突出，既有理论高度又有实践深度。对深入学习贯彻习近平总书记考察安徽重要讲话指示精神具有十分重要的指导意义。沙塘路街道党政综合办公室副主任周兴隆表示，要立足自身岗位，开拓进取、真抓实干，把理论学习成果转化为今后工作学习的动力，使习近平总书记重要讲话指示精神在街道党员干群心里落地生根、开花结果。花山社区党委书记叶丽华说，作为一名基层党员、社区工作人员，有信心、有决心把习近平总书记重要讲话指示精神学习好、贯彻好、落实好。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>97</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>市委宣讲团赴博望宣讲习近平总书记考察安徽重要讲话指示精神</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2020-10-30</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/20321331.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['10月29日，市委宣讲团赴博望宣讲习近平总书记考察安徽重要讲话指示精神。市委宣讲团成员、市发改委党组书记、主任胡建平作宣讲报告。', '报告会上，胡建平从充分认识习近平总书记考察马鞍山的重大意义、深刻领会新发展定位的核心要义、全面把握市委全会的主要精神、奋力推动市委决策部署落到实处、以习近平总书记考察马鞍山为新起点奋力推进长三角更高质量一体化发展等五个方面，对深入学习宣传贯彻习近平总书记考察安徽重要讲话指示精神进行了全面系统的宣讲。', '报告主题鲜明、内容丰富、重点突出、深入浅出、鲜活生动。报告结合博望未来的发展趋向，深度解读了如何围绕“四新”，做好“八融”，在长三角一体化发展中“借梯登楼”，引领带动高质量发展。报告指出，要以总书记重要讲话指示精神为指引，把发展落差转化为发展势能，紧扣“两个示范区”目标，加快推进江宁-博望跨界一体化发展示范区建设，按照“一年打基础、三年大变样、五年树品牌”的目标节点，努力在深度融合上成为先锋，在产业转型上成为示范，在城乡协调上成为标杆，在共建共治共享上成为典范，为全市打造安徽的“杭嘉湖”、长三角的“白菜心”，建设“生态福地、智造名城”升级版作出更大贡献，奋力打造长三角省际毗邻最佳样板。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>97</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>为了美丽的绿水青山习近平总书记考察生态文明建设回访</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2019-08-26</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20599651.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['8月20日，正在甘肃考察的习近平总书记来到中农发山丹马场有限责任公司一场，听取祁连山生态环境修复和保护情况汇报。21日，他又前往武威市古浪县的八步沙林场，实地察看当地治沙造林、生态保护等情况。', '生态文明建设，是关系中华民族永续发展的根本大计；祖国的一山一水、一草一木，时时牵挂在习近平总书记的心头。', '党的十八大以来，习近平总书记国内考察，生态文明建设是一项重要议程。循着习近平总书记的足迹，新华社记者在各地回访中看到，山水林田湖草，祖国山川生机盎然，我们赖以生存的家园正变得越来越美。', '“刚搬走的时候，这里还光秃秃一片。现在草都长到齐腰深了。”看着葱茏的草场，他感慨道。这片草场地处甘肃祁连山国家级自然保护区核心区，是贺玉明曾经的家。', '8月20日，习近平总书记来到祁连山北麓的中农发山丹马场有限责任公司一场，实地了解马场改革发展和祁连山生态修复保护情况。习近平总书记说，这些年来祁连山生态保护由乱到治，大见成效。来到这里实地看一看，才能感受到祁连山生态保护的重要性。', '祁连山，我国西部的重要生态安全屏障。曾经，开矿、建水电站、旅游让祁连山热闹非凡，但过度无序开发，也让这里脆弱敏感的生态系统负重超载，山体破坏、植被剥离，给祁连山留下了沉重的创伤。', '祁连山局部生态破坏问题，牵动着习近平总书记的心，他多次作出重要指示，要求坚决整改。2017年7月，中办、国办通报甘肃祁连山国家级自然保护区生态环境问题，上百人被问责。', '2017年11月，眼含着热泪，贺玉明和乡亲们搬离了生活多年的大山。这两年，祁连山保护区208户、701名牧民从核心区迁出；持证矿业权全部退出、恢复治理矿山地质环境；水电站完成分类处置，生态流量得到落实；旅游项目完成整改和差别化整治。', '宁夏打响“贺兰山生态保卫战”，彻底关停保护区内所有煤矿、非煤矿山、洗煤储煤厂等。原先的煤矿渣堆已被削成缓坡，犹如梯田一般。去年播下的草籽，已长出了片片绿意。', '在陕西，秦岭北麓成群的违建别墅早已不见踪迹，保护区里的小水电站也在逐步退出。秦岭将绿水青山还给当地群众，还给这里的生灵。', '很难想象，就在两年多前，这里还是一处尘土飞扬、难见绿草的砂石码头。居住在附近的群众，常年被灰尘、噪音包围。', '彼时，从巴山蜀水到江南水乡，污水入河入江、码头砂石堆积、化工企业围江，长江水质持续恶化、生态功能退化，生态系统敲响警钟。习近平总书记痛心地形容她：“病了，病得不轻了”。', '2018年4月，习近平总书记再次考察长江。“总书记问得很细，他很关心老百姓有没有享受到生态变化带来的实惠。”长江水利委员会水文中游局岳阳分局局长陈建湘回忆说。', '为保护一江碧水，仅仅湖南一省去年就在两个月内集中拆除了沿江小散码头泊位42个，关停渡口13道，退还长江岸线7.24公里。曾经扰民的码头变成了“惠民”的湿地公园。', '“这两年多来，《岳阳楼记》中的壮阔美景正在重现！”陈建湘感慨说，江水越来越清，有时还能看到江豚可爱的身影。', '长江好不好，是习近平总书记心头始终牵念的一件大事儿。2016年1月、2018年4月两次召开的座谈会，议题都绕不开生态优先、绿色发展。', '8月，位于内蒙古赤峰市喀喇沁旗中南部的马鞍山林场铺满绿色，油松挺拔，白桦亭亭，一派生机盎然。在林间空地上，林场工人们正忙得火热，提着割灌机清除杂草，并监测病虫害防治效果。', '今年7月15日，习近平总书记顶着烈日，沿着崎岖的护林小道，来到这里。他走进林区，察看林木长势，同正在劳作的护林员们交流，了解他们的工作、生活、家庭情况。', '回忆起习近平总书记深入林场与大家交流的场景，喀喇沁旗林草局局长赵连奎记忆犹新：“我们告诉总书记，现在生态好了，在上山巡护的时候，时常碰到狍子、野兔、山鸡、野猪等野生动物，来旅游的人也多了，山野菜不愁卖了，山货也特别多，老百姓切切实实得到了好处，更加深刻地认识到绿水青山就是金山银山。”', '马鞍山林场只是赤峰市生态文明建设的一个小小缩影。地处蒙冀辽三省区交界处的赤峰市，森林面积由新中国成立初期的682万亩增加到4540万亩，森林覆盖率由5.2%提高到35.7%，实现了由“沙进人退”向“绿进沙退”的历史性转变，成为祖国北疆一颗璀璨的绿色明珠。', '2017年，河北塞罕坝林场建设者荣获联合国环保最高荣誉——“地球卫士奖”。习近平总书记称其为“推进生态文明建设的一个生动范例”。', '三北工程、天然林保护工程、退耕还林工程……几十年来，中华大地的绿色版图不断扩大，成为全世界的绿色奇迹。', '我国成为世界上最大的人工林贡献国。全球从2000年到2017年新增的绿化面积中，约四分之一来自中国，贡献比例居首。在全球森林资源持续减少的背景下，中国成为全球森林资源增长最多的国家。', '初秋的黑龙江建三江，风吹稻菽千重浪。七星农场一望无际的稻田里，用水稻“种”出的“中国粮食 中国饭碗”8个大字，成为一道亮丽的风景线。', '作为农场工人代表，张景会清晰地记得，去年首个中国农民丰收节刚过，习近平总书记就来到七星农场考察的场景。', '“习近平总书记强调，要加快绿色农业发展，坚持用养结合、综合施策，确保黑土地不减少、不退化。”习近平总书记的话令张景会牢记在心。', '张景会是七星农场的种粮大户，种植的水稻有352亩。今年，他家采取了秸秆还田、测土配方、侧深施肥等技术，每亩地减少氮肥用量2.3公斤。他家的这块稻田还被确定为七星现代农业示范区高标准示范点之一！', '“以前种圆粒水稻，收完之后就卖给国家粮库。现在不同了，我们瞄着市场需求，大力发展绿色有机农业。”张景会说，去年他种的200亩绿色水稻，加工成大米后，销往山东，每斤卖到了8元多。', '在发展绿色农业、促进农业可持续发展方面，七星农场还重点推广应用水稻侧深施肥插秧机、秸秆还田机等机械设备，并通过测土配方减少肥料投入。', '张景会说，侧深施肥提高了肥料利用效率，还避免了过去常规施肥造成的肥料蒸发，减轻了对水源、土地等的污染，达到控肥增效、绿色种植的效果。', '早在2013年，习近平总书记在山东考察时就针对“三农”工作提出，深入推进农业发展方式转变。', '今年全国两会上，在河南代表团参加审议时，习近平总书记又提出，加大农业面源污染治理力度，开展农业节肥节药行动。', '农业的绿色转型扎实推进，我国已提前三年实现化肥农药零增长。到2020年，全国主要农作物化肥农药使用量要实现负增长。', '他的小院坐落在洱海之滨，位于云南大理白族自治州大理市湾桥镇古生村。2015年初，习近平总书记走进这个小院，和乡亲们在院子里拉起了家常。习近平总书记叮嘱说：“一定要把洱海保护好”。', '“习近平总书记在洱海边说，‘立此存照，过几年再来，希望水更干净清澈。’我们一定不能辜负总书记的期望。”李德昌心里一直牢记总书记的嘱托。从那以后，他每天都会到洱海边走一走，观察洱海水质的变化。', '洱海，是云南省第二大淡水湖。上世纪八十年代起，流域内人口不断增长、旅游业飞速发展，洱海流域污染负荷快速增加。洱海经历了从贫营养湖泊向中营养湖泊再到富营养湖泊的演变，出现了蓝藻大面积聚集和暴发。', '“只要有时间，我就过来帮忙，打扫滩地上的生活垃圾，打捞近岸的死亡水生植物和水藻。”李德昌说，只要洱海水质好了，自己辛苦一点也值得。', '为留住“苍山不墨千秋画，洱海无弦万古琴”的自然美景，大理州开启洱海保护治理抢救模式。截至2018年底，洱海流域城乡生活污水实现全收集、全处理；完成环湖1806户生态搬迁，并同步建设5800多亩环湖生态湿地和缓冲带；在洱海流域范围内禁种大蒜10万亩，大幅减少化肥使用。', '如今，李德昌的心情越来越好——洱海水质好多了，站在岸边都能看到湖底，被视为“水质风向标”的海菜花也多起来。2018年洱海全湖水质7个月保持Ⅱ类水，为2015年以来水质最好的年份。', '长期以来，一些地方围垦湖泊、侵占水域、超标排污、违法养殖、非法采砂，造成湖泊面积萎缩、水域空间减少、水质恶化、生物栖息地破坏等问题突出，湖泊功能严重退化。', '2018年，在东北三省考察时，习近平总书记乘船察看查干湖南湖生态保护情况，又沿栈道步行察看水体状况和动植物生存环境。', '今年全国两会上，他在参加内蒙古代表团审议时指出，要抓好内蒙古呼伦湖、乌梁素海、岱海的生态综合治理，对症下药，切实抓好落实。', '近年内蒙古全力抓好一湖两海的生态环境治理，目前水质指标总体向好，野生动植物种类稳步增加，生态环境逐步改善，成为候鸟天堂。', '15年前，牧民更尕南杰住在海拔近5000米的青海省海西蒙古族藏族自治州格尔木市唐古拉山镇措里玛村。为响应国家退牧还草、生态移民的号召，128户407名牧民群众从400多公里之外搬迁至格尔木市南郊。', '新村取名长江源村，寓意“来自长江源头和饮水思源、不忘党的恩情”。2016年8月22日，习近平总书记来到这个海拔近3000米的移民村庄。', '想起当时情景，更尕南杰难掩激动之情：“我和村里的藏族村民穿上了过节才会穿的藏服，捧着哈达，期待着总书记出现在村委会门口。”', '习近平总书记指出，保护三江源是党中央确定的大政策，生态移民是落实这项政策的重要措施，一定要组织实施好。', '“现在全村多户都任命有草原管护员，定期去山上的草场巡视。过去一年来，村里还重点实施了电网改造、天然气入户等基础设施项目，乡亲们的日子越过越好。”更尕南杰说。', '在寄托了当地10万生态移民“乡愁”的背后，三江源生态环境正在向好发展。与2004年相比，三大江河源头年均向下游多输出58亿立方米的优质水，草原产草量提高30%，藏野驴、雪豹等濒危动物种群数量恢复性增长。', '在2017年7月中央全面深化改革领导小组会议上，习近平总书记在谈及建立国家公园体制时说，坚持山水林田湖草是一个生命共同体。', '从山水林田湖，到山水林田湖草，虽然只增加了一个“草”字，却把我国最大的陆地生态系统纳入生命共同体中，体现了习近平总书记深刻的大生态观。', '如今，在党中央的重视推动下，我国草原生态系统保护与修复成效显著，草原涵养水源、保持土壤、防风固沙等生态功能得到恢复和增强，局部地区生态环境明显改善，草原生态环境持续恶化势头得到初步遏制。茵茵草原正成为广大牧民群众脱贫致富奔小康的重要依托。（新华社记者 高敬 王博 周楠 王靖 王建 丁怡全 李琳海）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>97</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>福建省机关管理局传达贯彻习总书记到福建考察讲话精神</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2014-11-27</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/57a5b7e4d439eb9403426392.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['近日，福建省机关管理局党组召开中心组（扩大）学习会，传达学习习近平总书记到福建考察重要讲话精神。局党组书记、局长曹建平指出：习总书记来闽考察指导工作，充分体现了总书记对福建工作的高度重视和极大关心，为福建发展提供了强大动力。对于机关事务管理局来说，当前最重要的工作就是要认真学习贯彻总书记重要讲话精神，积极进取，扎实工作，在服务全省经济社会发展大局中发挥机关事务工作应有的作用。', '曹局长就学习贯彻总书记重要讲话精神提出四点意见：一要以学习贯彻习近平总书记重要讲话精神为动力，按照省委、省政府的部署，把', '的新要求落到实处，为建设机制活、产业优、百姓富、生态美的新福建提供服务和保障。二要高度关注民生，努力解决好省直干部职工普遍关心的工作和生活保障问题。在具体工作中牢固树立起服务为先的理念，进一步完善', '为重点，全面推动各项工作开展。三要进一步深化改革，努力提升机关事务服务保障能力。要摸清底数，研究政策，稳妥、务实推进改革创新。四要深入持续改进作风，全面落实从严治党的要求。作风建设永远在路上，没有休止符。要强化工作纪律，落实']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>97</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>下好先手棋开创发展新局面记习近平总书记在安徽考察</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2020-08-24</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/ztzj/rzxxxcgcxjpzsjscahzyjhjs/xjpzsjzahkczyjh/20249401.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['8月18日至21日，习近平总书记深入安徽考察调研，并在合肥主持召开扎实推进长三角一体化发展座谈会。', '入汛以来，长江、淮河、巢湖等一度处于超警戒水位。安徽南北三线作战，防汛救灾任务艰巨。如何加强防汛救灾和灾后恢复重建，加强淮河和巢湖治理，加强长江生态环境保护修复，习近平十分关心，尤其惦念灾区群众，“这是我最牵挂的事情之一”。', '长三角一体化发展上升为重大国家战略以来，取得了哪些进展，面对新形势新任务如何育新机、开新局，习近平总书记实地调研、掌握最新情况。“长江经济带的上游、中游地区我都看过了，并开了座谈会，这次要到下游看看，也开个座谈会。”', '为了谁、依靠谁？“人民”二字重如千钧。习近平总书记强调：“任何时候我们都要不忘初心、牢记使命，都不能忘了人民这个根，永远做忠诚的人民服务员。”', '面对全球市场萎缩的外部环境，面对新一轮科技革命和产业变革加速演变，习近平总书记强调：“最重要的是必须集中力量办好自己的事，任凭风浪起，稳坐钓鱼台。”', '2020年注定不平凡。疫情汛情叠加，一场又一场的大考。在全国防汛救灾形势最吃紧的时候，习近平总书记多次研究部署，作出重要指示批示。', '安徽是汛情最严重的省份之一。境内长江、淮河干流全线超警戒水位，巢湖遭遇百年未遇高水位。王家坝闸时隔13年再次开闸蓄洪，巢湖主要圩口也实行了开闸分洪。入秋后，持续浸泡的湖堤坝圩险情隐患增多，防汛形势依然严峻。', '这次到安徽，总书记就是要实地察看灾区情况，看看灾区群众生产生活恢复得怎么样。淮河之滨、长江岸线、巢湖堤坝……炎炎烈日下，他辗转奔波。', '第一站，王家坝闸，被誉为千里淮河“第一闸”和淮河防汛的“晴雨表”。王家坝闸之下，是180平方公里的蒙洼蓄洪区。如今，洪水退去，河水波澜不惊，同7月20日的惊心动魄形成鲜明比照。', '大雨滂沱，河水汹涌。王家坝闸从警戒水位到保证水位只用了51小时。7月19日傍晚，他们接到开闸蓄洪和撤离群众指令。风雨中，群众赶牛羊、扛家当，扶老携幼……从指令下达到蒙洼蓄洪区2000多位非安全区群众全部转移安置，只用了7小时。', '在王家坝防汛抗洪展厅，习近平总书记仔细端详防汛图。60多年来，王家坝闸曾16次开闸泄洪。从2007年以来，这里一直安澜无事，如今要一夜间撤离！蒙洼人发扬王家坝精神，识大体、顾大局，舍小家、顾大家，主动配合、紧急转移，为防汛救灾作出重大贡献。', '“虽然不少群众受了灾，但总的看，一批重大水利设施发挥了关键作用，防洪体系越来越完善，防汛抗洪、防灾减灾能力不断提高，手段和资源也越来越丰富，在科学调度下，不再手忙脚乱。”习近平总书记要求，“要把70年来治理淮河的经验总结好，认真谋划‘十四五’时期的治淮方案。”', '洪水浸泡过的田野还没有排干，蒙洼已经开始复苏，尚未从防汛中喘口气的乡亲们已经忙碌了起来。', '附近的红亮箱包有限公司，是在当地政府支持下办的一家扶贫车间。在家门口就业，员工张丽每月能赚2000多块，还能照顾家。洪水来时，她很担忧会不会淹了“饭碗”。在党委和政府帮助下，扶贫车间很快复工了。', '总书记十分关心因灾致贫返贫问题，详细询问扶贫政策、防汛补助落实情况，要求各级党委和政府加大扶持力度，帮助企业渡过难关，保障受灾群众、贫困群众就业。', '离开扶贫车间，他赶往蒙洼蓄洪区曹集镇利民村西田坡庄台。看到乡亲们在田里劳作，总书记下了车。', '池塘里，几位村民在采摘芡实；退水地块上，乡亲们正在补种包菜。看到总书记来了，乡亲们兴奋地围了上来。', '“我这次是专程来看望灾区乡亲们，看看灾后恢复重建情况……”总书记话音未落，大家就抢着汇报：“请总书记放心！头伏萝卜二伏菜，三伏饽饽种荞麦，水退到哪里，我们就跟到哪里，种子就种到哪里，尽量把损失抢回来。”', '习近平倾听着，汗水顺着脸颊滴落到脚下的泥土里。“看到乡亲们生产生活都有着落、有希望，我的心就踏实。”', '“实施乡村振兴，必须以确保行蓄洪功能作为前提。要因地制宜安排生产生活，扬长避短。同时引导和鼓励乡亲们逐步搬出去，减存量、控增量，不搞大折腾，确保蓄洪区人口不再增多。”', '“过去发洪水时，庄台东头舀水喝，西头涮马桶。”“原来的变压器都在庄台下面，洪水一来就断电。”乡亲们你一言我一语，“如今电不断，水照供，船来船往吃穿不愁”……', '听说总书记来了，乡亲们都围拢了过来。总书记动情地对大家说：“愚公移山、大禹治水，中华民族同自然灾害斗了几千年，积累了宝贵经验，我们还要继续斗下去。这个斗不是跟老天爷作对，而是要尊重自然、顺应自然规律，积极应对自然灾害，与自然和谐相处。”', '“全面建设社会主义现代化，抗御自然灾害能力也要现代化。制定‘十四五’规划，要考虑这方面工作，坚持问题导向，总结问题和短板，不断改善我们的工作。”', '薛家洼生态园地处长江岸边，曾面临十分突出的生态环境问题，经过综合整治，已成为百姓亲江亲水亲绿的生态岸线和城市生态客厅。总书记看了十分高兴。', '“实施长江经济带发展战略，一开始我就强调要坚持共抓大保护、不搞大开发，先给大家泼泼冷水，这恰恰体现了有所为有所不为的哲学思想。经济发展要设定前提，首先要保护好生态环境。高质量发展的基础，就是生态环境。生态环境保护不好，最终将葬送经济发展前景。”', '“长江生态环境保护修复，一个是治污，一个是治岸，一个是治渔。长江禁渔是件大事，关系30多万渔民的生计，代价不小，但比起全流域的生态保护还是值得的。长江水生生物多样性不能在我们这一代手里搞没了。”', '总书记特别强调，“长江禁渔也不是把渔民甩上岸就不管了，要把相关工作做细做实，多开发就业渠道和公益性岗位，让渔民们稳得住、能致富。”', '在扎实推进长三角一体化发展座谈会上，习近平总书记语重心长地对三省一市的负责人说：“长三角地区是长江经济带的龙头，不仅要在经济发展上走在前列，也要在生态保护和建设上带好头。”', '巢湖，是安徽防汛救灾的又一个主战场。由于连续超警戒水位，合肥面临巨大危险。合肥市主动启用巢湖周边的生态湿地蓄洪区，上拦、下排、边分、固堤，有效缓解了合肥市的防汛压力。', '在合肥市肥东县十八联圩生态湿地蓄洪区巢湖大堤罗家疃段，习近平总书记详细了解巢湖防汛救灾和固坝巡堤查险工作。他强调，要坚持生态湿地蓄洪区的定位和规划，防止被侵占蚕食，保护好生态湿地的行蓄洪功能和生态保护功能。“巢湖是安徽人民的宝贝，是合肥最美丽动人的地方。一定要把巢湖治理好，把生态湿地保护好，让巢湖成为合肥最好的名片。”', '大堤上战旗猎猎，防洪沙袋一眼望不到头，防汛救灾一线人员和依然坚守在一线的部队官兵整齐列队。他们身后，八百里巢湖蔚为壮观。', '三位牺牲同志的家属，站在队伍最前面。陈陆、甘磊、帖克艳，就在这个夏天，他们在防汛救灾中谱写了悲壮的英雄之歌。', '他深情地说：“你们的亲人也是我们的亲人，是祖国和人民的亲人，他们是我们心目中的英雄。每当危难时刻总有英雄挺身而出，这是中华民族伟大精神的体现。你们要把工作生活安排好，保重身体，以最好的方式来告慰他们。”', '习近平总书记对大家表示亲切慰问，并向全国奋战在防汛救灾一线的同志们致以诚挚的问候。他关切地说：“汛情还在继续，党和政府一定要关心关爱奋战在第一线的同志们，特别是他们的饮食、休息，有的同志身上起了燎泡，有的脚上发炎化脓了，要关心他们的安全和健康。”', '4%的国土面积，不到10%的人口，创造了近四分之一的经济总量。在全国经济版图中，长三角地区是经济最活跃、开放程度最高、创新能力最强的区域之一。', '面对长三角地区负责同志，总书记开宗明义：“在当前的国内国际形势下，要深刻认识长三角区域在国家经济社会发展中的地位和作用，结合长三角一体化发展面临的新形势新要求，紧扣一体化和高质量两个关键词，坚持目标导向、问题导向相统一，真抓实干、埋头苦干，推动长三角一体化发展不断取得成效。”', '“一体化”在历史的厚重积淀中谋势酝酿，在新时代的创新发展中投子布局。曾在长三角地区工作过的习近平总书记回忆：“我也曾深入思考和积极推动长三角发展的问题。”', '那时候，沪苏浙一体化大势渐明，首次长三角发展座谈会就由习近平任职的浙江省担任“东道主”。邻省的安徽也举目瞻望。安徽省负责同志风趣地说：“那时候我们是旁听生。在总书记批准和推动下，我们变成了插班生，现在成为了正式生。”', '笑声里，习近平总书记娓娓道来：“当时主要考虑是拉兄弟一把。从安徽来讲，加进来后，就犹如种地，改良了土壤和墒情，加上优质的种子，庄稼就长旺盛了。”', '从区域实践到国家擘画，长三角一体化发展势如破竹。2018年在首届中国国际进口博览会上，习近平总书记宣布将长三角一体化发展上升为国家战略。一年后，《长江三角洲区域一体化发展规划纲要》出炉。', '一年一个大手笔，一年一个大台阶。这次座谈会开启了长三角一体化发展的又一个“加速度”。习近平总书记强调，谋划长三角一体化发展要站在两个大局的高度上看，一个是中华民族伟大复兴的战略全局，一个是世界百年未有之大变局。党中央对长三角一体化发展的战略定位是“一极三区一高地”：“全国发展强劲活跃增长极、高质量发展样板区、率先基本实现现代化引领区、区域一体化发展示范区、改革开放新高地。”', '“在当前全球市场萎缩的外部环境下，我们必须集中力量办好自己的事，发挥国内超大规模市场优势，加快形成以国内大循环为主体、国内国际双循环相互促进的新发展格局，这是深入分析国内国际形势作出的重大判断，也是一个长期的战略部署。”习近平总书记高瞻远瞩。', '二季度，长三角交出了一份不错的成绩单。三省一市地区生产总值由一季度的下降5.7%转为增长0.2%，经济总量占全国比重由上年底的23.9%提高到24.2%，在扎实做好“六稳”工作、全面落实“六保”任务上走在全国前列。长三角一体化发展新格局正在形成。', '“企业展位比上一届还多了6万平方米，疫情有影响，但谁都不愿意放弃中国这个大市场。”', '江苏、浙江、安徽的负责人也汇报了进出口贸易和外来投资继续增长的情况，他们讲述了共同的感受：国外看好长三角、看好中国经济发展的预期没有改变。', '一体化旨在打破行政壁垒，提高政策协同，让要素在更大范围畅通流动，有利于发挥各地区比较优势，实现更合理分工，凝聚更强大的合力。', '“断头路”，过去的一个老大难问题。挨着的两个县，分属两个省，各自规划不同，难以一体建设，通车前绕路走得花40分钟，通车后为5分钟。一体化潜力巨大。', '高质量发展，长三角地区最有条件、最有能力率先实现，在全国发挥示范作用。这也是国家交付给长三角的一份沉甸甸责任。', '“新中国成立后很长时期内，上海产品和技术在很大程度上支撑了全国经济建设。今天，上海和长三角区域不仅要提供优质产品，更要提供高水平科技供给，支撑全国高质量发展。”总书记对上海和长三角地区寄予厚望。', '一位省市负责同志讲述了当地中小微企业的“意外收获”：“过去没有机会和国际化大企业合作的省内小企业，现在纷纷接到国内的‘橄榄枝’，反而多了发展契机。”', '习近平总书记感触颇深：“创新驱动发展，我们有主力军、集团军，有时候也要靠中小微企业的‘一招鲜’，要支持中小微企业创新发展。”', '前一天，他调研了安徽创新馆。新技术、新材料、新产品、新产业荟萃。刚刚融入长三角的安徽，这些年来创新成绩突出。“安徽要实现弯道超车、跨越发展，在‘十四五’时期全国省区市排位中继续往前赶，关键靠创新。要继续夯实创新的基础，锲而不舍、久久为功。”', '马鞍山市是安徽融入长三角一体化发展的前沿阵地，因钢而设、因钢而兴。马钢是这座城市的亮丽名片。', '60多年来，马钢创造了我国钢铁行业的许多“第一”，具有光荣的历史，但新时代马钢发展也面临许多新挑战。2019年末，马钢和宝武集团实施战略重组，更名为中国宝武马钢集团，一跃成为世界级钢铁企业。', '优质合金棒材车间里，铁花飞溅，一片忙碌。习近平总书记从马钢看到了中国经济发展的强大韧性和区域合作的巨大潜力：', '“希望你们在深化国有企业改革中，特别是在长三角一体化发展中，能够把握机遇、顺势而上，和长三角有机衔接，进一步发展壮大。机遇就在你们手里。”', '总书记叮嘱安徽的负责同志，要深化体制机制改革，加强城市基础设施、生态环境和营商环境建设，畅通与长三角中心城市连接的交通网络，提高生产生活便利化、舒适化程度，更好吸引和承接长三角地区资金、技术、产业、人才等的转移。', '座谈会持续了3个多小时。大家谈成绩、说问题、谋共识、献良策，意犹未尽。总书记的重要讲话，更是给长三角发展指明了方向。', '“长三角一体化发展不是一日之功，我们既要有历史耐心，又要有只争朝夕的紧迫感，既谋划长远，又干在当下。三省一市和有关部门要按照党中央决策部署，勇于担当，主动作为，大胆突破。要从实际出发，制定‘十四五’时期长三角一体化发展规划实施方案，不断取得更加丰硕的成果。”', '在近百年波澜壮阔的奋斗历程中，我们党之所以能够由小变大、由弱变强，根本原因是始终坚持和践行为中国人民谋幸福、为中华民族谋复兴的初心和使命，始终保持同人民群众的血肉联系。', '考察期间，习近平总书记不论走到哪个地方，讲得最多的是老百姓的事。在王家坝闸和蒙洼蓄洪区，他最关心的是受灾群众生产生活恢复和困难群众就业情况；在马鞍山薛家洼生态园，他谆谆叮嘱要保障退捕渔民上岸后能够稳得住、能致富。', '71年前，解放战争最后一场大战役即将在长江边展开。为阻止人民解放军渡江，国民党军队把沿岸的船只强行拉往江南，来不及拉走的就地破坏或沉入江底、湖底。在人民群众支持下，仅半个月时间，人民解放军就征集到1万余只船、2万多名船工，人民解放军一举突破国民党反动派苦心经营的长江防线。', '习近平总书记十分感慨：“淮海战役的胜利是靠老百姓用小车推出来的，渡江战役的胜利是靠老百姓用小船划出来的。任何时候我们都要不忘初心、牢记使命，都不能忘了人民这个根，永远做忠诚的人民服务员。”', '在听取安徽省委和省政府工作汇报时，总书记再次强调人民的力量。“鄂豫皖苏区能够28年红旗不倒，新四军能够在江淮大地同敌人奋战到底，刘邓大军千里跃进大别山能够站住脚、扎下根，淮海战役能够势如破竹，百万雄师过大江能够气吞万里如虎，根本原因是我们党同人民一条心、军民团结如一人。”', '“抗击新冠肺炎疫情、防汛救灾斗争再次表明，只要我们党始终为人民执政、依靠人民执政，就能无往而不胜。”（人民日报记者杜尚泽 朱思雄，新华社记者张晓松）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>97</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>习近平在重庆考察并主持召开解决两不愁三保障突出问题座谈会</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2019-04-18</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20598701.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡华溪村同村民代表、基层干部、扶贫干部、乡村医生等围坐在一起，共话脱贫攻坚。 新华社记者 谢环驰 摄', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡华溪村看望贫困户谭登周一家。 新华社记者 刘彬 摄', '新华社重庆4月17日电 中共中央总书记、国家主席、中央军委主席习近平4月15日至17日在重庆考察，主持召开解决“两不愁三保障”突出问题座谈会并发表重要讲话。他强调，脱贫攻坚战进入决胜的关键阶段，各地区各部门务必高度重视，统一思想，抓好落实，一鼓作气，顽强作战，越战越勇，着力解决“两不愁三保障”突出问题，扎实做好今明两年脱贫攻坚工作，为如期全面打赢脱贫攻坚战、如期全面建成小康社会作出新的更大贡献。', '山城四月，春风和煦，山水透绿，一派生机勃勃。4月15日，习近平在中共中央政治局委员、重庆市委书记陈敏尔和市长唐良智陪同下，深入石柱土家族自治县的学校、农村，实地了解脱贫攻坚工作情况。', '石柱土家族自治县地处武陵山集中连片特困地区，是国家扶贫开发工作重点县。15日中午，习近平一下飞机，就转乘火车、汽车前往石柱县，山路蜿蜒，坡急沟深，辗转3个多小时抵达大山深处的石柱县中益乡华溪村。', '习近平首先来到中益乡小学。学校操场上，小学生们正在开展课外文体活动。看到总书记来了，学生们围拢过来，纷纷问习爷爷好，总书记高兴地同大家交谈，询问他们学习和生活情况。中益乡地处大山深山之中，群众居住比较分散，孩子上学是个难题。习近平指出，“两不愁三保障”，很重要的一条就是义务教育要有保障。再苦不能苦孩子，再穷不能穷教育。要保证贫困山区的孩子上学受教育，有一个幸福快乐的童年。习近平走进师生食堂，仔细察看餐厅、后厨，了解贫困学生餐费补贴和食品安全卫生情况。习近平嘱咐学校和老师既要当好老师，又要当好临时家长，把学生教好、管好。要把安全放在第一位，确保学生在学校学、住、吃都安全，让家长们放心。他希望老师们扎根山区，献身乡村教育事业，为群众脱贫贡献一份力量。', '华溪村人多地少，土地贫瘠，全村有建档立卡贫困户85户、302人，其中8户、19人还没有脱贫。习近平踏着湿滑的石阶登上陡坡，来到贫困户谭登周家，从屋外看到屋内，详细询问老两口生活和身体状况。谭登周夫妇告诉总书记，由于伤病原因暂时丧失了劳动力，生活还比较困难，但土地流转有分红、医疗有救助、低保有兜底，3间住房加固后都很结实，特别是医药费大部分报销，自己只负担一部分，基本生活还是有保障的。习近平指出，基本医保、大病保险、医疗救助是防止老百姓因病返贫的重要保障。这个兜底作用很关键。脱贫攻坚明年就要收官，要把工作往深里做、往实里做，重点做好那些尚未脱贫或因病因伤返贫群众的工作，加快完善低保、医保、医疗救助等相关扶持和保障措施，用制度体系保障贫困群众真脱贫、稳脱贫。', '随后，习近平前往老党员、已脱贫户马培清家，沿着乡间小路步行察看自然环境、村容村貌，了解该村通过种植中药材黄精等特色经济作物带动村民脱贫的情况。在马培清家中，看到谷仓里装满粮食，厨房里挂着不少腊肉，温饱不愁，了解到他们家通过参加黄精中药材产业发展和土地入股分红、管护药材基地等方式，实现了稳定脱贫，习近平表示欣慰。', '在马培清家院子，习近平同村民代表、基层干部、扶贫干部、乡村医生等围坐在一起，摆政策，聊变化，谋发展。大家你一言我一语，争相发言，气氛热烈。习近平对乡亲们说，脱贫攻坚是我心里最牵挂的一件大事。这次我专程来看望乡亲们，就是想实地了解“两不愁三保障”是不是真落地，还有哪些问题。小康不小康，关键看老乡，关键看脱贫攻坚工作做得怎么样。全面小康路上一个也不能少。发展才是社会主义，发展必须致力于共同富裕。国家越发展，越要把贫困群众基本生活保障好。各级党委和政府要把“两不愁三保障”各项措施落实到村、到户、到人。要加强乡村两级基层党组织建设，更好发挥在脱贫攻坚中的战斗堡垒作用，提高党在基层的治理能力和服务群众能力。党员干部要到脱贫攻坚的一线、到带领群众脱贫致富的火热实践中历练，经受考验，磨练党性，增进群众感情，增强做好工作的本领。习近平强调，幸福是奋斗出来的。党的政策对老百姓好，才是真正的好。党的各项惠民政策要落实好，乡亲们要一起奋斗，努力向前奔跑，争取早日脱贫致富奔小康。', '离开村子时，村民们聚集在村头，高声向总书记问好。习近平同大家亲切握手，祝乡亲们生活越来越幸福。', '16日下午，习近平在重庆主持召开解决“两不愁三保障”突出问题座谈会。座谈会上，广西、重庆、四川、贵州、云南、陕西、甘肃、新疆等地党委书记作书面汇报，重庆市石柱土家族自治县县委书记蹇泽西，奉节县平安乡党委书记邹远珍，城口县周溪乡凉风村党支部书记伍东，教育部、住房和城乡建设部、水利部、国家卫生健康委、国家医疗保障局等部门主要负责同志，中共中央政治局委员、国务院副总理胡春华先后发言。', '听取大家发言后，习近平发表了重要讲话。他强调，到2020年稳定实现农村贫困人口不愁吃、不愁穿，义务教育、基本医疗、住房安全有保障，是贫困人口脱贫的基本要求和核心指标，直接关系攻坚战质量。总的看，“两不愁”基本解决了，“三保障”还存在不少薄弱环节。各地区各部门要高度重视，统一思想，抓好落实。要摸清底数，聚焦突出问题，明确时间表、路线图，加大工作力度，拿出过硬举措和办法，确保如期完成任务。', '习近平强调，脱贫攻坚战进入决胜的关键阶段，务必一鼓作气、顽强作战，不获全胜决不收兵。各省区市党政主要负责同志要增强“四个意识”、坚定“四个自信”、做到“两个维护”，强化政治责任，亲力亲为抓好脱贫攻坚。省级分管扶贫的负责同志要抓好工作落实。各行业部门要围绕脱贫攻坚目标任务，按照尽锐出战要求，切实履职尽责、合力攻坚，对责任不落实、政策不落实、工作不落实影响任务完成的要进行问责。党中央制定了支持深度贫困地区脱贫攻坚的实施意见，各方面都加大了力度，但不能放松。要逐一研究细化实化攻坚举措，攻城拔寨，确保完成脱贫任务。这次脱贫攻坚专项巡视和成效考核发现了不少突出问题和共性问题。各地区各部门要全面排查梳理，确保各类问题整改到位，为明年工作打下良好基础。', '习近平指出，脱贫既要看数量，更要看质量。要严把贫困退出关，严格执行退出的标准和程序，确保脱真贫、真脱贫。要把防止返贫摆在重要位置，适时组织对脱贫人口开展“回头看”。要探索建立稳定脱贫长效机制，强化产业扶贫，组织消费扶贫，加大培训力度，促进转移就业，让贫困群众有稳定的工作岗位。要做好易地扶贫搬迁后续帮扶。要加强扶贫同扶志扶智相结合，让脱贫具有可持续的内生动力。', '习近平强调，贫困县摘帽后，要继续完成剩余贫困人口脱贫任务，实现已脱贫人口的稳定脱贫。贫困县党政正职要保持稳定，做到摘帽不摘责任。脱贫攻坚主要政策要继续执行，做到摘帽不摘政策。扶贫工作队不能撤，做到摘帽不摘帮扶。要把防止返贫放在重要位置，做到摘帽不摘监管。要保持政策稳定性、连续性。', '习近平指出，要把全面从严治党要求贯穿脱贫攻坚全过程，强化作风建设，完善和落实抓党建促脱贫的体制机制，发挥基层党组织带领群众脱贫致富的战斗堡垒作用，深化扶贫领域腐败和作风问题专项治理，把基层减负各项决策落到实处。对奋战在脱贫攻坚一线的同志要关心他们的生活、健康、安全，对牺牲干部的家属要及时给予抚恤、长期帮扶慰问。对在基层一线干出成绩、群众欢迎的干部，要注意培养使用。对那些畏苦畏难、敷衍了事、弄虚作假的扶贫干部，要加强教育管理，该撤换的要及时撤换，该问责的要坚决问责。', '17日上午，习近平听取了重庆市委和市政府工作汇报，对重庆各项工作取得的成绩给予肯定，希望重庆全面落实党中央决策部署，牢牢把握稳中求进工作总基调，坚持新发展理念，统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定工作，持续营造风清气正的政治生态，更加注重从全局谋划一域、以一域服务全局，努力在推进新时代西部大开发中发挥支撑作用、在推进共建“一带一路”中发挥带动作用、在推进长江经济带绿色发展中发挥示范作用。', '习近平强调，党中央通过了《关于新时代推进西部大开发形成新格局的指导意见》。这是党中央从全局出发作出的重大决策部署，对决胜全面建成小康社会、开启全面建设社会主义现代化国家新征程具有重大而深远的意义。重庆要抓好贯彻落实，在推进西部大开发形成新格局中展现新作为、实现新突破。要坚定不移推动高质量发展，扭住深化供给侧结构性改革这条主线，把制造业高质量发展放到更加突出的位置，加快构建市场竞争力强、可持续的现代产业体系。要加大创新支持力度，坚定不移推进改革开放，努力在西部地区带头开放、带动开放。要加快推动城乡融合发展，建立健全城乡一体融合发展的体制机制和政策体系，推动区域协调发展。要深入抓好生态文明建设，坚持上中下游协同，加强生态保护与修复，筑牢长江上游重要生态屏障。', '习近平指出，要按照党中央总体部署，结合自身实际，精心组织实施庆祝新中国成立70周年各项工作。要围绕中国共产党为什么“能”、马克思主义为什么“行”、中国特色社会主义为什么“好”等重大问题，广泛开展宣传教育，加强思想舆论引导，坚定广大干部群众对中国特色社会主义的道路自信、理论自信、制度自信、文化自信，进一步激发全体人民爱党、爱国、爱社会主义的巨大热情。', '习近平强调，要从最困难的群体入手，从最突出的问题着眼，从最具体的工作抓起，通堵点、疏痛点、消盲点，全面解决好同老百姓生活息息相关的教育、就业、社保、医疗、住房、环保、社会治安等问题，集中全力做好普惠性、基础性、兜底性民生建设。要着力抓好安全生产、食品药品安全、防范重特大自然灾害、维护社会稳定工作，不断增强人民群众获得感、幸福感、安全感。', '习近平指出，要贯彻党中央部署，切实加强党的政治建设，培养一支忠诚干净担当的高素质干部队伍，积极营造建功新时代、创造新业绩的浓厚氛围和良好环境，用正确思想、优良作风、良好导向、正面典型持续激荡清风正气。要加强党的基层组织建设，推动基层党组织全面进步、全面过硬。要坚决整治形式主义、官僚主义，让基层干部从繁文缛节、文山会海、迎来送往中解脱出来。要保持惩治腐败高压态势，巩固反腐败斗争压倒性胜利。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>97</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>对外交流市红星中学赴江苏省常州市洛阳高级中学开展长三角教育一体化学习考察交流研讨活动</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2023-12-05</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/656e9d628866885a308b4571.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['对外交流|市红星中学赴江苏省常州市洛阳高级中学开展长三角教育一体化学习考察交流研讨活动-马鞍山市人民政府', '对外交流|市红星中学赴江苏省常州市洛阳高级中学开展长三角教育一体化学习考察交流研讨活动', '他山之石，可以攻玉。为加速融入长三角教育一体化发展，汇聚推动学校高质量发展智慧，11月30日至12月1日，红星中学在校党委委员、副校长方庆龄，校党委委员、副校长章荣勋的带领下，组织了部分管理干部、年级部主任、教研组长和骨干教师一行20余人赴江苏省常州市洛阳高级中学开展长三角教育一体化学习考察交流研讨活动。洛阳高中党总支书记吴立忠，党总支副书记、校长施凯等全体领导班子成员和各处室负责人热情接待了考察团。在我校挂职的洛阳高中团委书记谈菁全程陪同。', '参观学习谋发展，交流研讨话长远。见面会上，施凯首先致欢迎辞，就学校发展历程、内涵发展、未来展望等方面的情况向考察团作了介绍。吴立忠在欢迎考察团的同时，进一步对学校目前改扩建工程作了介绍，同时指出，此次活动必将有效促进两校之间的互动、交流和合作，共同推动学校发展，并期待此次交融和碰撞能助力两校办更优质的高中教育。方庆龄代表学校对洛阳高中的热情接待表示衷心感谢，并具体介绍了红星中学办学历史、学校概况、集团办学、师资队伍和发展规划，并向洛阳高中发出诚挚邀请，希望今后两校能继续碰撞智慧、互鉴互助，让友谊之花愈开愈香。', '寒冬暖情，深学细鉴。随后，考察团在洛阳高中校领导们的陪同下，实地考察了学校的校容校貌，参观了校史馆、教学楼、宿舍楼等功能馆舍，充分领略和感受了学校简洁优美的校园环境，精细规范的校园管理，安静乐学的学习氛围。12月1日上午，全体老师走进洛阳高中教室听课观摩，通过近距离学习，感受到洛阳高级中学浓厚的教育教学氛围。听课之后，两校进行了气氛热烈的座谈，就学校管理、德育工作、教学教研、高考备考、寄宿管理以及积极适应新课程实施和新高考改革等方面进行了充分的研讨交流。在分组讨论中，考察团又详细询问和认真学习了洛阳高中在党建工作、行政管理、学科教学、学生工作、安全教育、寄宿管理等方面的先进经验和扎实举措。', '交流互鉴新常态，蓄积能量新征程。本次学习考察交流研讨活动的成功开展，既要感谢洛阳高级中学的热情接待和倾囊相授，更得益于深入推进长三角一体化发展的国家战略。此次活动即搭建了学习交流的平台，也形成了经验共享、优势互补的教育共识，必将助力红星中学转型跨越、高质量发展之路。（撰稿：王鹏林 一审：章荣勋 二审：方庆龄 三审：卢丙对）']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>97</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>李克强在北京协和医院考察并召开医学专家座谈会</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2021-09-14</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/gwyxxi/20555511.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['9月13日，中共中央政治局常委、国务院总理李克强到北京协和医院考察，并召开医学专家座谈会，听取对医疗卫生事业发展和创新的意见建议。他强调，要坚持以习近平新时代中国特色社会主义思想为指导，贯彻党中央、国务院决策部署，坚持人民至上、生命至上，把保障人民健康作为增进民生福祉的重要内容，勇攀医学高峰，不断提高医疗卫生服务质量和水平。', '李克强首先看望医院的老专家，向他们表达慰问。李克强说，你们把美好年华献给了医疗事业，协和医院正是因为有你们这样的医学名家一代代传承发展，才赢得了今天这么高的业界地位和良好口碑，希望大家在治病救人、人才培养上多传授经验。', '在医院学术会堂，李克强参观“百年协和病历展”，在一个个展板和实物前驻足观看、听取介绍。他说，协和医院为我国现代医学和医学教育发展作出了开创性贡献，多年来成功救治了大量病患特别是疑难重症患者。希望继续弘扬好的传统，永远做值得患者及家属托付和信赖的医院。', '座谈会上，张抒扬、吴沛新、邱贵兴、朱兰、吴东、郎景和等专家发了言。李克强说，医学科学面对的是人，健康所系，性命相托，医道医德至关重要。中国古代良医悬壶济世，现代白衣天使坚守医者仁心，都体现了守护大众健康的情怀。现在随着群众生活水平提升，对健康的需求日益增加，广大医务工作者承担着救死扶伤的崇高职责，要把患者放在首位，敬佑生命，以仁心施仁术，以大爱成就大医。', '李克强指出，妙手回春离不开科学精神和专业精神。广大医务工作者要严谨务实、精益求精投身医学事业，注重一个个病例的积累，打牢基本功，努力钻研医术，针对疑难重症积极寻求最佳治疗方案。加强国际交流合作，不断探索创新临床诊疗新技术、新药物、新方法。国家采取与支持高校、科研院所创新的同等政策，支持一批高水平医院瞄准国际一流、聚焦治病需要，在临床医学研究和成果转化上走在前列，提升医疗水平。针对当前新冠病毒变异快等情况，要不断总结经验优化诊疗方案，继续完善疫苗，特别要加大有效药物研发力度，进一步提高救治效果。', '李克强说，要推动优质医疗服务更好惠及大众。高水平医院要在建设区域医疗中心、医联体中发挥龙头作用，带动提升中西部地区和基层、社区医疗机构水平，发展“互联网+医疗”，让基层特别是边远地区患者更方便享受优质医疗服务。深化医药卫生体制改革，高标准落实好建立现代医院管理制度等改革任务，进一步缓解看病难、看病贵问题。', '李克强强调，各地各相关部门要在以习近平同志为核心的党中央坚强领导下，大力推动医疗卫生事业发展，营造尊医重卫的良好社会氛围，加快建设健康中国，更好守护人民群众生命安全和身体健康。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>97</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>上海交通大学孙康教授一行赴江东控股集团考察</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2016-07-20</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/57c109dfa1d6640b3440f9a7.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['孙教授一行首先来到智赢、智速科技园的施工现场，详细了解了园区的建设、定位以及招商运营情况。在智联科技园，孙教授一行参观了马鞍山工业设计中心、节能环保展厅，在听取了解说员的详细介绍后对马鞍山地区的工业设计氛围、节能环保产业的快速发展表示了由衷的赞许。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>97</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>李克强赴中国医学科学院病原生物学研究所考察新冠肺炎疫情防控科研攻关</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2020-02-09</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/gwyxxi/10062426.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['李克强赴中国医学科学院病原生物学研究所考察新冠肺炎疫情防控科研攻关_马鞍山市人民政府', '2月9日，中共中央政治局常委、国务院总理、中央应对新冠肺炎疫情工作领导小组组长李克强赴中国医学科学院病原生物学研究所，考察疫情防控科研攻关，慰问一线科研人员。', '中国医学科学院负责人汇报了疫情防控科研进展，李克强对他们夜以继日辛勤付出、开展攻关予以肯定。他说，贯彻习近平总书记关于加强疫情防控工作的重要指示精神，中央应对疫情工作领导小组对疫情防控工作多次作出部署，疫情防控工作正在有力开展。要继续做好早发现、早报告、早隔离、早治疗，进一步加强对确诊患者的集中收治和对疑似患者、发热病例、密切接触者的集中隔离和观察，努力提高收治率和治愈率、降低感染率和病死率。抗击疫情既需要全民行动，更需要科技支撑。要集中最强科研力量，加强协同攻关，攻克最急防治难题，科学精准抗击疫情。', '在电镜实验室，科研团队负责人介绍了用于研究新冠肺炎药物和疫苗的动物模型、病毒传播途径研究等情况。李克强说，科学防控很重要的是加快研究清楚病毒传播途径，这样就能更有效地开展群防群控，把宝贵的防控资源用到该用的地方，发挥更大效用。他叮嘱科研人员，对群众关切的病毒传播途径等要及时发出权威声音，以利科学防控。', '在病原系统生物学重点实验室，李克强详细了解抗病毒药物筛选等情况。得知目前已筛选出药物启动临床试验，并正在研制满足不同临床需求的药物，李克强说，有效药物是打赢这场阻击战的重要制胜武器，是提高患者治愈率、降低病死率的关键，抗疫一线的医护人员和患者对此十分期盼。医药等相关领域科研工作者要与时间赛跑，集中各方智慧，加强与临床合作，深入研究治愈病例的治疗方案，全力开展药品研发攻关。他叮嘱随行有关同志，要对有效药物以及疫苗研制加大财力物力人力等各方面支持和保障。李克强强调，药物和疫苗研制一定要尊重科学、遵循规律，把安全性有效性作为根本标准。有了有效药物，就能给患者带来福音，给群众送上“定心丸”。', '李克强向为抗击疫情持续奋战的一线科研人员表示感谢。他勉励科研人员说，你们是关键岗位，要在关键时刻发挥关键作用，勇于探索创新，为抗击疫情、保护人民群众生命安全和身体健康作出更大贡献。要在以习近平同志为核心的党中央坚强领导下，全国上下同舟共济、众志成城、共克时艰，坚决打赢疫情防控阻击战。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>97</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>李克强考察国家自然科学基金委并主持召开座谈会</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2021-07-20</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/gwyxxi/20514381.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['李克强考察国家自然科学基金委员会并主持召开座谈会强调 弘扬科学精神 着力加强基础研究 推进改革 更大激发科研人员创造活力', '7月19日，中共中央政治局常委、国务院总理李克强到国家自然科学基金委员会考察，并主持召开座谈会。', '今年是国家自然科学基金委成立35周年。李克强听取基金委通过改革减轻科研人员项目申报负担、加强重点领域支持等情况汇报。他说，基金委的成立，标志着科技资源配置从“计划分配”向“竞争择优”的历史性转变。科技创新不是计划出来的，要持续推进改革，完善项目评审机制和评价体系，激励科研人员有勇气、有耐心投身基础研究，推动交叉科学发展，更好发挥基金委重要作用，使宝贵资金更有效支持科学研究。', '座谈会上，基金委负责人作了汇报，黄如、洪永淼、冯雪、高瑞平、窦贤康、丁烈云、杨学明、陈发虎、张学敏等专家发了言，李克强要求有关部门认真研究大家的意见建议。他说，在以习近平同志为核心的党中央坚强领导下，各有关方面贯彻党中央、国务院决策部署，广大科技工作者奋力拼搏，推动我国科技创新不断取得新突破。要坚持以习近平新时代中国特色社会主义思想为指导，落实立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展的要求，坚持创新在我国现代化建设全局中的核心地位，通过深化改革更大激发全社会创新创造积极性，结出更多科技硕果，为国家发展和民生改善提供有力支撑。', '李克强指出，当前国际环境发生很大变化，我国科技发展存在不少短板，很多产业技术瓶颈主要在于原始创新薄弱。基础研究是推动原始创新、构筑科技和产业发展“高楼”的基石。我国已经到了必须大力加强基础研究的关键时期，立足现实，决不能错过这个时机。要增强紧迫感，围绕建设现代化强国，大力推动基础研究，弘扬科学精神，坚持实事求是，尊重规律，严谨求精，鼓励科研人员心无旁骛搞科研，永不满足，不怕失败，加强国际合作，以“十年磨一剑”的恒心和专注攀登科技高峰。', '李克强说，要稳定增加财政对基础研究的投入，运用税收激励等方式调动企业开展基础研究、应用基础研究的积极性，加强制约产业发展的基础理论问题研究。拿出专门资金，激励科研人员凝练提出前沿领域重大问题，持续深入研究。提高学校数理化生等基础学科教育水平，培养更多基础研究人才。多渠道引进优秀人才，促进基础研究水平提高。', '李克强说，要持之以恒打破束缚科技发展的体制机制障碍，深化科技领域“放管服”改革。简化财政科研项目预算编制和评审程序，合理下放预算调剂、经费支出标准确定、横向经费管理等权限。提高间接费用和绩效支出比例，特别是理论数学和物理等纯理论基础研究项目要有明显提高。完善绩效支出、科技成果转化收益分配等管理办法。高度重视人才，围绕重大战略需求和前沿科学领域，由科学家自主确定研究课题、团队、经费使用。创新科研经费监管，突出绩效导向，从重过程向重结果转变。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>97</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>我市纪检监察干部谈学习省纪委十届六次全会精神体会</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2021-02-07</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/zwyw/20403291.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['2月2日至3日，省纪委十届六次全会在合肥市举行。全会着眼深入贯彻落实十九届中央纪委五次全会精神，提出了2021年全省纪检监察工作指导思想、工作重点和具体举措，在马鞍山市纪检监察干部中引发反响。他们认真学习全会精神，并围绕自身工作任务，谈体会、讲打算，对做好今年纪检监察工作充满信心。', '“全会为我们绘制了更加科学的发展蓝图，为我们基层新的一年怎么干指出了更加明确的方向。”市纪委监委第四纪检监察室干部田苗表示，将认真落实全会提出的要求，找准履职尽责的切入点和着力点，全面推进从严治党，更加突出政治监督，围绕疫情防控、经济社会发展等各项部署要求积极探索创新监督方式，全面提升监督质效。', '含山县委常委、县纪委书记、监委主任秦雨龙同样表示，要学深悟透全会精神，聚焦新阶段新理念新格局，聚焦事关改革发展稳定的大事，发挥党内监督主导作用，促进各类监督贯通融合，在增强监督治理效能上持续发力，不断提高政治判断力、政治领悟力、政治执行力，以高质量监督护航高质量发展。', '驻市农业农村局纪检监察组组长姚国振认为，“派驻监督本质上是政治监督，要坚持党中央决策部署到哪里、监督检查就跟进到哪里，围绕农村疫情防控、乡村振兴、巩固拓展脱贫攻坚成果、长江‘十年禁捕’等党中央、省市委重大决策部署，具体化常态化开展政治监督，切实把派驻监督势能转化为动能。”', '作为一名基层纪检干部，博望区博望镇纪委副书记钟倩倩表示，要紧盯各项惠民富民、促进共同富裕政策措施落实情况，强化对基层小微权力运行的监督，加大监督执纪问责力度，切实增强人民群众获得感、幸福感。', '和县纪委常委何忠军则认为，要始终坚持以人民为中心，坚定不移推动党风廉政建设和反腐败斗争向基层一线、群众身边延伸，大力整治群众身边的腐败和作风问题，持续纠治教育医疗、养老社保、扶贫环保等领域腐败和不正之风，解决好群众的“急难愁盼”问题，切实维护人民群众合法权益。', '“全会提出要教育引导党员领导干部坚决反对特权思想和特权行为，严格管好家属子女，严格家风家教。对领导干部而言，重视家风建设，不仅仅是道德要求，更是政治要求、纪律要求。”当涂县纪委监委宣传部部长周姿言表示，自2001年以来，当涂县已经连续19年举办家庭助廉活动，始终把廉洁家风建设摆在重要位置。下一步，我们将继续通过拓展阵地、创新活动、丰富载体等形式，为党风廉政建设和反腐败工作构筑坚固的家庭防线，真正使家人成为廉洁的后盾，家庭成为清廉的港湾。', '“全会提出建设一支政治素质高、忠诚干净担当、专业化能力强、敢于善于斗争的纪检监察铁军，作为市纪委监委组织部的一员，我会认真落实好纪检监察干部教育培训工作要求，不断提升全员培训的针对性和实效性，努力做到精准施训，着力提高纪检监察干部政治能力和业务素质。”市纪委监委组织部干部杨诚说。', '作为一名新入职的纪检监察工作者，驻市委组织部纪检监察组干部温而已更是深受鼓舞，“全会强调各级纪检监察机关要充分发挥监督保障执行、促进完善发展作用，为新阶段现代化美好安徽建设开好局起好步。我也正处在开头起步阶段，如何走正路、不掉队，正是我当下努力的方向。在今后的工作中，我将不断强化纪法意识和纪法素养，从严从实加强自我约束，切实做到知责于心、担责于身、履责于行！”', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>97</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>花山区检察院学习贯彻党的十九届四中全会精神</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2019-11-26</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10038952.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['日前，花山区检察院全体干警在分会场参加全国检察机关学习贯彻党的十九届四中全会精神电视电话会议。最高人民检察院党组书记、检察长张军在会上强调，全国检察干警要学懂弄通做实四中全会精神，以更高政治站位推进检察监督能力现代化。张军检察长要求，学习贯彻党的十九届四中全会精神是当前和今后一个时期全国检察机关的重要政治任务；要深刻认识“中国之治”的本质特征和巨大优势，坚定制度自信，把党对检察工作的绝对领导体现在各项检察职能行使中；要充分发挥法律监督职能，在国家治理体系和治理能力现代化进程中体现检察担当；要围绕国家治理体系和治理能力现代化这个目标，落实、深化司法体制改革，发展完善中国特色社会主义检察制度；要加强检察队伍建设和检务管理，推进检察监督能力现代化。', '会后，以党支部为单位学习张军检察长的讲话精神，党员干警们纷纷表示，将结合检察业务实际，切实提高法律监督能力，以高度的政治自觉和检察担当，为推进国家治理体系和治理能力现代化贡献检察力量。（任婷）', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>97</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>市环境监察支队组织学习环境行政执法文书规范</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2019-09-23</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/10011609.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['2019年9月20日下午，为进一步提升环境执法人员行政执法水平，规范环境行政执法行为，落实“环境执法规范年”活动要求，市环境监察支队组织学习市局编制印发的《环境行政执法文书规范》，重点解读涉及支队的各类行政执法文书的制作，并举例说案。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>97</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>当涂县学习解读法治政府建设与责任落实督察工作实施细则试行</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2020-04-10</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/qxdt/10081957.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['当涂县学习解读《法治政府建设与责任落实督察工作实施细则（试行）》_马鞍山市人民政府', '近日，当涂县政府第61次常务会议，学习解读了《法治政府建设与责任落实督察工作实施细则（试行）》。', '为加快推进市县政府法治建设与责任落实，进一步加强督察工作对法治政府建设与责任落实的督促推动作用，推动各级政府及其工作人员有权必有责、有责要担当、失责必追究，构建守责尽责、失责追责的法治政府建设与责任落实工作机制，实现政府工作全面纳入法治轨道，不断把法治政府建设向纵深推进，2020年3月16日，安徽省推进依法行政工作领导小组办公室印发了《法治政府建设与责任落实督察工作实施细则（试行）》。', '当涂县立即组织全县各乡镇、园区、各部门认真学习、领会《实施细则》内容，提高政治站位，充分认识《实施细则》出台对推进法治政府建设的重大意义，积极开展推进建设法治政府宣传引导工作，营造全社会关心、支持和参与法治政府建设的浓厚氛围。准确把握法治政府建设在全面依法治国中的战略地位，增强加快建设法治政府的责任感、紧迫感，将建设法治政府摆在工作全局的重要位置。持续增强以法治方式推动发展、推进改革、解决矛盾的能力，充分发挥督察工作对法治政府建设与责任落实的督促推动作用，共同开展法治政府建设各项工作。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>97</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>马鞍山市财政局迅速传达学习全省财政纪检监察业务培训班精神</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2019-12-30</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/bmdt/10049906.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['12月24日上午，马鞍山市财政局召开党委会，传达学习2019年全省财政纪检监察业务培训班精神，认真学习省财政厅党组书记、厅长罗建国，省财政厅党组成员、驻厅纪检监察组组长项中胜重要讲话精神。', '马鞍山市财政局党委书记、局长吴斌同志指出，一要提高政治站位。要迅速传达学习会议精神，紧紧围绕全面从严治党这个主题主线，自觉践行党章党规党纪，自觉接受监督制约，严肃党内政治生活，持续改进作风，努力营造良好政治生态。二是强化责任担当。认真履行“一岗双责”，落实好全面从严治党主体责任和监督责任，强化责任担当，当好遵规守纪的表率，当好勇于担当的表率，扛起教育、管理、监督职责，严格执行民主集中制、“三会一课”等组织生活制度，以及干部考察考核、廉政谈话函询、领导干部述职述廉等制度，为更好的服务经济社会发展提供坚强政治和组织保证。三是抓好总结部署。岁末年初，元旦、春节来临之际，要认真总结2019年党风廉政建设工作，精心谋划部署明年工作，做好召开党风廉政工作会议各项准备工作。要严格落实廉洁自律各项制度，认真执行中央八项规定，主动接受驻局纪检监察组监督，把牢纪律红线、廉洁底线，以优异的工作成绩和良好的纪律作风，为2019年工作画上一个圆满的句号。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>97</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>博望区的初中毕业生考入二中的话怎样编班学习</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2020-01-08</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/smxs/site/tpl/13414641?postId=124017347</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['我孩子是初三的学生，很快就要参加中考了。我想咨询的事，孩子如果考上的马鞍山二中，是编入普通班上课还是编入县域班上课？博望区的考生从当涂县报考县域班和直接报考二中有区别吗？ 还有想咨询的是，博望区的学生要上晚自习吗？食堂有午餐和晚餐吗？可以住校吗？ 这么多的问题，麻烦你们了！', '我孩子是初三的学生，很快就要参加中考了。我想咨询的事，孩子如果考上的马鞍山二中，是编入普通班上课还是编入县域班上课？博望区的考生从当涂县报考县域班和直接报考二中有区别吗？', '市民您好！您反映的问题已收悉。处理情况如下：根据马鞍山二中以往招生政策，市区学生考取二中不会编入县域班，三县区考生考取编入县域班。考生从县区报考二中需依据教育局给到县区的指标进行招生。二中县域班学生统一组织晚自习，二中食堂有午餐和晚餐，可住校。如市民有疑问可联系：二中教导处叶老师，8331033。']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>97</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>市委常委会会议强调深入学习贯彻习近平总书记考察安徽重要讲话指示精神奋力打造安徽的杭嘉湖长三角的白菜心</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2022-08-22</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/634122b5886688a3578b4580.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['深入学习贯彻习近平总书记考察安徽重要讲话指示精神 奋力打造安徽的“杭嘉湖”、长三角的“白菜心”', '本报讯（记者 刘挺） 8月19日，市委书记张岳峰主持召开市委常委会会议，传达学习习近平总书记在辽宁考察时和在中央统战工作会议、党外人士座谈会上的重要讲话精神，给黄山风景区工作人员李培生、胡晓春的重要回信精神；传达学习省委常委会扩大会议精神；听取全市打击整治养老诈骗专项行动工作开展情况的汇报；审议通过市人大常委会2022年立法计划调整事项和《关于加强市委巡察整改和成果运用的细化措施》《马鞍山市打造高颜值“白菜心”、争创“最干净城市”行动方案》《关于全面推进标准化发展的实施意见》。', '会议强调，要深入学习贯彻习近平总书记在辽宁考察时的重要讲话精神，完整、准确、全面贯彻新发展理念，抓好产业转型升级、生态环境保护、基层治理等各项工作，以实际行动迎接党的二十大胜利召开。要认真学习贯彻习近平总书记在中央统战工作会议上的重要讲话精神，加强党对统战工作的领导，完善大统战工作格局，充分发挥统一战线的重要法宝作用，为推动高质量发展凝聚智慧力量。要深入学习贯彻习近平总书记在党外人士座谈会上的重要讲话精神，全面落实“疫情要防住、经济要稳住、发展要安全”要求，高效统筹疫情防控和经济社会发展，巩固经济回升向好趋势，力争实现最好结果。', '会议强调，要认真学习贯彻习近平总书记给黄山风景区工作人员李培生、胡晓春的重要回信精神，充分发挥榜样作用，传播真善美，传递正能量，引导全社会向上向善。要健全好人礼遇帮扶机制，形成“好人有好报”的鲜明价值导向。要健全好人推荐评选机制，发动更多群众参与。', '会议指出，在习近平总书记考察安徽两周年之际，省委召开常委会扩大会议，重温习近平总书记考察安徽重要讲话指示精神，回顾总结学习贯彻情况，研究部署进一步贯彻落实举措，具有特殊重要意义。要深入学习贯彻习近平总书记考察安徽重要讲话指示精神，认真贯彻落实省委常委会扩大会议部署，忠诚尽职、奋勇争先，全力争做“三高地、两先锋”，奋力打造安徽的“杭嘉湖”、长三角的“白菜心”。要扎实推进制造业三年倍增，带动三次产业高质量协同发展。要全力招大引强，通过大项目带动稳增长、稳投资、稳就业。要积极做好“农田四变”工作，完善政策措施，确保取得实效。要坚决筑牢疫情防控防线，提高应急处置能力，做好打大仗打硬仗的充分准备。要全力做好抗旱工作，加大提水力度，做到有苗必保，确保轻旱夺高产、中旱不减产、重旱不绝收。领导干部要主动履职，把工作做细做实做深，维护社会和谐稳定，为党的二十大胜利召开营造安全稳定的政治社会环境。', '会议指出，打造高颜值“白菜心”、争创“最干净城市”，是文明创建的应有之义。要坚持为民创建，突出常态长效，健全城市保洁机制体制，进一步提升城市品质。要解决“碎片化”问题，完善环卫保洁机构的考核、退出机制。要解决“机械化”问题，推进“机器换人”，提高环卫保洁效率。要解决“立体化”问题，坚持“一把扫帚扫到底”，实行道路、绿化等立体作业。要解决“群众化”问题，发挥党员干部示范作用，带动群众积极参与“最干净城市”建设，不断提高群众获得感和满意度。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>97</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>市广电台党委中心组集中学习党章和习近平总书记视察安徽重要讲话精神</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2016-06-28</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/57a5b23ed439eb9403411f18.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['市广电台党委中心组集中学习党章和习近平总书记视察安徽重要讲话精神-马鞍山市人民政府', '5月11日全天、12日上午，市广电台党委中心组按照市委工作部署，根据市“两学一做”学习教育协调小组的通知精神和“两表两单”要求，列出党委集中学习清单，重点学习党章、党委工作条例、习近平总书记视察安徽重要讲话精神等学习科目，开展了为期一天的集中封闭学习和半天自学。', '市广电台党委书记、台长朱晓阳强调，习近平总书记视察安徽时的重要讲话，是“两学一做”学习教育的重要内容，也是引领和指导“两学一做”学习教育的重要内容，我们专题学习习近平总书记视察安徽讲话精神，重点是按照习近平总书记在讲话中提出的“两学一做”学习教育有关要求去做，学党章要按照“六个联系”、“三个深入思考”要求，联系自身存在的问题，联系工作中存在的问题，深入思考如何去做合格党员，如何做到学而懂，学而信、学而用。', '朱晓阳说，大家首先要了解“两学一做”学习教育的基本内涵和实施要求。5月10日，台里刚开过党支部书记会议，“两学一做”学习教育工作已经全面布置下去，下一步就是要求各支部结合支部特点，认真贯彻落实市、台“两学一做”学习教育实施意见。对全体党员来说，要以学原文、读原著为主，要带着问题去学，要联系实际去学，防止以开了多少会，写了多少字等形式主义的学，要结合创建党建品牌，体现自身特色。', '目前市广电台已启动“发放《中国共产党章程》、佩戴党员徽章”专项行动。各支部通过召开支部大会，集中发放《中国共产党章程》、读本等学习书籍，在全体党员中开展“戴党徽、亮身份、树形象、作表率”活动。各支部统一购置了“手抄党章、用心领悟”手抄本，发放到每个党员手中，广电台将在抽查的基础上，举办优秀手抄党章本评比、展示以及“手抄党章·我的感悟”等系列活动。']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>97</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>全市领导干部学习贯彻习近平总书记考察安徽和在合肥主持召开扎实推进长三角一体化发展座谈会重要讲话精神专题研讨班举</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2020-09-10</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/ztzj/rzxxxcgcxjpzsjscahzyjhjs/xjpzsjzahkczyjh/20265471.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['全市领导干部学习贯彻习近平总书记考察安徽和在合肥主持召开扎实推进长三角一体化发展座谈会重要讲话精神专题研讨班举_马鞍山市人民政府', '张岳峰在全市领导干部学习贯彻习近平总书记考察安徽和在合肥主持召开扎实推进长三角一体化发展座谈会重要讲话精神专题研讨班上强调', '坚定不移朝着习近平总书记指引的方向奋勇前进 以强烈的使命担当为实现新发展定位而不懈奋斗', '9月8日至9日，全市领导干部学习贯彻习近平总书记考察安徽和在合肥主持召开扎实推进长三角一体化发展座谈会重要讲话精神专题研讨班举行。市委书记张岳峰出席并讲话。他强调，全市领导干部要进一步学懂弄通做实习近平总书记考察安徽重要讲话指示精神，坚定不移朝着习近平总书记指引的方向奋勇前进，以强烈的使命担当，为实现打造安徽的“杭嘉湖”、长三角的“白菜心”新的发展定位而不懈奋斗，为建设“生态福地、智造名城”升级版作出应有贡献。市委副书记、市长袁方出席并作总结讲话。钱沙泉、吴劲等市四套班子领导出席。', '张岳峰在讲话中指出，习近平总书记亲临马鞍山视察，对马鞍山提出了打造安徽的“杭嘉湖”、长三角的“白菜心”新的发展定位，既明确了奋斗目标，又指明了方法路径，具有重大政治意义和现实指导意义。贯彻落实习近平总书记重要讲话指示精神，首先要思考以什么样的站位认识新定位。从政治上看，新定位富于时代性，体现了新发展格局、新发展理念、新发展阶段的要求。从战略上看，新定位体现纲领性，指引了马鞍山高质量发展的前进方向，是当前和今后相当长时期经济社会发展的总方针、总纲领、总遵循。从全局上看，新定位具有实践性，我们要以“杭嘉湖”为标杆，学习“杭嘉湖”经验，走生态优先、绿色发展的高质量发展之路。', '张岳峰强调，要思考以什么样的标杆彰显新定位。新发展定位站位高远、内涵丰富，是马鞍山高质量发展的新标杆，核心要义主要有四个方面：一是生态环保高水准。环保问题是工矿城市实现转型的切入点，要坚持不懈加大生态环保力度，强力推进环保整改和环保执法，倒逼产业转型升级，走出一条生态优先、绿色发展之路。二是经济发展高质量。要改造提升传统产业，大力发展新兴产业，加快推进新旧动能转换，走出一条高水平保护与高质量发展高度统一、相互促进的路子。三是城乡建设高颜值。要认真谋划“十四五”城乡规划，打造宜业宜居宜游的美丽家园。四是人民生活高品质。要树牢以人民为中心的发展思想，解决好群众急难愁盼的问题，补齐民生短板，提高公共服务水平，不断增强群众的获得感、幸福感、安全感。', '张岳峰指出，要思考以什么样的路径实现新定位。实现新发展定位，必须以重大平台作为工作总抓手。初步考虑，创建经济社会发展全面绿色转型区，实施“五大提升行动”。一要实施生态环保提升行动，加大倒逼力度，以环保整治倒逼产业转型升级；推进环保提标，全面提升生态环保水平；积极转化生态，大力发展生态经济。二要实施一体化发展提升行动，提高“畅通度”“协同度”“融入度”，在全省推进长三角一体化发展中做强“桥头堡”、扮靓“东大门”。三要实施产业转型提升行动，推动传统产业“脱胎换骨”、新兴产业“强筋壮骨”、低效企业“腾笼换鸟”。四要实施城乡融合提升行动，优化城乡布局，提升城市能级，推进乡村振兴，加快城乡融合发展。五要实施社会治理提升行动，以整合资源为重点强基层，以补齐短板为重点保安全，以解决问题为重点惠民生，努力打造社会治理的“马鞍山样本”。', '张岳峰强调，要思考以什么样的担当落实新定位。贯彻落实习近平总书记重要讲话指示精神，必须真抓实干、接续奋斗。领导干部作为关键少数，要想一想答卷意识强不强、政治上是否坚定坚决，想一想机遇意识强不强、工作上是否对标对表，想一想赶考意识强不强、作风上是否落细落小，在贯彻落实习近平总书记重要讲话指示精神中勇于担当、奋发有为，为打造安徽的“杭嘉湖”、长三角的“白菜心”，建设“生态福地、智造名城”升级版，作出应有的贡献。', '袁方在讲话中强调，全市各级领导干部要深入开展学习研讨，扎实推进习近平总书记重要讲话指示精神的贯彻落实。要提升“悟”的能力，在学懂弄通上做表率，持续学、深入学、反复学，真正做到学思用贯通、知信行统一。要提高“谋”的水平，在转化运用上做表率，把握好长远与当下、“加法”与“减法”、保护与发展、城市与乡村、“软件”与“硬件”、兜底与提标的关系，坚持以“一体化”为路径、以“高质量”为目标，对标“杭嘉湖”，远谋近施，奋力开创新时代马鞍山高质量发展新局面。要提振“钻”的状态，在狠抓落实上做表率，善钻研、强钻劲、当钻头，开拓创新，压实责任，强化担当，完善机制，全力建设“生态福地、智造名城”升级版。', '正在阅读：全市领导干部学习贯彻习近平总书记考察安徽和在合肥主持召开扎实推进长三角一体化发展座谈会重要讲话精神专题研讨班举', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>97</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>习近平在浙江考察时强调始终干在实处走在前列勇立潮头奋力谱写中国式现代化浙江新篇章返京途中在山东枣庄考察</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21134311.html</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察_马鞍山市人民政府', '习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察', '中共中央总书记、国家主席、中央军委主席习近平近日在浙江考察时强调，要完整准确全面贯彻新发展理念，围绕构建新发展格局、推动高质量发展，聚焦建设共同富裕示范区、打造新时代全面展示中国特色社会主义制度优越性的重要窗口，坚持一张蓝图绘到底，持续推动“八八战略”走深走实，始终干在实处、走在前列、勇立潮头，奋力谱写中国式现代化浙江新篇章。', '9月20日至21日，习近平在浙江省委书记易炼红和省长王浩陪同下，先后来到金华、绍兴等地，深入农村、商贸市场、陈列馆、文化园区等进行调研。', '20日上午，习近平来到金华市义乌市后宅街道李祖村考察调研。近年来，李祖村人居环境大为改善，各类创业主体纷纷进驻，乡村旅游十分红火，被评为全国文明村。习近平先后在村党群服务中心、“共富市集”、扎染商铺等场所了解李祖村发展变化情况。得知李祖村年人均收入达到5.2万元，习近平十分高兴。他说，李祖村扎实推进共同富裕，是浙江“千万工程”显著成效的一个缩影，要再接再厉，在推动乡村振兴上取得更大成绩。乡村振兴为年轻人提供了展现才华的用武之地，希望更多的年轻人为乡村振兴发挥积极作用。离开村子时，当地群众簇拥到总书记身旁，热情欢送总书记。习近平对大家说，乡村振兴潜力无限、大有可为，乡亲们要努力奋斗，一起奔向共同富裕的美好明天。', '随后，习近平来到义乌国际商贸城考察。他通过电子屏幕实时了解商贸城运营及“义新欧”班列运行情况，并走进市场同商户、小企业主代表亲切交流，详细询问市场行情。他强调，义乌小商品闯出了大市场、做成了大产业，走到这一步很了不起，每个人都是参与者、建设者、贡献者。商贸城要再创新辉煌，为拓展国内国际市场、畅通国内国际双循环作出更大贡献。', '今年是毛泽东同志批示学习推广“枫桥经验”60周年。20日下午，习近平来到“枫桥经验”发源地诸暨市枫桥镇，参观枫桥经验陈列馆，了解新时代“枫桥经验”的生动实践。习近平指出，要坚持好、发展好新时代“枫桥经验”，坚持党的群众路线，正确处理人民内部矛盾，紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态。', '随后，习近平乘车来到位于绍兴的浙东运河文化园考察。他步行察看古运河河道和周边历史文化遗存，详细了解浙东运河发展演变史和当地合理利用水资源、推进大运河保护等情况。习近平强调，大运河是世界上最长的人工运河，是十分宝贵的文化遗产。大运河文化是中国优秀传统文化的重要组成部分，要在保护、传承、利用上下功夫，让古老大运河焕发时代新风貌。', '21日下午，习近平听取了浙江省委和省政府工作汇报，对浙江各项工作取得的成绩给予肯定，对浙江提出了新要求。', '习近平指出，浙江要在以科技创新塑造发展新优势上走在前列。要把增强科技创新能力摆到更加突出的位置，整合科技创新力量和优势资源，在科技前沿领域加快突破。强化企业科技创新主体地位，推动创新链产业链资金链人才链深度融合，加快科技成果落地转化。把实体经济作为构建现代化产业体系的根基，引导和支持传统产业加快应用先进适用技术，推动制造业高端化、智能化、绿色化发展。深化国家数字经济创新发展试验区建设，打造一批具有国际竞争力的战略性新兴产业集群和数字产业集群。加强科技基础能力建设，深化科技体制改革，打造科创高地。从全球视野布局产业链供应链建设，不断提升产业链供应链韧性和安全水平。坚定不移推动发展方式绿色转型，建立完善绿色低碳循环发展的经济体系。', '习近平强调，浙江要在推进共同富裕中先行示范。要把缩小城乡差距、地区差距、收入差距作为主攻方向，进一步健全城乡融合发展体制机制。坚持就业优先政策，在推动传统产业转型升级和发展新兴产业中注重扩大就业容量，解决好重点群体就业问题。深化收入分配制度改革，健全多层次社会保障体系。全面推进乡村振兴，积极发展乡村特色产业，深化“千村示范、万村整治”工程。加强平安浙江、法治浙江建设，在推进基层治理体系和治理能力现代化上创造更多经验。', '习近平指出，浙江要在深化改革、扩大开放上续写新篇。要以重点领域改革为牵引，全面推进各领域体制机制创新。以服务全国、放眼全球的视野来谋划改革，稳步扩大规则、规制、管理、标准等制度型开放。发挥各种开放平台的功能作用，创新利用外资、做大外贸的方法和渠道。主动适应国际经贸规则重构走向，在服务业开放、数字化发展、环境保护等方面先行先试。坚持“两个毫不动摇”、“三个没有变”，鼓励和支持民营企业积极参与全球范围产业分工和资源配置，提升核心竞争力。', '习近平强调，浙江要在建设中华民族现代文明上积极探索。要更好担负起新时代新的文化使命，赓续历史文脉，加强文化遗产保护，推动优秀传统文化创造性转化、创新性发展。坚守中华文化立场，积极发展反映时代要求、具有时代特色的新文化，发展中华文明的现代形态。弘扬伟大建党精神，广泛培育和践行社会主义核心价值观，发展社会主义先进文化。繁荣发展文化事业和文化产业，持续推进城乡公共文化服务标准化、均等化，加强公民道德建设，推进书香社会建设。运用杭州亚运会亚残运会、世界互联网大会等窗口加强文化交流传播，不断提升中国文化感染力和中华文明影响力。', '习近平指出，要坚持和加强党的全面领导、加强和改进党的建设。树立正确政绩观，坚持立足实际、科学决策，坚持着眼长远、打牢基础，坚持干在实处、务求实效，防止形式主义、官僚主义。加强干部教育培训和实践锻炼，健全干部担当作为激励保护机制，激发干部干事创业活力，构建亲清统一的新型政商关系。各级党组织要加强对第二批主题教育的组织领导和工作指导，把握不同层级、不同领域、不同对象的特点，结合实际，分类指导，上下联动抓整改，让群众看到实效。', '9月24日下午，在返京途中，习近平在山东省委书记林武和省长周乃翔陪同下来到枣庄市考察。枣庄是我国石榴集中连片种植面积最大、品种最多、产业链最完整的地区之一。习近平来到位于峄城区的冠世榴园石榴种质资源库，察看石榴树种，了解当地石榴种植历史、种质资源收集保存和产业发展情况，并来到石榴种植园中向老乡们询问今年石榴种植、收获和收入情况。得知当地大力发展石榴深加工和石榴盆栽培育有力带动了农民增收，习近平很高兴。他指出，人们生活水平在提高，优质特产市场需求在增长，石榴产业有发展潜力。要做好品牌、提升品质，延长产业链，增强产业市场竞争力和综合效益，带动更多乡亲共同致富。祝乡亲们生活像石榴果一样红红火火。', '李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。', '正在阅读：习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>97</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>习近平在上海考察时强调聚焦建设五个中心重要使命加快建成社会主义现代化国际大都市返京途中在江苏盐城考察</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21157001.html</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['习近平在上海考察时强调 聚焦建设“五个中心”重要使命 加快建成社会主义现代化国际大都市 返京途中在江苏盐城考察_马鞍山市人民政府', '习近平在上海考察时强调 聚焦建设“五个中心”重要使命 加快建成社会主义现代化国际大都市 返京途中在江苏盐城考察', '新华社上海/江苏盐城12月3日电 中共中央总书记、国家主席、中央军委主席习近平近日在上海考察时强调，上海要完整、准确、全面贯彻新发展理念，围绕推动高质量发展、构建新发展格局，聚焦建设国际经济中心、金融中心、贸易中心、航运中心、科技创新中心的重要使命，以科技创新为引领，以改革开放为动力，以国家重大战略为牵引，以城市治理现代化为保障，勇于开拓、积极作为，加快建成具有世界影响力的社会主义现代化国际大都市，在推进中国式现代化中充分发挥龙头带动和示范引领作用。', '11月28日至12月2日，习近平在中共中央政治局委员、上海市委书记陈吉宁和市长龚正陪同下，先后来到金融机构、科技创新园区、保障性租赁住房项目等进行调研。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在上海期货交易所考察。新华社记者 王晔 摄', '28日下午，习近平一下列车就前往上海期货交易所考察。他结合电子屏幕和重要上市品种交割品展示，听取交易所增强全球资源配置能力、服务实体经济和国家战略等情况介绍，了解交易所日常资金管理和交割结算等事项。习近平强调，上海建设国际金融中心目标正确、步伐稳健、前景光明，上海期货交易所要加快建成世界一流交易所，为探索中国特色期货监管制度和业务模式、建设国际金融中心作出更大贡献。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在浦东新区张江科学城参观上海科技创新成果展。新华社记者 谢环驰 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在浦东新区张江科学城参观上海科技创新成果展。新华社记者 王晔 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在浦东新区张江科学城参观上海科技创新成果展时，同科研人员代表亲切交流。新华社记者 鞠鹏 摄', '习近平随后乘车来到浦东新区张江科学城，参观上海科技创新成果展。他结合视频短片了解上海市科技创新整体情况，走进展厅详细察看基础研究、人工智能、生物医药等领域的科技创新成果展示，并同科研人员代表亲切交流。习近平指出，推进中国式现代化离不开科技、教育、人才的战略支撑，上海在这方面要当好龙头，加快向具有全球影响力的科技创新中心迈进。要着力造就大批胸怀使命感的尖端人才，为他们发挥聪明才智创造良好条件。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家考察时，在社区宿舍型出租房源租户的住房，了解在此居住的城市一线工作者的生活状况。新华社记者 鞠鹏 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家公共厨房考察。新华社记者 谢环驰 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，同社区居民亲切交流。新华社记者 王晔 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，同社区居民亲切交流。新华社记者 谢环驰 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，向社区居民挥手致意。新华社记者 申宏 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，向社区居民挥手致意。新华社记者 王晔 摄', '近年来，上海市加快保障性租赁住房建设，为许多来沪新市民、青年人和一线务工人员提供了住房保障。29日下午，习近平到闵行区新时代城市建设者管理者之家考察。听了当地加大保障性租赁住房筹措建设力度、构建“一张床、一间房、一套房”多层次租赁住房供应体系的情况介绍，习近平给予充分肯定。他先后走进社区住宅型、宿舍型出租房源租户的住房和公共厨房、公共洗衣房等共享空间，仔细了解在此居住的城市一线工作者的生活状况。总书记无微不至的殷切关怀，让在场所有人感动。离开时，社区居民纷纷围拢过来欢送总书记。习近平说，看到来自五湖四海的建设者在这里安居乐业，感到很高兴。城市不仅要有高度，更要有温度。我们的社会主义就是要走共同富裕的路子。外来务工人员来上海作贡献，同样是城市的主人。要践行人民城市理念，不断满足人民群众对住房的多样化、多元化需求，确保外来人口进得来、留得下、住得安、能成业。', '12月1日上午，习近平听取了上海市委和市政府工作汇报，对上海各项工作取得的成绩给予肯定。', '习近平指出，加快建设“五个中心”，是党中央赋予上海的重要使命。上海要以此为主攻方向，统筹牵引经济社会发展各方面工作，坚持整体谋划、协同推进，重点突破、以点带面，持续提升城市能级和核心竞争力。要以科技创新为引领，加强关键核心技术攻关，促进传统产业转型升级，加快培育世界级高端产业集群，加快构建现代化产业体系，不断提升国际经济中心地位和全球经济治理影响力。要加强现代金融机构和金融基础设施建设，实施高水平金融对外开放，更好服务实体经济、科技创新和共建“一带一路”。要深入实施自由贸易试验区提升战略，推动国际贸易中心提质升级。要加快补齐高端航运服务等方面的短板，提升航运资源全球配置能力。要推进高水平人才高地建设，营造良好创新生态。要加强同长三角区域联动，更好发挥辐射带动作用。', '习近平强调，上海作为我国改革开放的前沿阵地和深度链接全球的国际大都市，要在更高起点上全面深化改革开放，增强发展动力和竞争力。要全方位大力度推进首创性改革、引领性开放，加强改革系统集成，扎实推进浦东新区综合改革试点，在临港新片区率先开展压力测试，稳步扩大规则、规制、管理、标准等制度型开放，深入推进跨境服务贸易和投资高水平开放，提升制造业开放水平，进一步提升虹桥国际开放枢纽能级，继续办好进博会等双向开放大平台，加快形成具有国际竞争力的政策和制度体系。要坚持“两个毫不动摇”，深化国资国企改革，落实保障民营企业公平参与市场竞争的政策措施，打造国际一流营商环境，激发各类经营主体活力，增强对国内外高端资源的吸引力。', '习近平指出，要全面践行人民城市理念，充分发挥党的领导和社会主义制度的显著优势，充分调动人民群众积极性主动性创造性，在城市规划和执行上坚持一张蓝图绘到底，加快城市数字化转型，积极推动经济社会发展全面绿色转型，全面推进韧性安全城市建设，努力走出一条中国特色超大城市治理现代化的新路。要把增进民生福祉作为城市建设和治理的出发点和落脚点，把全过程人民民主融入城市治理现代化，构建人人参与、人人负责、人人奉献、人人共享的城市治理共同体，打通服务群众的“最后一公里”，认真解决涉及群众切身利益的问题，坚持和发展新时代“枫桥经验”，完善基层治理体系，筑牢社会和谐稳定的基础。', '习近平强调，要贯彻新时代中国特色社会主义文化思想，深化文化体制改革，激发文化创新创造活力，大力提升文化软实力。坚持不懈用新时代中国特色社会主义思想凝心铸魂，广泛践行社会主义核心价值观，巩固马克思主义在意识形态领域的指导地位，在各种文化交汇融合中进一步壮大主流价值、主流舆论、主流文化。要注重传承城市文脉，加强文物和文化遗产保护，传承弘扬红色文化，深入实施文化惠民工程，扎实推进群众性精神文明创建，深化拓展新时代文明实践中心建设，推进书香社会建设，全面提升市民文明素质和城市文明程度。', '习近平指出，坚持党的领导是中国式现代化的本质要求，也是根本保证。上海是我们党的诞生地，要用好一大会址等红色资源，弘扬伟大建党精神，教育引导广大党员、干部牢记“三个务必”，在新征程上开拓创新、奋发进取、真抓实干。要贯彻新时代党的组织路线，落实新时代好干部标准，建设一支与社会主义现代化国际大都市相匹配的高素质专业化干部队伍。要把握超大城市特点，创新基层党建工作思路和模式，完善党的基层组织体系。要坚决反对和惩治腐败，一体推进不敢腐、不能腐、不想腐，保持风清气正的政治生态。第二批主题教育临近收官，要坚持标准不降、劲头不松，把主题教育同各方面工作结合起来，做到两手抓、两不误、两促进。', '12月3日，中共中央总书记、国家主席、中央军委主席习近平在上海考察结束返京途中，来到江苏省盐城市参观新四军纪念馆。新华社记者 王晔 摄', '12月3日上午，在返京途中，习近平在江苏省委书记信长星和省长许昆林陪同下，来到盐城市参观新四军纪念馆。展厅里，一张张照片、一份份史料、一件件文物、一个个模拟实景，完整展现了新四军浴火重生、浴血奋战的光辉历史。习近平不时驻足察看、同大家交流。他强调，新四军的历史充分说明，民心向背决定着历史的选择，江山就是人民、人民就是江山。这是开展革命传统教育、爱国主义教育的生动教材，要用好这一教材，教育引导党员、干部传承发扬不怕困难、不畏艰险，勇于斗争、敢于胜利的精神，紧紧依靠人民，把强国建设、民族复兴伟业不断推向前进。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。', '正在阅读：习近平在上海考察时强调 聚焦建设“五个中心”重要使命 加快建成社会主义现代化国际大都市 返京途中在江苏盐城考察', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>97</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>习近平在四川考察时强调推动新时代治蜀兴川再上新台阶奋力谱写中国式现代化四川新篇章返京途中在陕西汉中考察</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2023-07-30</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21098171.html</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察_马鞍山市人民政府', '习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察', '中共中央总书记、国家主席、中央军委主席习近平近日在四川考察时强调，全面学习贯彻党的二十大精神，要牢牢把握新时代新征程党的中心任务，牢牢把握中国式现代化的科学内涵和本质要求，牢牢把握高质量发展这个首要任务，把贯彻新发展理念、构建新发展格局、促进共同富裕贯穿经济社会发展各方面全过程，深入推进发展方式、发展动力、发展领域、发展质量变革，开创我国高质量发展新局面。四川要进一步从全国大局把握自身的战略地位和战略使命，立足本地实际，明确发展思路和主攻方向，锻长板、补短板，努力在提高科技创新能力、建设现代化产业体系、推进乡村振兴、加强生态环境治理等方面实现新突破，推动新时代治蜀兴川再上新台阶，奋力谱写中国式现代化四川新篇章。', '7月25日至27日，习近平在四川省委书记王晓晖和省长黄强陪同下，先后来到广元、德阳等地进行调研。', '25日下午，习近平首先来到广元市剑阁县考察了翠云廊。这里是古代关中平原通往四川盆地古蜀道的重要路段，有迄今保存最完好的古代人工栽植驿道古柏群。习近平听取古蜀道发展历程、翠云廊整体情况介绍，沿古道步行察看千年古柏长势，详细询问历史上植柏护柏情况。他指出，这片全世界最大的人工古柏林，之所以能够延续得这么久、保护得这么好，得益于明代开始颁布实行“官民相禁剪伐”、“交树交印”等制度，一直沿袭至今、相习成风，更得益于当地百姓世代共同守护。这启示我们，抓生态文明建设必须搭建好制度框架，抓好制度执行，同时充分调动广大人民群众的积极性主动性创造性，巩固发展新时代生态文明建设成果。临行前，他嘱咐当地负责同志，要把古树名木保护好，把中华优秀传统文化传承好。', '位于德阳市广汉市西北鸭子河南岸的三星堆遗址，代表了数千年前的古蜀文明面貌和发展水平，是同时期长江流域文化内涵最丰富、面积最大的都城遗址。26日下午，习近平来到三星堆博物馆新馆，参观“世纪逐梦”、“巍然王都”、“天地人神”等展陈，了解三星堆遗址发掘历程和古蜀文明成果。在三星堆博物馆文物保护与修复馆，习近平走进文保修复工作区，仔细察看文物保护修复工作流程细节和最新技术，同现场工作人员亲切交流。习近平指出，三星堆遗址考古成果在世界上是叫得响的，展现了四千多年前的文明成果，为中华文明多元一体、古蜀文明与中原文明相互影响等提供了更为有力的考古实证。文物保护修复是一项长期任务，要加大国家支持力度，加强人才队伍建设，发扬严谨细致的工匠精神，一件一件来，久久为功，做出更大成绩。习近平代表党中央，对三星堆博物馆新馆的落成使用表示热烈祝贺，向广大考古工作者表示衷心感谢和崇高敬意！', '27日上午，习近平听取了四川省委和省政府工作汇报，对四川各项工作取得的成绩给予肯定，希望四川在推进科技创新和科技成果转化上同时发力，在建设现代化产业体系上精准发力，在推进乡村振兴上全面发力，在筑牢长江黄河上游生态屏障上持续发力。', '习近平指出，以科技创新开辟发展新领域新赛道、塑造发展新动能新优势，是大势所趋，也是高质量发展的迫切要求，必须依靠创新特别是科技创新实现动力变革和动能转换。四川要发挥高校和科研机构众多、创新人才集聚的优势和产业体系较为完善、产业基础雄厚的优势，在科技创新和科技成果转化上同时发力。要完善科技创新体系，积极对接国家战略科技力量和资源，优化完善创新资源布局，努力攻克一批关键核心技术，着力打造西部地区创新高地。', '习近平强调，四川是我国发展的战略腹地，在国家发展大局特别是实施西部大开发战略中具有独特而重要的地位。要依托制造业的独特优势，积极服务国家产业链供应链安全，高质量对接东部沿海地区产业新布局。要把发展特色优势产业和战略性新兴产业作为主攻方向，加快改造提升传统产业，前瞻部署未来产业，促进数字经济与实体经济深度融合，构建富有四川特色和优势的现代化产业体系。要科学规划建设新型能源体系，促进水风光氢天然气等多能互补发展。要强化粮食和战略性矿产资源等生产供应，打造保障国家重要初级产品供给战略基地。要坚持“川渝一盘棋”，加强成渝区域协同发展，构筑向西开放战略高地和参与国际竞争新基地，尽快成为带动西部高质量发展的重要增长极和新的动力源。', '习近平指出，要巩固脱贫攻坚成果，把乡村振兴摆在治蜀兴川的突出位置，更好扛起粮食、生猪、油料等重要农产品稳产保供责任。要抓住种子和耕地两个要害，加强良种和良田的配套，打造新时代更高水平的“天府粮仓”。要在产业发展、乡村建设、乡村治理等方面，聚焦群众反映强烈、能抓得住、抓几年就能见到成效的几件事，集中资源，加快突破，形成标志性成果。要学习运用浙江“千万工程”经验，聚焦小切口，锲而不舍、久久为功。农村宅基地改革要守住底线。要把住土地流转关，不能借流转之机搞“非农化”。要加强社会保障体系城乡统筹，推动基本公共服务城乡均等化。', '习近平强调，四川是长江上游重要的水源涵养地、黄河上游重要的水源补给区，也是全球生物多样性保护重点地区，要把生态文明建设这篇大文章做好。要坚持山水林田湖草沙一体化保护和系统治理，强化国土空间管控和负面清单管理，严格落实自然保护地、生态保护红线监管制度。要加快建立以国家公园为主体的自然保护地体系。要推行草原森林河流湖泊湿地休养生息。要加快调整优化产业结构、能源结构、交通运输结构、用地结构，推进资源集约节约利用，积极倡导绿色低碳生产生活方式。要以更高标准打好蓝天、碧水、净土保卫战，积极探索生态产品价值实现机制，完善生态保护补偿机制，提升生态环境治理现代化水平。', '习近平指出，四川是自然灾害频发之地，要健全应急管理体系，加强应急力量建设，形成长效机制，系统提升防灾减灾救灾能力。7、8月份长江流域进入主汛期，要全面落实防汛救灾主体责任，做好防汛抗洪救灾各项应对准备工作。要科学救灾，防止发生次生灾害，最大限度减少人员伤亡和财产损失，尽快恢复正常生产生活秩序。要落实落细安全生产责任制，全面排查安全生产隐患，坚决防范和遏制重特大安全生产事故发生，切实保障人民生命财产安全。', '习近平强调，第一批主题教育只剩下一个多月时间，各级党组织要落实党中央部署，善始善终、慎终如始，务求实效。要对主题教育的实效进行科学、客观评估。检验理论学习成效，要看党的创新理论是否入心见行、党员干部是否做到善思善用；检验调查研究成效，要看是否摸清社情民意、是否解决实际问题；检验推动发展成效，要看高质量发展是否有新突破、人民生活品质是否有新提升；检验检视整改成效，要看问题症结是否找准、整改整治是否到位；检验干部队伍教育整顿成效，要看思想不纯和组织不纯现象是否纠正、政治隐患是否消除。评估成效要用事实说话，开门抓评估，让群众评价，确保评估客观真实。评估主题教育成效，很重要的一个方面是看形式主义、官僚主义是否得到有效解决，要对形式主义、官僚主义的东西来一次检视，分析根源，对症下药，切实改出实效。要开好领导班子专题民主生活会和基层党组织组织生活会，结合学查改开展批评和自我批评。', '习近平十分关心汉江流域历史文化传承和生态保护。7月29日，在返京途中，习近平走下列车，在陕西省委书记赵一德、省长赵刚陪同下，来到汉中市考察。习近平参观汉中市博物馆有关历史文物展陈，了解汉中历史文化、文物保护情况。他指出，文物承载灿烂文明，传承历史文化，维系民族精神。要发挥好博物馆保护、传承、研究、展示人类文明的重要作用，守护好中华文脉，并让文物活起来，扩大中华文化的影响力。汉中藤编等非物质文化遗产久负盛名，要发展壮大特色产业，更好带动群众增收致富。离开博物馆时，附近的乡亲们围拢过来热情欢呼“总书记好”。习近平亲切地对大家说，我在2008年汶川大地震抗震救灾时来过汉中，这些年一直牵挂着这里。这次来，看到这里发展变化很大，城市井然有序，很欣慰。他祝愿大家工作好、生活好、家庭幸福。', '途中，习近平考察了地处汉江汉中城区段的天汉湿地公园，称赞这里是市民“幸福园”。习近平强调，汉江及其支流是南水北调中线工程的主要水源汇集区和供给地，保护好这一区域的湿地资源责任重大、意义深远。生态公园建设要顺应自然，加强湿地生态系统的整体性保护和系统性修复，促进生态保护同生产生活相互融合，努力建设环境优美、绿色低碳、宜居宜游的生态城市。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十二指导组负责同志参加汇报会。', '正在阅读：习近平在四川考察时强调 推动新时代治蜀兴川再上新台阶 奋力谱写中国式现代化四川新篇章 返京途中在陕西汉中考察', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>97</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>习近平在内蒙古考察时强调把握战略定位坚持绿色发展奋力书写中国式现代化内蒙古新篇章</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21061041.html</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['习近平在内蒙古考察时强调：把握战略定位坚持绿色发展奋力书写中国式现代化内蒙古新篇章_马鞍山市人民政府', '习近平在内蒙古考察时强调：把握战略定位坚持绿色发展奋力书写中国式现代化内蒙古新篇章', '习近平在内蒙古考察时强调 把握战略定位坚持绿色发展 奋力书写中国式现代化内蒙古新篇章 蔡奇陪同考察', '新华社呼和浩特6月8日电 中共中央总书记、国家主席、中央军委主席习近平近日在内蒙古考察时强调，要牢牢把握党中央对内蒙古的战略定位，完整、准确、全面贯彻新发展理念，紧紧围绕推进高质量发展这个首要任务，以铸牢中华民族共同体意识为主线，坚持发展和安全并重，坚持以生态优先、绿色发展为导向，积极融入和服务构建新发展格局，在建设“两个屏障”、“两个基地”、“一个桥头堡”上展现新作为，奋力书写中国式现代化内蒙古新篇章。', '6月7日至8日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古考察。这是7日下午，习近平在呼和浩特中环产业园考察。新华社记者 谢环驰 摄', '6月7日至8日，习近平在巴彦淖尔市考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会后，在内蒙古自治区党委书记孙绍骋、自治区人民政府主席王莉霞陪同下，来到呼和浩特市调研。', '7日下午，习近平来到中环产业园考察。在园区展厅，习近平听取当地发展新能源新材料产业、促进产业结构优化调整、推动绿色低碳发展等情况介绍。随后，习近平来到生产车间实地察看产品生产流程，详细了解园区企业半导体和光伏材料等产品的研发生产情况。他强调，坚持绿色发展是必由之路。推动传统能源产业转型升级，大力发展绿色能源，做大做强国家重要能源基地，是内蒙古发展的重中之重。在这方面内蒙古方向明确、路子对头、前景很好，大有作为、大有前途。离开园区时，习近平亲切地对前来欢送的企业员工说，你们企业和园区办得不错，看了感到很提气。现在，我们要靠高水平科技自立自强、构建新发展格局来攻克科技难关。构建国内大循环是为了保证极端情况下国民经济能够正常运行，这同参与国际经济循环是不矛盾的。我们坚定不移实行高水平对外开放，敞开大门搞建设，一起合作实现共赢。习近平祝愿企业和员工继续努力，芝麻开花节节高，更上一层楼。', '8日上午，习近平听取内蒙古自治区党委和政府工作汇报，对内蒙古各项工作取得的成绩给予肯定。', '习近平强调，要加快优化产业结构，积极发展优势特色产业。内蒙古是国家重要能源和战略资源基地、农畜产品生产基地和我国向北开放重要桥头堡，优化产业结构必须立足这些禀赋特点和战略定位，大力发展优势特色产业，积极探索资源型地区转型发展新路径，加快构建体现内蒙古特色优势的现代化产业体系。要发挥好能源产业优势，把现代能源经济这篇文章做好。要发挥好战略资源优势，加强战略资源的保护性开发、高质化利用、规范化管理，加强能源资源的就地深加工，把战略资源产业发展好。要发挥好农牧业优势，从土地、科技、种源、水、草等方面入手，稳步优化农牧业区域布局和生产结构，推动农牧业转型发展，大力发展生态农牧业，抓好农畜产品精深加工和绿色有机品牌打造，促进一二三产业融合发展，推动农牧业高质量发展。要积极参与共建“一带一路”和中蒙俄经济走廊建设，提升对外开放水平，构筑我国向北开放的重要桥头堡，在联通国内国际双循环中发挥更大作用。要加强与京津冀、长三角、粤港澳大湾区和东三省的联通，更好融入国内国际双循环。', '6月7日至8日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古考察。这是8日上午，习近平在呼和浩特听取内蒙古自治区党委和政府工作汇报并发表重要讲话。新华社记者 鞠鹏 摄', '习近平指出，筑牢我国北方重要生态安全屏障，是内蒙古必须牢记的“国之大者”。要统筹山水林田湖草沙综合治理，精心组织实施京津风沙源治理、“三北”防护林体系建设等重点工程，加强生态保护红线管理，落实退耕还林、退牧还草、草畜平衡、禁牧休牧，强化天然林保护和水土保持，持之以恒推行草原森林河流湖泊湿地休养生息，加快呼伦湖、乌梁素海、岱海等水生态综合治理，加强荒漠化治理和湿地保护，加强大气、水、土壤污染防治，在祖国北疆构筑起万里绿色长城。要进一步巩固和发展“绿进沙退”的好势头，分类施策、集中力量开展重点地区规模化防沙治沙，不断创新完善治沙模式，提高治沙综合效益。', '习近平强调，从全国来看，推动全体人民共同富裕，最艰巨的任务在一些边疆民族地区。这些边疆民族地区在走向共同富裕的道路上不能掉队。要坚持以人民为中心，在发展中更加注重保障和改善民生，补齐民生短板，增进民生福祉，让各族人民实实在在感受到推进共同富裕在行动、在身边。要全面落实就业优先政策，把推动实现更加充分更高质量的就业摆在突出位置，完善政策体系，强化培训服务，精准有效实施减负稳岗扩就业各项政策措施，支持多渠道灵活就业，重点抓好高校毕业生、退役军人、农民工等群体就业。要开拓就业渠道，加强对脱贫家庭、低保家庭、零就业家庭、残疾人等困难人员就业兜底帮扶。要健全多层次社会保障体系，推动参保扩面，加大社会救助、医疗救助、低保和困难家庭保障扶持措施，发展养老事业和养老产业。要巩固拓展脱贫攻坚成果，把促进脱贫县加快发展作为主攻方向，增强脱贫地区和脱贫群众内生发展动力，坚决守住不发生规模性返贫底线。要以“时时放心不下”的责任感抓好安全生产，把制度完善起来，把责任落实下去，尽最大努力防范各类重大安全事故的发生，维护好人民群众生命财产安全。', '习近平指出，铸牢中华民族共同体意识是新时代党的民族工作的主线，也是民族地区各项工作的主线。民族地区的经济建设、政治建设、文化建设、社会建设、生态文明建设和党的建设等，都要紧紧围绕、毫不偏离这条主线。无论是出台法律法规还是政策措施，都要着眼于强化中华民族的共同性、增强中华民族共同体意识。要坚定不移全面推行使用国家统编教材，确保各民族青少年掌握和使用好国家通用语言文字。要统筹城乡建设布局规划和公共服务资源配置，创造更加完善的各族群众共居共学、共建共享、共事共乐的社会条件。', '6月7日至8日，中共中央总书记、国家主席、中央军委主席习近平在内蒙古考察。这是8日上午，习近平在呼和浩特听取内蒙古自治区党委和政府工作汇报并发表重要讲话。新华社记者 谢环驰 摄', '习近平强调，通过集中教育推动全党以自我革命精神解决党风方面的突出问题，是一条重要历史经验。人民群众看主题教育是否有成效，最直观的感受是看党风方面存在的问题是否得到解决、党员干部作风是否有明显进步。要抓实以学正风，坚持目标导向和问题导向相结合、学查改相贯通，对标党风要求找差距、对表党性要求查根源、对照党纪要求明举措，增强检视整改实效。要大兴务实之风，抓好调查研究，在察实情、出实招、求实效上下功夫，把工作抓实、基础打实、步子迈实，在力戒形式主义、官僚主义上取得明显实质性进展，以这次主题教育为契机，将调查研究发扬光大。要弘扬清廉之风，教育各级领导干部牢固树立正确权力观，全面查找廉洁风险点，筑牢思想防线，坚守法纪红线。要按照“三不腐”要求健全相关制度、严格执纪，建好护栏。要养成俭朴之风，把生活作风问题作为检视整改的重要内容，督促广大党员干部保持清醒头脑，筑牢贯彻落实中央八项规定及实施细则精神的堤坝。', '李干杰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第一指导组负责同志参加汇报会。', '正在阅读：习近平在内蒙古考察时强调：把握战略定位坚持绿色发展奋力书写中国式现代化内蒙古新篇章', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>97</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>把中国式现代化的美好图景一步步变为现实习近平总书记考察江苏纪实</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21082681.html</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['"把中国式现代化的美好图景一步步变为现实"——习近平总书记考察江苏纪实_马鞍山市人民政府', '新华社南京7月8日电 题：“把中国式现代化的美好图景一步步变为现实”——习近平总书记考察江苏纪实', '江苏，汇通江淮之气概、畅达黄海之辽阔，以占全国1%的陆域面积、6%的人口，创造了10%以上的经济总量，在我国改革开放和社会主义现代化建设全局中具有重要地位。', '今年3月5日，十四届全国人大一次会议开幕当天，习近平总书记来到他所在的江苏代表团参加审议，发表重要讲话，勉励江苏“在高质量发展上继续走在前列”。', '时隔4个月，7月5日到7日，习近平总书记赴江苏苏州、南京等地考察调研，并听取了省委和省政府工作汇报。这也是党的十八大以来，总书记第四次来到江苏。', '“江苏一直是我的关注点、调研点和研究点，早在正定工作时，我就曾到江苏调研过。我对这里的关注，始终是进行时。”', '此次考察中，习近平总书记要求江苏在推进中国式现代化中走在前、做示范，谱写“强富美高”新江苏现代化建设新篇章，同时要求各地全面把握中国式现代化的科学内涵和本质要求，立足实际，发挥自身优势和特色，稳步前进，把中国式现代化的美好图景一步步变为现实。', '苏州城东，金鸡湖畔，苏州新地标“东方之门”高耸入云，见证了这座古老历史名城的现代蝶变。', '5日下午，习近平总书记刚刚抵达苏州，即乘车前往苏州工业园区。车窗外，视野所及，高楼大厦鳞次栉比，生动诠释着这座“创新之城，非凡园区”的澎湃活力。', '上世纪90年代，一项中国和新加坡政府间的重要合作项目——中新苏州工业园区落地苏州。', '近30年来，姑苏城外的水田鱼塘发生沧桑巨变，成为一座现代化高科技园区：集聚近2500家国家级高新技术企业、62家上市企业，累计创造近1.5万亿美元的进出口总值，在商务部国家级经开区综合发展水平考评中实现“七连冠”。', '拼版照片：上图为1994年绘制的苏州工业园区手绘规划图；中图为2007年拍摄的苏州工业园区；下图为2023年7月4日无人机拍摄的苏州工业园区（新华社记者 李博 摄）。新华社发', '展板上印着三张图片：一张是1994年园区成立时的手绘规划图，另外两张分别是2012年和2022年拍摄的园区实景。今昔对比，实景照片同规划图惊人地相似。', '180吨级新能源电驱动系统，可折叠卷曲柔性屏，硅立方浸没液冷计算机，纳米真空互联实验站……展厅里，苏州在高端装备制造、新一代信息技术、纳米新材料、生物医药等领域的“明星产品”琳琅满目，总书记边走边看。', '在一款国产人工心脏——“植入式左心室辅助系统”前，总书记停下脚步，仔细察看运行原理。当听到已有100多位病人用上了这个设备，最早一例患者目前已使用6年多，总书记十分高兴。', '今年全国两会期间，习近平总书记参加江苏代表团审议时，寄语江苏要“着力打造具有全球影响力的产业科技创新中心”。如今，苏州工业园区瞄准这个目标，细化了到2025年的行动方案和具体指标。', '总书记勉励道：“我国经济要往上发展，实现高质量发展，成为一个经济强国，就要靠科技。我曾讲，要把苏州工业园区建成具有国际影响力的科技创新中心。你们承担着这样的历史使命，既重大又光荣。”', '位于园区内的苏州华兴源创科技股份有限公司，是中国科创板第一家上市企业。精耕于半导体检测设备，这家企业在细分领域赛道上跑出了核心竞争力。', '走进企业研发车间、光电实验室，尖端仪器设备旁一张张年轻面孔让习近平总书记十分欣慰：“都很有朝气啊！”', '企业负责人介绍，公司员工平均年龄只有32岁。他们还以年轻人为主力成立了一个“珠峰事业部”，加快核心技术攻关，勇攀科学技术高峰。', '面对朝气蓬勃的企业员工，习近平总书记说：“国家要实现科技自立自强，你们生逢其时，正是大显身手的时候，一定要把握历史机遇。将来，你们一定会为自己对民族复兴所作的贡献而自豪！”', '7日上午，在听取江苏省委和省政府工作汇报时，习近平总书记谈及此行感受，认为苏州工业园区在科技创新、高质量发展上确实是走在前列：“值得看，看了让我对实现高水平科技自立自强有了底气。”', '“中国式现代化关键在科技现代化。”习近平总书记对江苏寄予厚望，希望江苏在科技创新上率先取得新突破，打造全国重要的产业科技创新高地，使高质量发展更多依靠创新驱动的内涵型增长。', '今年6月，习近平总书记在文化传承发展座谈会上，首次阐释“建设中华民族现代文明”的重大命题。', '一个多月后，习近平总书记来到古城苏州，实地考察古城保护和文化传承并深刻指出，建设中华民族现代文明，是推进中国式现代化的必然要求，是社会主义精神文明建设的重要内容。', '从春秋伍子胥建阖闾大城至今，苏州已有2500多年建城史。时间流淌，这座城市的历史和文化记忆得以保存延续。', '城门排列、街巷纵横、水道交错，历经岁月沧桑，如今的姑苏古城与《平江图》里的整体布局基本一致。一头是古城最高点，始建于南朝梁时的北寺塔，另一头是苏州工业园区拔地而起的摩天大楼，二者穿越时空、遥相呼应。', '游客乘船在苏州平江历史文化街区休闲游玩（2023年7月3日摄）。新华社记者 李博 摄', '沿着石板路，总书记走进古街巷。小桥流水，河街相邻，白墙黛瓦，移步换景，正是典型的江南水城风貌。', '在街边一家商铺内，总书记见到了苏绣代表性传承人卢建英。一架绣绷、一副眼镜、一枚钢针、一缕丝线，心静如水地飞针走线之间，一幅“太平鸟”图案栩栩如生。', '卢建英深研刺绣技艺30多年。她向总书记展示了自己分别和母亲、女儿合作的两幅作品：“已经传到第四代了，女儿是学绘画设计的，也爱这行，可以结合传统进行创新。”', '总书记十分感慨：“中华文化的传承力有多强，通过这个苏绣就可以看出来。像这样的功夫，充分体现出中国人的韧性、耐心和定力，这是中华民族精神的一部分。”', '非遗传承人乔兰蓉正在店内制作桃花坞木版年画，见到总书记来了，热情邀请总书记体验一下。将颜料均匀平刷在雕版上，再小心套印在画稿上……一幅苏州地区极具代表性的年画作品《一团和气》跃然纸上。总书记说：“《一团和气》年画寓意很好，我们要推动形成一团和气的社会氛围！”', '当地负责同志告诉总书记，苏州除了苏州园林、大运河苏州段两项世界文化遗产，还有七项世界非物质文化遗产。', '“住在这里很有福气，古色古香，到处都是古迹、到处都是名胜、到处都是文化。‘百步之内，必有芳草’，这句话可以用在这里。”总书记说。', '“上有呀天堂，下呀有苏杭，城里有园林，城外有水乡……”吴侬软语，百转千回，韵味悠长。一曲《苏州好风光》唱完，总书记带头鼓起掌来。', '“我慕名而来，昨天看了苏州工业园区，今天又来看了苏州的优秀传统文化。苏州在传统与现代的结合上做得很好，这里不仅有历史文化的传承，而且有高科技创新和高质量发展，代表未来的发展方向。平江历史文化街区是传承弘扬中华优秀传统文化、加强社会主义精神文明建设的宝贵财富，要保护好、挖掘好、运用好，不仅要在物质形式上传承好，更要在心里传承好。”', '80岁的刘韵洁院士头发已经花白，但谈起正在从事的科技事业却饱含激情。他难以忘记8年前同总书记的那次见面：2014年12月13日，习近平总书记在南京市考察江苏省产业技术研究院，听取了刘韵洁院士关于研发工作的汇报。', '6日下午，在位于南京市江宁区的紫金山实验室，再次见到习近平总书记，刘韵洁院士十分激动：“我们以十年磨一剑的坚持，初步攻克了一系列核心技术。”', '了解到这个团队通过推进关键技术攻关，不仅实现传输速率、系统效率大幅提升，还实现了关键技术的自主可控，习近平总书记十分高兴。', '总书记叮嘱当地负责同志：“要把握机遇、再立新功，一心一意做好这件事。党中央会关注和支持你们。”', '在听取江苏省委和省政府工作汇报时，习近平总书记进一步强调，要把坚守实体经济、构建现代化产业体系作为强省之要，在强链补链延链上展现新作为。', '近年来，南京致力于打造智能电网国家先进制造业集群，已经拥有该类企业达1200家，产业规模占全国市场80%。', '在南瑞集团有限公司自动化设备电磁兼容实验室，科研人员在进行辐射发射实验准备工作（2023年7月7日摄）。新华社记者 季春鹏 摄', '企业展厅里，特高压输电技术，电网调度自动化系统，电网安全稳定装置及控制系统，巨型水电站监控系统及装备……企业负责人介绍核心产品、技术，如数家珍。', '这位负责人告诉总书记，世界装机容量第七的金沙江乌东德水电站、世界装机容量第二的白鹤滩水电站、世界规模最大的河北丰宁抽水蓄能电站，都广泛应用了他们的产品。', '总书记勉励企业负责人：“你们企业对国家整个电网系统安全、效率、智能化，发挥了很大作用，要继续办好。”', '“我们说大器晚成，大器是什么？就是那些最好的东西、最高精尖的东西，这些东西都不是一下子可以做成的，都要下很大的功夫，甚至要用毕生精力。希望大家立志高远、脚踏实地，一步一步往前走，以十年磨一剑的韧劲，以‘一辈子办成一件事’的执着，成就有价值的人生。”', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>97</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>习近平在湖南考察时强调坚持改革创新求真务实奋力谱写中国式现代化湖南篇章</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21194901.html</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['习近平在湖南考察时强调 坚持改革创新求真务实 奋力谱写中国式现代化湖南篇章_马鞍山市人民政府', '新华社长沙3月21日电 中共中央总书记、国家主席、中央军委主席习近平近日在湖南考察时强调，湖南要牢牢把握自身在构建新发展格局中的战略定位，坚持稳中求进工作总基调，坚持高质量发展不动摇，坚持改革创新、求真务实，在打造国家重要先进制造业高地、具有核心竞争力的科技创新高地、内陆地区改革开放高地上持续用力，在推动中部地区崛起和长江经济带发展中奋勇争先，奋力谱写中国式现代化湖南篇章。', '3月18日至21日，习近平在湖南省委书记沈晓明和省长毛伟明陪同下，先后来到长沙、常德等地，深入学校、企业、历史文化街区、乡村等进行调研。', '18日下午，习近平来到湖南第一师范学院（城南书院校区）考察。该校前身是创办于宋代的城南书院，近代以来培养了一批老一辈无产阶级革命家和名师大家。习近平参观青年毛泽东主题展览，了解学院发展沿革和用好红色资源等情况。在学院大厅，习近平同师生代表亲切交流。他说，国家要强大，必须办好教育。一师是开展爱国主义教育、传承红色基因的好地方，要把这一红色资源保护运用好。学校要立德树人，教师要当好大先生，不仅要注重提高学生知识文化素养，更要上好思政课，教育引导学生明德知耻，树牢社会主义核心价值观，立报国强国大志向，努力成为堪当强国建设、民族复兴大任的栋梁之材。', '随后，习近平来到巴斯夫杉杉电池材料有限公司考察。这是一家主营锂离子电池正极材料研发、生产和销售的中德合资企业。习近平听取当地加快发展新质生产力、扩大高水平对外开放等情况介绍，察看企业产品展示，了解材料性能测试情况和电池生产流程。他强调，科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，民营企业、合资企业在这方面都可以大有作为。中国开放的大门会越开越大，我们愿意同世界各国加强交流合作，欢迎更多外国企业来华投资发展。', '19日，习近平到常德市考察调研。位于沅江江畔的常德河街历史悠久，曾毁于1943年的常德战役。近年来，常德市复原老河街风貌，将此地打造成为历史文化街区。当天上午，习近平来到常德河街，察看各种特色小吃、特产、特色工艺品，同店主和游客亲切交流，并欣赏非物质文化遗产技艺展示，详细了解常德老城街道修复利用、城市规划、水环境综合治理等情况。习近平指出，多姿多彩的地方特色传统文化，共同构成璀璨的中华文明，也助推经济社会发展。常德是有文化传承的地方，这里的丝弦、高腔、号子等要以适当载体传承好利用好，与时俱进发展好。', '湖南是全国13个粮食主产省之一，水稻播种面积、总产量均居全国第一。当天下午，习近平来到常德市鼎城区谢家铺镇港中坪村，走进当地粮食生产万亩综合示范片区，察看秧苗培育和春耕备耕进展，听取高质量推进农业现代化情况介绍，并同种粮大户、农技人员、基层干部一笔一笔算投入产出账。习近平强调，我国有14亿多人口，粮食安全必须靠我们自己保证，中国人的饭碗应该主要装中国粮。要建设好高标准农田，推行适度规模经营，加强政策支持和示范引领，加大良种、良机、良法推广力度，在精耕细作上下功夫，进一步把粮食单产和品质提上去，让种粮也能够致富，进而吸引更多农户参与发展现代化大农业，真正把中国特色农业现代化之路走稳走扎实。', '习近平随后来到种粮大户戴宏家中，察看农机具和春耕物资准备，并前往村党群服务中心了解当地为基层减负、提升基层治理效能等情况。他指出，要坚决整治形式主义、官僚主义问题，精兵简政，持之以恒抓好这项工作。他勉励基层干部在产业发展和乡村治理上群策群力，不断干出让农民群众认可的实绩。', '离开时，村民们纷纷围拢过来欢送总书记。习近平满怀深情地对大家说，党中央高度重视“三农”工作，一定会采取切实有力的政策举措，回应老百姓的关切和需求，把乡村振兴的美好蓝图变为现实。掌声在村庄久久回荡。', '21日上午，习近平听取了湖南省委和省政府工作汇报，对湖南各项工作取得的成绩给予肯定。', '习近平指出，科技创新是发展新质生产力的核心要素。要在以科技创新引领产业创新方面下更大功夫，主动对接国家战略科技力量，积极引进国内外一流研发机构，提高关键领域自主创新能力。强化企业科技创新主体地位，促进创新链产业链资金链人才链深度融合，推动科技成果加快转化为现实生产力。聚焦优势产业，强化产业基础再造和重大技术装备攻关，继续做大做强先进制造业，推动产业高端化、智能化、绿色化发展，打造国家级产业集群。', '习近平强调，进一步全面深化改革要突出问题导向，着力解决制约构建新发展格局和推动高质量发展的卡点堵点问题、发展环境和民生领域的痛点难点问题、有悖社会公平正义的焦点热点问题，有效防范化解重大风险，不断为经济社会发展增动力、添活力。湖南要加强改革系统集成，更好参与全国统一大市场建设，全面融入中部地区崛起和长江经济带发展战略，深度融入共建“一带一路”，稳步扩大制度型开放，高标准建设好自由贸易试验区，着力打造中非经贸深度合作先行区。', '习近平指出，推进乡村全面振兴是新时代新征程“三农”工作的总抓手。湖南要扛起维护国家粮食安全的重任，抓住种子和耕地两个要害，加快种业、农机关键核心技术攻关。坚持大农业观、大食物观，积极发展特色农业和农产品加工业，提升农业产业化水平。深入推进城乡融合发展，壮大县域经济，畅通城乡要素双向流动，科学统筹乡村基础设施和公共服务布局。切实加强乡村精神文明建设，大力推动移风易俗。健全党组织领导的自治、法治、德治相结合的基层治理体系，坚持和发展新时代“枫桥经验”。落实防止返贫监测帮扶机制，坚决守住不发生规模性返贫的底线。', '习近平强调，湖南要更好担负起新的文化使命，在建设中华民族现代文明中展现新作为。保护好、运用好红色资源，加强革命传统和爱国主义教育，引导广大干部群众发扬优良传统、赓续红色血脉，践行社会主义核心价值观，培育时代新风新貌。探索文化和科技融合的有效机制，加快发展新型文化业态，形成更多新的文化产业增长点。推进文化和旅游深度融合，守护好三湘大地的青山绿水、蓝天净土，把自然风光和人文风情转化为旅游业的持久魅力。', '习近平指出，推动高质量发展、推进中国式现代化，必须加强和改进党的建设。要巩固拓展主题教育成果，建立健全长效机制，树立和践行正确政绩观，持续深化整治形式主义为基层减负。组织开展好党纪学习教育，引导党员干部学纪、知纪、明纪、守纪，督促领导干部树立正确权力观，公正用权、依法用权、为民用权、廉洁用权。', '3月20日上午，习近平在长沙亲切接见驻长沙部队上校以上领导干部，代表党中央和中央军委向驻长沙部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。', '正在阅读：习近平在湖南考察时强调 坚持改革创新求真务实 奋力谱写中国式现代化湖南篇章', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>97</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>习近平在重庆考察时强调进一步全面深化改革开放不断谱写中国式现代化重庆篇章</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21207651.html</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['习近平在重庆考察时强调 进一步全面深化改革开放 不断谱写中国式现代化重庆篇章_马鞍山市人民政府', '新华社重庆4月24日电 中共中央总书记、国家主席、中央军委主席习近平近日在重庆考察时强调，重庆要对标新时代新征程党的中心任务和党中央赋予的使命，充分发挥比较优势、后发优势，进一步全面深化改革开放，主动服务和融入新发展格局，着力推动高质量发展，奋力打造新时代西部大开发重要战略支点、内陆开放综合枢纽，在发挥“三个作用”上展现更大作为，不断谱写中国式现代化重庆篇章。', '4月22日至24日，习近平在中共中央政治局委员、重庆市委书记袁家军和市长胡衡华陪同下，深入物流园区、城市社区、数字化城市运行和治理中心等进行考察调研。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在重庆国际物流枢纽园区西部陆海新通道重庆无水港运营调度中心考察。新华社记者 岳月伟 摄', '22日下午，习近平首先考察了重庆国际物流枢纽园区。他来到西部陆海新通道重庆无水港运营调度中心，听取新通道建设情况汇报。习近平强调，物流是实体经济的“筋络”。建设西部陆海新通道，对于推动形成“陆海内外联动、东西双向互济”的对外开放格局具有重要意义。各有关方面要齐心协力，把这一标志性项目建设好、运营好，带动西部和内陆地区高水平对外开放。物流园区要积极运用先进技术，不断创新联运模式，提高科学管理水平，在建设现代物流体系中发挥更大作用。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在重庆国际物流枢纽园区重庆铁路集装箱中心站，同货车司机、列车司机、装卸工人、场站管理人员等亲切交流。新华社记者 王晔 摄', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在重庆国际物流枢纽园区重庆铁路集装箱中心站，同货车司机、列车司机、装卸工人、场站管理人员等亲切交流。新华社记者 岳月伟 摄', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在重庆国际物流枢纽园区重庆铁路集装箱中心站考察。新华社记者 岳月伟 摄', '随后，习近平来到重庆铁路集装箱中心站，听取货物集散、运输路径、运营成本和效益等介绍，同货车司机、列车司机、装卸工人、场站管理人员等亲切交流，询问他们的工作强度、劳动保护、节假日休息和收入情况。习近平说，大家在物流一线，也是在对外开放一线，通过你们的辛勤劳动，很多商品跨越山海、走向世界，你们的工作很有意义。推动西部大开放、促进西部大开发，物流很重要，大家要继续努力，不断创造新的业绩，作出新的贡献。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平参观重庆科技创新和产业发展成果展示。新华社记者 王晔 摄', '习近平还听取了重庆推动成渝地区双城经济圈建设情况汇报，参观了重庆科技创新和产业发展成果展示。习近平表示，建设成渝地区双城经济圈是党中央作出的重大战略决策。重庆、四川两地要紧密合作，不断提升发展能级，共同唱好新时代西部“双城记”。支柱产业是发展新质生产力的主阵地。重庆的制造业有自身的结构特点、有相应的优势，希望重庆牢牢抓住科技创新这个“牛鼻子”，扬优势、补短板，抓当前、谋未来，坚定不移、久久为功，奋力推动制造业高质量发展。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在九龙坡区谢家湾街道民主村社区考察。新华社记者 谢环驰 摄', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在九龙坡区谢家湾街道民主村社区考察时，同正在社区食堂就餐的群众亲切交流。新华社记者 谢环驰 摄', '九龙坡区谢家湾街道民主村社区是一个老小区，2022年初启动更新改造项目并纳入全国有关试点。习近平来到这里，察看小区改造和便民服务情况，听取提升基层治理效能、为基层减负情况介绍。他还走进社区食堂，同正在就餐的群众亲切交流，鼓励社区食堂实现可持续发展。习近平指出，老旧小区改造是城市更新的一个重点，也是一项民生工程，既要保留历史记忆和特色风貌，又要解决居民关切的实际问题。要总结推广这方面的成功经验，更好惠及广大社区居民。城市治理的很多工作要靠基层党组织这个战斗堡垒和社区这个平台去落实，要厘清城市社区职责事项，继续推动资源下沉、完善服务设施，强化网格化管理、信息化支撑，提高社区精细化治理、精准化服务水平。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在九龙坡区谢家湾街道民主村社区考察时，同社区居民亲切交流。新华社记者 鞠鹏 摄', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是22日下午，习近平在九龙坡区谢家湾街道民主村社区考察时，同社区居民亲切交流。新华社记者 王晔 摄', '离开时，社区居民纷纷围拢过来欢送总书记。习近平对大家说，中国式现代化，民生为大。党和政府的一切工作，都是为了老百姓过上更加幸福的生活。希望各级党委和政府都能为解决民生问题投入更多的财力物力，每年办一些民生实事，不断增强人民群众的获得感幸福感安全感。', '4月22日至24日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察。这是23日上午，习近平在重庆市数字化城市运行和治理中心考察。新华社记者 谢环驰 摄', '23日上午，习近平考察了重庆市数字化城市运行和治理中心，听取当地加快城市数字化转型、探索超大城市治理新路等情况汇报，观看系统应用演示。习近平指出，治理体系和治理能力现代化是中国式现代化的应有之义。强化数字赋能、推进城市治理现代化，要科学规划建设大数据平台和网络系统，强化联合指挥和各方协同，切实提高执行力。城市治理涉及方方面面，首要的是以“时时放心不下”的责任感，做好预案、精准管控、快速反应，有效处置各类事态，确保城市安全有序运行。希望你们不断探索，积累新的经验。', '24日上午，习近平听取了重庆市委和市政府工作汇报，对重庆各项工作取得的成绩给予肯定。', '习近平指出，重庆制造业基础较好，科教人才资源丰富，要着力构建以先进制造业为骨干的现代化产业体系。深入实施制造业重大技术改造升级和大规模设备更新工程，加快传统产业转型升级，积极培育具有国际先进水平和竞争力的战略性新兴产业。加强重大科技攻关，强化科技创新和产业创新深度融合，积极培育新业态新模式新动能，因地制宜发展新质生产力。积极推进成渝地区双城经济圈建设，更好发挥全国高质量发展的重要增长极和新的动力源作用。大力推动绿色发展，建设美丽重庆，筑牢长江上游重要生态屏障。', '习近平强调，重庆要以敢为人先的勇气，全面深化改革，扩大高水平对外开放。坚持和落实“两个毫不动摇”，一手抓深化国企改革、培育一批核心竞争力强的国有企业，一手抓促进民营经济发展壮大、激发各类经营主体活力。积极融入全国统一大市场建设，主动融入和服务国家重大战略，在推动共建“一带一路”、长江经济带、西部陆海新通道联动发展中发挥更大作用。主动对接高标准国际经贸规则，营造市场化法治化国际化一流营商环境。', '习近平指出，重庆是我国辖区面积和人口规模最大的城市，要深入践行人民城市理念，积极探索超大城市现代化治理新路子。加快智慧城市建设步伐，构建城市运行和治理智能中枢，建立健全“大综合一体化”城市综合治理体制机制，让城市治理更智能、更高效、更精准。扎实推进党建引领基层治理，坚持和发展新时代“枫桥经验”，深化城乡精神文明建设，推进移风易俗，提高全社会文明程度。全面推进韧性城市建设，有效提升防灾减灾救灾能力。', '习近平强调，重庆集大城市、大农村、大山区、大库区于一体，要大力推进城乡融合发展。积极推进以县（区）城为重要载体的新型城镇化建设，有序引导、依法规范城市工商资本和科技、人才下乡，助力乡村全面振兴。抓牢抓实粮食生产，依山就势发展生态特色农业。学好用好“千万工程”经验，因地制宜开展乡村建设，聚焦现阶段农民群众需求强烈、能抓得住、抓几年就能见到成效的重点实事，抓一件成一件，让农民群众可感可及、得到实惠。巩固拓展脱贫攻坚成果，确保不发生规模性返贫。', '习近平指出，要毫不放松坚持党的领导、加强党的建设。巩固拓展主题教育成果，建立健全长效机制，推动党员、干部特别是领导干部增强政治能力、提高工作水平，真抓实干、积极进取、担当作为。持续深化整治形式主义为基层减负，为基层干部干事创业创造良好条件。扎实开展党纪学习教育，引导党员、干部真正把纪律规矩转化为政治自觉、思想自觉、行动自觉。一以贯之反对和惩治腐败，不断铲除腐败滋生的土壤和条件，营造风清气正的政治生态。', '正在阅读：习近平在重庆考察时强调 进一步全面深化改革开放 不断谱写中国式现代化重庆篇章', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>97</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>践行嘱托奋力打造长三角白菜心我市贯彻落实习近平总书记考察安徽重要讲话指示精神纪实</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2022-08-19</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/xxgk/openness/detail/content/634122b5886688a3578b4582.html</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['2020年8月19日，习近平总书记亲临马鞍山考察，赋予我们打造安徽的“杭嘉湖”、长三角的“白菜心”新发展定位。', '思想的激荡，带来的是思路的廓清。如同一粒种子拥抱沃土，一座灯塔照亮前路，一个深邃思想落地生根，一段奋进征程矢志不渝，习近平总书记重要讲话指示精神已融入马鞍山发展的血液，化为具体的发展思路、工作措施和制度机制，吹响了一江两岸高质量发展的进军号。', '市委、市政府高度重视，成立了“贯彻落实习近平总书记考察安徽重要讲话指示精神打造长三角‘白菜心’领导小组”及27个重点工作专班，统筹推进具体工作。全市锚定新发展定位，按照《中共马鞍山市委、马鞍山市人民政府关于深入学习贯彻习近平总书记考察安徽重要讲话指示精神、努力对标对表打造长三角“白菜心”的意见》，制定实施年度工作计划，全力打造长三角“白菜心”。', '“打造长三角‘白菜心’，必须聚焦重点任务，以创建经济社会发展全面绿色转型示范区为抓手，深入实施生态环保、产业转型、一体化发展、城乡融合、社会治理‘五大提升行动’。”马鞍山市第十次党代会清晰描绘出“白菜心”画像：生态优、产业强、活力足、城乡美、百姓富。', '2022年8月3日，凹山湖旁的“三棵树”示范种植基地已经完成滴灌设施安装，进入养护阶段。该基地是我市推进向山地区生态修复，通过招商引资在向山地区实施的试点项目。项目采取“矿山治理+特种经济林一二三产融合”的模式，围绕凹山湖附近区域，种植元宝枫、山桐子、杜仲三种树木共3400棵。', '“向山地区生态修复与绿色转型发展统筹实施十大工程，总投资101.2亿元。预计今年底，44个项目将全面开工，‘三棵树’项目就是其中之一。”雨山区向山专班办公室主任张杨说，下一步将加快项目推进，加大融资力度，推进“生态修复+”项目理念，让废弃矿山治理修复工程变产品、变资源，实现生态反哺。', '“湿地公园品秋光，鲜花簇拥树飘香。当年粉灰新妆换，翠绿百媚蓝天扬……”薛家洼附近是原十七冶水泥厂旧址，在该厂退休的徐嘉琳重游薛家洼，看到如今天蓝似洗、江水如澄，不由得作诗一首，歌颂长江东岸环境问题综合整治这一“大手笔”。', '时针拨回2020年8月19日，习近平总书记亲临马鞍山考察。薛家洼生态园地处长江岸边，长期以来乱搭乱建、污水横流，经过整治，如今已成为百姓亲江亲水亲绿的美丽岸线。习近平总书记详细了解马鞍山市长江岸线综合整治和生态环境保护修复、长江十年禁渔等工作落实情况，并走到江边察看长江水势和岸线生态环境。习近平总书记强调，生态环境保护和经济发展不是矛盾对立的关系，而是辩证统一的关系。把生态保护好，把生态优势发挥出来，才能实现高质量发展。 (下转第三版)']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>97</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>求是杂志发表习近平总书记重要文章在河北省阜平县考察扶贫开发工作时的讲话</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2021-02-19</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20603101.html</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['《求是》杂志发表习近平总书记重要文章《在河北省阜平县考察扶贫开发工作时的讲话》_马鞍山市人民政府', '新华社北京2月15日电 2月16日出版的第4期《求是》杂志将发表中共中央总书记、国家主席、中央军委主席习近平的重要文章《在河北省阜平县考察扶贫开发工作时的讲话》。', '文章强调，消除贫困、改善民生、实现共同富裕，是社会主义的本质要求。全面建成小康社会，最艰巨最繁重的任务在农村、特别是在贫困地区。没有农村的小康，特别是没有贫困地区的小康，就没有全面建成小康社会。对各类困难群众，我们要格外关注、格外关爱、格外关心，千方百计帮助他们排忧解难。', '文章指出，帮助困难群众特别是革命老区、贫困山区困难群众早日脱贫致富，到2020年稳定实现扶贫对象不愁吃、不愁穿，保障其义务教育、基本医疗、住房，是中央确定的目标。要坚定信心，找对路子。只要有信心，黄土变成金。要坚持因地制宜、科学规划、分类指导、因势利导，从实际出发，真正使老百姓得到实惠。', '文章指出，农村要发展，农民要致富，关键靠支部。要增强村党组织联系群众、服务群众、凝聚群众、造福群众的功能，真正发挥战斗堡垒作用，成为带领乡亲们脱贫致富奔小康的主心骨、领路人。要原原本本把政策落实好，真真实实把情况摸清楚，扎扎实实把支部建设好，切切实实把团结搞扎实，真正把乡亲们的事情办好。', '文章强调，我们讲宗旨，讲了很多话，但说到底还是为人民服务这句话。我们党就是为人民服务的。中央的考虑，是要为人民做事。各级干部要经常问问自己，我们是不是在忙着与党的根本宗旨毫不相关的事情？有没有一心一意在为老百姓做事情？是不是在围绕党和国家中心任务而工作？多想想我们干的事情是不是党和人民需要我们干的？要一心一意为老百姓做事，心里装着困难群众，多做雪中送炭的工作，常去贫困地区走一走，常到贫困户家里坐一坐，常同困难群众聊一聊，多了解困难群众的期盼，多解决困难群众的问题，满怀热情为困难群众办事。', '正在阅读：《求是》杂志发表习近平总书记重要文章《在河北省阜平县考察扶贫开发工作时的讲话》', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>97</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>习近平在陕西榆林考察时强调解放思想改革创新再接再厉谱写陕西高质量发展新篇章</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2021-09-15</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>http://www.gov.cn/xinwen/2021-09/15/content_5637426.htm</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['习近平在陕西榆林考察时强调：解放思想改革创新再接再厉 谱写陕西高质量发展新篇章_滚动新闻_中国政府网', '新华社榆林9月15日电 中共中央总书记、国家主席、中央军委主席习近平近日在陕西省榆林市考察时强调，要坚决落实党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，弘扬光荣革命传统，解放思想、改革创新、再接再厉，切实抓好统筹疫情防控和经济社会发展各项工作，更好统筹发展和安全，更好服务和融入新发展格局，谱写陕西高质量发展新篇章。', '9月13日至14日，习近平在陕西省委书记刘国中、省长赵一德陪同下，深入企业、农村、学校、革命旧址等进行调研。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日上午，习近平在国家能源集团榆林化工有限公司中心控制室考察。新华社记者 李学仁 摄', '13日上午，习近平首先来到国家能源集团榆林化工有限公司，了解循环经济煤炭综合利用项目规划建设运行情况。在中心控制室，习近平观看项目产品展示，对企业坚持创新发展，坚持安全、稳定、清洁运行的做法表示肯定。随后，习近平到年产40万吨乙二醇项目现场察看，询问煤化工深度发展有关情况，同企业职工代表亲切交流。他强调，榆林是国家重要能源基地，为国家经济社会发展作出了重要贡献。煤炭作为我国主体能源，要按照绿色低碳的发展方向，对标实现碳达峰、碳中和目标任务，立足国情、控制总量、兜住底线，有序减量替代，推进煤炭消费转型升级。煤化工产业潜力巨大、大有前途，要提高煤炭作为化工原料的综合利用效能，促进煤化工产业高端化、多元化、低碳化发展，把加强科技创新作为最紧迫任务，加快关键核心技术攻关，积极发展煤基特种燃料、煤基生物可降解材料等。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日上午，习近平在国家能源集团榆林化工有限公司考察时，同企业职工代表亲切交流。新华社记者 燕雁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日上午，习近平在国家能源集团榆林化工有限公司年产40万吨乙二醇项目现场考察。新华社记者 李学仁 摄', '13日下午，习近平前往米脂县银州街道高西沟村考察调研。山谷间果园、林地、梯田、淤地坝错落有致，初秋的黄土高原一片绿意盎然。途中，习近平临时下车走进田间，察看谷子、糜子、玉米长势，同正在田间劳作的老乡拉家常，询问他们生产经营、家庭收入、医疗保障、子女上学就业等情况。在高西沟村龙头山山顶，习近平听取了陕西省生态文明建设和高西沟村探索黄土丘陵沟壑区综合治理情况介绍。习近平指出，高西沟村是黄土高原生态治理的一个样板，你们坚持不懈开展生态文明建设、与时俱进发展农村事业，路子走的是对的。要深入贯彻绿水青山就是金山银山的理念，把生态治理和发展特色产业有机结合起来，走出一条生态和经济协调发展、人与自然和谐共生之路。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日下午，习近平在米脂县银州街道高西沟村临时下车，察看粮食作物长势，同正在田间劳作的老乡拉家常。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日下午，习近平在米脂县银州街道高西沟村龙头山山顶，考察黄土丘陵沟壑区综合治理情况。新华社记者 谢环驰 摄', '离开高西沟村，习近平来到位于米脂县城东南的杨家沟革命旧址。1947年底，毛泽东同志率领中央机关来到杨家沟村，在这里战斗生活了4个多月，指挥了全国解放战争和西北战场，领导开展土地改革运动。习近平参观中共中央“十二月会议”旧址、毛泽东旧居、周恩来旧居等，追忆革命历史，缅怀革命先辈丰功伟绩。习近平强调，政策和策略是党的生命。一百年来，我们党之所以能够统一思想、统一步调、团结一致向前进，之所以能够取得革命、建设、改革的伟大胜利和辉煌成就，就在于我们党坚持马克思主义指导，高瞻远瞩、见微知著，既解决现实问题，又解决战略问题，准确判断和把握形势，制定切合实际的目标任务、政策策略。要始终坚持和完善党的领导，不断提高党科学执政、民主执政、依法执政水平，充分发挥党总揽全局、协调各方的领导核心作用。要坚持马克思主义基本原理，用马克思主义观察时代、把握时代、引领时代，同时坚持实事求是，从我国实际出发，不断推进马克思主义中国化、时代化。习近平指出，要充分运用红色资源，深化党史学习教育，赓续红色血脉。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日下午，习近平在米脂县杨家沟革命旧址考察。新华社记者 谢环驰 摄', '14日上午，习近平前往中共绥德地委旧址，仔细察看旧址布局和部分复原场景，参观有关专题展陈。习近平指出，回顾这段厚重的革命历史，老一辈革命家坚持“党的利益在第一位”，坚持“站在最大多数劳动人民的一面”，坚持“把屁股端端地坐在老百姓的这一面”，有着重大教育意义。中国共产党领导人民取得革命胜利，是赢得了民心，是亿万人民群众坚定选择站在我们这一边。我们要继承发扬革命传统和优良作风，始终把人民利益放在最高位置，不忘初心、牢记使命，贯彻党的群众路线，尊重人民主体地位，始终同人民站在一起、想在一起、干在一起。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在中共绥德地委旧址考察。新华社记者 李学仁 摄', '随后，习近平来到绥德实验中学，先后走进教室、操场，观看同学们书法练习和体育锻炼，同大家亲切交流。他指出，中华文明源远流长、绵延不断，基础在教育。实现中华民族伟大复兴，基础在教育。我们办教育，就是要提高人民综合素质，促进人的全面发展，提升社会文明程度，坚定文化自信，增强全民族创造活力。要全面贯彻党的教育方针，落实立德树人根本任务，厚植爱党、爱国、爱人民、爱社会主义的情感，努力培养德智体美劳全面发展的社会主义建设者和接班人。要深化教育教学改革，强化学校教育主阵地作用，全面提高学校教学质量，真正把过重的学业负担和校外培训负担减下来，办好人民满意的教育。最后，习近平勉励同学们珍惜大好年华，修身立德、勤学上进、强健体魄、锤炼意志，做对国家、对人民、对社会有用的人。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在绥德实验中学考察时，同正在练习书法的学生亲切交流。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在绥德实验中学考察时，同师生亲切交流。新华社记者 谢环驰 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平同绥德实验中学的学生在一起。新华社记者 李学仁 摄', '陕西历史悠久，文化遗产丰厚。习近平来到绥德县非物质文化遗产陈列馆，观摩石雕、绥德平安书、剪纸、民歌、泥塑等展示，对当地传统文化保护和传承工作表示肯定。陈列馆外，正在进行陕北秧歌表演。习近平向现场群众问好。他指出，绥德是黄土文化的重要发源地之一，非物质文化遗产资源丰富，孕育发展了优秀民间艺术，展现了陕北人民的热情、质朴、豪迈。民间艺术是中华民族的宝贵财富，保护好、传承好、利用好老祖宗留下来的这些宝贝，对延续历史文脉、建设社会主义文化强国具有重要意义。要坚持以社会主义核心价值观为引领，坚持创造性转化、创新性发展，找到传统文化和现代生活的连接点，不断满足人民日益增长的美好生活需要。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在绥德县非物质文化遗产陈列馆，同群众亲切交流。新华社记者 谢环驰 摄', '位于绥德县城西南的张家砭镇郝家桥村，是绥德地委在抗战时期经过调查研究发现的一个模范村，通过开展“村村学习郝家桥，人人学习刘玉厚”活动，掀起了大生产热潮。党的十八大以来，郝家桥村积极发展特色产业，村容村貌和村民生活发生了深刻变化，荣获“全国脱贫攻坚楷模”荣誉称号。14日下午，习近平来到这里，详细观看村史展览，了解这个“红色山村”的光荣革命历史以及革命传统传承情况。随后，习近平来到村民侯志荣家中看望。侯志荣一家曾经因病致贫，靠着各级帮扶和自身努力2016年摆脱贫困。习近平强调，看到你们一家人日子越过越好、人丁兴旺，我感到很欣慰。让乡亲们过好光景，是我们党始终不渝的初心使命，共产党就要把这件事情干好，不断交上好答卷。全党全国全社会都要大力弘扬脱贫攻坚精神，奋发图强、自力更生，不断夺取全面建设社会主义现代化国家新的更大胜利。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村，看望村民侯志荣一家。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村考察。新华社记者 谢环驰 摄', '在村果蔬大棚基地，习近平仔细了解该村产业规划发展情况，走进大棚察看葡萄长势。在村互助幸福院、村卫生站，习近平同村里的老人、医护人员等亲切交流。他指出，来到郝家桥，我深受教育和启发。山沟沟能走出致富路、过上好日子，靠的是政策好、人努力、天帮忙。这里能做到的，其他地方也应该能做到。重要的是深入调查研究，摸准情况、吃透问题、找到办法、总结经验，持续发挥典型引领示范作用，建好党支部、选好带头人，把基层党组织战斗堡垒作用充分发挥出来。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村互助幸福院，同村里的老人亲切交流。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村卫生站同村里的老人、医护人员亲切交流。新华社记者 李学仁 摄', '离开村子时，习近平深情对乡亲们说，无论是革命战争年代的大生产运动，还是新时代的脱贫攻坚战，郝家桥人始终勤劳奋进、开拓创新。希望你们继续发扬优良传统，感党恩、听党话、跟党走，敢为人先、奋力拼搏，努力把郝家桥村建设成为乡村振兴的楷模。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村，同乡亲们亲切交流。新华社记者 谢环驰 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村考察时，向乡亲们挥手致意。新华社记者 谢环驰 摄', '中共中央总书记、国家主席、中央军委主席习近平近日在陕西省榆林市考察时强调，要坚决落实党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，弘扬光荣革命传统，解放思想、改革创新、再接再厉，切实抓好统筹疫情防控和经济社会发展各项工作，更好统筹发展和安全，更好服务和融入新发展格局，谱写陕西高质量发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>97</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/21040491.html</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会_马鞍山市人民政府', '原标题：习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会时强调', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。新华社记者 燕雁 摄', '新华社河北雄安新区5月10日电 中共中央总书记、国家主席、中央军委主席习近平10日在河北省雄安新区考察，主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。他强调，雄安新区已进入大规模建设与承接北京非首都功能疏解并重阶段，工作重心已转向高质量建设、高水平管理、高质量疏解发展并举。要坚定信心，保持定力，稳扎稳打，善作善成，推动各项工作不断取得新进展。', '中共中央政治局常委、国务院总理李强，中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察并出席座谈会。', '5月10日，习近平在河北省委书记倪岳峰、省长王正谱陪同下，深入雄安新区的高铁站、社区、建设工地等，就高标准高质量推进雄安新区建设进行调研。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站候车大厅同旅客亲切交流。新华社记者 申宏 摄', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站考察。新华社记者 李学仁 摄', '当天上午，习近平乘高铁前往雄安新区，抵达后首先考察了雄安站的建设运行情况。雄安站是雄安新区开工建设的第一个重大基础设施项目，具有标志性意义。习近平先后察看站台、候车大厅、站外广场，了解雄安站建设运营和所在的昝岗片区规划建设情况。习近平指出，雄安站是雄安新区的交汇车站，要进一步完善联通雄安站和雄安新区的交通“微细血管”，提升人流物流聚集和疏散的效率。要把昝岗片区建设成为高端高新产业集聚区，让各方来客一到雄安，就能感受到雄安新区扑面而来的现代化新气象。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区党群服务中心考察。新华社记者 李学仁 摄', '习近平随后乘车来到容东片区南文营社区。该社区安置了安新、容城两县回迁群众5000多人。习近平先后来到党群服务中心和社区食堂，同社区工作人员、现场办事群众、就餐的社区老人等亲切交流，仔细查看民情台账，对社区开展的便民养老服务等表示肯定。习近平强调，我一直牵挂着回迁群众，看到大家生活好，我很欣慰。建设好雄安新区，重要的是衔接好安居和乐业，让群众住得稳、过得安、有奔头。要同步推进城市治理现代化，从一开始就下好“绣花”功夫，积极推进基本公共服务均等化，构筑新时代宜业宜居的“人民之城”。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区食堂同就餐的社区老人亲切交流。新华社记者 李学仁 摄', '习近平走进回迁居民李敬和家中看望。李敬和告诉总书记，2021年11月迁入新居，房子宽敞明亮，住得十分舒心，日子越过越红火。习近平强调，建设雄安新区是党中央作出的重大战略决策，大家响应国家号召，积极配合，为国家战略实施作出了贡献。他勉励年轻一代在强国建设、民族复兴的进程中，坚定信心，学好本领，造福桑梓，做社会主义事业的建设者和接班人。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区回迁居民李敬和家中看望。新华社记者 李学仁 摄', '临别时，居民们高声欢呼“总书记好”，习近平向大家挥手致意。他深情地对大家说，河北是我工作过的地方，我对这里充满感情，把这里建设好是我的心愿。建设雄安新区是千年大计、国家大事，既不能心浮气躁，也不能等靠要，要踏实努力，久久为功。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区考察时向社区居民挥手致意。新华社记者 殷博古 摄', '雄安城际站枢纽位于雄安新区启动区的核心位置。习近平来到雄安城际站及国贸中心项目建设现场，看沙盘、登平台，远眺建设工地，了解启动区重大基础设施项目及重点疏解项目规划建设进展情况。习近平指出，交通是现代城市的血脉。血脉畅通，城市才能健康发展。要在建设立体化综合交通网络上下功夫，在充分利用地下空间上下功夫，着力打造一个没有“城市病”的未来之城，真正把高标准的城市规划蓝图变为高质量的城市发展现实画卷。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安城际站及国贸中心项目建设现场考察。新华社记者 燕雁 摄', '下午，习近平来到雄安会展中心雄安厅，结合沙盘、视频短片，听取雄安新区整体规划建设进展介绍，了解白洋淀生态环境治理和保护及清淤疏浚、百淀连通等工作进展情况。习近平强调，白洋淀生态环境治理和保护，功在当代、利在千秋，必须统筹谋划，扎实推进。', '随后，习近平在会展中心三层多功能厅主持召开高标准高质量推进雄安新区建设座谈会。国家发展改革委主任郑栅洁、河北省委书记倪岳峰、雄安新区党工委书记张国华先后发言。中国卫星网络集团有限公司、中国建筑集团有限公司主要负责同志提交了书面发言。', '听取大家发言后，习近平发表了重要讲话。他强调，在党中央坚强领导下，在中央有关部门和北京、天津等地大力支持下，河北省积极履行主体责任，雄安新区党工委和管委会认真履行属地责任，扎实推动各项工作，雄安新区建设取得重大阶段性成果，新区建设和发展顶层设计基本完成，基础设施建设取得重大进展，疏解北京非首都功能初见成效，白洋淀生态环境治理成效明显，深化改革开放取得积极进展，产业和创新要素聚集的条件逐步完善，回迁安置工作有序推进。短短6年里，雄安新区从无到有、从蓝图到实景，一座高水平现代化城市正在拔地而起，堪称奇迹。这些成绩是在世界百年未有之大变局、3年新冠疫情的严峻形势下取得的，殊为不易。实践证明，党中央关于建设雄安新区的重大决策是完全正确的，各方面工作是扎实有效的。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。新华社记者 殷博古 摄', '习近平强调，要完整、准确、全面贯彻落实党中央关于建设雄安新区的战略部署，深刻领悟党中央决策的重大现实意义和深远历史意义，牢牢把握党中央关于雄安新区的功能定位、使命任务和原则要求，提高政治站位，保持历史耐心，处理好近期目标和中远期目标、城市建设速度和人口聚集规模、产业转移和产业升级、政府和市场、承接北京非首都功能疏解和城市自身发展、城市建设和周边乡村振兴等重大关系，确保雄安新区建设和发展的正确方向。', '习近平指出，要扎实推动疏解北京非首都功能各项任务落实，接续谋划第二批启动疏解的在京央企总部及二、三级子公司或创新业务板块等，着手谋划金融机构、科研院所、事业单位的疏解转移。要继续完善疏解激励约束政策体系。对有关疏解人员的子女教育、医疗、住房、薪酬、社保、医保、公积金等政策，要按照老人老办法、新人新办法的原则要求，进一步细化实化政策措施，确保疏解单位和人员享受到实实在在的好处。要坚持市场机制和政府引导相结合，项目和政策两手抓，通过市场化、法治化手段，增强非首都功能向外疏解的内生动力。', '习近平强调，要全面落实创新驱动发展战略，推动各领域改革开放前沿政策措施和具有前瞻性的创新试点示范项目在雄安落地，努力建设新功能、形成新形象、发展新产业、聚集新人才、构建新机制，使雄安新区成为新时代的创新高地和创业热土。要打造市场化、法治化、国际化一流营商环境，研究出台一揽子特殊支持政策，广泛吸引、聚集国内外力量和资本参与雄安新区建设和发展，形成人心向往、要素汇聚、合力共建、共同发展的生动局面。要广泛运用先进科学技术，着力加强科技创新能力建设，加大科技成果转化力度，积极发展新业态、新模式，培育新增长点、形成新动能，把智能、绿色、创新打造成为雄安新区的亮丽名片。要贯彻绿水青山就是金山银山的理念，坚持绿色化、低碳化发展，把雄安新区建设成为绿色发展城市典范。', '习近平指出，要优化健全雄安新区领导体制和管理机制，分阶段、分步骤、稳妥有序推动新区向城市管理体制转变。要加强新区各级领导班子和干部队伍建设，提高干部人才队伍整体素质和专业化水平。要完善新区干部考核评价机制，激励广大党员干部敢担当、勇创新、善作为。', '习近平强调，要坚持人民城市人民建、人民城市为人民，解决好雄安新区干部群众关心的切身利益问题，让人民群众从新区建设发展中感受到实实在在的获得感、幸福感。要坚持就业优先，完善就业创业引导政策，加强对新区劳动力的再就业培训。要推进城乡统筹发展，在缩小城乡差距、推动城乡融合发展、促进全体人民共同富裕上闯出一条新路来。', '习近平指出，雄安新区党工委及各级党组织要认真开展主题教育，并以此为契机，加强调查研究，推动思想大解放、能力大提升、作风大转变、工作大落实，进一步提升政治功能和组织功能。要持续纠治“四风”，一体推进不敢腐、不能腐、不想腐，以“廉洁雄安”保障“雄安质量”。', '李强在讲话中表示，高标准高质量推进雄安新区建设，最根本最关键的是要把习近平总书记重要指示和党中央决策部署学习领会好、贯彻落实好。要有“千年大计”的定力，牢牢把握雄安新区的功能定位和使命任务，稳扎稳打、久久为功。要有“只争朝夕”的干劲，把已明确的、必须做的事紧紧抓在手上，不等不拖、紧张快干，加快承接北京非首都功能疏解，扎实推进基础设施建设，着力构建现代化产业体系，充分发挥各方面积极性，推动各项工作不断取得新进展。', '丁薛祥表示，要深入学习贯彻习近平总书记重要讲话精神，把科技创新作为雄安新区高质量建设和发展的根本，着力打造自主创新和原始创新重要策源地，搭建一流创新平台，开展高水平科技创新；着力推动创新链产业链深度融合，围绕产业链部署创新链，加大科技成果转化力度，促进高新技术产业发展；着力建设京津冀协同创新共同体，创新利益分享模式，吸纳和集聚更多创新要素资源参与推动雄安新区高质量发展。', '李干杰、何立峰等陪同考察并出席座谈会，吴政隆、穆虹、姜信治及中央和国家机关有关部门、军队有关单位、河北省、雄安新区、有关企业负责同志参加座谈会。', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>97</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>马鞍山市</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>习近平在北京河北考察并主持召开北京年冬奥会和冬残奥会筹办工作汇报会</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2021-01-22</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>https://www.mas.gov.cn/zxzx/xxzz/dzy/20602961.html</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['习近平在北京河北考察并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会_马鞍山市人民政府', '新华社北京1月20日电 中共中央总书记、国家主席、中央军委主席习近平近日在北京、河北考察，主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会并发表重要讲话。他强调，办好北京冬奥会、冬残奥会是党和国家的一件大事，是我们对国际社会的庄严承诺，做好北京冬奥会、冬残奥会筹办工作使命光荣、意义重大。要坚定信心、奋发有为、精益求精、战胜困难，认真贯彻新发展理念，把绿色办奥、共享办奥、开放办奥、廉洁办奥贯穿筹办工作全过程，全力做好各项筹办工作，努力为世界奉献一届精彩、非凡、卓越的奥运盛会。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日上午，习近平在位于北京市海淀区的首都体育馆，同国家花样滑冰队和短道速滑队运动员、教练员等亲切交流。新华社记者 王晔 摄', '习近平向所有运动员、教练员，向所有参与北京冬奥会、冬残奥会筹办的建设者、管理者和工作人员致以崇高的敬意和衷心的感谢，向大家致以新春的美好祝福。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是19日下午，习近平在位于张家口赛区的国家冬季两项中心，看望慰问国家冬季两项、跳台滑雪队运动员、教练员和张家口赛区运行保障团队、建设者代表。新华社记者 王晔 摄', '隆冬时节，华北大地碧空如洗，山区银装素裹。1月18日至19日，习近平分别在中共中央政治局委员、北京市委书记蔡奇和市长陈吉宁，河北省委书记王东峰陪同下，冒着严寒先后来到海淀、延庆、张家口等地，深入体育场馆、训练基地、交通枢纽等，实地了解北京2022年冬奥会、冬残奥会筹办情况。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日上午，习近平在位于北京市海淀区的首都体育馆考察调研。新华社记者 鞠鹏 摄', '18日上午，习近平首先来到位于北京市海淀区的首都体育馆，听取北京冬奥会、冬残奥会筹办工作整体情况、参赛备战和群众性冰雪运动开展情况介绍，对各项筹办工作取得的进展表示肯定。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日上午，习近平在位于北京市海淀区的首都体育馆考察。新华社记者 姚大伟 摄', '首都体育馆是国内第一座人工室内冰场，经过改扩建已具备冬奥会短道速滑和花样滑冰比赛训练条件。习近平走到训练场边，察看场馆改造情况，同国家花样滑冰队和短道速滑队运动员、教练员代表亲切交流。习近平指出，建设体育强国，是全面建设社会主义现代化国家的一个重要目标。体育强国的基础在于群众体育。要通过举办北京冬奥会、冬残奥会，推动我国冰雪运动跨越式发展，补缺项、强弱项，逐步解决竞技体育强、群众体育弱和“夏强冬弱”、“冰强雪弱”的问题，推动新时代体育事业高质量发展。提高现代竞技体育水平，既要靠气力，也要靠技力。运动员要有为国争光、勇创佳绩的志气，夏练三伏、冬练三九，加强技术创新，学习借鉴国外先进理念和技术，不断提高训练和比赛水平。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日上午，习近平在位于北京市海淀区的首都体育馆，同国家花样滑冰队和短道速滑队运动员、教练员等亲切交流。新华社记者 鞠鹏 摄', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日上午，习近平在位于北京市海淀区的首都体育馆考察时同运动员、教练员等合影留念。新华社记者 鞠鹏 摄', '18日下午，习近平来到位于北京市延庆区的国家高山滑雪中心考察调研。国家高山滑雪中心规划建设了7条雪道，赛时将承办北京冬奥会、冬残奥会高山滑雪项目全部比赛。习近平乘坐缆车到达雪道中间平台，了解国家高山滑雪中心建设情况。习近平强调，要突出绿色办奥理念，把发展体育事业同促进生态文明建设结合起来，让体育设施同自然景观和谐相融，确保人们既能尽享冰雪运动的无穷魅力，又能尽览大自然的生态之美。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日下午，习近平在位于北京市延庆区的国家高山滑雪中心考察调研。新华社记者 岳月伟 摄', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日下午，习近平在位于北京市延庆区的国家高山滑雪中心考察调研。新华社记者 鞠鹏 摄', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日下午，习近平在位于北京市延庆区的国家高山滑雪中心，了解高山雪道建设情况。新华社记者 鞠鹏 摄', '在竞技结束区，习近平观看了中心防护网安装、雪道巡查、运动员救援等赛场保障工作演示和高山滑雪竞技比赛训练情况。习近平指出，安全是重大体育赛事必须坚守的底线。高山滑雪是“勇敢者的运动”，要强化各方面安全保障，抓好管理团队、救护力量和设施维护队伍建设，完善防疫、防火、防事故等风险防范措施，加强应急演练，确保万无一失。希望大家科学训练，注意安全，保重身体，提高水平，发挥在“家门口”参赛优势，争取在高山滑雪项目上实现奖牌零的突破。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日下午，习近平在位于北京市延庆区的国家高山滑雪中心，同赛场保障工作人员、运动员、教练员等亲切交流。新华社记者 鞠鹏 摄', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日下午，习近平在位于北京市延庆区的国家高山滑雪中心，同赛场保障工作人员、运动员、教练员等亲切交流。新华社记者 岳月伟 摄', '随后，习近平前往国家雪车雪橇中心，先后来到赛道出发区、结束区，察看了雪车、雪橇运动员从出发到冲刺的完整训练过程。国家雪车、雪橇队的运动员、中外教练员和延庆赛区运行保障团队、建设者代表，向总书记高声问好。习近平向大家表示慰问，勉励大家刻苦训练，劳逸结合。习近平强调，推动我国冰雪运动跨越式发展是实现第二个百年奋斗目标的重要组成部分，也为广大冰雪运动员创造了难得的人生机遇。当前，我国疫情外防输入、内防反弹压力还很大，要始终绷紧疫情防控这根弦，严格执行各项疫情防控措施，优化全过程闭环管理流程，确保安全。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日下午，习近平在位于北京市延庆区的国家雪车雪橇中心考察调研。新华社记者 鞠鹏 摄', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是18日下午，习近平在位于北京市延庆区的国家雪车雪橇中心，看望慰问国家雪车、雪橇队运动员、教练员和延庆赛区运行保障团队、建设者代表。新华社记者 鞠鹏 摄', '京张高铁太子城站位于张家口赛区核心区内，是世界上首个直通奥运赛场的高铁站，已于一年前正式运营。19日，习近平乘火车沿京张高铁抵达太子城站，走进车站运动员服务大厅，结合沙盘了解京张高铁及太子城站建设精品工程、服务保障北京冬奥会、冬残奥会有关情况。习近平强调，京张高铁承担着联通三大赛区的重任，要抓紧开展运营服务、技术保障、安全保障等测试，及时发现不足、堵塞漏洞，提高精准化、精细化管理和服务水平，为冬奥会期间安全高效运行积累经验、做好充分准备。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是19日下午，习近平在京张高铁太子城站考察调研。新华社记者 岳月伟 摄', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是19日下午，习近平在京张高铁太子城站考察调研。新华社记者 鞠鹏 摄', '离开太子城站，习近平来到国家跳台滑雪中心考察调研。国家跳台滑雪中心是我国第一个以跳台滑雪为主要用途的体育场馆，主体建筑设计灵感来自中国传统饰物“如意”。习近平登上国家跳台滑雪中心顶层回廊，听取张家口赛区整体建设情况介绍，俯瞰张家口赛区古杨树场馆群全貌，随后前往跳台滑雪结束区看台，察看跳台滑雪运动员训练演示情况。习近平指出，北京冬奥会、冬残奥会场馆改造建设融入了很多中国元素，体现了我们的文化自信。我们不仅要办好一届冬奥盛会，而且要办出特色、办出精彩、办出独一无二来。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是19日下午，习近平在张家口赛区国家跳台滑雪中心考察调研。新华社记者 鞠鹏 摄', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是19日下午，习近平在张家口赛区国家跳台滑雪中心，察看跳台滑雪运动员训练演示。新华社记者 鞠鹏 摄', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是19日下午，习近平在张家口赛区国家跳台滑雪中心，察看跳台滑雪运动员训练演示。新华社记者 王晔 摄', '在国家冬季两项中心看台，习近平观看了冬季两项越野滑雪和射击运动员接力训练情况，并看望慰问国家冬季两项、跳台滑雪队运动员、教练员和张家口赛区运行保障团队、建设者代表。习近平亲切地对大家说，我这次来考察北京冬奥会、冬残奥会筹办情况，也是在牛年春节前来看望大家。大家都在为办好一届成功的冬奥盛会而努力，运动员在刻苦训练，建设单位和建设者、保障团队兢兢业业，成功打造了一批世界一流的精品工程，大家的奋斗精神、奉献精神令人感奋。习近平强调，北京冬奥会、冬残奥会所有场馆建设提前一年完成，我国很多冰雪项目在两年多时间里实现从无到有，有的项目达到了世界先进水平，充分体现了党的领导和举国体制、集中力量办大事的制度优势。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是19日下午，习近平在张家口赛区国家冬季两项中心，了解冬季两项运动员训练情况。新华社记者 鞠鹏 摄', '20日上午，习近平在人民大会堂主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。北京市委书记蔡奇、河北省委书记王东峰、体育总局局长苟仲文、中国残联主席张海迪先后发言，汇报了筹办情况，并就下一步工作提出意见建议。', '听取大家发言后，习近平发表了重要讲话。他强调，北京冬奥会、冬残奥会是我国“十四五”初期举办的重大标志性活动。要充分认识举办北京冬奥会、冬残奥会的重大意义，增强做好筹办工作的责任感、使命感、紧迫感。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是20日上午，习近平在北京人民大会堂主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会并发表重要讲话。新华社记者 王晔 摄', '习近平指出，5年来，在冬奥会工作领导小组统筹指挥下，冬奥组委具体组织，各方面通力合作，同国际体育组织密切配合，做好各项筹办工作，取得了令人满意的成绩。同时，必须未雨绸缪、科学研判、做好预案、加强工作。要精益求精做好各项筹办工作，结合新形势，对各项工作重新进行规划调整，切实把筹办工作的重点放在统筹抓好疫情防控和组织好赛事上来。要突出“简约、安全、精彩”的办赛要求，全面防范化解各种风险，精心做好赛事组织、赛会服务、科技应用、文化活动等各项筹办工作，最大限度降低疫情风险。', '1月18日至20日，中共中央总书记、国家主席、中央军委主席习近平在北京、河北考察，并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。这是20日上午，习近平在北京人民大会堂主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会并发表重要讲话。新华社记者 鞠鹏 摄', '习近平指出，冬奥会工作领导小组要加强统筹调度，及时研究解决筹办工作中遇到的重大问题。各成员单位要履行职责，高质量完成各项工作任务。各专项协调小组要主动担责、加强协调，统筹解决好跨地区、跨部门、跨层级的重点难点问题。北京市、河北省要落实主办城市责任，按时优质完成各项任务。北京冬奥组委要更好履行职责，严格执行各项规章制度，严格预算管理，控制办奥成本，勤俭节约、杜绝腐败，让北京冬奥会、冬残奥会像冰雪一样纯洁干净。', '韩正表示，要认真学习领会习近平总书记重要指示精神，坚定信心、保持定力，贯彻落实好“简约、安全、精彩”的办赛要求，向着如期办赛的目标稳步前进。要毫不放松抓好各项筹办工作，扎实有序推进场馆建设、赛时运行、赛会服务保障、冬奥备战等重点任务。要坚决守住安全底线，把疫情防控放在首位，针对各种风险挑战，完善工作方案和预案，采取有效应对措施，确保万无一失。要做好简化办赛工作，从实际出发，精简非必要环节、活动和人员数量，细化完善有关措施。要灵活安排好各项测试活动，对筹办工作进行全面检验和优化完善。要加强协调配合，主动落实责任，形成工作合力，共同完成好各项筹办任务。', '丁薛祥陪同考察并出席汇报会，孙春兰、何立峰出席汇报会，中央和国家机关有关部门负责同志、有关省市负责同志参加有关活动。', '正在阅读：习近平在北京河北考察并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会', '牢记总书记殷殷嘱托扎实做好防汛救灾各项工作 加快打造安徽的“杭嘉湖”长三角的“白菜心”']</t>
         </is>
